--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3158100</v>
+        <v>3641800</v>
       </c>
       <c r="E8" s="3">
-        <v>3054700</v>
+        <v>3204900</v>
       </c>
       <c r="F8" s="3">
-        <v>2967800</v>
+        <v>2502300</v>
       </c>
       <c r="G8" s="3">
-        <v>3271800</v>
+        <v>2420400</v>
       </c>
       <c r="H8" s="3">
-        <v>2862700</v>
+        <v>2351500</v>
       </c>
       <c r="I8" s="3">
+        <v>2592500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2268300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2749700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2648800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3207100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2797100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2733800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2617700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10283900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2485400</v>
+        <v>2872800</v>
       </c>
       <c r="E9" s="3">
-        <v>2396600</v>
+        <v>2522700</v>
       </c>
       <c r="F9" s="3">
-        <v>2314400</v>
+        <v>1969300</v>
       </c>
       <c r="G9" s="3">
-        <v>2525800</v>
+        <v>1899000</v>
       </c>
       <c r="H9" s="3">
-        <v>2226400</v>
+        <v>1834000</v>
       </c>
       <c r="I9" s="3">
+        <v>1996700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1764100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2024400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2051500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2388700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2171000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1981000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2017900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7921900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>672800</v>
+        <v>769000</v>
       </c>
       <c r="E10" s="3">
-        <v>658100</v>
+        <v>682200</v>
       </c>
       <c r="F10" s="3">
-        <v>653400</v>
+        <v>533100</v>
       </c>
       <c r="G10" s="3">
-        <v>746100</v>
+        <v>521400</v>
       </c>
       <c r="H10" s="3">
-        <v>636300</v>
+        <v>517500</v>
       </c>
       <c r="I10" s="3">
+        <v>595800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>504200</v>
+      </c>
+      <c r="K10" s="3">
         <v>725300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>597300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>818400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>626100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>752700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>599900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2362000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>36500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>11000</v>
-      </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>2400</v>
       </c>
       <c r="I14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>13300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>15400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>24600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81300</v>
+        <v>100500</v>
       </c>
       <c r="E15" s="3">
-        <v>78200</v>
+        <v>74400</v>
       </c>
       <c r="F15" s="3">
-        <v>76600</v>
+        <v>64400</v>
       </c>
       <c r="G15" s="3">
-        <v>50200</v>
+        <v>62000</v>
       </c>
       <c r="H15" s="3">
-        <v>70800</v>
+        <v>60100</v>
       </c>
       <c r="I15" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K15" s="3">
         <v>70300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>70300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>52600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>49700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>48700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>47100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>175400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3051600</v>
+        <v>3583700</v>
       </c>
       <c r="E17" s="3">
-        <v>2958700</v>
+        <v>3087400</v>
       </c>
       <c r="F17" s="3">
-        <v>2863700</v>
+        <v>2418000</v>
       </c>
       <c r="G17" s="3">
-        <v>3095800</v>
+        <v>2344300</v>
       </c>
       <c r="H17" s="3">
-        <v>2751300</v>
+        <v>2267700</v>
       </c>
       <c r="I17" s="3">
+        <v>2418200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2552600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2563100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3070900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2745300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2620700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2541300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10071600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>106500</v>
+        <v>58100</v>
       </c>
       <c r="E18" s="3">
-        <v>96000</v>
+        <v>117500</v>
       </c>
       <c r="F18" s="3">
-        <v>104100</v>
+        <v>84400</v>
       </c>
       <c r="G18" s="3">
-        <v>176100</v>
+        <v>76000</v>
       </c>
       <c r="H18" s="3">
-        <v>111400</v>
+        <v>83800</v>
       </c>
       <c r="I18" s="3">
+        <v>174300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K18" s="3">
         <v>197100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>85700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>136100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>51800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>113100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>76400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>212400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34300</v>
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-65200</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>-9300</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>-51600</v>
       </c>
       <c r="H20" s="3">
-        <v>-7000</v>
+        <v>-8500</v>
       </c>
       <c r="I20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-34600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-13100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-49100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>230300</v>
+        <v>162800</v>
       </c>
       <c r="E21" s="3">
-        <v>116500</v>
+        <v>197800</v>
       </c>
       <c r="F21" s="3">
-        <v>180000</v>
+        <v>182400</v>
       </c>
       <c r="G21" s="3">
-        <v>160400</v>
+        <v>93600</v>
       </c>
       <c r="H21" s="3">
-        <v>181900</v>
+        <v>141500</v>
       </c>
       <c r="I21" s="3">
+        <v>242000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K21" s="3">
         <v>229800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>181400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>157700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>95400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>152300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>124500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>433400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68700</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>71800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>54400</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>56700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>23800</v>
-      </c>
       <c r="H22" s="3">
-        <v>54600</v>
+        <v>47400</v>
       </c>
       <c r="I22" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K22" s="3">
         <v>20100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>78900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>18200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>29700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>35100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>43200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>174900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72200</v>
+        <v>-20700</v>
       </c>
       <c r="E23" s="3">
-        <v>30800</v>
+        <v>25500</v>
       </c>
       <c r="F23" s="3">
-        <v>38100</v>
+        <v>57200</v>
       </c>
       <c r="G23" s="3">
-        <v>162100</v>
+        <v>24400</v>
       </c>
       <c r="H23" s="3">
-        <v>49700</v>
+        <v>27900</v>
       </c>
       <c r="I23" s="3">
+        <v>126700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K23" s="3">
         <v>132200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>83300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>64900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>31300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29700</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>14200</v>
+        <v>9100</v>
       </c>
       <c r="F24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>37600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
-        <v>38800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>37600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>23600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42500</v>
+        <v>-19100</v>
       </c>
       <c r="E26" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="F26" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="G26" s="3">
-        <v>123300</v>
+        <v>13100</v>
       </c>
       <c r="H26" s="3">
-        <v>35300</v>
+        <v>25200</v>
       </c>
       <c r="I26" s="3">
+        <v>97100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K26" s="3">
         <v>94600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>53300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>18900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-17600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42500</v>
+        <v>-22900</v>
       </c>
       <c r="E27" s="3">
-        <v>24100</v>
+        <v>13900</v>
       </c>
       <c r="F27" s="3">
+        <v>33700</v>
+      </c>
+      <c r="G27" s="3">
         <v>19100</v>
       </c>
-      <c r="G27" s="3">
-        <v>152300</v>
-      </c>
       <c r="H27" s="3">
-        <v>28700</v>
+        <v>13300</v>
       </c>
       <c r="I27" s="3">
+        <v>115600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K27" s="3">
         <v>73100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>45600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>129700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3700</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>76600</v>
+        <v>-3100</v>
       </c>
       <c r="F29" s="3">
-        <v>12400</v>
+        <v>-3000</v>
       </c>
       <c r="G29" s="3">
-        <v>-55300</v>
+        <v>60700</v>
       </c>
       <c r="H29" s="3">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="I29" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>700</v>
+      </c>
+      <c r="K29" s="3">
         <v>36700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>40400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>45600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>23300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-11500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>32700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-249300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34300</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
-        <v>65200</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>9300</v>
+        <v>-27200</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>51600</v>
       </c>
       <c r="H32" s="3">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="I32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K32" s="3">
         <v>44800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>34600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>13100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>49100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38800</v>
+        <v>-24100</v>
       </c>
       <c r="E33" s="3">
-        <v>100600</v>
+        <v>10700</v>
       </c>
       <c r="F33" s="3">
-        <v>31500</v>
+        <v>30700</v>
       </c>
       <c r="G33" s="3">
-        <v>96900</v>
+        <v>79700</v>
       </c>
       <c r="H33" s="3">
-        <v>29700</v>
+        <v>23300</v>
       </c>
       <c r="I33" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K33" s="3">
         <v>109800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>72800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>34100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>29800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-119600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38800</v>
+        <v>-24100</v>
       </c>
       <c r="E35" s="3">
-        <v>100600</v>
+        <v>10700</v>
       </c>
       <c r="F35" s="3">
-        <v>31500</v>
+        <v>30700</v>
       </c>
       <c r="G35" s="3">
-        <v>96900</v>
+        <v>79700</v>
       </c>
       <c r="H35" s="3">
-        <v>29700</v>
+        <v>23300</v>
       </c>
       <c r="I35" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K35" s="3">
         <v>109800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>72800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>34100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>29800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-119600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2955400</v>
+        <v>1138300</v>
       </c>
       <c r="E41" s="3">
-        <v>1098700</v>
+        <v>1471700</v>
       </c>
       <c r="F41" s="3">
-        <v>550900</v>
+        <v>2341700</v>
       </c>
       <c r="G41" s="3">
-        <v>1020200</v>
+        <v>870600</v>
       </c>
       <c r="H41" s="3">
-        <v>613000</v>
+        <v>436500</v>
       </c>
       <c r="I41" s="3">
+        <v>808400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>485700</v>
+      </c>
+      <c r="K41" s="3">
         <v>713200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>397200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>972200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>324600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>606600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>417500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1268200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>380900</v>
+        <v>515900</v>
       </c>
       <c r="E43" s="3">
-        <v>298900</v>
+        <v>506100</v>
       </c>
       <c r="F43" s="3">
-        <v>401700</v>
+        <v>301800</v>
       </c>
       <c r="G43" s="3">
-        <v>318800</v>
+        <v>236800</v>
       </c>
       <c r="H43" s="3">
-        <v>365000</v>
+        <v>318300</v>
       </c>
       <c r="I43" s="3">
+        <v>252600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>289200</v>
+      </c>
+      <c r="K43" s="3">
         <v>253400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>409600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>379700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>394600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>268400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>368600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>333200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1411900</v>
+        <v>1795000</v>
       </c>
       <c r="E44" s="3">
-        <v>1329200</v>
+        <v>1595900</v>
       </c>
       <c r="F44" s="3">
-        <v>1338500</v>
+        <v>1118700</v>
       </c>
       <c r="G44" s="3">
-        <v>1379900</v>
+        <v>1053200</v>
       </c>
       <c r="H44" s="3">
-        <v>1293700</v>
+        <v>1060600</v>
       </c>
       <c r="I44" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1199400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1111100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1236300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1188100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1135000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1135700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1151300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131900</v>
+        <v>370100</v>
       </c>
       <c r="E45" s="3">
-        <v>75900</v>
+        <v>106900</v>
       </c>
       <c r="F45" s="3">
-        <v>6330300</v>
+        <v>104500</v>
       </c>
       <c r="G45" s="3">
-        <v>6654600</v>
+        <v>60100</v>
       </c>
       <c r="H45" s="3">
-        <v>5172000</v>
+        <v>5015800</v>
       </c>
       <c r="I45" s="3">
+        <v>5404000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4098000</v>
+      </c>
+      <c r="K45" s="3">
         <v>5128800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5230400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5876500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5097100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4904000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5016900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5099300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4880100</v>
+        <v>3819200</v>
       </c>
       <c r="E46" s="3">
-        <v>2802700</v>
+        <v>3680600</v>
       </c>
       <c r="F46" s="3">
-        <v>8621300</v>
+        <v>3866800</v>
       </c>
       <c r="G46" s="3">
-        <v>9373500</v>
+        <v>2220700</v>
       </c>
       <c r="H46" s="3">
-        <v>7443700</v>
+        <v>6831100</v>
       </c>
       <c r="I46" s="3">
+        <v>7558300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5898000</v>
+      </c>
+      <c r="K46" s="3">
         <v>7294700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7148300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8464600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7004300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6914100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6938800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7852000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>781100</v>
+        <v>777900</v>
       </c>
       <c r="E47" s="3">
-        <v>792100</v>
+        <v>693500</v>
       </c>
       <c r="F47" s="3">
-        <v>775300</v>
+        <v>618900</v>
       </c>
       <c r="G47" s="3">
-        <v>727200</v>
+        <v>627600</v>
       </c>
       <c r="H47" s="3">
-        <v>844400</v>
+        <v>614300</v>
       </c>
       <c r="I47" s="3">
+        <v>576200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>669100</v>
+      </c>
+      <c r="K47" s="3">
         <v>750500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>631000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>679400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>585100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>558900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>403600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>391200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3254800</v>
+        <v>4746600</v>
       </c>
       <c r="E48" s="3">
-        <v>3135000</v>
+        <v>4731600</v>
       </c>
       <c r="F48" s="3">
-        <v>3082700</v>
+        <v>2578900</v>
       </c>
       <c r="G48" s="3">
-        <v>3076200</v>
+        <v>2484000</v>
       </c>
       <c r="H48" s="3">
-        <v>2163300</v>
+        <v>2442600</v>
       </c>
       <c r="I48" s="3">
+        <v>2609300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1714100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2141600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2348200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2360700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2309500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2231500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2283600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>678600</v>
+        <v>1423600</v>
       </c>
       <c r="E49" s="3">
-        <v>671800</v>
+        <v>1376600</v>
       </c>
       <c r="F49" s="3">
-        <v>669700</v>
+        <v>537700</v>
       </c>
       <c r="G49" s="3">
-        <v>1279700</v>
+        <v>532300</v>
       </c>
       <c r="H49" s="3">
-        <v>452300</v>
+        <v>530700</v>
       </c>
       <c r="I49" s="3">
+        <v>1371300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>358400</v>
+      </c>
+      <c r="K49" s="3">
         <v>449800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>448400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>986600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>489200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>483800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>470600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>473300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>271100</v>
+        <v>260700</v>
       </c>
       <c r="E52" s="3">
-        <v>273200</v>
+        <v>247800</v>
       </c>
       <c r="F52" s="3">
-        <v>318500</v>
+        <v>214800</v>
       </c>
       <c r="G52" s="3">
-        <v>273700</v>
+        <v>216500</v>
       </c>
       <c r="H52" s="3">
-        <v>276500</v>
+        <v>252400</v>
       </c>
       <c r="I52" s="3">
+        <v>275100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K52" s="3">
         <v>261300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>236300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>245600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>261300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>248200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>224000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>217300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9865800</v>
+        <v>11028000</v>
       </c>
       <c r="E54" s="3">
-        <v>7674900</v>
+        <v>10730100</v>
       </c>
       <c r="F54" s="3">
-        <v>13467600</v>
+        <v>7817100</v>
       </c>
       <c r="G54" s="3">
-        <v>14098500</v>
+        <v>6081200</v>
       </c>
       <c r="H54" s="3">
-        <v>11180200</v>
+        <v>10671100</v>
       </c>
       <c r="I54" s="3">
+        <v>11469600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8858700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10857000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10605500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12231100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10700500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10514400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10268500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11217400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1595200</v>
+        <v>2227400</v>
       </c>
       <c r="E57" s="3">
-        <v>1594200</v>
+        <v>2754500</v>
       </c>
       <c r="F57" s="3">
-        <v>1513400</v>
+        <v>1263900</v>
       </c>
       <c r="G57" s="3">
-        <v>2159100</v>
+        <v>1263200</v>
       </c>
       <c r="H57" s="3">
-        <v>1503600</v>
+        <v>1199200</v>
       </c>
       <c r="I57" s="3">
+        <v>1710800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1191400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1487300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1286900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2083900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1408800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1326000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1794100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1469300</v>
+        <v>1201000</v>
       </c>
       <c r="E58" s="3">
-        <v>858700</v>
+        <v>818800</v>
       </c>
       <c r="F58" s="3">
-        <v>659200</v>
+        <v>1164200</v>
       </c>
       <c r="G58" s="3">
-        <v>1067700</v>
+        <v>680400</v>
       </c>
       <c r="H58" s="3">
-        <v>433200</v>
+        <v>522300</v>
       </c>
       <c r="I58" s="3">
+        <v>833400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K58" s="3">
         <v>425000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>324100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>320700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>363500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>381000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>553500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>733600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>454400</v>
+        <v>720300</v>
       </c>
       <c r="E59" s="3">
-        <v>478500</v>
+        <v>707400</v>
       </c>
       <c r="F59" s="3">
-        <v>5469000</v>
+        <v>360100</v>
       </c>
       <c r="G59" s="3">
-        <v>5907100</v>
+        <v>379100</v>
       </c>
       <c r="H59" s="3">
-        <v>4276700</v>
+        <v>4333400</v>
       </c>
       <c r="I59" s="3">
+        <v>4807100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3388600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4163000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4369600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5028400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4138200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3974700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4078400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4314900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3518900</v>
+        <v>4148700</v>
       </c>
       <c r="E60" s="3">
-        <v>2931400</v>
+        <v>4280700</v>
       </c>
       <c r="F60" s="3">
-        <v>7641700</v>
+        <v>2788200</v>
       </c>
       <c r="G60" s="3">
-        <v>8633500</v>
+        <v>2322700</v>
       </c>
       <c r="H60" s="3">
-        <v>6213500</v>
+        <v>6054900</v>
       </c>
       <c r="I60" s="3">
+        <v>6954700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4923300</v>
+      </c>
+      <c r="K60" s="3">
         <v>6075300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5980700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7433000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5910600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5681600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5932100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6842500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3239400</v>
+        <v>3736500</v>
       </c>
       <c r="E61" s="3">
-        <v>1693000</v>
+        <v>3411200</v>
       </c>
       <c r="F61" s="3">
-        <v>2004300</v>
+        <v>2566700</v>
       </c>
       <c r="G61" s="3">
-        <v>1769800</v>
+        <v>1341500</v>
       </c>
       <c r="H61" s="3">
-        <v>1151300</v>
+        <v>1588100</v>
       </c>
       <c r="I61" s="3">
+        <v>1604600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>912200</v>
+      </c>
+      <c r="K61" s="3">
         <v>974000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>957900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>855500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>856300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>935500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>637300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>722400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>571400</v>
+        <v>569200</v>
       </c>
       <c r="E62" s="3">
-        <v>545300</v>
+        <v>538300</v>
       </c>
       <c r="F62" s="3">
-        <v>627000</v>
+        <v>452800</v>
       </c>
       <c r="G62" s="3">
-        <v>613700</v>
+        <v>432000</v>
       </c>
       <c r="H62" s="3">
-        <v>601800</v>
+        <v>496800</v>
       </c>
       <c r="I62" s="3">
-        <v>599200</v>
+        <v>475500</v>
       </c>
       <c r="J62" s="3">
-        <v>568200</v>
+        <v>476800</v>
       </c>
       <c r="K62" s="3">
         <v>599200</v>
       </c>
       <c r="L62" s="3">
+        <v>568200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>599200</v>
+      </c>
+      <c r="N62" s="3">
         <v>582200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>564300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>518500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>527400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7329700</v>
+        <v>8946200</v>
       </c>
       <c r="E66" s="3">
-        <v>5169700</v>
+        <v>8705800</v>
       </c>
       <c r="F66" s="3">
-        <v>11040100</v>
+        <v>5807700</v>
       </c>
       <c r="G66" s="3">
-        <v>11696300</v>
+        <v>4096200</v>
       </c>
       <c r="H66" s="3">
-        <v>8662900</v>
+        <v>8747700</v>
       </c>
       <c r="I66" s="3">
+        <v>9576000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6864100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8346500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8191400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9619100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8086000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7907800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7789200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8771400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>981500</v>
+        <v>725900</v>
       </c>
       <c r="E72" s="3">
-        <v>943000</v>
+        <v>750700</v>
       </c>
       <c r="F72" s="3">
-        <v>861000</v>
+        <v>777700</v>
       </c>
       <c r="G72" s="3">
-        <v>846500</v>
+        <v>747200</v>
       </c>
       <c r="H72" s="3">
-        <v>965100</v>
+        <v>682200</v>
       </c>
       <c r="I72" s="3">
+        <v>660900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>764700</v>
+      </c>
+      <c r="K72" s="3">
         <v>955800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>856600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>899600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>893200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>884000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>811200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>779000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2536000</v>
+        <v>2081800</v>
       </c>
       <c r="E76" s="3">
-        <v>2505200</v>
+        <v>2024200</v>
       </c>
       <c r="F76" s="3">
-        <v>2427400</v>
+        <v>2009400</v>
       </c>
       <c r="G76" s="3">
-        <v>2402200</v>
+        <v>1985000</v>
       </c>
       <c r="H76" s="3">
-        <v>2517300</v>
+        <v>1923400</v>
       </c>
       <c r="I76" s="3">
+        <v>1893600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2510600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2414100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2612000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2614600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2606600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2479300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2446100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38800</v>
+        <v>-24100</v>
       </c>
       <c r="E81" s="3">
-        <v>100600</v>
+        <v>10700</v>
       </c>
       <c r="F81" s="3">
-        <v>31500</v>
+        <v>30700</v>
       </c>
       <c r="G81" s="3">
-        <v>96900</v>
+        <v>79700</v>
       </c>
       <c r="H81" s="3">
-        <v>29700</v>
+        <v>23300</v>
       </c>
       <c r="I81" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K81" s="3">
         <v>109800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>72800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>34100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>29800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-119600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89400</v>
+        <v>111800</v>
       </c>
       <c r="E83" s="3">
-        <v>85700</v>
+        <v>82200</v>
       </c>
       <c r="F83" s="3">
-        <v>85200</v>
+        <v>70900</v>
       </c>
       <c r="G83" s="3">
-        <v>-25500</v>
+        <v>67900</v>
       </c>
       <c r="H83" s="3">
+        <v>67500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>59900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K83" s="3">
         <v>77500</v>
       </c>
-      <c r="I83" s="3">
-        <v>77500</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>78000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>56100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>53300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>52300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>270200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>53200</v>
+        <v>-709600</v>
       </c>
       <c r="E89" s="3">
-        <v>147800</v>
+        <v>903300</v>
       </c>
       <c r="F89" s="3">
-        <v>-1076100</v>
+        <v>42200</v>
       </c>
       <c r="G89" s="3">
-        <v>1209200</v>
+        <v>117100</v>
       </c>
       <c r="H89" s="3">
-        <v>-132600</v>
+        <v>-852600</v>
       </c>
       <c r="I89" s="3">
+        <v>1269100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-105100</v>
+      </c>
+      <c r="K89" s="3">
         <v>665300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1574200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-123800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>344600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-323500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159000</v>
+        <v>-115600</v>
       </c>
       <c r="E91" s="3">
-        <v>-117900</v>
+        <v>-144500</v>
       </c>
       <c r="F91" s="3">
-        <v>-115600</v>
+        <v>-126000</v>
       </c>
       <c r="G91" s="3">
-        <v>-144100</v>
+        <v>-93400</v>
       </c>
       <c r="H91" s="3">
-        <v>-117200</v>
+        <v>-91600</v>
       </c>
       <c r="I91" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-83100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-106100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-111500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-73600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-88600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-383000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159000</v>
+        <v>-124900</v>
       </c>
       <c r="E94" s="3">
-        <v>410800</v>
+        <v>-690000</v>
       </c>
       <c r="F94" s="3">
-        <v>-143600</v>
+        <v>-126000</v>
       </c>
       <c r="G94" s="3">
-        <v>-115600</v>
+        <v>325500</v>
       </c>
       <c r="H94" s="3">
-        <v>-131200</v>
+        <v>-113800</v>
       </c>
       <c r="I94" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-96900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-99700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-125400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-135100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-56900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-87800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-501100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8600</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-7200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-6800</v>
       </c>
       <c r="G96" s="3">
-        <v>-41300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-32800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-25900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,75 +4809,87 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1962500</v>
+        <v>472200</v>
       </c>
       <c r="E100" s="3">
-        <v>-313400</v>
+        <v>-1103900</v>
       </c>
       <c r="F100" s="3">
-        <v>186300</v>
+        <v>1555000</v>
       </c>
       <c r="G100" s="3">
-        <v>-212300</v>
+        <v>-248500</v>
       </c>
       <c r="H100" s="3">
-        <v>133100</v>
+        <v>147800</v>
       </c>
       <c r="I100" s="3">
+        <v>-168200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-81300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>170200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-26900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-77200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-55100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-365400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>365900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+        <v>28900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4407,53 +4904,65 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1856700</v>
+        <v>-333400</v>
       </c>
       <c r="E102" s="3">
-        <v>245200</v>
+        <v>-870000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1033300</v>
+        <v>1471200</v>
       </c>
       <c r="G102" s="3">
-        <v>1173700</v>
+        <v>194300</v>
       </c>
       <c r="H102" s="3">
-        <v>-220700</v>
+        <v>-818800</v>
       </c>
       <c r="I102" s="3">
+        <v>930000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-174900</v>
+      </c>
+      <c r="K102" s="3">
         <v>395600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1421900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-336100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>232500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-464700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3641800</v>
+        <v>3704700</v>
       </c>
       <c r="E8" s="3">
-        <v>3204900</v>
+        <v>3511300</v>
       </c>
       <c r="F8" s="3">
-        <v>2502300</v>
+        <v>3090100</v>
       </c>
       <c r="G8" s="3">
-        <v>2420400</v>
+        <v>2412700</v>
       </c>
       <c r="H8" s="3">
-        <v>2351500</v>
+        <v>2333700</v>
       </c>
       <c r="I8" s="3">
-        <v>2592500</v>
+        <v>2267300</v>
       </c>
       <c r="J8" s="3">
+        <v>2499600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2268300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2749700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2648800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3207100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2797100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2733800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2617700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10283900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2872800</v>
+        <v>2899900</v>
       </c>
       <c r="E9" s="3">
-        <v>2522700</v>
+        <v>2769800</v>
       </c>
       <c r="F9" s="3">
-        <v>1969300</v>
+        <v>2432300</v>
       </c>
       <c r="G9" s="3">
-        <v>1899000</v>
+        <v>1898700</v>
       </c>
       <c r="H9" s="3">
-        <v>1834000</v>
+        <v>1830400</v>
       </c>
       <c r="I9" s="3">
-        <v>1996700</v>
+        <v>1768300</v>
       </c>
       <c r="J9" s="3">
+        <v>1925100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1764100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2024400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2051500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2388700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2171000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1981000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2017900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7921900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>769000</v>
+        <v>804800</v>
       </c>
       <c r="E10" s="3">
-        <v>682200</v>
+        <v>741400</v>
       </c>
       <c r="F10" s="3">
-        <v>533100</v>
+        <v>657800</v>
       </c>
       <c r="G10" s="3">
-        <v>521400</v>
+        <v>514000</v>
       </c>
       <c r="H10" s="3">
-        <v>517500</v>
+        <v>503300</v>
       </c>
       <c r="I10" s="3">
-        <v>595800</v>
+        <v>499000</v>
       </c>
       <c r="J10" s="3">
+        <v>574400</v>
+      </c>
+      <c r="K10" s="3">
         <v>504200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>725300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>597300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>818400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>626100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>752700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>599900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2362000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36500</v>
+        <v>49800</v>
       </c>
       <c r="E14" s="3">
-        <v>30300</v>
+        <v>35100</v>
       </c>
       <c r="F14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>29300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13900</v>
       </c>
       <c r="H14" s="3">
-        <v>2400</v>
+        <v>6600</v>
       </c>
       <c r="I14" s="3">
-        <v>8700</v>
+        <v>2300</v>
       </c>
       <c r="J14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100500</v>
+        <v>99200</v>
       </c>
       <c r="E15" s="3">
-        <v>74400</v>
+        <v>96900</v>
       </c>
       <c r="F15" s="3">
-        <v>64400</v>
+        <v>71700</v>
       </c>
       <c r="G15" s="3">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="H15" s="3">
-        <v>60100</v>
+        <v>59100</v>
       </c>
       <c r="I15" s="3">
-        <v>55000</v>
+        <v>58000</v>
       </c>
       <c r="J15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K15" s="3">
         <v>56100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>70300</v>
       </c>
       <c r="L15" s="3">
         <v>70300</v>
       </c>
       <c r="M15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="N15" s="3">
         <v>52600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>47100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>175400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3583700</v>
+        <v>3541200</v>
       </c>
       <c r="E17" s="3">
-        <v>3087400</v>
+        <v>3455300</v>
       </c>
       <c r="F17" s="3">
-        <v>2418000</v>
+        <v>2976800</v>
       </c>
       <c r="G17" s="3">
-        <v>2344300</v>
+        <v>2331300</v>
       </c>
       <c r="H17" s="3">
-        <v>2267700</v>
+        <v>2257800</v>
       </c>
       <c r="I17" s="3">
-        <v>2418200</v>
+        <v>2186500</v>
       </c>
       <c r="J17" s="3">
+        <v>2331500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2180000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2552600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2563100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3070900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2745300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2620700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2541300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10071600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>58100</v>
+        <v>163400</v>
       </c>
       <c r="E18" s="3">
-        <v>117500</v>
+        <v>56000</v>
       </c>
       <c r="F18" s="3">
-        <v>84400</v>
+        <v>113300</v>
       </c>
       <c r="G18" s="3">
-        <v>76000</v>
+        <v>81400</v>
       </c>
       <c r="H18" s="3">
-        <v>83800</v>
+        <v>75800</v>
       </c>
       <c r="I18" s="3">
-        <v>174300</v>
+        <v>80800</v>
       </c>
       <c r="J18" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K18" s="3">
         <v>88300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>136100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>113100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>212400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7000</v>
+        <v>-39800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
       <c r="F20" s="3">
-        <v>27200</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3">
-        <v>-51600</v>
+        <v>26200</v>
       </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="I20" s="3">
-        <v>7800</v>
+        <v>-8200</v>
       </c>
       <c r="J20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-49100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>162800</v>
+        <v>235100</v>
       </c>
       <c r="E21" s="3">
-        <v>197800</v>
+        <v>157000</v>
       </c>
       <c r="F21" s="3">
-        <v>182400</v>
+        <v>190700</v>
       </c>
       <c r="G21" s="3">
-        <v>93600</v>
+        <v>177300</v>
       </c>
       <c r="H21" s="3">
-        <v>141500</v>
+        <v>132700</v>
       </c>
       <c r="I21" s="3">
-        <v>242000</v>
+        <v>136500</v>
       </c>
       <c r="J21" s="3">
+        <v>233300</v>
+      </c>
+      <c r="K21" s="3">
         <v>144100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>229800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>157700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>95400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>152300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>433400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>71800</v>
+        <v>44600</v>
       </c>
       <c r="E22" s="3">
-        <v>90100</v>
+        <v>69200</v>
       </c>
       <c r="F22" s="3">
-        <v>54400</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>86900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>52400</v>
       </c>
       <c r="H22" s="3">
-        <v>47400</v>
+        <v>45000</v>
       </c>
       <c r="I22" s="3">
-        <v>55300</v>
+        <v>45700</v>
       </c>
       <c r="J22" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K22" s="3">
         <v>43300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>174900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20700</v>
+        <v>79000</v>
       </c>
       <c r="E23" s="3">
-        <v>25500</v>
+        <v>-20000</v>
       </c>
       <c r="F23" s="3">
-        <v>57200</v>
+        <v>24600</v>
       </c>
       <c r="G23" s="3">
-        <v>24400</v>
+        <v>55100</v>
       </c>
       <c r="H23" s="3">
-        <v>27900</v>
+        <v>22500</v>
       </c>
       <c r="I23" s="3">
-        <v>126700</v>
+        <v>26900</v>
       </c>
       <c r="J23" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K23" s="3">
         <v>39400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>132200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>21600</v>
       </c>
       <c r="E24" s="3">
-        <v>9100</v>
+        <v>-1600</v>
       </c>
       <c r="F24" s="3">
-        <v>23500</v>
+        <v>8700</v>
       </c>
       <c r="G24" s="3">
-        <v>11300</v>
+        <v>22700</v>
       </c>
       <c r="H24" s="3">
-        <v>2800</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>29600</v>
+        <v>2700</v>
       </c>
       <c r="J24" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19100</v>
+        <v>57400</v>
       </c>
       <c r="E26" s="3">
-        <v>16500</v>
+        <v>-18400</v>
       </c>
       <c r="F26" s="3">
-        <v>33700</v>
+        <v>15900</v>
       </c>
       <c r="G26" s="3">
-        <v>13100</v>
+        <v>32500</v>
       </c>
       <c r="H26" s="3">
-        <v>25200</v>
+        <v>11400</v>
       </c>
       <c r="I26" s="3">
-        <v>97100</v>
+        <v>24300</v>
       </c>
       <c r="J26" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K26" s="3">
         <v>27900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-22900</v>
+        <v>48900</v>
       </c>
       <c r="E27" s="3">
-        <v>13900</v>
+        <v>-22100</v>
       </c>
       <c r="F27" s="3">
-        <v>33700</v>
+        <v>13400</v>
       </c>
       <c r="G27" s="3">
-        <v>19100</v>
+        <v>32500</v>
       </c>
       <c r="H27" s="3">
-        <v>13300</v>
+        <v>17100</v>
       </c>
       <c r="I27" s="3">
-        <v>115600</v>
+        <v>12800</v>
       </c>
       <c r="J27" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K27" s="3">
         <v>22800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>129700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-3100</v>
       </c>
       <c r="F29" s="3">
         <v>-3000</v>
       </c>
       <c r="G29" s="3">
-        <v>60700</v>
+        <v>-2900</v>
       </c>
       <c r="H29" s="3">
-        <v>10000</v>
+        <v>57400</v>
       </c>
       <c r="I29" s="3">
-        <v>-38100</v>
+        <v>9600</v>
       </c>
       <c r="J29" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>36700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>40400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>45600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>23300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-11500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>32700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-249300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7000</v>
+        <v>39800</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-27200</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3">
-        <v>51600</v>
+        <v>-26200</v>
       </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="I32" s="3">
-        <v>-7800</v>
+        <v>8200</v>
       </c>
       <c r="J32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>49100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24100</v>
+        <v>59600</v>
       </c>
       <c r="E33" s="3">
-        <v>10700</v>
+        <v>-23200</v>
       </c>
       <c r="F33" s="3">
-        <v>30700</v>
+        <v>10300</v>
       </c>
       <c r="G33" s="3">
-        <v>79700</v>
+        <v>29600</v>
       </c>
       <c r="H33" s="3">
-        <v>23300</v>
+        <v>74600</v>
       </c>
       <c r="I33" s="3">
-        <v>77500</v>
+        <v>22500</v>
       </c>
       <c r="J33" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-119600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24100</v>
+        <v>59600</v>
       </c>
       <c r="E35" s="3">
-        <v>10700</v>
+        <v>-23200</v>
       </c>
       <c r="F35" s="3">
-        <v>30700</v>
+        <v>10300</v>
       </c>
       <c r="G35" s="3">
-        <v>79700</v>
+        <v>29600</v>
       </c>
       <c r="H35" s="3">
-        <v>23300</v>
+        <v>74600</v>
       </c>
       <c r="I35" s="3">
-        <v>77500</v>
+        <v>22500</v>
       </c>
       <c r="J35" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-119600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1138300</v>
+        <v>1380100</v>
       </c>
       <c r="E41" s="3">
-        <v>1471700</v>
+        <v>1097500</v>
       </c>
       <c r="F41" s="3">
-        <v>2341700</v>
+        <v>1419000</v>
       </c>
       <c r="G41" s="3">
-        <v>870600</v>
+        <v>2257800</v>
       </c>
       <c r="H41" s="3">
-        <v>436500</v>
+        <v>839400</v>
       </c>
       <c r="I41" s="3">
-        <v>808400</v>
+        <v>420800</v>
       </c>
       <c r="J41" s="3">
+        <v>779400</v>
+      </c>
+      <c r="K41" s="3">
         <v>485700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>713200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>397200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>972200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>324600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>606600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>417500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1268200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>515900</v>
+        <v>511300</v>
       </c>
       <c r="E43" s="3">
-        <v>506100</v>
+        <v>497400</v>
       </c>
       <c r="F43" s="3">
-        <v>301800</v>
+        <v>487900</v>
       </c>
       <c r="G43" s="3">
-        <v>236800</v>
+        <v>291000</v>
       </c>
       <c r="H43" s="3">
-        <v>318300</v>
+        <v>228400</v>
       </c>
       <c r="I43" s="3">
-        <v>252600</v>
+        <v>306800</v>
       </c>
       <c r="J43" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K43" s="3">
         <v>289200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>253400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>409600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>379700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>394600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>368600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>333200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1795000</v>
+        <v>1630200</v>
       </c>
       <c r="E44" s="3">
-        <v>1595900</v>
+        <v>1730700</v>
       </c>
       <c r="F44" s="3">
-        <v>1118700</v>
+        <v>1538700</v>
       </c>
       <c r="G44" s="3">
-        <v>1053200</v>
+        <v>1078600</v>
       </c>
       <c r="H44" s="3">
-        <v>1060600</v>
+        <v>1015500</v>
       </c>
       <c r="I44" s="3">
-        <v>1093300</v>
+        <v>1022600</v>
       </c>
       <c r="J44" s="3">
+        <v>1054200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1025100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1199400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1111100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1236300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1188100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1135000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1135700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1151300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>370100</v>
+        <v>252400</v>
       </c>
       <c r="E45" s="3">
-        <v>106900</v>
+        <v>356800</v>
       </c>
       <c r="F45" s="3">
-        <v>104500</v>
+        <v>103100</v>
       </c>
       <c r="G45" s="3">
-        <v>60100</v>
+        <v>100800</v>
       </c>
       <c r="H45" s="3">
-        <v>5015800</v>
+        <v>58000</v>
       </c>
       <c r="I45" s="3">
-        <v>5404000</v>
+        <v>4836100</v>
       </c>
       <c r="J45" s="3">
+        <v>5210400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4098000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5128800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5230400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5876500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5097100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4904000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5016900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5099300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3819200</v>
+        <v>3774100</v>
       </c>
       <c r="E46" s="3">
-        <v>3680600</v>
+        <v>3682400</v>
       </c>
       <c r="F46" s="3">
-        <v>3866800</v>
+        <v>3548700</v>
       </c>
       <c r="G46" s="3">
-        <v>2220700</v>
+        <v>3728200</v>
       </c>
       <c r="H46" s="3">
-        <v>6831100</v>
+        <v>2141200</v>
       </c>
       <c r="I46" s="3">
-        <v>7558300</v>
+        <v>6586300</v>
       </c>
       <c r="J46" s="3">
+        <v>7287500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5898000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7294700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7148300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8464600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7004300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6914100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6938800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7852000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>777900</v>
+        <v>751800</v>
       </c>
       <c r="E47" s="3">
-        <v>693500</v>
+        <v>750000</v>
       </c>
       <c r="F47" s="3">
-        <v>618900</v>
+        <v>668600</v>
       </c>
       <c r="G47" s="3">
-        <v>627600</v>
+        <v>596700</v>
       </c>
       <c r="H47" s="3">
-        <v>614300</v>
+        <v>605100</v>
       </c>
       <c r="I47" s="3">
-        <v>576200</v>
+        <v>592300</v>
       </c>
       <c r="J47" s="3">
+        <v>555500</v>
+      </c>
+      <c r="K47" s="3">
         <v>669100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>750500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>631000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>679400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>585100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>558900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>403600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>391200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4746600</v>
+        <v>5031200</v>
       </c>
       <c r="E48" s="3">
-        <v>4731600</v>
+        <v>4576500</v>
       </c>
       <c r="F48" s="3">
-        <v>2578900</v>
+        <v>4562000</v>
       </c>
       <c r="G48" s="3">
-        <v>2484000</v>
+        <v>2486500</v>
       </c>
       <c r="H48" s="3">
-        <v>2442600</v>
+        <v>2395000</v>
       </c>
       <c r="I48" s="3">
-        <v>2609300</v>
+        <v>2355100</v>
       </c>
       <c r="J48" s="3">
+        <v>2515800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1714100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2141600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2348200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2360700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2309500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2231500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2283600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1423600</v>
+        <v>1468200</v>
       </c>
       <c r="E49" s="3">
-        <v>1376600</v>
+        <v>1372600</v>
       </c>
       <c r="F49" s="3">
-        <v>537700</v>
+        <v>1327300</v>
       </c>
       <c r="G49" s="3">
-        <v>532300</v>
+        <v>518400</v>
       </c>
       <c r="H49" s="3">
-        <v>530700</v>
+        <v>513300</v>
       </c>
       <c r="I49" s="3">
-        <v>1371300</v>
+        <v>511700</v>
       </c>
       <c r="J49" s="3">
+        <v>1322100</v>
+      </c>
+      <c r="K49" s="3">
         <v>358400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>449800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>448400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>986600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>489200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>483800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>470600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>473300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>260700</v>
+        <v>229200</v>
       </c>
       <c r="E52" s="3">
-        <v>247800</v>
+        <v>251400</v>
       </c>
       <c r="F52" s="3">
-        <v>214800</v>
+        <v>238900</v>
       </c>
       <c r="G52" s="3">
-        <v>216500</v>
+        <v>207100</v>
       </c>
       <c r="H52" s="3">
-        <v>252400</v>
+        <v>208700</v>
       </c>
       <c r="I52" s="3">
-        <v>275100</v>
+        <v>243300</v>
       </c>
       <c r="J52" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K52" s="3">
         <v>219100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>261300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>236300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>245600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>261300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>248200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>224000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>217300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11028000</v>
+        <v>11254500</v>
       </c>
       <c r="E54" s="3">
-        <v>10730100</v>
+        <v>10632800</v>
       </c>
       <c r="F54" s="3">
-        <v>7817100</v>
+        <v>10345600</v>
       </c>
       <c r="G54" s="3">
-        <v>6081200</v>
+        <v>7537000</v>
       </c>
       <c r="H54" s="3">
-        <v>10671100</v>
+        <v>5863300</v>
       </c>
       <c r="I54" s="3">
-        <v>11469600</v>
+        <v>10288700</v>
       </c>
       <c r="J54" s="3">
+        <v>11058700</v>
+      </c>
+      <c r="K54" s="3">
         <v>8858700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10857000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10605500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12231100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10700500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10514400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10268500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11217400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2227400</v>
+        <v>2178400</v>
       </c>
       <c r="E57" s="3">
-        <v>2754500</v>
+        <v>2147600</v>
       </c>
       <c r="F57" s="3">
-        <v>1263900</v>
+        <v>2655800</v>
       </c>
       <c r="G57" s="3">
-        <v>1263200</v>
+        <v>1218700</v>
       </c>
       <c r="H57" s="3">
-        <v>1199200</v>
+        <v>1217900</v>
       </c>
       <c r="I57" s="3">
-        <v>1710800</v>
+        <v>1156200</v>
       </c>
       <c r="J57" s="3">
+        <v>1649500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1191400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1487300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1286900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2083900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1408800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1326000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1794100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1201000</v>
+        <v>940300</v>
       </c>
       <c r="E58" s="3">
-        <v>818800</v>
+        <v>1158000</v>
       </c>
       <c r="F58" s="3">
-        <v>1164200</v>
+        <v>789400</v>
       </c>
       <c r="G58" s="3">
-        <v>680400</v>
+        <v>1122500</v>
       </c>
       <c r="H58" s="3">
-        <v>522300</v>
+        <v>656000</v>
       </c>
       <c r="I58" s="3">
-        <v>833400</v>
+        <v>503600</v>
       </c>
       <c r="J58" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K58" s="3">
         <v>343200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>425000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>324100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>320700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>363500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>381000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>553500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>733600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>720300</v>
+        <v>733600</v>
       </c>
       <c r="E59" s="3">
-        <v>707400</v>
+        <v>694500</v>
       </c>
       <c r="F59" s="3">
-        <v>360100</v>
+        <v>682000</v>
       </c>
       <c r="G59" s="3">
-        <v>379100</v>
+        <v>347200</v>
       </c>
       <c r="H59" s="3">
-        <v>4333400</v>
+        <v>365500</v>
       </c>
       <c r="I59" s="3">
-        <v>4807100</v>
+        <v>4178100</v>
       </c>
       <c r="J59" s="3">
+        <v>4634800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3388600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4163000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4369600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5028400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4138200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3974700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4078400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4314900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4148700</v>
+        <v>3852400</v>
       </c>
       <c r="E60" s="3">
-        <v>4280700</v>
+        <v>4000100</v>
       </c>
       <c r="F60" s="3">
-        <v>2788200</v>
+        <v>4127300</v>
       </c>
       <c r="G60" s="3">
-        <v>2322700</v>
+        <v>2688300</v>
       </c>
       <c r="H60" s="3">
-        <v>6054900</v>
+        <v>2239500</v>
       </c>
       <c r="I60" s="3">
-        <v>6954700</v>
+        <v>5838000</v>
       </c>
       <c r="J60" s="3">
+        <v>6705500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4923300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6075300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5980700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7433000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5910600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5681600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5932100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6842500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3736500</v>
+        <v>4083400</v>
       </c>
       <c r="E61" s="3">
-        <v>3411200</v>
+        <v>3602600</v>
       </c>
       <c r="F61" s="3">
-        <v>2566700</v>
+        <v>3289000</v>
       </c>
       <c r="G61" s="3">
-        <v>1341500</v>
+        <v>2474800</v>
       </c>
       <c r="H61" s="3">
-        <v>1588100</v>
+        <v>1293400</v>
       </c>
       <c r="I61" s="3">
-        <v>1604600</v>
+        <v>1531200</v>
       </c>
       <c r="J61" s="3">
+        <v>1547100</v>
+      </c>
+      <c r="K61" s="3">
         <v>912200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>974000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>957900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>855500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>856300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>935500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>637300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>722400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>569200</v>
+        <v>532200</v>
       </c>
       <c r="E62" s="3">
-        <v>538300</v>
+        <v>548800</v>
       </c>
       <c r="F62" s="3">
-        <v>452800</v>
+        <v>519000</v>
       </c>
       <c r="G62" s="3">
-        <v>432000</v>
+        <v>436500</v>
       </c>
       <c r="H62" s="3">
-        <v>496800</v>
+        <v>416600</v>
       </c>
       <c r="I62" s="3">
-        <v>475500</v>
+        <v>479000</v>
       </c>
       <c r="J62" s="3">
+        <v>458500</v>
+      </c>
+      <c r="K62" s="3">
         <v>476800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>599200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>568200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>599200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>582200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>564300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>518500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>527400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8946200</v>
+        <v>9012800</v>
       </c>
       <c r="E66" s="3">
-        <v>8705800</v>
+        <v>8625600</v>
       </c>
       <c r="F66" s="3">
-        <v>5807700</v>
+        <v>8393900</v>
       </c>
       <c r="G66" s="3">
-        <v>4096200</v>
+        <v>5599600</v>
       </c>
       <c r="H66" s="3">
-        <v>8747700</v>
+        <v>3949400</v>
       </c>
       <c r="I66" s="3">
-        <v>9576000</v>
+        <v>8434200</v>
       </c>
       <c r="J66" s="3">
+        <v>9232900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6864100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8346500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8191400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9619100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8086000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7907800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7789200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8771400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>725900</v>
+        <v>762500</v>
       </c>
       <c r="E72" s="3">
-        <v>750700</v>
+        <v>699900</v>
       </c>
       <c r="F72" s="3">
-        <v>777700</v>
+        <v>723800</v>
       </c>
       <c r="G72" s="3">
-        <v>747200</v>
+        <v>749800</v>
       </c>
       <c r="H72" s="3">
-        <v>682200</v>
+        <v>720400</v>
       </c>
       <c r="I72" s="3">
-        <v>660900</v>
+        <v>657800</v>
       </c>
       <c r="J72" s="3">
+        <v>637200</v>
+      </c>
+      <c r="K72" s="3">
         <v>764700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>955800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>856600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>899600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>893200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>884000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>811200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>779000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2081800</v>
+        <v>2241800</v>
       </c>
       <c r="E76" s="3">
-        <v>2024200</v>
+        <v>2007200</v>
       </c>
       <c r="F76" s="3">
-        <v>2009400</v>
+        <v>1951700</v>
       </c>
       <c r="G76" s="3">
-        <v>1985000</v>
+        <v>1937400</v>
       </c>
       <c r="H76" s="3">
-        <v>1923400</v>
+        <v>1913900</v>
       </c>
       <c r="I76" s="3">
-        <v>1893600</v>
+        <v>1854500</v>
       </c>
       <c r="J76" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1994600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2510600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2414100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2612000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2614600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2606600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2479300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2446100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24100</v>
+        <v>59600</v>
       </c>
       <c r="E81" s="3">
-        <v>10700</v>
+        <v>-23200</v>
       </c>
       <c r="F81" s="3">
-        <v>30700</v>
+        <v>10300</v>
       </c>
       <c r="G81" s="3">
-        <v>79700</v>
+        <v>29600</v>
       </c>
       <c r="H81" s="3">
-        <v>23300</v>
+        <v>74600</v>
       </c>
       <c r="I81" s="3">
-        <v>77500</v>
+        <v>22500</v>
       </c>
       <c r="J81" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-119600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>111800</v>
+        <v>111500</v>
       </c>
       <c r="E83" s="3">
-        <v>82200</v>
+        <v>107800</v>
       </c>
       <c r="F83" s="3">
-        <v>70900</v>
+        <v>79200</v>
       </c>
       <c r="G83" s="3">
-        <v>67900</v>
+        <v>68300</v>
       </c>
       <c r="H83" s="3">
-        <v>67500</v>
+        <v>65500</v>
       </c>
       <c r="I83" s="3">
-        <v>59900</v>
+        <v>65100</v>
       </c>
       <c r="J83" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K83" s="3">
         <v>61400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>270200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-709600</v>
+        <v>426600</v>
       </c>
       <c r="E89" s="3">
-        <v>903300</v>
+        <v>-684200</v>
       </c>
       <c r="F89" s="3">
-        <v>42200</v>
+        <v>870900</v>
       </c>
       <c r="G89" s="3">
-        <v>117100</v>
+        <v>35900</v>
       </c>
       <c r="H89" s="3">
-        <v>-852600</v>
+        <v>117700</v>
       </c>
       <c r="I89" s="3">
-        <v>1269100</v>
+        <v>-822100</v>
       </c>
       <c r="J89" s="3">
+        <v>1223600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-105100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>665300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1574200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-123800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>344600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-323500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115600</v>
+        <v>-88300</v>
       </c>
       <c r="E91" s="3">
-        <v>-144500</v>
+        <v>-111500</v>
       </c>
       <c r="F91" s="3">
-        <v>-126000</v>
+        <v>-139300</v>
       </c>
       <c r="G91" s="3">
-        <v>-93400</v>
+        <v>-121500</v>
       </c>
       <c r="H91" s="3">
-        <v>-91600</v>
+        <v>-90100</v>
       </c>
       <c r="I91" s="3">
-        <v>-80700</v>
+        <v>-88300</v>
       </c>
       <c r="J91" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-92900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-73600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-383000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-124900</v>
+        <v>23500</v>
       </c>
       <c r="E94" s="3">
-        <v>-690000</v>
+        <v>-120400</v>
       </c>
       <c r="F94" s="3">
-        <v>-126000</v>
+        <v>-665300</v>
       </c>
       <c r="G94" s="3">
-        <v>325500</v>
+        <v>-121500</v>
       </c>
       <c r="H94" s="3">
-        <v>-113800</v>
+        <v>313800</v>
       </c>
       <c r="I94" s="3">
-        <v>-91200</v>
+        <v>-109700</v>
       </c>
       <c r="J94" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-125400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-501100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,44 +4848,45 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3100</v>
+        <v>-46900</v>
       </c>
       <c r="E96" s="3">
-        <v>-7200</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-32800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K96" s="3">
         <v>400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-25900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4660,13 +4894,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,66 +5058,72 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>472200</v>
+        <v>-220900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1103900</v>
+        <v>455300</v>
       </c>
       <c r="F100" s="3">
-        <v>1555000</v>
+        <v>-1064300</v>
       </c>
       <c r="G100" s="3">
-        <v>-248500</v>
+        <v>1499300</v>
       </c>
       <c r="H100" s="3">
-        <v>147800</v>
+        <v>-239600</v>
       </c>
       <c r="I100" s="3">
-        <v>-168200</v>
+        <v>142500</v>
       </c>
       <c r="J100" s="3">
+        <v>-162200</v>
+      </c>
+      <c r="K100" s="3">
         <v>105500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>170200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-77200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-365400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>365900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+        <v>53300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>27800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -4885,14 +5134,14 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4910,59 +5159,65 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-333400</v>
+        <v>282600</v>
       </c>
       <c r="E102" s="3">
-        <v>-870000</v>
+        <v>-321500</v>
       </c>
       <c r="F102" s="3">
-        <v>1471200</v>
+        <v>-838800</v>
       </c>
       <c r="G102" s="3">
-        <v>194300</v>
+        <v>1418500</v>
       </c>
       <c r="H102" s="3">
-        <v>-818800</v>
+        <v>187300</v>
       </c>
       <c r="I102" s="3">
-        <v>930000</v>
+        <v>-789400</v>
       </c>
       <c r="J102" s="3">
+        <v>896600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-174900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>395600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1421900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-336100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>232500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-464700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3704700</v>
+        <v>3983800</v>
       </c>
       <c r="E8" s="3">
-        <v>3511300</v>
+        <v>7569000</v>
       </c>
       <c r="F8" s="3">
-        <v>3090100</v>
+        <v>3683100</v>
       </c>
       <c r="G8" s="3">
-        <v>2412700</v>
+        <v>3241300</v>
       </c>
       <c r="H8" s="3">
-        <v>2333700</v>
+        <v>2530700</v>
       </c>
       <c r="I8" s="3">
-        <v>2267300</v>
+        <v>2447800</v>
       </c>
       <c r="J8" s="3">
+        <v>2378200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2499600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2268300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2749700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2648800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3207100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2797100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2733800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2617700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10283900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2899900</v>
+        <v>3121000</v>
       </c>
       <c r="E9" s="3">
-        <v>2769800</v>
+        <v>5948500</v>
       </c>
       <c r="F9" s="3">
-        <v>2432300</v>
+        <v>2905400</v>
       </c>
       <c r="G9" s="3">
-        <v>1898700</v>
+        <v>2550200</v>
       </c>
       <c r="H9" s="3">
-        <v>1830400</v>
+        <v>1991400</v>
       </c>
       <c r="I9" s="3">
-        <v>1768300</v>
+        <v>1920000</v>
       </c>
       <c r="J9" s="3">
+        <v>1854800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1925100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1764100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2024400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2051500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2388700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2171000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1981000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2017900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7921900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>804800</v>
+        <v>862900</v>
       </c>
       <c r="E10" s="3">
-        <v>741400</v>
+        <v>1620500</v>
       </c>
       <c r="F10" s="3">
-        <v>657800</v>
+        <v>777700</v>
       </c>
       <c r="G10" s="3">
-        <v>514000</v>
+        <v>691100</v>
       </c>
       <c r="H10" s="3">
-        <v>503300</v>
+        <v>539300</v>
       </c>
       <c r="I10" s="3">
-        <v>499000</v>
+        <v>527900</v>
       </c>
       <c r="J10" s="3">
+        <v>523400</v>
+      </c>
+      <c r="K10" s="3">
         <v>574400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>504200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>725300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>597300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>818400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>626100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>752700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>599900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2362000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>49800</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>35100</v>
+        <v>113200</v>
       </c>
       <c r="F14" s="3">
-        <v>29300</v>
+        <v>36900</v>
       </c>
       <c r="G14" s="3">
-        <v>13900</v>
+        <v>30700</v>
       </c>
       <c r="H14" s="3">
-        <v>6600</v>
+        <v>14600</v>
       </c>
       <c r="I14" s="3">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="3">
         <v>8400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>99200</v>
+        <v>107600</v>
       </c>
       <c r="E15" s="3">
-        <v>96900</v>
+        <v>206800</v>
       </c>
       <c r="F15" s="3">
-        <v>71700</v>
+        <v>101600</v>
       </c>
       <c r="G15" s="3">
-        <v>62100</v>
+        <v>75200</v>
       </c>
       <c r="H15" s="3">
-        <v>59100</v>
+        <v>63800</v>
       </c>
       <c r="I15" s="3">
-        <v>58000</v>
+        <v>61900</v>
       </c>
       <c r="J15" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K15" s="3">
         <v>53000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>56100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>70300</v>
       </c>
       <c r="M15" s="3">
         <v>70300</v>
       </c>
       <c r="N15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="O15" s="3">
         <v>52600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>49700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>47100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>175400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3541200</v>
+        <v>3801700</v>
       </c>
       <c r="E17" s="3">
-        <v>3455300</v>
+        <v>7341300</v>
       </c>
       <c r="F17" s="3">
-        <v>2976800</v>
+        <v>3624300</v>
       </c>
       <c r="G17" s="3">
-        <v>2331300</v>
+        <v>3119100</v>
       </c>
       <c r="H17" s="3">
-        <v>2257800</v>
+        <v>2445600</v>
       </c>
       <c r="I17" s="3">
-        <v>2186500</v>
+        <v>2368300</v>
       </c>
       <c r="J17" s="3">
+        <v>2293500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2331500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2180000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2552600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2563100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3070900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2745300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2620700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2541300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10071600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>163400</v>
+        <v>182100</v>
       </c>
       <c r="E18" s="3">
-        <v>56000</v>
+        <v>227700</v>
       </c>
       <c r="F18" s="3">
-        <v>113300</v>
+        <v>58800</v>
       </c>
       <c r="G18" s="3">
-        <v>81400</v>
+        <v>122200</v>
       </c>
       <c r="H18" s="3">
-        <v>75800</v>
+        <v>85100</v>
       </c>
       <c r="I18" s="3">
-        <v>80800</v>
+        <v>79500</v>
       </c>
       <c r="J18" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K18" s="3">
         <v>168100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>197100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>136100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>113100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>212400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39800</v>
+        <v>-91100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>-121400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1800</v>
+        <v>-7100</v>
       </c>
       <c r="G20" s="3">
-        <v>26200</v>
+        <v>-1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-8400</v>
+        <v>27500</v>
       </c>
       <c r="I20" s="3">
-        <v>-8200</v>
+        <v>-8800</v>
       </c>
       <c r="J20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-34600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-49100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>235100</v>
+        <v>215000</v>
       </c>
       <c r="E21" s="3">
-        <v>157000</v>
+        <v>336300</v>
       </c>
       <c r="F21" s="3">
-        <v>190700</v>
+        <v>164700</v>
       </c>
       <c r="G21" s="3">
-        <v>177300</v>
+        <v>206200</v>
       </c>
       <c r="H21" s="3">
-        <v>132700</v>
+        <v>183000</v>
       </c>
       <c r="I21" s="3">
-        <v>136500</v>
+        <v>139200</v>
       </c>
       <c r="J21" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K21" s="3">
         <v>233300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>229800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>181400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>157700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>152300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>433400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>44600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>69200</v>
+        <v>46800</v>
       </c>
       <c r="F22" s="3">
-        <v>86900</v>
+        <v>72600</v>
       </c>
       <c r="G22" s="3">
-        <v>52400</v>
+        <v>91100</v>
       </c>
       <c r="H22" s="3">
-        <v>45000</v>
+        <v>58200</v>
       </c>
       <c r="I22" s="3">
-        <v>45700</v>
+        <v>47200</v>
       </c>
       <c r="J22" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K22" s="3">
         <v>53300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>174900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>79000</v>
+        <v>90900</v>
       </c>
       <c r="E23" s="3">
-        <v>-20000</v>
+        <v>59500</v>
       </c>
       <c r="F23" s="3">
-        <v>24600</v>
+        <v>-21000</v>
       </c>
       <c r="G23" s="3">
-        <v>55100</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>22500</v>
+        <v>54500</v>
       </c>
       <c r="I23" s="3">
-        <v>26900</v>
+        <v>23600</v>
       </c>
       <c r="J23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K23" s="3">
         <v>122200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>132200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21600</v>
+        <v>19800</v>
       </c>
       <c r="E24" s="3">
-        <v>-1600</v>
+        <v>19800</v>
       </c>
       <c r="F24" s="3">
-        <v>8700</v>
+        <v>-1700</v>
       </c>
       <c r="G24" s="3">
-        <v>22700</v>
+        <v>12500</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>22300</v>
       </c>
       <c r="I24" s="3">
-        <v>2700</v>
+        <v>11600</v>
       </c>
       <c r="J24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K24" s="3">
         <v>28500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57400</v>
+        <v>71100</v>
       </c>
       <c r="E26" s="3">
-        <v>-18400</v>
+        <v>39700</v>
       </c>
       <c r="F26" s="3">
-        <v>15900</v>
+        <v>-19300</v>
       </c>
       <c r="G26" s="3">
-        <v>32500</v>
+        <v>16700</v>
       </c>
       <c r="H26" s="3">
-        <v>11400</v>
+        <v>32200</v>
       </c>
       <c r="I26" s="3">
-        <v>24300</v>
+        <v>12000</v>
       </c>
       <c r="J26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K26" s="3">
         <v>93700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>94600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48900</v>
+        <v>63400</v>
       </c>
       <c r="E27" s="3">
-        <v>-22100</v>
+        <v>26400</v>
       </c>
       <c r="F27" s="3">
-        <v>13400</v>
+        <v>-23200</v>
       </c>
       <c r="G27" s="3">
-        <v>32500</v>
+        <v>14000</v>
       </c>
       <c r="H27" s="3">
-        <v>17100</v>
+        <v>32200</v>
       </c>
       <c r="I27" s="3">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="J27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K27" s="3">
         <v>111500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>129700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>10700</v>
+        <v>8800</v>
       </c>
       <c r="E29" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G29" s="3">
-        <v>-2900</v>
+        <v>-3200</v>
       </c>
       <c r="H29" s="3">
-        <v>57400</v>
+        <v>-3600</v>
       </c>
       <c r="I29" s="3">
-        <v>9600</v>
+        <v>60300</v>
       </c>
       <c r="J29" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-36800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>36700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>40400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>45600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>32700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-249300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39800</v>
+        <v>91100</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>121400</v>
       </c>
       <c r="F32" s="3">
-        <v>1800</v>
+        <v>7100</v>
       </c>
       <c r="G32" s="3">
-        <v>-26200</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="3">
-        <v>8400</v>
+        <v>-27500</v>
       </c>
       <c r="I32" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="J32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>34600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>49100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59600</v>
+        <v>72200</v>
       </c>
       <c r="E33" s="3">
-        <v>-23200</v>
+        <v>36500</v>
       </c>
       <c r="F33" s="3">
-        <v>10300</v>
+        <v>-24300</v>
       </c>
       <c r="G33" s="3">
-        <v>29600</v>
+        <v>10900</v>
       </c>
       <c r="H33" s="3">
-        <v>74600</v>
+        <v>28600</v>
       </c>
       <c r="I33" s="3">
-        <v>22500</v>
+        <v>78200</v>
       </c>
       <c r="J33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K33" s="3">
         <v>74700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-119600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59600</v>
+        <v>72200</v>
       </c>
       <c r="E35" s="3">
-        <v>-23200</v>
+        <v>36500</v>
       </c>
       <c r="F35" s="3">
-        <v>10300</v>
+        <v>-24300</v>
       </c>
       <c r="G35" s="3">
-        <v>29600</v>
+        <v>10900</v>
       </c>
       <c r="H35" s="3">
-        <v>74600</v>
+        <v>28600</v>
       </c>
       <c r="I35" s="3">
-        <v>22500</v>
+        <v>78200</v>
       </c>
       <c r="J35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K35" s="3">
         <v>74700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-119600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1380100</v>
+        <v>1362900</v>
       </c>
       <c r="E41" s="3">
-        <v>1097500</v>
+        <v>1447600</v>
       </c>
       <c r="F41" s="3">
-        <v>1419000</v>
+        <v>1151200</v>
       </c>
       <c r="G41" s="3">
-        <v>2257800</v>
+        <v>1488400</v>
       </c>
       <c r="H41" s="3">
-        <v>839400</v>
+        <v>2368300</v>
       </c>
       <c r="I41" s="3">
-        <v>420800</v>
+        <v>880400</v>
       </c>
       <c r="J41" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K41" s="3">
         <v>779400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>485700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>713200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>397200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>972200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>324600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>606600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>417500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1268200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>511300</v>
+        <v>537600</v>
       </c>
       <c r="E43" s="3">
-        <v>497400</v>
+        <v>536300</v>
       </c>
       <c r="F43" s="3">
-        <v>487900</v>
+        <v>521700</v>
       </c>
       <c r="G43" s="3">
-        <v>291000</v>
+        <v>524000</v>
       </c>
       <c r="H43" s="3">
-        <v>228400</v>
+        <v>305200</v>
       </c>
       <c r="I43" s="3">
-        <v>306800</v>
+        <v>239500</v>
       </c>
       <c r="J43" s="3">
+        <v>321900</v>
+      </c>
+      <c r="K43" s="3">
         <v>243500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>289200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>253400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>409600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>379700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>394600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>268400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>368600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>333200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1630200</v>
+        <v>1847000</v>
       </c>
       <c r="E44" s="3">
-        <v>1730700</v>
+        <v>1710000</v>
       </c>
       <c r="F44" s="3">
-        <v>1538700</v>
+        <v>1815300</v>
       </c>
       <c r="G44" s="3">
-        <v>1078600</v>
+        <v>1615100</v>
       </c>
       <c r="H44" s="3">
-        <v>1015500</v>
+        <v>1131400</v>
       </c>
       <c r="I44" s="3">
-        <v>1022600</v>
+        <v>1065100</v>
       </c>
       <c r="J44" s="3">
+        <v>1072600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1054200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1025100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1199400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1111100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1236300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1188100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1135000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1135700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1151300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>252400</v>
+        <v>148400</v>
       </c>
       <c r="E45" s="3">
-        <v>356800</v>
+        <v>264800</v>
       </c>
       <c r="F45" s="3">
-        <v>103100</v>
+        <v>374300</v>
       </c>
       <c r="G45" s="3">
-        <v>100800</v>
+        <v>109100</v>
       </c>
       <c r="H45" s="3">
-        <v>58000</v>
+        <v>105700</v>
       </c>
       <c r="I45" s="3">
-        <v>4836100</v>
+        <v>60800</v>
       </c>
       <c r="J45" s="3">
+        <v>5072700</v>
+      </c>
+      <c r="K45" s="3">
         <v>5210400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4098000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5128800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5230400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5876500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5097100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4904000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5016900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5099300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3774100</v>
+        <v>3895900</v>
       </c>
       <c r="E46" s="3">
-        <v>3682400</v>
+        <v>3958700</v>
       </c>
       <c r="F46" s="3">
-        <v>3548700</v>
+        <v>3862600</v>
       </c>
       <c r="G46" s="3">
-        <v>3728200</v>
+        <v>3736600</v>
       </c>
       <c r="H46" s="3">
-        <v>2141200</v>
+        <v>3910600</v>
       </c>
       <c r="I46" s="3">
-        <v>6586300</v>
+        <v>2245900</v>
       </c>
       <c r="J46" s="3">
+        <v>6908700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7287500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5898000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7294700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7148300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8464600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7004300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6914100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6938800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7852000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>751800</v>
+        <v>765900</v>
       </c>
       <c r="E47" s="3">
-        <v>750000</v>
+        <v>788600</v>
       </c>
       <c r="F47" s="3">
-        <v>668600</v>
+        <v>786700</v>
       </c>
       <c r="G47" s="3">
-        <v>596700</v>
+        <v>675200</v>
       </c>
       <c r="H47" s="3">
-        <v>605100</v>
+        <v>625900</v>
       </c>
       <c r="I47" s="3">
-        <v>592300</v>
+        <v>634700</v>
       </c>
       <c r="J47" s="3">
+        <v>621300</v>
+      </c>
+      <c r="K47" s="3">
         <v>555500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>669100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>750500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>631000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>679400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>585100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>558900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>403600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>391200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5031200</v>
+        <v>5625500</v>
       </c>
       <c r="E48" s="3">
-        <v>4576500</v>
+        <v>5277400</v>
       </c>
       <c r="F48" s="3">
-        <v>4562000</v>
+        <v>4800400</v>
       </c>
       <c r="G48" s="3">
-        <v>2486500</v>
+        <v>5116300</v>
       </c>
       <c r="H48" s="3">
-        <v>2395000</v>
+        <v>2608200</v>
       </c>
       <c r="I48" s="3">
-        <v>2355100</v>
+        <v>2512200</v>
       </c>
       <c r="J48" s="3">
+        <v>2470300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2515800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1714100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2141600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2348200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2360700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2309500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2231500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2283600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1468200</v>
+        <v>1306200</v>
       </c>
       <c r="E49" s="3">
-        <v>1372600</v>
+        <v>1540100</v>
       </c>
       <c r="F49" s="3">
-        <v>1327300</v>
+        <v>1439800</v>
       </c>
       <c r="G49" s="3">
-        <v>518400</v>
+        <v>1166900</v>
       </c>
       <c r="H49" s="3">
-        <v>513300</v>
+        <v>543800</v>
       </c>
       <c r="I49" s="3">
-        <v>511700</v>
+        <v>538400</v>
       </c>
       <c r="J49" s="3">
+        <v>536700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1322100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>358400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>449800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>448400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>986600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>489200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>483800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>470600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>473300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>229200</v>
+        <v>240600</v>
       </c>
       <c r="E52" s="3">
-        <v>251400</v>
+        <v>240500</v>
       </c>
       <c r="F52" s="3">
-        <v>238900</v>
+        <v>263700</v>
       </c>
       <c r="G52" s="3">
-        <v>207100</v>
+        <v>247400</v>
       </c>
       <c r="H52" s="3">
-        <v>208700</v>
+        <v>217300</v>
       </c>
       <c r="I52" s="3">
-        <v>243300</v>
+        <v>218900</v>
       </c>
       <c r="J52" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K52" s="3">
         <v>265300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>219100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>261300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>236300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>245600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>261300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>248200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>224000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>217300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11254500</v>
+        <v>11834100</v>
       </c>
       <c r="E54" s="3">
-        <v>10632800</v>
+        <v>11805300</v>
       </c>
       <c r="F54" s="3">
-        <v>10345600</v>
+        <v>11153100</v>
       </c>
       <c r="G54" s="3">
-        <v>7537000</v>
+        <v>10942400</v>
       </c>
       <c r="H54" s="3">
-        <v>5863300</v>
+        <v>7905900</v>
       </c>
       <c r="I54" s="3">
-        <v>10288700</v>
+        <v>6150200</v>
       </c>
       <c r="J54" s="3">
+        <v>10792200</v>
+      </c>
+      <c r="K54" s="3">
         <v>11058700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8858700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10857000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10605500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12231100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10700500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10514400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10268500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11217400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2178400</v>
+        <v>2240100</v>
       </c>
       <c r="E57" s="3">
-        <v>2147600</v>
+        <v>2285000</v>
       </c>
       <c r="F57" s="3">
-        <v>2655800</v>
+        <v>2252700</v>
       </c>
       <c r="G57" s="3">
-        <v>1218700</v>
+        <v>2785800</v>
       </c>
       <c r="H57" s="3">
-        <v>1217900</v>
+        <v>1278300</v>
       </c>
       <c r="I57" s="3">
-        <v>1156200</v>
+        <v>1277500</v>
       </c>
       <c r="J57" s="3">
+        <v>1212800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1649500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1191400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1487300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1286900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2083900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1408800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1794100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>940300</v>
+        <v>1348800</v>
       </c>
       <c r="E58" s="3">
-        <v>1158000</v>
+        <v>986400</v>
       </c>
       <c r="F58" s="3">
-        <v>789400</v>
+        <v>1214700</v>
       </c>
       <c r="G58" s="3">
-        <v>1122500</v>
+        <v>828100</v>
       </c>
       <c r="H58" s="3">
-        <v>656000</v>
+        <v>1177400</v>
       </c>
       <c r="I58" s="3">
-        <v>503600</v>
+        <v>688100</v>
       </c>
       <c r="J58" s="3">
+        <v>528300</v>
+      </c>
+      <c r="K58" s="3">
         <v>803500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>343200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>425000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>324100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>320700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>363500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>381000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>553500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>733600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>733600</v>
+        <v>705900</v>
       </c>
       <c r="E59" s="3">
-        <v>694500</v>
+        <v>769500</v>
       </c>
       <c r="F59" s="3">
-        <v>682000</v>
+        <v>728500</v>
       </c>
       <c r="G59" s="3">
-        <v>347200</v>
+        <v>715400</v>
       </c>
       <c r="H59" s="3">
-        <v>365500</v>
+        <v>364200</v>
       </c>
       <c r="I59" s="3">
-        <v>4178100</v>
+        <v>383400</v>
       </c>
       <c r="J59" s="3">
+        <v>4382600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4634800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3388600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4163000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4369600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5028400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4138200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3974700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4078400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4314900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3852400</v>
+        <v>4294800</v>
       </c>
       <c r="E60" s="3">
-        <v>4000100</v>
+        <v>4040900</v>
       </c>
       <c r="F60" s="3">
-        <v>4127300</v>
+        <v>4195800</v>
       </c>
       <c r="G60" s="3">
-        <v>2688300</v>
+        <v>4329300</v>
       </c>
       <c r="H60" s="3">
-        <v>2239500</v>
+        <v>2819900</v>
       </c>
       <c r="I60" s="3">
-        <v>5838000</v>
+        <v>2349000</v>
       </c>
       <c r="J60" s="3">
+        <v>6123600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6705500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4923300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6075300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5980700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7433000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5910600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5681600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5932100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6842500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4083400</v>
+        <v>3824600</v>
       </c>
       <c r="E61" s="3">
-        <v>3602600</v>
+        <v>4283200</v>
       </c>
       <c r="F61" s="3">
-        <v>3289000</v>
+        <v>3778900</v>
       </c>
       <c r="G61" s="3">
-        <v>2474800</v>
+        <v>3449900</v>
       </c>
       <c r="H61" s="3">
-        <v>1293400</v>
+        <v>2595900</v>
       </c>
       <c r="I61" s="3">
-        <v>1531200</v>
+        <v>1356700</v>
       </c>
       <c r="J61" s="3">
+        <v>1606100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1547100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>912200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>974000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>957900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>855500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>856300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>935500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>637300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>722400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>532200</v>
+        <v>675400</v>
       </c>
       <c r="E62" s="3">
-        <v>548800</v>
+        <v>558200</v>
       </c>
       <c r="F62" s="3">
-        <v>519000</v>
+        <v>575600</v>
       </c>
       <c r="G62" s="3">
-        <v>436500</v>
+        <v>628000</v>
       </c>
       <c r="H62" s="3">
-        <v>416600</v>
+        <v>457900</v>
       </c>
       <c r="I62" s="3">
-        <v>479000</v>
+        <v>436900</v>
       </c>
       <c r="J62" s="3">
+        <v>502400</v>
+      </c>
+      <c r="K62" s="3">
         <v>458500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>476800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>599200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>568200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>599200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>582200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>564300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>518500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>527400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9012800</v>
+        <v>9384400</v>
       </c>
       <c r="E66" s="3">
-        <v>8625600</v>
+        <v>9453800</v>
       </c>
       <c r="F66" s="3">
-        <v>8393900</v>
+        <v>9047700</v>
       </c>
       <c r="G66" s="3">
-        <v>5599600</v>
+        <v>8895200</v>
       </c>
       <c r="H66" s="3">
-        <v>3949400</v>
+        <v>5873600</v>
       </c>
       <c r="I66" s="3">
-        <v>8434200</v>
+        <v>4142700</v>
       </c>
       <c r="J66" s="3">
+        <v>8846900</v>
+      </c>
+      <c r="K66" s="3">
         <v>9232900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6864100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8346500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8191400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9619100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8086000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7907800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7789200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8771400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>762500</v>
+        <v>870900</v>
       </c>
       <c r="E72" s="3">
-        <v>699900</v>
+        <v>799800</v>
       </c>
       <c r="F72" s="3">
-        <v>723800</v>
+        <v>734100</v>
       </c>
       <c r="G72" s="3">
-        <v>749800</v>
+        <v>759200</v>
       </c>
       <c r="H72" s="3">
-        <v>720400</v>
+        <v>786500</v>
       </c>
       <c r="I72" s="3">
-        <v>657800</v>
+        <v>755600</v>
       </c>
       <c r="J72" s="3">
+        <v>689900</v>
+      </c>
+      <c r="K72" s="3">
         <v>637200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>764700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>955800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>856600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>899600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>893200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>884000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>811200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>779000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2241800</v>
+        <v>2449700</v>
       </c>
       <c r="E76" s="3">
-        <v>2007200</v>
+        <v>2351500</v>
       </c>
       <c r="F76" s="3">
-        <v>1951700</v>
+        <v>2105400</v>
       </c>
       <c r="G76" s="3">
-        <v>1937400</v>
+        <v>2047200</v>
       </c>
       <c r="H76" s="3">
-        <v>1913900</v>
+        <v>2032200</v>
       </c>
       <c r="I76" s="3">
-        <v>1854500</v>
+        <v>2007500</v>
       </c>
       <c r="J76" s="3">
+        <v>1945200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1825700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1994600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2510600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2414100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2612000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2614600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2606600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2479300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2446100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59600</v>
+        <v>72200</v>
       </c>
       <c r="E81" s="3">
-        <v>-23200</v>
+        <v>36500</v>
       </c>
       <c r="F81" s="3">
-        <v>10300</v>
+        <v>-24300</v>
       </c>
       <c r="G81" s="3">
-        <v>29600</v>
+        <v>10900</v>
       </c>
       <c r="H81" s="3">
-        <v>74600</v>
+        <v>28600</v>
       </c>
       <c r="I81" s="3">
-        <v>22500</v>
+        <v>78200</v>
       </c>
       <c r="J81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K81" s="3">
         <v>74700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-119600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>111500</v>
+        <v>124100</v>
       </c>
       <c r="E83" s="3">
-        <v>107800</v>
+        <v>230000</v>
       </c>
       <c r="F83" s="3">
-        <v>79200</v>
+        <v>113000</v>
       </c>
       <c r="G83" s="3">
+        <v>83100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>71700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>68700</v>
+      </c>
+      <c r="J83" s="3">
         <v>68300</v>
       </c>
-      <c r="H83" s="3">
-        <v>65500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>65100</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>57800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>270200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>426600</v>
+        <v>36300</v>
       </c>
       <c r="E89" s="3">
-        <v>-684200</v>
+        <v>-270200</v>
       </c>
       <c r="F89" s="3">
-        <v>870900</v>
+        <v>-717600</v>
       </c>
       <c r="G89" s="3">
-        <v>35900</v>
+        <v>908100</v>
       </c>
       <c r="H89" s="3">
-        <v>117700</v>
+        <v>43000</v>
       </c>
       <c r="I89" s="3">
-        <v>-822100</v>
+        <v>123500</v>
       </c>
       <c r="J89" s="3">
+        <v>-862300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1223600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-105100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>665300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1574200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-123800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>344600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-323500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-88300</v>
+        <v>-110200</v>
       </c>
       <c r="E91" s="3">
+        <v>-209600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-146100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-111500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-139300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-121500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-90100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-88300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-77800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-92900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-83100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-106100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-111500</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-73600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-383000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>23500</v>
+        <v>10300</v>
       </c>
       <c r="E94" s="3">
-        <v>-120400</v>
+        <v>-101600</v>
       </c>
       <c r="F94" s="3">
-        <v>-665300</v>
+        <v>-126300</v>
       </c>
       <c r="G94" s="3">
-        <v>-121500</v>
+        <v>-697800</v>
       </c>
       <c r="H94" s="3">
-        <v>313800</v>
+        <v>-127400</v>
       </c>
       <c r="I94" s="3">
-        <v>-109700</v>
+        <v>329200</v>
       </c>
       <c r="J94" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-104000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-96900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-125400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-135100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-501100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,47 +5082,48 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46900</v>
+        <v>-2600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3000</v>
+        <v>-52400</v>
       </c>
       <c r="F96" s="3">
-        <v>-7000</v>
+        <v>-3200</v>
       </c>
       <c r="G96" s="3">
-        <v>-6600</v>
+        <v>-7300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-6900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-25900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,75 +5304,81 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-220900</v>
+        <v>-126300</v>
       </c>
       <c r="E100" s="3">
-        <v>455300</v>
+        <v>245900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1064300</v>
+        <v>477600</v>
       </c>
       <c r="G100" s="3">
-        <v>1499300</v>
+        <v>-1116400</v>
       </c>
       <c r="H100" s="3">
-        <v>-239600</v>
+        <v>1572600</v>
       </c>
       <c r="I100" s="3">
-        <v>142500</v>
+        <v>-251300</v>
       </c>
       <c r="J100" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-162200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>105500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-81300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>170200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-77200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-365400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>365900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53300</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
-        <v>27800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+        <v>85100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>20800</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5137,14 +5386,14 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5162,62 +5411,68 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>282600</v>
+        <v>-84800</v>
       </c>
       <c r="E102" s="3">
-        <v>-321500</v>
+        <v>-40800</v>
       </c>
       <c r="F102" s="3">
-        <v>-838800</v>
+        <v>-337200</v>
       </c>
       <c r="G102" s="3">
-        <v>1418500</v>
+        <v>-879900</v>
       </c>
       <c r="H102" s="3">
-        <v>187300</v>
+        <v>1487900</v>
       </c>
       <c r="I102" s="3">
-        <v>-789400</v>
+        <v>196500</v>
       </c>
       <c r="J102" s="3">
+        <v>-828100</v>
+      </c>
+      <c r="K102" s="3">
         <v>896600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-174900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>395600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1421900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-336100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>232500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-464700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3983800</v>
+        <v>9075400</v>
       </c>
       <c r="E8" s="3">
-        <v>7569000</v>
+        <v>3769600</v>
       </c>
       <c r="F8" s="3">
-        <v>3683100</v>
+        <v>7162100</v>
       </c>
       <c r="G8" s="3">
-        <v>3241300</v>
+        <v>3485100</v>
       </c>
       <c r="H8" s="3">
-        <v>2530700</v>
+        <v>5106300</v>
       </c>
       <c r="I8" s="3">
-        <v>2447800</v>
+        <v>2394700</v>
       </c>
       <c r="J8" s="3">
+        <v>2316300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2378200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2499600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2268300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2749700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2648800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3207100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2797100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2733800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2617700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10283900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3121000</v>
+        <v>6640800</v>
       </c>
       <c r="E9" s="3">
-        <v>5948500</v>
+        <v>2953200</v>
       </c>
       <c r="F9" s="3">
-        <v>2905400</v>
+        <v>5628700</v>
       </c>
       <c r="G9" s="3">
-        <v>2550200</v>
+        <v>2749200</v>
       </c>
       <c r="H9" s="3">
-        <v>1991400</v>
+        <v>3758300</v>
       </c>
       <c r="I9" s="3">
-        <v>1920000</v>
+        <v>1884400</v>
       </c>
       <c r="J9" s="3">
+        <v>1816700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1854800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1925100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1764100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2024400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2051500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2388700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2171000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1981000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2017900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7921900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>862900</v>
+        <v>2434500</v>
       </c>
       <c r="E10" s="3">
-        <v>1620500</v>
+        <v>816500</v>
       </c>
       <c r="F10" s="3">
-        <v>777700</v>
+        <v>1533400</v>
       </c>
       <c r="G10" s="3">
-        <v>691100</v>
+        <v>735900</v>
       </c>
       <c r="H10" s="3">
-        <v>539300</v>
+        <v>1348000</v>
       </c>
       <c r="I10" s="3">
-        <v>527900</v>
+        <v>510300</v>
       </c>
       <c r="J10" s="3">
+        <v>499500</v>
+      </c>
+      <c r="K10" s="3">
         <v>523400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>574400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>504200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>725300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>597300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>818400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>626100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>752700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>599900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2362000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>113200</v>
-      </c>
       <c r="F14" s="3">
-        <v>36900</v>
+        <v>107100</v>
       </c>
       <c r="G14" s="3">
-        <v>30700</v>
+        <v>34900</v>
       </c>
       <c r="H14" s="3">
-        <v>14600</v>
+        <v>47300</v>
       </c>
       <c r="I14" s="3">
-        <v>6900</v>
+        <v>13800</v>
       </c>
       <c r="J14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>107600</v>
+        <v>319400</v>
       </c>
       <c r="E15" s="3">
-        <v>206800</v>
+        <v>101800</v>
       </c>
       <c r="F15" s="3">
-        <v>101600</v>
+        <v>195700</v>
       </c>
       <c r="G15" s="3">
-        <v>75200</v>
+        <v>96100</v>
       </c>
       <c r="H15" s="3">
-        <v>63800</v>
+        <v>182000</v>
       </c>
       <c r="I15" s="3">
-        <v>61900</v>
+        <v>60400</v>
       </c>
       <c r="J15" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K15" s="3">
         <v>60800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>56100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>70300</v>
       </c>
       <c r="N15" s="3">
         <v>70300</v>
       </c>
       <c r="O15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="P15" s="3">
         <v>52600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>49700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>47100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>175400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3801700</v>
+        <v>8609900</v>
       </c>
       <c r="E17" s="3">
-        <v>7341300</v>
+        <v>3597400</v>
       </c>
       <c r="F17" s="3">
-        <v>3624300</v>
+        <v>6946600</v>
       </c>
       <c r="G17" s="3">
-        <v>3119100</v>
+        <v>3429500</v>
       </c>
       <c r="H17" s="3">
-        <v>2445600</v>
+        <v>5017300</v>
       </c>
       <c r="I17" s="3">
-        <v>2368300</v>
+        <v>2314100</v>
       </c>
       <c r="J17" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2293500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2331500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2180000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2552600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2563100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3070900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2745300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2620700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2541300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10071600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182100</v>
+        <v>465500</v>
       </c>
       <c r="E18" s="3">
-        <v>227700</v>
+        <v>172300</v>
       </c>
       <c r="F18" s="3">
-        <v>58800</v>
+        <v>215500</v>
       </c>
       <c r="G18" s="3">
-        <v>122200</v>
+        <v>55600</v>
       </c>
       <c r="H18" s="3">
-        <v>85100</v>
+        <v>89100</v>
       </c>
       <c r="I18" s="3">
-        <v>79500</v>
+        <v>80600</v>
       </c>
       <c r="J18" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K18" s="3">
         <v>84800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>168100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>197100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>136100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>212400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-91100</v>
+        <v>68700</v>
       </c>
       <c r="E20" s="3">
-        <v>-121400</v>
+        <v>-86200</v>
       </c>
       <c r="F20" s="3">
-        <v>-7100</v>
+        <v>-114900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1900</v>
+        <v>-6700</v>
       </c>
       <c r="H20" s="3">
-        <v>27500</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-8800</v>
+        <v>26000</v>
       </c>
       <c r="J20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-49100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>215000</v>
+        <v>988200</v>
       </c>
       <c r="E21" s="3">
-        <v>336300</v>
+        <v>203500</v>
       </c>
       <c r="F21" s="3">
-        <v>164700</v>
+        <v>318200</v>
       </c>
       <c r="G21" s="3">
-        <v>206200</v>
+        <v>155800</v>
       </c>
       <c r="H21" s="3">
-        <v>183000</v>
+        <v>364100</v>
       </c>
       <c r="I21" s="3">
-        <v>139200</v>
+        <v>173200</v>
       </c>
       <c r="J21" s="3">
+        <v>131700</v>
+      </c>
+      <c r="K21" s="3">
         <v>143200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>233300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>229800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>181400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>157700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>152300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>433400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>46800</v>
-      </c>
       <c r="F22" s="3">
-        <v>72600</v>
+        <v>44300</v>
       </c>
       <c r="G22" s="3">
-        <v>91100</v>
+        <v>68700</v>
       </c>
       <c r="H22" s="3">
-        <v>58200</v>
+        <v>153200</v>
       </c>
       <c r="I22" s="3">
-        <v>47200</v>
+        <v>55100</v>
       </c>
       <c r="J22" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K22" s="3">
         <v>47900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>78900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>174900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90900</v>
+        <v>336600</v>
       </c>
       <c r="E23" s="3">
-        <v>59500</v>
+        <v>86100</v>
       </c>
       <c r="F23" s="3">
-        <v>-21000</v>
+        <v>56300</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>-19800</v>
       </c>
       <c r="H23" s="3">
-        <v>54500</v>
+        <v>-65200</v>
       </c>
       <c r="I23" s="3">
-        <v>23600</v>
+        <v>51500</v>
       </c>
       <c r="J23" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K23" s="3">
         <v>28300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>122200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>132200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19800</v>
+        <v>117200</v>
       </c>
       <c r="E24" s="3">
-        <v>19800</v>
+        <v>18800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1700</v>
+        <v>18800</v>
       </c>
       <c r="G24" s="3">
-        <v>12500</v>
+        <v>-1600</v>
       </c>
       <c r="H24" s="3">
-        <v>22300</v>
+        <v>-16800</v>
       </c>
       <c r="I24" s="3">
-        <v>11600</v>
+        <v>21100</v>
       </c>
       <c r="J24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71100</v>
+        <v>219400</v>
       </c>
       <c r="E26" s="3">
-        <v>39700</v>
+        <v>67300</v>
       </c>
       <c r="F26" s="3">
-        <v>-19300</v>
+        <v>37500</v>
       </c>
       <c r="G26" s="3">
-        <v>16700</v>
+        <v>-18200</v>
       </c>
       <c r="H26" s="3">
-        <v>32200</v>
+        <v>-48300</v>
       </c>
       <c r="I26" s="3">
-        <v>12000</v>
+        <v>30500</v>
       </c>
       <c r="J26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K26" s="3">
         <v>25400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63400</v>
+        <v>193400</v>
       </c>
       <c r="E27" s="3">
-        <v>26400</v>
+        <v>60000</v>
       </c>
       <c r="F27" s="3">
-        <v>-23200</v>
+        <v>25000</v>
       </c>
       <c r="G27" s="3">
-        <v>14000</v>
+        <v>-22000</v>
       </c>
       <c r="H27" s="3">
-        <v>32200</v>
+        <v>-56500</v>
       </c>
       <c r="I27" s="3">
-        <v>18000</v>
+        <v>30500</v>
       </c>
       <c r="J27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K27" s="3">
         <v>13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>73100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>129700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8800</v>
+        <v>192500</v>
       </c>
       <c r="E29" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>196400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K29" s="3">
         <v>10100</v>
       </c>
-      <c r="F29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I29" s="3">
-        <v>60300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-36800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>36700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>40400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>45600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>23300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-11500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>32700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-249300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>91100</v>
+        <v>-68700</v>
       </c>
       <c r="E32" s="3">
-        <v>121400</v>
+        <v>86200</v>
       </c>
       <c r="F32" s="3">
-        <v>7100</v>
+        <v>114900</v>
       </c>
       <c r="G32" s="3">
-        <v>1900</v>
+        <v>6700</v>
       </c>
       <c r="H32" s="3">
-        <v>-27500</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
-        <v>8800</v>
+        <v>-26000</v>
       </c>
       <c r="J32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K32" s="3">
         <v>8600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>49100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72200</v>
+        <v>385800</v>
       </c>
       <c r="E33" s="3">
-        <v>36500</v>
+        <v>68300</v>
       </c>
       <c r="F33" s="3">
-        <v>-24300</v>
+        <v>34500</v>
       </c>
       <c r="G33" s="3">
-        <v>10900</v>
+        <v>-23000</v>
       </c>
       <c r="H33" s="3">
-        <v>28600</v>
+        <v>139900</v>
       </c>
       <c r="I33" s="3">
-        <v>78200</v>
+        <v>27100</v>
       </c>
       <c r="J33" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K33" s="3">
         <v>23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-119600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72200</v>
+        <v>385800</v>
       </c>
       <c r="E35" s="3">
-        <v>36500</v>
+        <v>68300</v>
       </c>
       <c r="F35" s="3">
-        <v>-24300</v>
+        <v>34500</v>
       </c>
       <c r="G35" s="3">
-        <v>10900</v>
+        <v>-23000</v>
       </c>
       <c r="H35" s="3">
-        <v>28600</v>
+        <v>139900</v>
       </c>
       <c r="I35" s="3">
-        <v>78200</v>
+        <v>27100</v>
       </c>
       <c r="J35" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K35" s="3">
         <v>23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-119600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1362900</v>
+        <v>1542500</v>
       </c>
       <c r="E41" s="3">
-        <v>1447600</v>
+        <v>1289600</v>
       </c>
       <c r="F41" s="3">
-        <v>1151200</v>
+        <v>1369800</v>
       </c>
       <c r="G41" s="3">
-        <v>1488400</v>
+        <v>1089300</v>
       </c>
       <c r="H41" s="3">
-        <v>2368300</v>
+        <v>1408400</v>
       </c>
       <c r="I41" s="3">
-        <v>880400</v>
+        <v>2241000</v>
       </c>
       <c r="J41" s="3">
+        <v>833100</v>
+      </c>
+      <c r="K41" s="3">
         <v>441400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>779400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>485700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>713200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>397200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>972200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>324600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>606600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>417500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1268200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>537600</v>
+        <v>360200</v>
       </c>
       <c r="E43" s="3">
-        <v>536300</v>
+        <v>508700</v>
       </c>
       <c r="F43" s="3">
-        <v>521700</v>
+        <v>507500</v>
       </c>
       <c r="G43" s="3">
-        <v>524000</v>
+        <v>493700</v>
       </c>
       <c r="H43" s="3">
-        <v>305200</v>
+        <v>495800</v>
       </c>
       <c r="I43" s="3">
-        <v>239500</v>
+        <v>288800</v>
       </c>
       <c r="J43" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K43" s="3">
         <v>321900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>243500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>289200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>253400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>409600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>379700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>394600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>268400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>368600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>333200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1847000</v>
+        <v>1157300</v>
       </c>
       <c r="E44" s="3">
-        <v>1710000</v>
+        <v>1747700</v>
       </c>
       <c r="F44" s="3">
-        <v>1815300</v>
+        <v>1618100</v>
       </c>
       <c r="G44" s="3">
-        <v>1615100</v>
+        <v>1717800</v>
       </c>
       <c r="H44" s="3">
-        <v>1131400</v>
+        <v>1528300</v>
       </c>
       <c r="I44" s="3">
-        <v>1065100</v>
+        <v>1070600</v>
       </c>
       <c r="J44" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1072600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1054200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1025100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1199400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1111100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1236300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1188100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1135000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1135700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1151300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148400</v>
+        <v>63700</v>
       </c>
       <c r="E45" s="3">
-        <v>264800</v>
+        <v>140400</v>
       </c>
       <c r="F45" s="3">
-        <v>374300</v>
+        <v>250600</v>
       </c>
       <c r="G45" s="3">
-        <v>109100</v>
+        <v>354100</v>
       </c>
       <c r="H45" s="3">
-        <v>105700</v>
+        <v>103200</v>
       </c>
       <c r="I45" s="3">
-        <v>60800</v>
+        <v>100000</v>
       </c>
       <c r="J45" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K45" s="3">
         <v>5072700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5210400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4098000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5128800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5230400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5876500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5097100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4904000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5016900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5099300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3895900</v>
+        <v>3123700</v>
       </c>
       <c r="E46" s="3">
-        <v>3958700</v>
+        <v>3686400</v>
       </c>
       <c r="F46" s="3">
-        <v>3862600</v>
+        <v>3745900</v>
       </c>
       <c r="G46" s="3">
-        <v>3736600</v>
+        <v>3654900</v>
       </c>
       <c r="H46" s="3">
-        <v>3910600</v>
+        <v>3535700</v>
       </c>
       <c r="I46" s="3">
-        <v>2245900</v>
+        <v>3700400</v>
       </c>
       <c r="J46" s="3">
+        <v>2125200</v>
+      </c>
+      <c r="K46" s="3">
         <v>6908700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7287500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5898000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7294700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7148300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8464600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7004300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6914100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6938800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7852000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>765900</v>
+        <v>917200</v>
       </c>
       <c r="E47" s="3">
-        <v>788600</v>
+        <v>724700</v>
       </c>
       <c r="F47" s="3">
-        <v>786700</v>
+        <v>746200</v>
       </c>
       <c r="G47" s="3">
-        <v>675200</v>
+        <v>744400</v>
       </c>
       <c r="H47" s="3">
-        <v>625900</v>
+        <v>638900</v>
       </c>
       <c r="I47" s="3">
-        <v>634700</v>
+        <v>592300</v>
       </c>
       <c r="J47" s="3">
+        <v>600600</v>
+      </c>
+      <c r="K47" s="3">
         <v>621300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>555500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>669100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>750500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>631000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>679400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>585100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>558900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>403600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>391200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5625500</v>
+        <v>4165900</v>
       </c>
       <c r="E48" s="3">
-        <v>5277400</v>
+        <v>5323100</v>
       </c>
       <c r="F48" s="3">
-        <v>4800400</v>
+        <v>4993700</v>
       </c>
       <c r="G48" s="3">
-        <v>5116300</v>
+        <v>4542400</v>
       </c>
       <c r="H48" s="3">
-        <v>2608200</v>
+        <v>4841300</v>
       </c>
       <c r="I48" s="3">
-        <v>2512200</v>
+        <v>2468000</v>
       </c>
       <c r="J48" s="3">
+        <v>2377200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2470300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2515800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1714100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2141600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2348200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2360700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2309500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2231500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2283600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1306200</v>
+        <v>1091500</v>
       </c>
       <c r="E49" s="3">
-        <v>1540100</v>
+        <v>1235900</v>
       </c>
       <c r="F49" s="3">
-        <v>1439800</v>
+        <v>1457300</v>
       </c>
       <c r="G49" s="3">
-        <v>1166900</v>
+        <v>1362400</v>
       </c>
       <c r="H49" s="3">
-        <v>543800</v>
+        <v>1104200</v>
       </c>
       <c r="I49" s="3">
-        <v>538400</v>
+        <v>514600</v>
       </c>
       <c r="J49" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K49" s="3">
         <v>536700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1322100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>358400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>449800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>448400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>986600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>489200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>483800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>470600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>473300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>240600</v>
+        <v>138600</v>
       </c>
       <c r="E52" s="3">
-        <v>240500</v>
+        <v>227700</v>
       </c>
       <c r="F52" s="3">
-        <v>263700</v>
+        <v>227500</v>
       </c>
       <c r="G52" s="3">
-        <v>247400</v>
+        <v>249500</v>
       </c>
       <c r="H52" s="3">
+        <v>234100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>205600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>255200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>265300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>219100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>261300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>236300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>245600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>261300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>248200</v>
+      </c>
+      <c r="S52" s="3">
+        <v>224000</v>
+      </c>
+      <c r="T52" s="3">
         <v>217300</v>
       </c>
-      <c r="I52" s="3">
-        <v>218900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>255200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>265300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>219100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>261300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>236300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>245600</v>
-      </c>
-      <c r="P52" s="3">
-        <v>261300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>248200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>224000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>217300</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11834100</v>
+        <v>9436900</v>
       </c>
       <c r="E54" s="3">
-        <v>11805300</v>
+        <v>11197900</v>
       </c>
       <c r="F54" s="3">
-        <v>11153100</v>
+        <v>11170600</v>
       </c>
       <c r="G54" s="3">
-        <v>10942400</v>
+        <v>10553500</v>
       </c>
       <c r="H54" s="3">
-        <v>7905900</v>
+        <v>10354200</v>
       </c>
       <c r="I54" s="3">
-        <v>6150200</v>
+        <v>7480900</v>
       </c>
       <c r="J54" s="3">
+        <v>5819600</v>
+      </c>
+      <c r="K54" s="3">
         <v>10792200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11058700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8858700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10857000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10605500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12231100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10700500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10514400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10268500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11217400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2240100</v>
+        <v>2022800</v>
       </c>
       <c r="E57" s="3">
-        <v>2285000</v>
+        <v>2119700</v>
       </c>
       <c r="F57" s="3">
-        <v>2252700</v>
+        <v>2162200</v>
       </c>
       <c r="G57" s="3">
-        <v>2785800</v>
+        <v>2131600</v>
       </c>
       <c r="H57" s="3">
-        <v>1278300</v>
+        <v>2636000</v>
       </c>
       <c r="I57" s="3">
-        <v>1277500</v>
+        <v>1209600</v>
       </c>
       <c r="J57" s="3">
+        <v>1208900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1212800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1649500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1191400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1487300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1286900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2083900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1408800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1326000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1794100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1348800</v>
+        <v>576500</v>
       </c>
       <c r="E58" s="3">
-        <v>986400</v>
+        <v>1276300</v>
       </c>
       <c r="F58" s="3">
-        <v>1214700</v>
+        <v>933300</v>
       </c>
       <c r="G58" s="3">
-        <v>828100</v>
+        <v>1149400</v>
       </c>
       <c r="H58" s="3">
-        <v>1177400</v>
+        <v>783500</v>
       </c>
       <c r="I58" s="3">
-        <v>688100</v>
+        <v>1114100</v>
       </c>
       <c r="J58" s="3">
+        <v>651100</v>
+      </c>
+      <c r="K58" s="3">
         <v>528300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>803500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>343200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>425000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>324100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>320700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>363500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>381000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>553500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>733600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>705900</v>
+        <v>673400</v>
       </c>
       <c r="E59" s="3">
-        <v>769500</v>
+        <v>667900</v>
       </c>
       <c r="F59" s="3">
-        <v>728500</v>
+        <v>728100</v>
       </c>
       <c r="G59" s="3">
-        <v>715400</v>
+        <v>689300</v>
       </c>
       <c r="H59" s="3">
-        <v>364200</v>
+        <v>676900</v>
       </c>
       <c r="I59" s="3">
-        <v>383400</v>
+        <v>344600</v>
       </c>
       <c r="J59" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4382600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4634800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3388600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4163000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4369600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5028400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4138200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3974700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4078400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4314900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4294800</v>
+        <v>3272800</v>
       </c>
       <c r="E60" s="3">
-        <v>4040900</v>
+        <v>4063900</v>
       </c>
       <c r="F60" s="3">
-        <v>4195800</v>
+        <v>3823600</v>
       </c>
       <c r="G60" s="3">
-        <v>4329300</v>
+        <v>3970300</v>
       </c>
       <c r="H60" s="3">
-        <v>2819900</v>
+        <v>4096500</v>
       </c>
       <c r="I60" s="3">
-        <v>2349000</v>
+        <v>2668300</v>
       </c>
       <c r="J60" s="3">
+        <v>2222800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6123600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6705500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4923300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6075300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5980700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7433000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5910600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5681600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5932100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6842500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3824600</v>
+        <v>2526600</v>
       </c>
       <c r="E61" s="3">
-        <v>4283200</v>
+        <v>3619000</v>
       </c>
       <c r="F61" s="3">
-        <v>3778900</v>
+        <v>4053000</v>
       </c>
       <c r="G61" s="3">
-        <v>3449900</v>
+        <v>3575800</v>
       </c>
       <c r="H61" s="3">
-        <v>2595900</v>
+        <v>3264500</v>
       </c>
       <c r="I61" s="3">
-        <v>1356700</v>
+        <v>2456300</v>
       </c>
       <c r="J61" s="3">
+        <v>1283800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1606100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1547100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>912200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>974000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>957900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>855500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>856300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>935500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>637300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>722400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>675400</v>
+        <v>661500</v>
       </c>
       <c r="E62" s="3">
-        <v>558200</v>
+        <v>639000</v>
       </c>
       <c r="F62" s="3">
-        <v>575600</v>
+        <v>528200</v>
       </c>
       <c r="G62" s="3">
-        <v>628000</v>
+        <v>544700</v>
       </c>
       <c r="H62" s="3">
-        <v>457900</v>
+        <v>594200</v>
       </c>
       <c r="I62" s="3">
-        <v>436900</v>
+        <v>433300</v>
       </c>
       <c r="J62" s="3">
+        <v>413500</v>
+      </c>
+      <c r="K62" s="3">
         <v>502400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>458500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>476800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>599200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>568200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>599200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>582200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>564300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>518500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>527400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9384400</v>
+        <v>7012000</v>
       </c>
       <c r="E66" s="3">
-        <v>9453800</v>
+        <v>8879900</v>
       </c>
       <c r="F66" s="3">
-        <v>9047700</v>
+        <v>8945600</v>
       </c>
       <c r="G66" s="3">
-        <v>8895200</v>
+        <v>8561300</v>
       </c>
       <c r="H66" s="3">
-        <v>5873600</v>
+        <v>8417000</v>
       </c>
       <c r="I66" s="3">
-        <v>4142700</v>
+        <v>5557900</v>
       </c>
       <c r="J66" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8846900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9232900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6864100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8346500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8191400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9619100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8086000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7907800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7789200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8771400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>870900</v>
+        <v>1015500</v>
       </c>
       <c r="E72" s="3">
-        <v>799800</v>
+        <v>824100</v>
       </c>
       <c r="F72" s="3">
-        <v>734100</v>
+        <v>756800</v>
       </c>
       <c r="G72" s="3">
-        <v>759200</v>
+        <v>694600</v>
       </c>
       <c r="H72" s="3">
-        <v>786500</v>
+        <v>718400</v>
       </c>
       <c r="I72" s="3">
-        <v>755600</v>
+        <v>744200</v>
       </c>
       <c r="J72" s="3">
+        <v>715000</v>
+      </c>
+      <c r="K72" s="3">
         <v>689900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>637200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>764700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>955800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>856600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>899600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>893200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>884000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>811200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>779000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2449700</v>
+        <v>2425000</v>
       </c>
       <c r="E76" s="3">
-        <v>2351500</v>
+        <v>2318000</v>
       </c>
       <c r="F76" s="3">
-        <v>2105400</v>
+        <v>2225100</v>
       </c>
       <c r="G76" s="3">
-        <v>2047200</v>
+        <v>1992200</v>
       </c>
       <c r="H76" s="3">
-        <v>2032200</v>
+        <v>1937100</v>
       </c>
       <c r="I76" s="3">
-        <v>2007500</v>
+        <v>1923000</v>
       </c>
       <c r="J76" s="3">
+        <v>1899600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1945200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1825700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1994600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2510600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2414100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2612000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2614600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2606600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2479300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2446100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72200</v>
+        <v>385800</v>
       </c>
       <c r="E81" s="3">
-        <v>36500</v>
+        <v>68300</v>
       </c>
       <c r="F81" s="3">
-        <v>-24300</v>
+        <v>34500</v>
       </c>
       <c r="G81" s="3">
-        <v>10900</v>
+        <v>-23000</v>
       </c>
       <c r="H81" s="3">
-        <v>28600</v>
+        <v>139900</v>
       </c>
       <c r="I81" s="3">
-        <v>78200</v>
+        <v>27100</v>
       </c>
       <c r="J81" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K81" s="3">
         <v>23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-119600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>124100</v>
+        <v>454000</v>
       </c>
       <c r="E83" s="3">
-        <v>230000</v>
+        <v>117400</v>
       </c>
       <c r="F83" s="3">
-        <v>113000</v>
+        <v>217600</v>
       </c>
       <c r="G83" s="3">
-        <v>83100</v>
+        <v>107000</v>
       </c>
       <c r="H83" s="3">
-        <v>71700</v>
+        <v>276100</v>
       </c>
       <c r="I83" s="3">
-        <v>68700</v>
+        <v>67800</v>
       </c>
       <c r="J83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K83" s="3">
         <v>68300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>61400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>270200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36300</v>
+        <v>839700</v>
       </c>
       <c r="E89" s="3">
-        <v>-270200</v>
+        <v>34400</v>
       </c>
       <c r="F89" s="3">
-        <v>-717600</v>
+        <v>-255700</v>
       </c>
       <c r="G89" s="3">
-        <v>908100</v>
+        <v>-679100</v>
       </c>
       <c r="H89" s="3">
-        <v>43000</v>
+        <v>201000</v>
       </c>
       <c r="I89" s="3">
-        <v>123500</v>
+        <v>40700</v>
       </c>
       <c r="J89" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-862300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1223600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-105100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>665300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1574200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-123800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>344600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-323500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-110200</v>
+        <v>-405300</v>
       </c>
       <c r="E91" s="3">
-        <v>-209600</v>
+        <v>-104300</v>
       </c>
       <c r="F91" s="3">
-        <v>-117000</v>
+        <v>-198300</v>
       </c>
       <c r="G91" s="3">
-        <v>-146100</v>
+        <v>-110700</v>
       </c>
       <c r="H91" s="3">
-        <v>-127400</v>
+        <v>-435900</v>
       </c>
       <c r="I91" s="3">
-        <v>-94500</v>
+        <v>-120600</v>
       </c>
       <c r="J91" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-92600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-73600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-383000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>10300</v>
+        <v>-759800</v>
       </c>
       <c r="E94" s="3">
-        <v>-101600</v>
+        <v>9700</v>
       </c>
       <c r="F94" s="3">
-        <v>-126300</v>
+        <v>-96100</v>
       </c>
       <c r="G94" s="3">
-        <v>-697800</v>
+        <v>-119500</v>
       </c>
       <c r="H94" s="3">
-        <v>-127400</v>
+        <v>-578300</v>
       </c>
       <c r="I94" s="3">
-        <v>329200</v>
+        <v>-120600</v>
       </c>
       <c r="J94" s="3">
+        <v>311500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-115100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-104000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-96900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-125400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-135100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-501100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,50 +5315,51 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2600</v>
+        <v>-60000</v>
       </c>
       <c r="E96" s="3">
-        <v>-52400</v>
+        <v>-2500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3200</v>
+        <v>-49600</v>
       </c>
       <c r="G96" s="3">
-        <v>-7300</v>
+        <v>-3000</v>
       </c>
       <c r="H96" s="3">
-        <v>-6900</v>
+        <v>-47500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-31600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-25900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,81 +5549,87 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-126300</v>
+        <v>-49800</v>
       </c>
       <c r="E100" s="3">
-        <v>245900</v>
+        <v>-119500</v>
       </c>
       <c r="F100" s="3">
-        <v>477600</v>
+        <v>232700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1116400</v>
+        <v>451900</v>
       </c>
       <c r="H100" s="3">
-        <v>1572600</v>
+        <v>335400</v>
       </c>
       <c r="I100" s="3">
-        <v>-251300</v>
+        <v>1488100</v>
       </c>
       <c r="J100" s="3">
+        <v>-237800</v>
+      </c>
+      <c r="K100" s="3">
         <v>149500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-162200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>105500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-81300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-77200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-365400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>365900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>103900</v>
       </c>
       <c r="E101" s="3">
-        <v>85100</v>
+        <v>-4800</v>
       </c>
       <c r="F101" s="3">
-        <v>29200</v>
+        <v>80600</v>
       </c>
       <c r="G101" s="3">
-        <v>20800</v>
+        <v>27600</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>19700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5389,14 +5637,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5414,65 +5662,71 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-84800</v>
+        <v>134000</v>
       </c>
       <c r="E102" s="3">
-        <v>-40800</v>
+        <v>-80200</v>
       </c>
       <c r="F102" s="3">
-        <v>-337200</v>
+        <v>-38600</v>
       </c>
       <c r="G102" s="3">
-        <v>-879900</v>
+        <v>-319100</v>
       </c>
       <c r="H102" s="3">
-        <v>1487900</v>
+        <v>-22300</v>
       </c>
       <c r="I102" s="3">
-        <v>196500</v>
+        <v>1407900</v>
       </c>
       <c r="J102" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-828100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>896600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-174900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>395600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1421900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-336100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>232500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-464700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9075400</v>
+        <v>2335700</v>
       </c>
       <c r="E8" s="3">
-        <v>3769600</v>
+        <v>9614000</v>
       </c>
       <c r="F8" s="3">
-        <v>7162100</v>
+        <v>3993400</v>
       </c>
       <c r="G8" s="3">
-        <v>3485100</v>
+        <v>7587200</v>
       </c>
       <c r="H8" s="3">
-        <v>5106300</v>
+        <v>2227700</v>
       </c>
       <c r="I8" s="3">
-        <v>2394700</v>
+        <v>5409400</v>
       </c>
       <c r="J8" s="3">
+        <v>2536800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2316300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2378200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2499600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2268300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2749700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2648800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3207100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2797100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2733800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2617700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10283900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6640800</v>
+        <v>1727000</v>
       </c>
       <c r="E9" s="3">
-        <v>2953200</v>
+        <v>7035000</v>
       </c>
       <c r="F9" s="3">
-        <v>5628700</v>
+        <v>3128500</v>
       </c>
       <c r="G9" s="3">
-        <v>2749200</v>
+        <v>5962800</v>
       </c>
       <c r="H9" s="3">
-        <v>3758300</v>
+        <v>1675800</v>
       </c>
       <c r="I9" s="3">
-        <v>1884400</v>
+        <v>3981400</v>
       </c>
       <c r="J9" s="3">
+        <v>1996200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1816700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1854800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1925100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1764100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2024400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2051500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2388700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2171000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1981000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2017900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7921900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2434500</v>
+        <v>608700</v>
       </c>
       <c r="E10" s="3">
-        <v>816500</v>
+        <v>2579000</v>
       </c>
       <c r="F10" s="3">
-        <v>1533400</v>
+        <v>864900</v>
       </c>
       <c r="G10" s="3">
-        <v>735900</v>
+        <v>1624400</v>
       </c>
       <c r="H10" s="3">
-        <v>1348000</v>
+        <v>551900</v>
       </c>
       <c r="I10" s="3">
-        <v>510300</v>
+        <v>1428000</v>
       </c>
       <c r="J10" s="3">
+        <v>540600</v>
+      </c>
+      <c r="K10" s="3">
         <v>499500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>523400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>574400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>504200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>725300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>597300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>818400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>626100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>752700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>599900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2362000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>104100</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>12900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>107100</v>
-      </c>
       <c r="G14" s="3">
-        <v>34900</v>
+        <v>113500</v>
       </c>
       <c r="H14" s="3">
-        <v>47300</v>
+        <v>31900</v>
       </c>
       <c r="I14" s="3">
-        <v>13800</v>
+        <v>50100</v>
       </c>
       <c r="J14" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K14" s="3">
         <v>6600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>319400</v>
+        <v>91500</v>
       </c>
       <c r="E15" s="3">
-        <v>101800</v>
+        <v>338400</v>
       </c>
       <c r="F15" s="3">
-        <v>195700</v>
+        <v>107900</v>
       </c>
       <c r="G15" s="3">
-        <v>96100</v>
+        <v>207300</v>
       </c>
       <c r="H15" s="3">
-        <v>182000</v>
+        <v>81400</v>
       </c>
       <c r="I15" s="3">
-        <v>60400</v>
+        <v>192800</v>
       </c>
       <c r="J15" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K15" s="3">
         <v>58600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>56100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>70300</v>
       </c>
       <c r="O15" s="3">
         <v>70300</v>
       </c>
       <c r="P15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>52600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>47100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>175400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8609900</v>
+        <v>2274400</v>
       </c>
       <c r="E17" s="3">
-        <v>3597400</v>
+        <v>9120900</v>
       </c>
       <c r="F17" s="3">
-        <v>6946600</v>
+        <v>3810900</v>
       </c>
       <c r="G17" s="3">
-        <v>3429500</v>
+        <v>7359000</v>
       </c>
       <c r="H17" s="3">
-        <v>5017300</v>
+        <v>2230100</v>
       </c>
       <c r="I17" s="3">
-        <v>2314100</v>
+        <v>5315100</v>
       </c>
       <c r="J17" s="3">
+        <v>2451500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2241000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2293500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2331500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2180000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2552600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2563100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3070900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2745300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2620700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2541300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10071600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>465500</v>
+        <v>61300</v>
       </c>
       <c r="E18" s="3">
-        <v>172300</v>
+        <v>493100</v>
       </c>
       <c r="F18" s="3">
-        <v>215500</v>
+        <v>182500</v>
       </c>
       <c r="G18" s="3">
-        <v>55600</v>
+        <v>228300</v>
       </c>
       <c r="H18" s="3">
-        <v>89100</v>
+        <v>-2400</v>
       </c>
       <c r="I18" s="3">
-        <v>80600</v>
+        <v>94400</v>
       </c>
       <c r="J18" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K18" s="3">
         <v>75300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>168100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>197100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>136100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>212400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68700</v>
+        <v>-8600</v>
       </c>
       <c r="E20" s="3">
-        <v>-86200</v>
+        <v>72800</v>
       </c>
       <c r="F20" s="3">
-        <v>-114900</v>
+        <v>-91400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6700</v>
+        <v>-121700</v>
       </c>
       <c r="H20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>26000</v>
-      </c>
       <c r="J20" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-49100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>988200</v>
+        <v>155500</v>
       </c>
       <c r="E21" s="3">
-        <v>203500</v>
+        <v>1046900</v>
       </c>
       <c r="F21" s="3">
-        <v>318200</v>
+        <v>215500</v>
       </c>
       <c r="G21" s="3">
-        <v>155800</v>
+        <v>337100</v>
       </c>
       <c r="H21" s="3">
-        <v>364100</v>
+        <v>108400</v>
       </c>
       <c r="I21" s="3">
-        <v>173200</v>
+        <v>385700</v>
       </c>
       <c r="J21" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K21" s="3">
         <v>131700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>143200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>233300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>229800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>181400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>157700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>95400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>152300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>124500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>433400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>197600</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>46100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>209300</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>44300</v>
-      </c>
       <c r="G22" s="3">
-        <v>68700</v>
+        <v>46900</v>
       </c>
       <c r="H22" s="3">
-        <v>153200</v>
+        <v>48200</v>
       </c>
       <c r="I22" s="3">
-        <v>55100</v>
+        <v>162300</v>
       </c>
       <c r="J22" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K22" s="3">
         <v>44600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>29700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>35100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>174900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>336600</v>
+        <v>6600</v>
       </c>
       <c r="E23" s="3">
-        <v>86100</v>
+        <v>356600</v>
       </c>
       <c r="F23" s="3">
-        <v>56300</v>
+        <v>91200</v>
       </c>
       <c r="G23" s="3">
-        <v>-19800</v>
+        <v>59700</v>
       </c>
       <c r="H23" s="3">
-        <v>-65200</v>
+        <v>-53100</v>
       </c>
       <c r="I23" s="3">
-        <v>51500</v>
+        <v>-69000</v>
       </c>
       <c r="J23" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K23" s="3">
         <v>22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>122200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>132200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117200</v>
+        <v>-17300</v>
       </c>
       <c r="E24" s="3">
-        <v>18800</v>
+        <v>124200</v>
       </c>
       <c r="F24" s="3">
-        <v>18800</v>
+        <v>19900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1600</v>
+        <v>19900</v>
       </c>
       <c r="H24" s="3">
-        <v>-16800</v>
+        <v>-10900</v>
       </c>
       <c r="I24" s="3">
-        <v>21100</v>
+        <v>-17800</v>
       </c>
       <c r="J24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>219400</v>
+        <v>23800</v>
       </c>
       <c r="E26" s="3">
-        <v>67300</v>
+        <v>232400</v>
       </c>
       <c r="F26" s="3">
-        <v>37500</v>
+        <v>71300</v>
       </c>
       <c r="G26" s="3">
-        <v>-18200</v>
+        <v>39800</v>
       </c>
       <c r="H26" s="3">
-        <v>-48300</v>
+        <v>-42200</v>
       </c>
       <c r="I26" s="3">
-        <v>30500</v>
+        <v>-51200</v>
       </c>
       <c r="J26" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K26" s="3">
         <v>11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>193400</v>
+        <v>21200</v>
       </c>
       <c r="E27" s="3">
-        <v>60000</v>
+        <v>204800</v>
       </c>
       <c r="F27" s="3">
-        <v>25000</v>
+        <v>63600</v>
       </c>
       <c r="G27" s="3">
-        <v>-22000</v>
+        <v>26400</v>
       </c>
       <c r="H27" s="3">
-        <v>-56500</v>
+        <v>-46100</v>
       </c>
       <c r="I27" s="3">
-        <v>30500</v>
+        <v>-59800</v>
       </c>
       <c r="J27" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>73100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>45600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>129700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>192500</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>8300</v>
+        <v>203900</v>
       </c>
       <c r="F29" s="3">
-        <v>9600</v>
+        <v>8800</v>
       </c>
       <c r="G29" s="3">
-        <v>-1100</v>
+        <v>10100</v>
       </c>
       <c r="H29" s="3">
-        <v>196400</v>
+        <v>19900</v>
       </c>
       <c r="I29" s="3">
-        <v>-3400</v>
+        <v>208000</v>
       </c>
       <c r="J29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K29" s="3">
         <v>57000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>10100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-36800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>36700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>40400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>45600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>23300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-11500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>32700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-249300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68700</v>
+        <v>8600</v>
       </c>
       <c r="E32" s="3">
-        <v>86200</v>
+        <v>-72800</v>
       </c>
       <c r="F32" s="3">
-        <v>114900</v>
+        <v>91400</v>
       </c>
       <c r="G32" s="3">
-        <v>6700</v>
+        <v>121700</v>
       </c>
       <c r="H32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-26000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="K32" s="3">
         <v>8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>49100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>385800</v>
+        <v>21200</v>
       </c>
       <c r="E33" s="3">
-        <v>68300</v>
+        <v>408700</v>
       </c>
       <c r="F33" s="3">
-        <v>34500</v>
+        <v>72400</v>
       </c>
       <c r="G33" s="3">
-        <v>-23000</v>
+        <v>36600</v>
       </c>
       <c r="H33" s="3">
-        <v>139900</v>
+        <v>-26300</v>
       </c>
       <c r="I33" s="3">
-        <v>27100</v>
+        <v>148200</v>
       </c>
       <c r="J33" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K33" s="3">
         <v>74000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-119600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>385800</v>
+        <v>21200</v>
       </c>
       <c r="E35" s="3">
-        <v>68300</v>
+        <v>408700</v>
       </c>
       <c r="F35" s="3">
-        <v>34500</v>
+        <v>72400</v>
       </c>
       <c r="G35" s="3">
-        <v>-23000</v>
+        <v>36600</v>
       </c>
       <c r="H35" s="3">
-        <v>139900</v>
+        <v>-26300</v>
       </c>
       <c r="I35" s="3">
-        <v>27100</v>
+        <v>148200</v>
       </c>
       <c r="J35" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K35" s="3">
         <v>74000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-119600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1542500</v>
+        <v>729900</v>
       </c>
       <c r="E41" s="3">
-        <v>1289600</v>
+        <v>1634000</v>
       </c>
       <c r="F41" s="3">
-        <v>1369800</v>
+        <v>1366100</v>
       </c>
       <c r="G41" s="3">
-        <v>1089300</v>
+        <v>1451100</v>
       </c>
       <c r="H41" s="3">
-        <v>1408400</v>
+        <v>1154000</v>
       </c>
       <c r="I41" s="3">
-        <v>2241000</v>
+        <v>1492000</v>
       </c>
       <c r="J41" s="3">
+        <v>2374000</v>
+      </c>
+      <c r="K41" s="3">
         <v>833100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>779400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>485700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>713200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>397200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>972200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>324600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>606600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>417500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1268200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>360200</v>
+        <v>460300</v>
       </c>
       <c r="E43" s="3">
-        <v>508700</v>
+        <v>381500</v>
       </c>
       <c r="F43" s="3">
-        <v>507500</v>
+        <v>538900</v>
       </c>
       <c r="G43" s="3">
-        <v>493700</v>
+        <v>537600</v>
       </c>
       <c r="H43" s="3">
-        <v>495800</v>
+        <v>523000</v>
       </c>
       <c r="I43" s="3">
-        <v>288800</v>
+        <v>525200</v>
       </c>
       <c r="J43" s="3">
+        <v>305900</v>
+      </c>
+      <c r="K43" s="3">
         <v>226600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>321900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>243500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>289200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>253400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>409600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>379700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>394600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>268400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>368600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>333200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1157300</v>
+        <v>1270900</v>
       </c>
       <c r="E44" s="3">
-        <v>1747700</v>
+        <v>1226000</v>
       </c>
       <c r="F44" s="3">
-        <v>1618100</v>
+        <v>1851400</v>
       </c>
       <c r="G44" s="3">
-        <v>1717800</v>
+        <v>1714100</v>
       </c>
       <c r="H44" s="3">
-        <v>1528300</v>
+        <v>1819700</v>
       </c>
       <c r="I44" s="3">
-        <v>1070600</v>
+        <v>1619000</v>
       </c>
       <c r="J44" s="3">
+        <v>1134100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1007900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1072600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1054200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1025100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1199400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1111100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1236300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1188100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1135000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1135700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1151300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63700</v>
+        <v>99600</v>
       </c>
       <c r="E45" s="3">
-        <v>140400</v>
+        <v>67500</v>
       </c>
       <c r="F45" s="3">
-        <v>250600</v>
+        <v>148800</v>
       </c>
       <c r="G45" s="3">
-        <v>354100</v>
+        <v>265400</v>
       </c>
       <c r="H45" s="3">
-        <v>103200</v>
+        <v>375200</v>
       </c>
       <c r="I45" s="3">
-        <v>100000</v>
+        <v>109400</v>
       </c>
       <c r="J45" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K45" s="3">
         <v>57500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5072700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5210400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4098000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5128800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5230400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5876500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5097100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4904000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5016900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5099300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3123700</v>
+        <v>2560700</v>
       </c>
       <c r="E46" s="3">
-        <v>3686400</v>
+        <v>3309100</v>
       </c>
       <c r="F46" s="3">
-        <v>3745900</v>
+        <v>3905200</v>
       </c>
       <c r="G46" s="3">
-        <v>3654900</v>
+        <v>3968300</v>
       </c>
       <c r="H46" s="3">
-        <v>3535700</v>
+        <v>3871800</v>
       </c>
       <c r="I46" s="3">
-        <v>3700400</v>
+        <v>3745600</v>
       </c>
       <c r="J46" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2125200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6908700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7287500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5898000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7294700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7148300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8464600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7004300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6914100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6938800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7852000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>917200</v>
+        <v>971100</v>
       </c>
       <c r="E47" s="3">
-        <v>724700</v>
+        <v>971700</v>
       </c>
       <c r="F47" s="3">
-        <v>746200</v>
+        <v>767800</v>
       </c>
       <c r="G47" s="3">
-        <v>744400</v>
+        <v>790500</v>
       </c>
       <c r="H47" s="3">
-        <v>638900</v>
+        <v>788600</v>
       </c>
       <c r="I47" s="3">
-        <v>592300</v>
+        <v>676800</v>
       </c>
       <c r="J47" s="3">
+        <v>627500</v>
+      </c>
+      <c r="K47" s="3">
         <v>600600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>621300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>555500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>669100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>750500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>631000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>679400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>585100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>558900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>403600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>391200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4165900</v>
+        <v>4509200</v>
       </c>
       <c r="E48" s="3">
-        <v>5323100</v>
+        <v>4413200</v>
       </c>
       <c r="F48" s="3">
-        <v>4993700</v>
+        <v>5639000</v>
       </c>
       <c r="G48" s="3">
-        <v>4542400</v>
+        <v>5290100</v>
       </c>
       <c r="H48" s="3">
-        <v>4841300</v>
+        <v>4812000</v>
       </c>
       <c r="I48" s="3">
-        <v>2468000</v>
+        <v>5128600</v>
       </c>
       <c r="J48" s="3">
+        <v>2614500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2377200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2470300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2515800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1714100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2141600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2348200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2360700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2309500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2231500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2283600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1091500</v>
+        <v>1177600</v>
       </c>
       <c r="E49" s="3">
-        <v>1235900</v>
+        <v>1156200</v>
       </c>
       <c r="F49" s="3">
-        <v>1457300</v>
+        <v>1309300</v>
       </c>
       <c r="G49" s="3">
-        <v>1362400</v>
+        <v>1543800</v>
       </c>
       <c r="H49" s="3">
-        <v>1104200</v>
+        <v>1443200</v>
       </c>
       <c r="I49" s="3">
-        <v>514600</v>
+        <v>1169700</v>
       </c>
       <c r="J49" s="3">
+        <v>545100</v>
+      </c>
+      <c r="K49" s="3">
         <v>509400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>536700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1322100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>358400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>449800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>448400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>986600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>489200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>483800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>470600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>473300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138600</v>
+        <v>166800</v>
       </c>
       <c r="E52" s="3">
-        <v>227700</v>
+        <v>146900</v>
       </c>
       <c r="F52" s="3">
-        <v>227500</v>
+        <v>241200</v>
       </c>
       <c r="G52" s="3">
-        <v>249500</v>
+        <v>241000</v>
       </c>
       <c r="H52" s="3">
-        <v>234100</v>
+        <v>264300</v>
       </c>
       <c r="I52" s="3">
-        <v>205600</v>
+        <v>248000</v>
       </c>
       <c r="J52" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K52" s="3">
         <v>207200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>255200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>265300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>219100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>261300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>236300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>245600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>261300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>248200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>224000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>217300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9436900</v>
+        <v>9385400</v>
       </c>
       <c r="E54" s="3">
-        <v>11197900</v>
+        <v>9997100</v>
       </c>
       <c r="F54" s="3">
-        <v>11170600</v>
+        <v>11862600</v>
       </c>
       <c r="G54" s="3">
-        <v>10553500</v>
+        <v>11833700</v>
       </c>
       <c r="H54" s="3">
-        <v>10354200</v>
+        <v>11180000</v>
       </c>
       <c r="I54" s="3">
-        <v>7480900</v>
+        <v>10968700</v>
       </c>
       <c r="J54" s="3">
+        <v>7924900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5819600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10792200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11058700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8858700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10857000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10605500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12231100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10700500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10514400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10268500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11217400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2022800</v>
+        <v>1456200</v>
       </c>
       <c r="E57" s="3">
-        <v>2119700</v>
+        <v>2142900</v>
       </c>
       <c r="F57" s="3">
-        <v>2162200</v>
+        <v>2245500</v>
       </c>
       <c r="G57" s="3">
-        <v>2131600</v>
+        <v>2290500</v>
       </c>
       <c r="H57" s="3">
-        <v>2636000</v>
+        <v>2258100</v>
       </c>
       <c r="I57" s="3">
-        <v>1209600</v>
+        <v>2792500</v>
       </c>
       <c r="J57" s="3">
+        <v>1281400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1208900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1212800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1649500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1191400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1487300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1286900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2083900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1408800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1326000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1794100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>576500</v>
+        <v>735500</v>
       </c>
       <c r="E58" s="3">
-        <v>1276300</v>
+        <v>610800</v>
       </c>
       <c r="F58" s="3">
-        <v>933300</v>
+        <v>1352100</v>
       </c>
       <c r="G58" s="3">
-        <v>1149400</v>
+        <v>988700</v>
       </c>
       <c r="H58" s="3">
-        <v>783500</v>
+        <v>1217600</v>
       </c>
       <c r="I58" s="3">
-        <v>1114100</v>
+        <v>830000</v>
       </c>
       <c r="J58" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="K58" s="3">
         <v>651100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>528300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>803500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>343200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>425000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>324100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>320700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>363500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>381000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>553500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>733600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>673400</v>
+        <v>758400</v>
       </c>
       <c r="E59" s="3">
-        <v>667900</v>
+        <v>713400</v>
       </c>
       <c r="F59" s="3">
-        <v>728100</v>
+        <v>707600</v>
       </c>
       <c r="G59" s="3">
-        <v>689300</v>
+        <v>771300</v>
       </c>
       <c r="H59" s="3">
-        <v>676900</v>
+        <v>730200</v>
       </c>
       <c r="I59" s="3">
-        <v>344600</v>
+        <v>717100</v>
       </c>
       <c r="J59" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K59" s="3">
         <v>362800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4382600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4634800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3388600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4163000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4369600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5028400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4138200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3974700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4078400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4314900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3272800</v>
+        <v>2950100</v>
       </c>
       <c r="E60" s="3">
-        <v>4063900</v>
+        <v>3467000</v>
       </c>
       <c r="F60" s="3">
-        <v>3823600</v>
+        <v>4305100</v>
       </c>
       <c r="G60" s="3">
-        <v>3970300</v>
+        <v>4050600</v>
       </c>
       <c r="H60" s="3">
-        <v>4096500</v>
+        <v>4205900</v>
       </c>
       <c r="I60" s="3">
-        <v>2668300</v>
+        <v>4339700</v>
       </c>
       <c r="J60" s="3">
+        <v>2826600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2222800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6123600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6705500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4923300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6075300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5980700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7433000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5910600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5681600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5932100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6842500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2526600</v>
+        <v>2479400</v>
       </c>
       <c r="E61" s="3">
-        <v>3619000</v>
+        <v>2676600</v>
       </c>
       <c r="F61" s="3">
-        <v>4053000</v>
+        <v>3833800</v>
       </c>
       <c r="G61" s="3">
-        <v>3575800</v>
+        <v>4293500</v>
       </c>
       <c r="H61" s="3">
-        <v>3264500</v>
+        <v>3788000</v>
       </c>
       <c r="I61" s="3">
-        <v>2456300</v>
+        <v>3458200</v>
       </c>
       <c r="J61" s="3">
+        <v>2602100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1283800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1606100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1547100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>912200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>974000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>957900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>855500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>856300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>935500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>637300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>722400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>661500</v>
+        <v>732500</v>
       </c>
       <c r="E62" s="3">
-        <v>639000</v>
+        <v>700800</v>
       </c>
       <c r="F62" s="3">
-        <v>528200</v>
+        <v>677000</v>
       </c>
       <c r="G62" s="3">
-        <v>544700</v>
+        <v>559600</v>
       </c>
       <c r="H62" s="3">
-        <v>594200</v>
+        <v>577000</v>
       </c>
       <c r="I62" s="3">
-        <v>433300</v>
+        <v>629500</v>
       </c>
       <c r="J62" s="3">
+        <v>459000</v>
+      </c>
+      <c r="K62" s="3">
         <v>413500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>502400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>458500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>476800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>599200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>568200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>599200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>582200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>564300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>518500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>527400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7012000</v>
+        <v>6757800</v>
       </c>
       <c r="E66" s="3">
-        <v>8879900</v>
+        <v>7428200</v>
       </c>
       <c r="F66" s="3">
-        <v>8945600</v>
+        <v>9406900</v>
       </c>
       <c r="G66" s="3">
-        <v>8561300</v>
+        <v>9476500</v>
       </c>
       <c r="H66" s="3">
-        <v>8417000</v>
+        <v>9069500</v>
       </c>
       <c r="I66" s="3">
-        <v>5557900</v>
+        <v>8916600</v>
       </c>
       <c r="J66" s="3">
+        <v>5887800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3920000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8846900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9232900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6864100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8346500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8191400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9619100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8086000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7907800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7789200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8771400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1015500</v>
+        <v>1047400</v>
       </c>
       <c r="E72" s="3">
-        <v>824100</v>
+        <v>1075800</v>
       </c>
       <c r="F72" s="3">
-        <v>756800</v>
+        <v>873000</v>
       </c>
       <c r="G72" s="3">
-        <v>694600</v>
+        <v>801700</v>
       </c>
       <c r="H72" s="3">
-        <v>718400</v>
+        <v>735900</v>
       </c>
       <c r="I72" s="3">
-        <v>744200</v>
+        <v>761000</v>
       </c>
       <c r="J72" s="3">
+        <v>788400</v>
+      </c>
+      <c r="K72" s="3">
         <v>715000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>689900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>637200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>764700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>955800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>856600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>899600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>893200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>884000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>811200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>779000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2425000</v>
+        <v>2627600</v>
       </c>
       <c r="E76" s="3">
-        <v>2318000</v>
+        <v>2568900</v>
       </c>
       <c r="F76" s="3">
-        <v>2225100</v>
+        <v>2455600</v>
       </c>
       <c r="G76" s="3">
-        <v>1992200</v>
+        <v>2357100</v>
       </c>
       <c r="H76" s="3">
-        <v>1937100</v>
+        <v>2110500</v>
       </c>
       <c r="I76" s="3">
-        <v>1923000</v>
+        <v>2052100</v>
       </c>
       <c r="J76" s="3">
+        <v>2037100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1899600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1945200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1825700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1994600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2510600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2414100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2612000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2614600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2606600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2479300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2446100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>385800</v>
+        <v>21200</v>
       </c>
       <c r="E81" s="3">
-        <v>68300</v>
+        <v>408700</v>
       </c>
       <c r="F81" s="3">
-        <v>34500</v>
+        <v>72400</v>
       </c>
       <c r="G81" s="3">
-        <v>-23000</v>
+        <v>36600</v>
       </c>
       <c r="H81" s="3">
-        <v>139900</v>
+        <v>-26300</v>
       </c>
       <c r="I81" s="3">
-        <v>27100</v>
+        <v>148200</v>
       </c>
       <c r="J81" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K81" s="3">
         <v>74000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-119600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>454000</v>
+        <v>102800</v>
       </c>
       <c r="E83" s="3">
-        <v>117400</v>
+        <v>481000</v>
       </c>
       <c r="F83" s="3">
-        <v>217600</v>
+        <v>124400</v>
       </c>
       <c r="G83" s="3">
-        <v>107000</v>
+        <v>230500</v>
       </c>
       <c r="H83" s="3">
-        <v>276100</v>
+        <v>113300</v>
       </c>
       <c r="I83" s="3">
-        <v>67800</v>
+        <v>292400</v>
       </c>
       <c r="J83" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K83" s="3">
         <v>65000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>61400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>270200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>839700</v>
+        <v>-656200</v>
       </c>
       <c r="E89" s="3">
-        <v>34400</v>
+        <v>889500</v>
       </c>
       <c r="F89" s="3">
-        <v>-255700</v>
+        <v>36400</v>
       </c>
       <c r="G89" s="3">
-        <v>-679100</v>
+        <v>-270900</v>
       </c>
       <c r="H89" s="3">
-        <v>201000</v>
+        <v>-719400</v>
       </c>
       <c r="I89" s="3">
-        <v>40700</v>
+        <v>212900</v>
       </c>
       <c r="J89" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K89" s="3">
         <v>116900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-862300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1223600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-105100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>665300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1574200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-123800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>344600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-323500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-405300</v>
+        <v>-50600</v>
       </c>
       <c r="E91" s="3">
-        <v>-104300</v>
+        <v>-429400</v>
       </c>
       <c r="F91" s="3">
-        <v>-198300</v>
+        <v>-110500</v>
       </c>
       <c r="G91" s="3">
-        <v>-110700</v>
+        <v>-210100</v>
       </c>
       <c r="H91" s="3">
-        <v>-435900</v>
+        <v>-117200</v>
       </c>
       <c r="I91" s="3">
-        <v>-120600</v>
+        <v>-461800</v>
       </c>
       <c r="J91" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-89400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-92600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-82900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-73600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-88600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-383000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-759800</v>
+        <v>-77500</v>
       </c>
       <c r="E94" s="3">
-        <v>9700</v>
+        <v>-804900</v>
       </c>
       <c r="F94" s="3">
-        <v>-96100</v>
+        <v>10300</v>
       </c>
       <c r="G94" s="3">
-        <v>-119500</v>
+        <v>-101900</v>
       </c>
       <c r="H94" s="3">
-        <v>-578300</v>
+        <v>-126600</v>
       </c>
       <c r="I94" s="3">
-        <v>-120600</v>
+        <v>-612600</v>
       </c>
       <c r="J94" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K94" s="3">
         <v>311500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-104000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-125400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-135100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-501100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,53 +5549,54 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60000</v>
+        <v>-6800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2500</v>
+        <v>-63600</v>
       </c>
       <c r="F96" s="3">
-        <v>-49600</v>
+        <v>-2600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-52500</v>
       </c>
       <c r="H96" s="3">
-        <v>-47500</v>
+        <v>-3200</v>
       </c>
       <c r="I96" s="3">
-        <v>-6600</v>
+        <v>-50300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-6900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-31600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5370,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,87 +5795,93 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49800</v>
+        <v>-182700</v>
       </c>
       <c r="E100" s="3">
-        <v>-119500</v>
+        <v>-52700</v>
       </c>
       <c r="F100" s="3">
-        <v>232700</v>
+        <v>-126600</v>
       </c>
       <c r="G100" s="3">
-        <v>451900</v>
+        <v>246500</v>
       </c>
       <c r="H100" s="3">
-        <v>335400</v>
+        <v>478700</v>
       </c>
       <c r="I100" s="3">
-        <v>1488100</v>
+        <v>355300</v>
       </c>
       <c r="J100" s="3">
+        <v>1576400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-237800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>149500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-162200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>105500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-81300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-77200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-365400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>365900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>103900</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4800</v>
+        <v>110100</v>
       </c>
       <c r="F101" s="3">
-        <v>80600</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>27600</v>
+        <v>85300</v>
       </c>
       <c r="H101" s="3">
-        <v>19700</v>
+        <v>29300</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5640,14 +5889,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5665,68 +5914,74 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>134000</v>
+        <v>-904100</v>
       </c>
       <c r="E102" s="3">
-        <v>-80200</v>
+        <v>142000</v>
       </c>
       <c r="F102" s="3">
-        <v>-38600</v>
+        <v>-85000</v>
       </c>
       <c r="G102" s="3">
-        <v>-319100</v>
+        <v>-40900</v>
       </c>
       <c r="H102" s="3">
-        <v>-22300</v>
+        <v>-338000</v>
       </c>
       <c r="I102" s="3">
-        <v>1407900</v>
+        <v>-23600</v>
       </c>
       <c r="J102" s="3">
+        <v>1491400</v>
+      </c>
+      <c r="K102" s="3">
         <v>185900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-828100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>896600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-174900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>395600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1421900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-336100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>232500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-464700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2335700</v>
+        <v>2194100</v>
       </c>
       <c r="E8" s="3">
-        <v>9614000</v>
+        <v>2299900</v>
       </c>
       <c r="F8" s="3">
-        <v>3993400</v>
+        <v>9466400</v>
       </c>
       <c r="G8" s="3">
-        <v>7587200</v>
+        <v>3932100</v>
       </c>
       <c r="H8" s="3">
-        <v>2227700</v>
+        <v>2316700</v>
       </c>
       <c r="I8" s="3">
-        <v>5409400</v>
+        <v>2193500</v>
       </c>
       <c r="J8" s="3">
+        <v>5326400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2536800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2316300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2378200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2499600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2268300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2749700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2648800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3207100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2797100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2733800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2617700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10283900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1727000</v>
+        <v>1637900</v>
       </c>
       <c r="E9" s="3">
-        <v>7035000</v>
+        <v>1700500</v>
       </c>
       <c r="F9" s="3">
-        <v>3128500</v>
+        <v>6927000</v>
       </c>
       <c r="G9" s="3">
-        <v>5962800</v>
+        <v>3080400</v>
       </c>
       <c r="H9" s="3">
-        <v>1675800</v>
+        <v>1731600</v>
       </c>
       <c r="I9" s="3">
-        <v>3981400</v>
+        <v>1650100</v>
       </c>
       <c r="J9" s="3">
+        <v>3920300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1996200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1816700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1854800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1925100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1764100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2024400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2051500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2388700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2171000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1981000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2017900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7921900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>608700</v>
+        <v>556100</v>
       </c>
       <c r="E10" s="3">
-        <v>2579000</v>
+        <v>599400</v>
       </c>
       <c r="F10" s="3">
-        <v>864900</v>
+        <v>2539400</v>
       </c>
       <c r="G10" s="3">
-        <v>1624400</v>
+        <v>851700</v>
       </c>
       <c r="H10" s="3">
-        <v>551900</v>
+        <v>585100</v>
       </c>
       <c r="I10" s="3">
-        <v>1428000</v>
+        <v>543400</v>
       </c>
       <c r="J10" s="3">
+        <v>1406100</v>
+      </c>
+      <c r="K10" s="3">
         <v>540600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>499500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>523400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>574400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>504200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>725300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>597300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>818400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>626100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>752700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>599900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2362000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12900</v>
+        <v>10500</v>
       </c>
       <c r="E14" s="3">
-        <v>110300</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>12700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>113500</v>
-      </c>
       <c r="H14" s="3">
-        <v>31900</v>
+        <v>39200</v>
       </c>
       <c r="I14" s="3">
-        <v>50100</v>
+        <v>31400</v>
       </c>
       <c r="J14" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K14" s="3">
         <v>14600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91500</v>
+        <v>87900</v>
       </c>
       <c r="E15" s="3">
-        <v>338400</v>
+        <v>90100</v>
       </c>
       <c r="F15" s="3">
-        <v>107900</v>
+        <v>333200</v>
       </c>
       <c r="G15" s="3">
-        <v>207300</v>
+        <v>106200</v>
       </c>
       <c r="H15" s="3">
-        <v>81400</v>
+        <v>80900</v>
       </c>
       <c r="I15" s="3">
-        <v>192800</v>
+        <v>80200</v>
       </c>
       <c r="J15" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K15" s="3">
         <v>64000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>58600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>53000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>56100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>70300</v>
       </c>
       <c r="P15" s="3">
         <v>70300</v>
       </c>
       <c r="Q15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="R15" s="3">
         <v>52600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>49700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>47100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>175400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2274400</v>
+        <v>2138500</v>
       </c>
       <c r="E17" s="3">
-        <v>9120900</v>
+        <v>2239500</v>
       </c>
       <c r="F17" s="3">
-        <v>3810900</v>
+        <v>8980900</v>
       </c>
       <c r="G17" s="3">
-        <v>7359000</v>
+        <v>3752400</v>
       </c>
       <c r="H17" s="3">
-        <v>2230100</v>
+        <v>2224900</v>
       </c>
       <c r="I17" s="3">
-        <v>5315100</v>
+        <v>2195900</v>
       </c>
       <c r="J17" s="3">
+        <v>5233500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2451500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2241000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2293500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2331500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2180000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2552600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2563100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3070900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2745300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2620700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2541300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10071600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>61300</v>
+        <v>55600</v>
       </c>
       <c r="E18" s="3">
-        <v>493100</v>
+        <v>60400</v>
       </c>
       <c r="F18" s="3">
-        <v>182500</v>
+        <v>485600</v>
       </c>
       <c r="G18" s="3">
-        <v>228300</v>
+        <v>179700</v>
       </c>
       <c r="H18" s="3">
+        <v>91800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
-        <v>94400</v>
-      </c>
       <c r="J18" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K18" s="3">
         <v>85300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>168100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>197100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>136100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>113100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>212400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>71700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>27600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8600</v>
       </c>
-      <c r="E20" s="3">
-        <v>72800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>27600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-49100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>155500</v>
+        <v>164600</v>
       </c>
       <c r="E21" s="3">
-        <v>1046900</v>
+        <v>153100</v>
       </c>
       <c r="F21" s="3">
-        <v>215500</v>
+        <v>1030800</v>
       </c>
       <c r="G21" s="3">
-        <v>337100</v>
+        <v>212200</v>
       </c>
       <c r="H21" s="3">
-        <v>108400</v>
+        <v>180500</v>
       </c>
       <c r="I21" s="3">
-        <v>385700</v>
+        <v>106800</v>
       </c>
       <c r="J21" s="3">
+        <v>379700</v>
+      </c>
+      <c r="K21" s="3">
         <v>183500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>143200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>233300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>229800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>181400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>157700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>95400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>152300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>433400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46100</v>
+        <v>53200</v>
       </c>
       <c r="E22" s="3">
-        <v>209300</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>45400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>206100</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>46900</v>
-      </c>
       <c r="H22" s="3">
-        <v>48200</v>
+        <v>36400</v>
       </c>
       <c r="I22" s="3">
-        <v>162300</v>
+        <v>47500</v>
       </c>
       <c r="J22" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K22" s="3">
         <v>58300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>78900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>29700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>35100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>43200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>174900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="E23" s="3">
-        <v>356600</v>
+        <v>6500</v>
       </c>
       <c r="F23" s="3">
-        <v>91200</v>
+        <v>351100</v>
       </c>
       <c r="G23" s="3">
-        <v>59700</v>
+        <v>89800</v>
       </c>
       <c r="H23" s="3">
-        <v>-53100</v>
+        <v>28600</v>
       </c>
       <c r="I23" s="3">
-        <v>-69000</v>
+        <v>-52300</v>
       </c>
       <c r="J23" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K23" s="3">
         <v>54600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>122200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>132200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17300</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="3">
-        <v>124200</v>
+        <v>-17000</v>
       </c>
       <c r="F24" s="3">
-        <v>19900</v>
+        <v>122300</v>
       </c>
       <c r="G24" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="H24" s="3">
-        <v>-10900</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>-17800</v>
+        <v>-10700</v>
       </c>
       <c r="J24" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K24" s="3">
         <v>22300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23800</v>
+        <v>5500</v>
       </c>
       <c r="E26" s="3">
-        <v>232400</v>
+        <v>23500</v>
       </c>
       <c r="F26" s="3">
-        <v>71300</v>
+        <v>228800</v>
       </c>
       <c r="G26" s="3">
-        <v>39800</v>
+        <v>70200</v>
       </c>
       <c r="H26" s="3">
-        <v>-42200</v>
+        <v>24900</v>
       </c>
       <c r="I26" s="3">
-        <v>-51200</v>
+        <v>-41600</v>
       </c>
       <c r="J26" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="K26" s="3">
         <v>32300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21200</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
-        <v>204800</v>
+        <v>20900</v>
       </c>
       <c r="F27" s="3">
-        <v>63600</v>
+        <v>201700</v>
       </c>
       <c r="G27" s="3">
-        <v>26400</v>
+        <v>62600</v>
       </c>
       <c r="H27" s="3">
-        <v>-46100</v>
+        <v>15700</v>
       </c>
       <c r="I27" s="3">
-        <v>-59800</v>
+        <v>-45400</v>
       </c>
       <c r="J27" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K27" s="3">
         <v>32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>45600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>129700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>203900</v>
-      </c>
       <c r="F29" s="3">
-        <v>8800</v>
+        <v>200800</v>
       </c>
       <c r="G29" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>46200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L29" s="3">
+        <v>57000</v>
+      </c>
+      <c r="M29" s="3">
         <v>10100</v>
       </c>
-      <c r="H29" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I29" s="3">
-        <v>208000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K29" s="3">
-        <v>57000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-36800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>36700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>40400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>45600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>23300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-11500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>32700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-249300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>89900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="M32" s="3">
         <v>8600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-72800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>91400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>121700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>8600</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>49100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21200</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>408700</v>
+        <v>20900</v>
       </c>
       <c r="F33" s="3">
-        <v>72400</v>
+        <v>402500</v>
       </c>
       <c r="G33" s="3">
-        <v>36600</v>
+        <v>71300</v>
       </c>
       <c r="H33" s="3">
-        <v>-26300</v>
+        <v>61900</v>
       </c>
       <c r="I33" s="3">
-        <v>148200</v>
+        <v>-25900</v>
       </c>
       <c r="J33" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K33" s="3">
         <v>28700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-119600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21200</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>408700</v>
+        <v>20900</v>
       </c>
       <c r="F35" s="3">
-        <v>72400</v>
+        <v>402500</v>
       </c>
       <c r="G35" s="3">
-        <v>36600</v>
+        <v>71300</v>
       </c>
       <c r="H35" s="3">
-        <v>-26300</v>
+        <v>61900</v>
       </c>
       <c r="I35" s="3">
-        <v>148200</v>
+        <v>-25900</v>
       </c>
       <c r="J35" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K35" s="3">
         <v>28700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-119600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>729900</v>
+        <v>909600</v>
       </c>
       <c r="E41" s="3">
-        <v>1634000</v>
+        <v>718700</v>
       </c>
       <c r="F41" s="3">
-        <v>1366100</v>
+        <v>1608900</v>
       </c>
       <c r="G41" s="3">
-        <v>1451100</v>
+        <v>1345200</v>
       </c>
       <c r="H41" s="3">
-        <v>1154000</v>
+        <v>1428800</v>
       </c>
       <c r="I41" s="3">
-        <v>1492000</v>
+        <v>1136300</v>
       </c>
       <c r="J41" s="3">
+        <v>1469100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2374000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>833100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>779400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>485700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>713200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>397200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>972200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>324600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>606600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>417500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1268200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>460300</v>
+        <v>483000</v>
       </c>
       <c r="E43" s="3">
-        <v>381500</v>
+        <v>453300</v>
       </c>
       <c r="F43" s="3">
-        <v>538900</v>
+        <v>375700</v>
       </c>
       <c r="G43" s="3">
-        <v>537600</v>
+        <v>530600</v>
       </c>
       <c r="H43" s="3">
-        <v>523000</v>
+        <v>529400</v>
       </c>
       <c r="I43" s="3">
-        <v>525200</v>
+        <v>514900</v>
       </c>
       <c r="J43" s="3">
+        <v>517200</v>
+      </c>
+      <c r="K43" s="3">
         <v>305900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>226600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>321900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>243500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>289200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>253400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>409600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>379700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>394600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>268400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>368600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>333200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1270900</v>
+        <v>1147400</v>
       </c>
       <c r="E44" s="3">
-        <v>1226000</v>
+        <v>1251300</v>
       </c>
       <c r="F44" s="3">
-        <v>1851400</v>
+        <v>1207200</v>
       </c>
       <c r="G44" s="3">
-        <v>1714100</v>
+        <v>1823000</v>
       </c>
       <c r="H44" s="3">
-        <v>1819700</v>
+        <v>1687800</v>
       </c>
       <c r="I44" s="3">
-        <v>1619000</v>
+        <v>1791800</v>
       </c>
       <c r="J44" s="3">
+        <v>1594100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1134100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1007900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1072600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1054200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1025100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1199400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1111100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1236300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1188100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1135000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1135700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1151300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99600</v>
+        <v>98800</v>
       </c>
       <c r="E45" s="3">
-        <v>67500</v>
+        <v>98100</v>
       </c>
       <c r="F45" s="3">
-        <v>148800</v>
+        <v>66500</v>
       </c>
       <c r="G45" s="3">
-        <v>265400</v>
+        <v>146500</v>
       </c>
       <c r="H45" s="3">
-        <v>375200</v>
+        <v>261400</v>
       </c>
       <c r="I45" s="3">
-        <v>109400</v>
+        <v>369400</v>
       </c>
       <c r="J45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K45" s="3">
         <v>106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5072700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5210400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4098000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5128800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5230400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5876500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5097100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4904000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5016900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5099300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2560700</v>
+        <v>2638800</v>
       </c>
       <c r="E46" s="3">
-        <v>3309100</v>
+        <v>2521300</v>
       </c>
       <c r="F46" s="3">
-        <v>3905200</v>
+        <v>3258300</v>
       </c>
       <c r="G46" s="3">
-        <v>3968300</v>
+        <v>3845300</v>
       </c>
       <c r="H46" s="3">
-        <v>3871800</v>
+        <v>3907300</v>
       </c>
       <c r="I46" s="3">
-        <v>3745600</v>
+        <v>3812400</v>
       </c>
       <c r="J46" s="3">
+        <v>3688100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3920000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2125200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6908700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7287500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5898000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7294700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7148300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8464600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7004300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6914100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6938800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7852000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>971100</v>
+        <v>903700</v>
       </c>
       <c r="E47" s="3">
-        <v>971700</v>
+        <v>956200</v>
       </c>
       <c r="F47" s="3">
-        <v>767800</v>
+        <v>956700</v>
       </c>
       <c r="G47" s="3">
-        <v>790500</v>
+        <v>756000</v>
       </c>
       <c r="H47" s="3">
-        <v>788600</v>
+        <v>778300</v>
       </c>
       <c r="I47" s="3">
-        <v>676800</v>
+        <v>776500</v>
       </c>
       <c r="J47" s="3">
+        <v>666400</v>
+      </c>
+      <c r="K47" s="3">
         <v>627500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>621300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>555500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>669100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>750500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>631000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>679400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>585100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>558900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>403600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>391200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4509200</v>
+        <v>4008000</v>
       </c>
       <c r="E48" s="3">
-        <v>4413200</v>
+        <v>4440000</v>
       </c>
       <c r="F48" s="3">
-        <v>5639000</v>
+        <v>4345400</v>
       </c>
       <c r="G48" s="3">
-        <v>5290100</v>
+        <v>5552500</v>
       </c>
       <c r="H48" s="3">
-        <v>4812000</v>
+        <v>5208900</v>
       </c>
       <c r="I48" s="3">
-        <v>5128600</v>
+        <v>4738100</v>
       </c>
       <c r="J48" s="3">
+        <v>5049900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2614500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2377200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2470300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2515800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1714100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2141600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2348200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2360700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2309500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2231500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2283600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1177600</v>
+        <v>1057800</v>
       </c>
       <c r="E49" s="3">
-        <v>1156200</v>
+        <v>1159500</v>
       </c>
       <c r="F49" s="3">
-        <v>1309300</v>
+        <v>1138500</v>
       </c>
       <c r="G49" s="3">
-        <v>1543800</v>
+        <v>1289200</v>
       </c>
       <c r="H49" s="3">
-        <v>1443200</v>
+        <v>1520100</v>
       </c>
       <c r="I49" s="3">
-        <v>1169700</v>
+        <v>1421100</v>
       </c>
       <c r="J49" s="3">
+        <v>1151800</v>
+      </c>
+      <c r="K49" s="3">
         <v>545100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>509400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>536700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1322100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>358400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>449800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>448400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>986600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>489200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>483800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>470600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>473300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>166800</v>
+        <v>167700</v>
       </c>
       <c r="E52" s="3">
-        <v>146900</v>
+        <v>164200</v>
       </c>
       <c r="F52" s="3">
-        <v>241200</v>
+        <v>144600</v>
       </c>
       <c r="G52" s="3">
-        <v>241000</v>
+        <v>237500</v>
       </c>
       <c r="H52" s="3">
-        <v>264300</v>
+        <v>237300</v>
       </c>
       <c r="I52" s="3">
-        <v>248000</v>
+        <v>260200</v>
       </c>
       <c r="J52" s="3">
+        <v>244200</v>
+      </c>
+      <c r="K52" s="3">
         <v>217800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>207200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>255200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>265300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>219100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>261300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>236300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>245600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>261300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>248200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>224000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>217300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9385400</v>
+        <v>8776000</v>
       </c>
       <c r="E54" s="3">
-        <v>9997100</v>
+        <v>9241300</v>
       </c>
       <c r="F54" s="3">
-        <v>11862600</v>
+        <v>9843600</v>
       </c>
       <c r="G54" s="3">
-        <v>11833700</v>
+        <v>11680400</v>
       </c>
       <c r="H54" s="3">
-        <v>11180000</v>
+        <v>11652000</v>
       </c>
       <c r="I54" s="3">
-        <v>10968700</v>
+        <v>11008300</v>
       </c>
       <c r="J54" s="3">
+        <v>10800300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7924900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5819600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10792200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11058700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8858700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10857000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10605500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12231100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10700500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10514400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10268500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11217400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1456200</v>
+        <v>1424200</v>
       </c>
       <c r="E57" s="3">
-        <v>2142900</v>
+        <v>1433800</v>
       </c>
       <c r="F57" s="3">
-        <v>2245500</v>
+        <v>2110000</v>
       </c>
       <c r="G57" s="3">
-        <v>2290500</v>
+        <v>2211000</v>
       </c>
       <c r="H57" s="3">
-        <v>2258100</v>
+        <v>2255400</v>
       </c>
       <c r="I57" s="3">
-        <v>2792500</v>
+        <v>2223400</v>
       </c>
       <c r="J57" s="3">
+        <v>2749600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1281400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1208900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1212800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1649500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1191400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1487300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1286900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2083900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1408800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1326000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1794100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>735500</v>
+        <v>658500</v>
       </c>
       <c r="E58" s="3">
-        <v>610800</v>
+        <v>724200</v>
       </c>
       <c r="F58" s="3">
-        <v>1352100</v>
+        <v>601400</v>
       </c>
       <c r="G58" s="3">
-        <v>988700</v>
+        <v>1331300</v>
       </c>
       <c r="H58" s="3">
-        <v>1217600</v>
+        <v>973600</v>
       </c>
       <c r="I58" s="3">
-        <v>830000</v>
+        <v>1198900</v>
       </c>
       <c r="J58" s="3">
+        <v>817300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1180300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>651100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>528300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>803500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>343200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>425000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>324100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>320700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>363500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>381000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>553500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>733600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>758400</v>
+        <v>603800</v>
       </c>
       <c r="E59" s="3">
-        <v>713400</v>
+        <v>746700</v>
       </c>
       <c r="F59" s="3">
-        <v>707600</v>
+        <v>702400</v>
       </c>
       <c r="G59" s="3">
-        <v>771300</v>
+        <v>696700</v>
       </c>
       <c r="H59" s="3">
-        <v>730200</v>
+        <v>759500</v>
       </c>
       <c r="I59" s="3">
-        <v>717100</v>
+        <v>719000</v>
       </c>
       <c r="J59" s="3">
+        <v>706100</v>
+      </c>
+      <c r="K59" s="3">
         <v>365000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>362800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4382600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4634800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3388600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4163000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4369600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5028400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4138200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3974700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4078400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4314900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2950100</v>
+        <v>2686500</v>
       </c>
       <c r="E60" s="3">
-        <v>3467000</v>
+        <v>2904800</v>
       </c>
       <c r="F60" s="3">
-        <v>4305100</v>
+        <v>3413800</v>
       </c>
       <c r="G60" s="3">
-        <v>4050600</v>
+        <v>4239000</v>
       </c>
       <c r="H60" s="3">
-        <v>4205900</v>
+        <v>3988400</v>
       </c>
       <c r="I60" s="3">
-        <v>4339700</v>
+        <v>4141300</v>
       </c>
       <c r="J60" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2826600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2222800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6123600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6705500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4923300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6075300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5980700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7433000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5910600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5681600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5932100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6842500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2479400</v>
+        <v>2579500</v>
       </c>
       <c r="E61" s="3">
-        <v>2676600</v>
+        <v>2441400</v>
       </c>
       <c r="F61" s="3">
-        <v>3833800</v>
+        <v>2635500</v>
       </c>
       <c r="G61" s="3">
-        <v>4293500</v>
+        <v>3774900</v>
       </c>
       <c r="H61" s="3">
-        <v>3788000</v>
+        <v>4227600</v>
       </c>
       <c r="I61" s="3">
-        <v>3458200</v>
+        <v>3729800</v>
       </c>
       <c r="J61" s="3">
+        <v>3405100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2602100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1283800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1606100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1547100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>912200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>974000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>957900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>855500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>856300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>935500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>637300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>722400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>732500</v>
+        <v>665500</v>
       </c>
       <c r="E62" s="3">
-        <v>700800</v>
+        <v>721300</v>
       </c>
       <c r="F62" s="3">
-        <v>677000</v>
+        <v>690000</v>
       </c>
       <c r="G62" s="3">
-        <v>559600</v>
+        <v>666600</v>
       </c>
       <c r="H62" s="3">
-        <v>577000</v>
+        <v>551000</v>
       </c>
       <c r="I62" s="3">
-        <v>629500</v>
+        <v>568100</v>
       </c>
       <c r="J62" s="3">
+        <v>619900</v>
+      </c>
+      <c r="K62" s="3">
         <v>459000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>413500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>502400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>458500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>476800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>599200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>568200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>599200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>582200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>564300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>518500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>527400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6757800</v>
+        <v>6434400</v>
       </c>
       <c r="E66" s="3">
-        <v>7428200</v>
+        <v>6654000</v>
       </c>
       <c r="F66" s="3">
-        <v>9406900</v>
+        <v>7314100</v>
       </c>
       <c r="G66" s="3">
-        <v>9476500</v>
+        <v>9262500</v>
       </c>
       <c r="H66" s="3">
-        <v>9069500</v>
+        <v>9331000</v>
       </c>
       <c r="I66" s="3">
-        <v>8916600</v>
+        <v>8930200</v>
       </c>
       <c r="J66" s="3">
+        <v>8779700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5887800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3920000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8846900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9232900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6864100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8346500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8191400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9619100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8086000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7907800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7789200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8771400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1047400</v>
+        <v>994600</v>
       </c>
       <c r="E72" s="3">
-        <v>1075800</v>
+        <v>1031400</v>
       </c>
       <c r="F72" s="3">
-        <v>873000</v>
+        <v>1059300</v>
       </c>
       <c r="G72" s="3">
-        <v>801700</v>
+        <v>859600</v>
       </c>
       <c r="H72" s="3">
-        <v>735900</v>
+        <v>789400</v>
       </c>
       <c r="I72" s="3">
-        <v>761000</v>
+        <v>724600</v>
       </c>
       <c r="J72" s="3">
+        <v>749300</v>
+      </c>
+      <c r="K72" s="3">
         <v>788400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>715000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>689900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>637200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>764700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>955800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>856600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>899600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>893200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>884000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>811200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>779000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2627600</v>
+        <v>2341600</v>
       </c>
       <c r="E76" s="3">
-        <v>2568900</v>
+        <v>2587300</v>
       </c>
       <c r="F76" s="3">
-        <v>2455600</v>
+        <v>2529500</v>
       </c>
       <c r="G76" s="3">
-        <v>2357100</v>
+        <v>2417900</v>
       </c>
       <c r="H76" s="3">
-        <v>2110500</v>
+        <v>2320900</v>
       </c>
       <c r="I76" s="3">
-        <v>2052100</v>
+        <v>2078100</v>
       </c>
       <c r="J76" s="3">
+        <v>2020600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2037100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1899600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1945200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1825700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1994600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2510600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2414100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2612000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2614600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2606600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2479300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2446100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21200</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>408700</v>
+        <v>20900</v>
       </c>
       <c r="F81" s="3">
-        <v>72400</v>
+        <v>402500</v>
       </c>
       <c r="G81" s="3">
-        <v>36600</v>
+        <v>71300</v>
       </c>
       <c r="H81" s="3">
-        <v>-26300</v>
+        <v>61900</v>
       </c>
       <c r="I81" s="3">
-        <v>148200</v>
+        <v>-25900</v>
       </c>
       <c r="J81" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K81" s="3">
         <v>28700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-119600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102800</v>
+        <v>99400</v>
       </c>
       <c r="E83" s="3">
-        <v>481000</v>
+        <v>101200</v>
       </c>
       <c r="F83" s="3">
-        <v>124400</v>
+        <v>473600</v>
       </c>
       <c r="G83" s="3">
-        <v>230500</v>
+        <v>122500</v>
       </c>
       <c r="H83" s="3">
-        <v>113300</v>
+        <v>115400</v>
       </c>
       <c r="I83" s="3">
-        <v>292400</v>
+        <v>111600</v>
       </c>
       <c r="J83" s="3">
+        <v>287900</v>
+      </c>
+      <c r="K83" s="3">
         <v>71800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>61400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>270200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-656200</v>
+        <v>294400</v>
       </c>
       <c r="E89" s="3">
-        <v>889500</v>
+        <v>-646100</v>
       </c>
       <c r="F89" s="3">
-        <v>36400</v>
+        <v>875800</v>
       </c>
       <c r="G89" s="3">
-        <v>-270900</v>
+        <v>35800</v>
       </c>
       <c r="H89" s="3">
-        <v>-719400</v>
+        <v>441600</v>
       </c>
       <c r="I89" s="3">
-        <v>212900</v>
+        <v>-708300</v>
       </c>
       <c r="J89" s="3">
+        <v>209600</v>
+      </c>
+      <c r="K89" s="3">
         <v>43100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-862300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1223600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-105100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>665300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1574200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-123800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>344600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-323500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50600</v>
+        <v>-39300</v>
       </c>
       <c r="E91" s="3">
-        <v>-429400</v>
+        <v>-49900</v>
       </c>
       <c r="F91" s="3">
-        <v>-110500</v>
+        <v>-422800</v>
       </c>
       <c r="G91" s="3">
-        <v>-210100</v>
+        <v>-108800</v>
       </c>
       <c r="H91" s="3">
-        <v>-117200</v>
+        <v>-91400</v>
       </c>
       <c r="I91" s="3">
-        <v>-461800</v>
+        <v>-115400</v>
       </c>
       <c r="J91" s="3">
+        <v>-454700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-127700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-73600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-88600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-383000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77500</v>
+        <v>-47300</v>
       </c>
       <c r="E94" s="3">
-        <v>-804900</v>
+        <v>-76300</v>
       </c>
       <c r="F94" s="3">
-        <v>10300</v>
+        <v>-792500</v>
       </c>
       <c r="G94" s="3">
-        <v>-101900</v>
+        <v>10200</v>
       </c>
       <c r="H94" s="3">
-        <v>-126600</v>
+        <v>24400</v>
       </c>
       <c r="I94" s="3">
-        <v>-612600</v>
+        <v>-124700</v>
       </c>
       <c r="J94" s="3">
+        <v>-603200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-127700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>311500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-88000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-125400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-135100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-501100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,56 +5783,57 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>-116400</v>
       </c>
       <c r="E96" s="3">
-        <v>-63600</v>
+        <v>-6600</v>
       </c>
       <c r="F96" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-52500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-3200</v>
+        <v>-48600</v>
       </c>
       <c r="I96" s="3">
-        <v>-50300</v>
+        <v>-3100</v>
       </c>
       <c r="J96" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-31600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-25900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5841,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,93 +6041,99 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-182700</v>
+        <v>5900</v>
       </c>
       <c r="E100" s="3">
-        <v>-52700</v>
+        <v>-179900</v>
       </c>
       <c r="F100" s="3">
-        <v>-126600</v>
+        <v>-51900</v>
       </c>
       <c r="G100" s="3">
-        <v>246500</v>
+        <v>-124700</v>
       </c>
       <c r="H100" s="3">
-        <v>478700</v>
+        <v>-228700</v>
       </c>
       <c r="I100" s="3">
-        <v>355300</v>
+        <v>471400</v>
       </c>
       <c r="J100" s="3">
+        <v>349800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1576400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-237800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>149500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-162200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>105500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-81300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>170200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-26900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-55100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-365400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>365900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>-62100</v>
       </c>
       <c r="E101" s="3">
-        <v>110100</v>
+        <v>12000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>108400</v>
       </c>
       <c r="G101" s="3">
-        <v>85300</v>
+        <v>-5000</v>
       </c>
       <c r="H101" s="3">
-        <v>29300</v>
+        <v>55200</v>
       </c>
       <c r="I101" s="3">
-        <v>20800</v>
+        <v>28800</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5892,14 +6141,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5917,71 +6166,77 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-904100</v>
+        <v>191000</v>
       </c>
       <c r="E102" s="3">
-        <v>142000</v>
+        <v>-890300</v>
       </c>
       <c r="F102" s="3">
-        <v>-85000</v>
+        <v>139800</v>
       </c>
       <c r="G102" s="3">
-        <v>-40900</v>
+        <v>-83700</v>
       </c>
       <c r="H102" s="3">
-        <v>-338000</v>
+        <v>292600</v>
       </c>
       <c r="I102" s="3">
-        <v>-23600</v>
+        <v>-332800</v>
       </c>
       <c r="J102" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1491400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>185900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-828100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>896600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-174900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>395600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1421900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-336100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>232500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-464700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2194100</v>
+        <v>2157200</v>
       </c>
       <c r="E8" s="3">
-        <v>2299900</v>
+        <v>2120600</v>
       </c>
       <c r="F8" s="3">
-        <v>9466400</v>
+        <v>2222900</v>
       </c>
       <c r="G8" s="3">
-        <v>3932100</v>
+        <v>9149700</v>
       </c>
       <c r="H8" s="3">
-        <v>2316700</v>
+        <v>2153700</v>
       </c>
       <c r="I8" s="3">
-        <v>2193500</v>
+        <v>2239200</v>
       </c>
       <c r="J8" s="3">
+        <v>2120100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5326400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2536800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2316300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2378200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2499600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2268300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2749700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2648800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3207100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2797100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2733800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2617700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10283900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1637900</v>
+        <v>1627400</v>
       </c>
       <c r="E9" s="3">
-        <v>1700500</v>
+        <v>1583100</v>
       </c>
       <c r="F9" s="3">
-        <v>6927000</v>
+        <v>1643600</v>
       </c>
       <c r="G9" s="3">
-        <v>3080400</v>
+        <v>6695200</v>
       </c>
       <c r="H9" s="3">
-        <v>1731600</v>
+        <v>1604000</v>
       </c>
       <c r="I9" s="3">
-        <v>1650100</v>
+        <v>1673600</v>
       </c>
       <c r="J9" s="3">
+        <v>1594900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3920300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1996200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1816700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1854800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1925100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1764100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2024400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2051500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2388700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2171000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1981000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2017900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7921900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>556100</v>
+        <v>529800</v>
       </c>
       <c r="E10" s="3">
-        <v>599400</v>
+        <v>537500</v>
       </c>
       <c r="F10" s="3">
-        <v>2539400</v>
+        <v>579300</v>
       </c>
       <c r="G10" s="3">
-        <v>851700</v>
+        <v>2454500</v>
       </c>
       <c r="H10" s="3">
-        <v>585100</v>
+        <v>549700</v>
       </c>
       <c r="I10" s="3">
-        <v>543400</v>
+        <v>565600</v>
       </c>
       <c r="J10" s="3">
+        <v>525200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1406100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>540600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>499500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>523400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>574400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>504200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>725300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>597300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>818400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>626100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>752700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>599900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2362000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10500</v>
+        <v>25500</v>
       </c>
       <c r="E14" s="3">
-        <v>12700</v>
+        <v>10200</v>
       </c>
       <c r="F14" s="3">
-        <v>108600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>12300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>105000</v>
       </c>
       <c r="H14" s="3">
-        <v>39200</v>
+        <v>20700</v>
       </c>
       <c r="I14" s="3">
-        <v>31400</v>
+        <v>37800</v>
       </c>
       <c r="J14" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K14" s="3">
         <v>49300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-4900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87900</v>
+        <v>80500</v>
       </c>
       <c r="E15" s="3">
-        <v>90100</v>
+        <v>85000</v>
       </c>
       <c r="F15" s="3">
-        <v>333200</v>
+        <v>87100</v>
       </c>
       <c r="G15" s="3">
-        <v>106200</v>
+        <v>322100</v>
       </c>
       <c r="H15" s="3">
-        <v>80900</v>
+        <v>80000</v>
       </c>
       <c r="I15" s="3">
-        <v>80200</v>
+        <v>78200</v>
       </c>
       <c r="J15" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K15" s="3">
         <v>189900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>58600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>53000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>56100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>70300</v>
       </c>
       <c r="Q15" s="3">
         <v>70300</v>
       </c>
       <c r="R15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="S15" s="3">
         <v>52600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>49700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>47100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>175400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2138500</v>
+        <v>2139600</v>
       </c>
       <c r="E17" s="3">
-        <v>2239500</v>
+        <v>2066900</v>
       </c>
       <c r="F17" s="3">
-        <v>8980900</v>
+        <v>2164600</v>
       </c>
       <c r="G17" s="3">
-        <v>3752400</v>
+        <v>8680400</v>
       </c>
       <c r="H17" s="3">
-        <v>2224900</v>
+        <v>2081500</v>
       </c>
       <c r="I17" s="3">
-        <v>2195900</v>
+        <v>2150500</v>
       </c>
       <c r="J17" s="3">
+        <v>2122400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5233500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2451500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2241000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2293500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2331500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2180000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2552600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2563100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3070900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2745300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2620700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2541300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10071600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55600</v>
+        <v>17700</v>
       </c>
       <c r="E18" s="3">
-        <v>60400</v>
+        <v>53700</v>
       </c>
       <c r="F18" s="3">
-        <v>485600</v>
+        <v>58400</v>
       </c>
       <c r="G18" s="3">
-        <v>179700</v>
+        <v>469300</v>
       </c>
       <c r="H18" s="3">
-        <v>91800</v>
+        <v>72100</v>
       </c>
       <c r="I18" s="3">
-        <v>-2400</v>
+        <v>88700</v>
       </c>
       <c r="J18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K18" s="3">
         <v>92900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>168100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>197100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>136100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>212400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9600</v>
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>9300</v>
       </c>
       <c r="F20" s="3">
-        <v>71700</v>
+        <v>-8200</v>
       </c>
       <c r="G20" s="3">
-        <v>-89900</v>
+        <v>69300</v>
       </c>
       <c r="H20" s="3">
-        <v>-26800</v>
+        <v>-12900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>-25900</v>
       </c>
       <c r="J20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-49100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>164600</v>
+        <v>106000</v>
       </c>
       <c r="E21" s="3">
-        <v>153100</v>
+        <v>159100</v>
       </c>
       <c r="F21" s="3">
-        <v>1030800</v>
+        <v>148000</v>
       </c>
       <c r="G21" s="3">
-        <v>212200</v>
+        <v>996300</v>
       </c>
       <c r="H21" s="3">
-        <v>180500</v>
+        <v>177600</v>
       </c>
       <c r="I21" s="3">
-        <v>106800</v>
+        <v>174400</v>
       </c>
       <c r="J21" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K21" s="3">
         <v>379700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>143200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>233300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>229800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>181400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>157700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>95400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>152300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>433400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53200</v>
+        <v>59300</v>
       </c>
       <c r="E22" s="3">
-        <v>45400</v>
+        <v>51400</v>
       </c>
       <c r="F22" s="3">
-        <v>206100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>43900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>199200</v>
       </c>
       <c r="H22" s="3">
-        <v>36400</v>
+        <v>50900</v>
       </c>
       <c r="I22" s="3">
-        <v>47500</v>
+        <v>35200</v>
       </c>
       <c r="J22" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K22" s="3">
         <v>159800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>78900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>29700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>35100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>43200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>174900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12000</v>
+        <v>-48700</v>
       </c>
       <c r="E23" s="3">
-        <v>6500</v>
+        <v>11600</v>
       </c>
       <c r="F23" s="3">
-        <v>351100</v>
+        <v>6200</v>
       </c>
       <c r="G23" s="3">
-        <v>89800</v>
+        <v>339400</v>
       </c>
       <c r="H23" s="3">
-        <v>28600</v>
+        <v>8400</v>
       </c>
       <c r="I23" s="3">
-        <v>-52300</v>
+        <v>27700</v>
       </c>
       <c r="J23" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-68000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>122200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>132200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6500</v>
+        <v>-42300</v>
       </c>
       <c r="E24" s="3">
-        <v>-17000</v>
+        <v>6200</v>
       </c>
       <c r="F24" s="3">
-        <v>122300</v>
+        <v>-16400</v>
       </c>
       <c r="G24" s="3">
-        <v>19600</v>
+        <v>118200</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>12300</v>
       </c>
       <c r="I24" s="3">
-        <v>-10700</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-17500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5500</v>
+        <v>-6400</v>
       </c>
       <c r="E26" s="3">
-        <v>23500</v>
+        <v>5400</v>
       </c>
       <c r="F26" s="3">
-        <v>228800</v>
+        <v>22700</v>
       </c>
       <c r="G26" s="3">
-        <v>70200</v>
+        <v>221200</v>
       </c>
       <c r="H26" s="3">
-        <v>24900</v>
+        <v>-3900</v>
       </c>
       <c r="I26" s="3">
-        <v>-41600</v>
+        <v>24100</v>
       </c>
       <c r="J26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>-15700</v>
       </c>
       <c r="E27" s="3">
-        <v>20900</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>201700</v>
+        <v>20200</v>
       </c>
       <c r="G27" s="3">
-        <v>62600</v>
+        <v>194900</v>
       </c>
       <c r="H27" s="3">
-        <v>15700</v>
+        <v>-11200</v>
       </c>
       <c r="I27" s="3">
-        <v>-45400</v>
+        <v>15200</v>
       </c>
       <c r="J27" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-58900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>129700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>200800</v>
-      </c>
       <c r="G29" s="3">
-        <v>8700</v>
+        <v>194100</v>
       </c>
       <c r="H29" s="3">
-        <v>46200</v>
+        <v>80200</v>
       </c>
       <c r="I29" s="3">
-        <v>19600</v>
+        <v>44600</v>
       </c>
       <c r="J29" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K29" s="3">
         <v>204800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>57000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>10100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-36800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>36700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>40400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>45600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-11500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>32700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-249300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9600</v>
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>-9300</v>
       </c>
       <c r="F32" s="3">
-        <v>-71700</v>
+        <v>8200</v>
       </c>
       <c r="G32" s="3">
-        <v>89900</v>
+        <v>-69300</v>
       </c>
       <c r="H32" s="3">
-        <v>26800</v>
+        <v>12900</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>25900</v>
       </c>
       <c r="J32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>44800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>49100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>20900</v>
-      </c>
       <c r="F33" s="3">
-        <v>402500</v>
+        <v>20200</v>
       </c>
       <c r="G33" s="3">
-        <v>71300</v>
+        <v>389000</v>
       </c>
       <c r="H33" s="3">
-        <v>61900</v>
+        <v>68900</v>
       </c>
       <c r="I33" s="3">
-        <v>-25900</v>
+        <v>59800</v>
       </c>
       <c r="J33" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K33" s="3">
         <v>145900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-119600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>20900</v>
-      </c>
       <c r="F35" s="3">
-        <v>402500</v>
+        <v>20200</v>
       </c>
       <c r="G35" s="3">
-        <v>71300</v>
+        <v>389000</v>
       </c>
       <c r="H35" s="3">
-        <v>61900</v>
+        <v>68900</v>
       </c>
       <c r="I35" s="3">
-        <v>-25900</v>
+        <v>59800</v>
       </c>
       <c r="J35" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K35" s="3">
         <v>145900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-119600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>909600</v>
+        <v>808000</v>
       </c>
       <c r="E41" s="3">
-        <v>718700</v>
+        <v>879200</v>
       </c>
       <c r="F41" s="3">
-        <v>1608900</v>
+        <v>694600</v>
       </c>
       <c r="G41" s="3">
-        <v>1345200</v>
+        <v>1555100</v>
       </c>
       <c r="H41" s="3">
-        <v>1428800</v>
+        <v>1300200</v>
       </c>
       <c r="I41" s="3">
-        <v>1136300</v>
+        <v>1381000</v>
       </c>
       <c r="J41" s="3">
+        <v>1098300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1469100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2374000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>833100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>441400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>779400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>485700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>713200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>397200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>972200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>324600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>606600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>417500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1268200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>483000</v>
+        <v>472400</v>
       </c>
       <c r="E43" s="3">
-        <v>453300</v>
+        <v>466800</v>
       </c>
       <c r="F43" s="3">
-        <v>375700</v>
+        <v>438100</v>
       </c>
       <c r="G43" s="3">
-        <v>530600</v>
+        <v>363100</v>
       </c>
       <c r="H43" s="3">
-        <v>529400</v>
+        <v>512900</v>
       </c>
       <c r="I43" s="3">
-        <v>514900</v>
+        <v>511600</v>
       </c>
       <c r="J43" s="3">
+        <v>497700</v>
+      </c>
+      <c r="K43" s="3">
         <v>517200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>305900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>321900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>243500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>289200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>253400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>409600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>379700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>394600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>268400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>368600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>333200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1147400</v>
+        <v>1175600</v>
       </c>
       <c r="E44" s="3">
-        <v>1251300</v>
+        <v>1109000</v>
       </c>
       <c r="F44" s="3">
-        <v>1207200</v>
+        <v>1209500</v>
       </c>
       <c r="G44" s="3">
-        <v>1823000</v>
+        <v>1166800</v>
       </c>
       <c r="H44" s="3">
-        <v>1687800</v>
+        <v>1762000</v>
       </c>
       <c r="I44" s="3">
-        <v>1791800</v>
+        <v>1631300</v>
       </c>
       <c r="J44" s="3">
+        <v>1731800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1594100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1134100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1007900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1072600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1054200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1025100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1199400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1111100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1236300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1188100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1135000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1135700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1151300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98800</v>
+        <v>89100</v>
       </c>
       <c r="E45" s="3">
-        <v>98100</v>
+        <v>95500</v>
       </c>
       <c r="F45" s="3">
-        <v>66500</v>
+        <v>94800</v>
       </c>
       <c r="G45" s="3">
-        <v>146500</v>
+        <v>64300</v>
       </c>
       <c r="H45" s="3">
-        <v>261400</v>
+        <v>141600</v>
       </c>
       <c r="I45" s="3">
-        <v>369400</v>
+        <v>252600</v>
       </c>
       <c r="J45" s="3">
+        <v>357000</v>
+      </c>
+      <c r="K45" s="3">
         <v>107700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5072700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5210400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4098000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5128800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5230400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5876500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5097100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4904000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5016900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5099300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2638800</v>
+        <v>2545000</v>
       </c>
       <c r="E46" s="3">
-        <v>2521300</v>
+        <v>2550500</v>
       </c>
       <c r="F46" s="3">
-        <v>3258300</v>
+        <v>2437000</v>
       </c>
       <c r="G46" s="3">
-        <v>3845300</v>
+        <v>3149300</v>
       </c>
       <c r="H46" s="3">
-        <v>3907300</v>
+        <v>3716600</v>
       </c>
       <c r="I46" s="3">
-        <v>3812400</v>
+        <v>3776600</v>
       </c>
       <c r="J46" s="3">
+        <v>3684800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3688100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3920000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2125200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6908700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7287500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5898000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7294700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7148300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8464600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7004300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6914100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6938800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7852000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>903700</v>
+        <v>849400</v>
       </c>
       <c r="E47" s="3">
-        <v>956200</v>
+        <v>873500</v>
       </c>
       <c r="F47" s="3">
-        <v>956700</v>
+        <v>924200</v>
       </c>
       <c r="G47" s="3">
-        <v>756000</v>
+        <v>924700</v>
       </c>
       <c r="H47" s="3">
-        <v>778300</v>
+        <v>730700</v>
       </c>
       <c r="I47" s="3">
-        <v>776500</v>
+        <v>752300</v>
       </c>
       <c r="J47" s="3">
+        <v>750500</v>
+      </c>
+      <c r="K47" s="3">
         <v>666400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>627500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>621300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>555500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>669100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>750500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>631000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>679400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>585100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>558900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>403600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>391200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4008000</v>
+        <v>4019200</v>
       </c>
       <c r="E48" s="3">
-        <v>4440000</v>
+        <v>3873900</v>
       </c>
       <c r="F48" s="3">
-        <v>4345400</v>
+        <v>4291400</v>
       </c>
       <c r="G48" s="3">
-        <v>5552500</v>
+        <v>4200000</v>
       </c>
       <c r="H48" s="3">
-        <v>5208900</v>
+        <v>5366700</v>
       </c>
       <c r="I48" s="3">
-        <v>4738100</v>
+        <v>5034600</v>
       </c>
       <c r="J48" s="3">
+        <v>4579600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5049900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2614500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2377200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2470300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2515800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1714100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2141600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2348200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2360700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2309500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2231500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2283600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1057800</v>
+        <v>1073400</v>
       </c>
       <c r="E49" s="3">
-        <v>1159500</v>
+        <v>1022400</v>
       </c>
       <c r="F49" s="3">
-        <v>1138500</v>
+        <v>1120700</v>
       </c>
       <c r="G49" s="3">
-        <v>1289200</v>
+        <v>1100400</v>
       </c>
       <c r="H49" s="3">
-        <v>1520100</v>
+        <v>1246100</v>
       </c>
       <c r="I49" s="3">
-        <v>1421100</v>
+        <v>1469200</v>
       </c>
       <c r="J49" s="3">
+        <v>1373500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1151800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>545100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>509400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>536700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1322100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>358400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>449800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>448400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>986600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>489200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>483800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>470600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>473300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>167700</v>
+        <v>206000</v>
       </c>
       <c r="E52" s="3">
-        <v>164200</v>
+        <v>162100</v>
       </c>
       <c r="F52" s="3">
-        <v>144600</v>
+        <v>158700</v>
       </c>
       <c r="G52" s="3">
-        <v>237500</v>
+        <v>139800</v>
       </c>
       <c r="H52" s="3">
-        <v>237300</v>
+        <v>229600</v>
       </c>
       <c r="I52" s="3">
-        <v>260200</v>
+        <v>229400</v>
       </c>
       <c r="J52" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K52" s="3">
         <v>244200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>217800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>207200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>255200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>265300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>219100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>261300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>236300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>245600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>261300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>248200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>224000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>217300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8776000</v>
+        <v>8693000</v>
       </c>
       <c r="E54" s="3">
-        <v>9241300</v>
+        <v>8482400</v>
       </c>
       <c r="F54" s="3">
-        <v>9843600</v>
+        <v>8932100</v>
       </c>
       <c r="G54" s="3">
-        <v>11680400</v>
+        <v>9514200</v>
       </c>
       <c r="H54" s="3">
-        <v>11652000</v>
+        <v>11289600</v>
       </c>
       <c r="I54" s="3">
-        <v>11008300</v>
+        <v>11262100</v>
       </c>
       <c r="J54" s="3">
+        <v>10640000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10800300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7924900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5819600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10792200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11058700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8858700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10857000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10605500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12231100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10700500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10514400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10268500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11217400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1424200</v>
+        <v>1354300</v>
       </c>
       <c r="E57" s="3">
-        <v>1433800</v>
+        <v>1376600</v>
       </c>
       <c r="F57" s="3">
-        <v>2110000</v>
+        <v>1385900</v>
       </c>
       <c r="G57" s="3">
-        <v>2211000</v>
+        <v>2039400</v>
       </c>
       <c r="H57" s="3">
-        <v>2255400</v>
+        <v>2137100</v>
       </c>
       <c r="I57" s="3">
-        <v>2223400</v>
+        <v>2179900</v>
       </c>
       <c r="J57" s="3">
+        <v>2149000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2749600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1281400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1208900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1212800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1649500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1191400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1487300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1286900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2083900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1408800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1326000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1794100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>658500</v>
+        <v>588800</v>
       </c>
       <c r="E58" s="3">
-        <v>724200</v>
+        <v>636400</v>
       </c>
       <c r="F58" s="3">
-        <v>601400</v>
+        <v>700000</v>
       </c>
       <c r="G58" s="3">
-        <v>1331300</v>
+        <v>581300</v>
       </c>
       <c r="H58" s="3">
-        <v>973600</v>
+        <v>1286800</v>
       </c>
       <c r="I58" s="3">
-        <v>1198900</v>
+        <v>941000</v>
       </c>
       <c r="J58" s="3">
+        <v>1158800</v>
+      </c>
+      <c r="K58" s="3">
         <v>817300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1180300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>651100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>528300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>803500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>343200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>425000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>324100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>320700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>363500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>381000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>553500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>733600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>603800</v>
+        <v>608200</v>
       </c>
       <c r="E59" s="3">
-        <v>746700</v>
+        <v>583600</v>
       </c>
       <c r="F59" s="3">
-        <v>702400</v>
+        <v>721800</v>
       </c>
       <c r="G59" s="3">
-        <v>696700</v>
+        <v>678900</v>
       </c>
       <c r="H59" s="3">
-        <v>759500</v>
+        <v>673400</v>
       </c>
       <c r="I59" s="3">
-        <v>719000</v>
+        <v>734100</v>
       </c>
       <c r="J59" s="3">
+        <v>695000</v>
+      </c>
+      <c r="K59" s="3">
         <v>706100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>365000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4382600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4634800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3388600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4163000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4369600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5028400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4138200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3974700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4078400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4314900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2686500</v>
+        <v>2551200</v>
       </c>
       <c r="E60" s="3">
-        <v>2904800</v>
+        <v>2596600</v>
       </c>
       <c r="F60" s="3">
-        <v>3413800</v>
+        <v>2807600</v>
       </c>
       <c r="G60" s="3">
-        <v>4239000</v>
+        <v>3299600</v>
       </c>
       <c r="H60" s="3">
-        <v>3988400</v>
+        <v>4097200</v>
       </c>
       <c r="I60" s="3">
-        <v>4141300</v>
+        <v>3855000</v>
       </c>
       <c r="J60" s="3">
+        <v>4002800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4273000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2826600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2222800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6123600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6705500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4923300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6075300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5980700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7433000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5910600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5681600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5932100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6842500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2579500</v>
+        <v>2585500</v>
       </c>
       <c r="E61" s="3">
-        <v>2441400</v>
+        <v>2493200</v>
       </c>
       <c r="F61" s="3">
-        <v>2635500</v>
+        <v>2359700</v>
       </c>
       <c r="G61" s="3">
-        <v>3774900</v>
+        <v>2547300</v>
       </c>
       <c r="H61" s="3">
-        <v>4227600</v>
+        <v>3648600</v>
       </c>
       <c r="I61" s="3">
-        <v>3729800</v>
+        <v>4086100</v>
       </c>
       <c r="J61" s="3">
+        <v>3605000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3405100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2602100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1283800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1606100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1547100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>912200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>974000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>957900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>855500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>856300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>935500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>637300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>722400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>665500</v>
+        <v>671400</v>
       </c>
       <c r="E62" s="3">
-        <v>721300</v>
+        <v>643200</v>
       </c>
       <c r="F62" s="3">
-        <v>690000</v>
+        <v>697100</v>
       </c>
       <c r="G62" s="3">
-        <v>666600</v>
+        <v>667000</v>
       </c>
       <c r="H62" s="3">
-        <v>551000</v>
+        <v>644300</v>
       </c>
       <c r="I62" s="3">
-        <v>568100</v>
+        <v>532500</v>
       </c>
       <c r="J62" s="3">
+        <v>549100</v>
+      </c>
+      <c r="K62" s="3">
         <v>619900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>459000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>413500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>502400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>458500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>476800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>599200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>568200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>599200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>582200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>564300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>518500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>527400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6434400</v>
+        <v>6326700</v>
       </c>
       <c r="E66" s="3">
-        <v>6654000</v>
+        <v>6219100</v>
       </c>
       <c r="F66" s="3">
-        <v>7314100</v>
+        <v>6431400</v>
       </c>
       <c r="G66" s="3">
-        <v>9262500</v>
+        <v>7069400</v>
       </c>
       <c r="H66" s="3">
-        <v>9331000</v>
+        <v>8952600</v>
       </c>
       <c r="I66" s="3">
-        <v>8930200</v>
+        <v>9018800</v>
       </c>
       <c r="J66" s="3">
+        <v>8631400</v>
+      </c>
+      <c r="K66" s="3">
         <v>8779700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5887800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3920000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8846900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9232900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6864100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8346500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8191400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9619100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8086000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7907800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7789200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8771400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>994600</v>
+        <v>945300</v>
       </c>
       <c r="E72" s="3">
-        <v>1031400</v>
+        <v>961300</v>
       </c>
       <c r="F72" s="3">
-        <v>1059300</v>
+        <v>996900</v>
       </c>
       <c r="G72" s="3">
-        <v>859600</v>
+        <v>1023800</v>
       </c>
       <c r="H72" s="3">
-        <v>789400</v>
+        <v>830800</v>
       </c>
       <c r="I72" s="3">
-        <v>724600</v>
+        <v>763000</v>
       </c>
       <c r="J72" s="3">
+        <v>700300</v>
+      </c>
+      <c r="K72" s="3">
         <v>749300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>788400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>715000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>689900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>637200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>764700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>955800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>856600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>899600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>893200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>884000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>811200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>779000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2341600</v>
+        <v>2366300</v>
       </c>
       <c r="E76" s="3">
-        <v>2587300</v>
+        <v>2263300</v>
       </c>
       <c r="F76" s="3">
-        <v>2529500</v>
+        <v>2500700</v>
       </c>
       <c r="G76" s="3">
-        <v>2417900</v>
+        <v>2444800</v>
       </c>
       <c r="H76" s="3">
-        <v>2320900</v>
+        <v>2337000</v>
       </c>
       <c r="I76" s="3">
-        <v>2078100</v>
+        <v>2243300</v>
       </c>
       <c r="J76" s="3">
+        <v>2008500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2020600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2037100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1899600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1945200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1825700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1994600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2510600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2414100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2612000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2614600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2606600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2479300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2446100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>20900</v>
-      </c>
       <c r="F81" s="3">
-        <v>402500</v>
+        <v>20200</v>
       </c>
       <c r="G81" s="3">
-        <v>71300</v>
+        <v>389000</v>
       </c>
       <c r="H81" s="3">
-        <v>61900</v>
+        <v>68900</v>
       </c>
       <c r="I81" s="3">
-        <v>-25900</v>
+        <v>59800</v>
       </c>
       <c r="J81" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K81" s="3">
         <v>145900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-119600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99400</v>
+        <v>95500</v>
       </c>
       <c r="E83" s="3">
-        <v>101200</v>
+        <v>96000</v>
       </c>
       <c r="F83" s="3">
-        <v>473600</v>
+        <v>97800</v>
       </c>
       <c r="G83" s="3">
-        <v>122500</v>
+        <v>457700</v>
       </c>
       <c r="H83" s="3">
-        <v>115400</v>
+        <v>118400</v>
       </c>
       <c r="I83" s="3">
         <v>111600</v>
       </c>
       <c r="J83" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K83" s="3">
         <v>287900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>270200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>294400</v>
+        <v>20700</v>
       </c>
       <c r="E89" s="3">
-        <v>-646100</v>
+        <v>284600</v>
       </c>
       <c r="F89" s="3">
-        <v>875800</v>
+        <v>-624500</v>
       </c>
       <c r="G89" s="3">
-        <v>35800</v>
+        <v>846500</v>
       </c>
       <c r="H89" s="3">
-        <v>441600</v>
+        <v>34600</v>
       </c>
       <c r="I89" s="3">
-        <v>-708300</v>
+        <v>426800</v>
       </c>
       <c r="J89" s="3">
+        <v>-684600</v>
+      </c>
+      <c r="K89" s="3">
         <v>209600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-862300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1223600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-105100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>665300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1574200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-123800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>344600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-323500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39300</v>
+        <v>-44800</v>
       </c>
       <c r="E91" s="3">
-        <v>-49900</v>
+        <v>-38000</v>
       </c>
       <c r="F91" s="3">
-        <v>-422800</v>
+        <v>-48200</v>
       </c>
       <c r="G91" s="3">
-        <v>-108800</v>
+        <v>-408600</v>
       </c>
       <c r="H91" s="3">
-        <v>-91400</v>
+        <v>-105100</v>
       </c>
       <c r="I91" s="3">
-        <v>-115400</v>
+        <v>-88400</v>
       </c>
       <c r="J91" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-454700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-89400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-92900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-106100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-73600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-88600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-383000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47300</v>
+        <v>-23600</v>
       </c>
       <c r="E94" s="3">
-        <v>-76300</v>
+        <v>-45700</v>
       </c>
       <c r="F94" s="3">
-        <v>-792500</v>
+        <v>-73700</v>
       </c>
       <c r="G94" s="3">
-        <v>10200</v>
+        <v>-766000</v>
       </c>
       <c r="H94" s="3">
-        <v>24400</v>
+        <v>9800</v>
       </c>
       <c r="I94" s="3">
-        <v>-124700</v>
+        <v>23600</v>
       </c>
       <c r="J94" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-603200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>311500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-115100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-88000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-104000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-125400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-135100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-501100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,59 +6017,60 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-116400</v>
+        <v>-12700</v>
       </c>
       <c r="E96" s="3">
-        <v>-6600</v>
+        <v>-112500</v>
       </c>
       <c r="F96" s="3">
-        <v>-62600</v>
+        <v>-6400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2600</v>
+        <v>-60500</v>
       </c>
       <c r="H96" s="3">
-        <v>-48600</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="3">
-        <v>-3100</v>
+        <v>-47000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-49500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-31600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-25900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,114 +6287,120 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5900</v>
+        <v>-83000</v>
       </c>
       <c r="E100" s="3">
-        <v>-179900</v>
+        <v>5700</v>
       </c>
       <c r="F100" s="3">
-        <v>-51900</v>
+        <v>-173900</v>
       </c>
       <c r="G100" s="3">
-        <v>-124700</v>
+        <v>-50200</v>
       </c>
       <c r="H100" s="3">
-        <v>-228700</v>
+        <v>-120500</v>
       </c>
       <c r="I100" s="3">
-        <v>471400</v>
+        <v>-221000</v>
       </c>
       <c r="J100" s="3">
+        <v>455600</v>
+      </c>
+      <c r="K100" s="3">
         <v>349800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1576400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-237800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>149500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-162200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>105500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>170200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-26900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-77200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-55100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-365400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>365900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62100</v>
+        <v>14600</v>
       </c>
       <c r="E101" s="3">
-        <v>12000</v>
+        <v>-60000</v>
       </c>
       <c r="F101" s="3">
-        <v>108400</v>
+        <v>11600</v>
       </c>
       <c r="G101" s="3">
-        <v>-5000</v>
+        <v>104800</v>
       </c>
       <c r="H101" s="3">
-        <v>55200</v>
+        <v>-4800</v>
       </c>
       <c r="I101" s="3">
-        <v>28800</v>
+        <v>53400</v>
       </c>
       <c r="J101" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K101" s="3">
         <v>20500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6169,74 +6418,80 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>191000</v>
+        <v>-71200</v>
       </c>
       <c r="E102" s="3">
-        <v>-890300</v>
+        <v>184600</v>
       </c>
       <c r="F102" s="3">
-        <v>139800</v>
+        <v>-860500</v>
       </c>
       <c r="G102" s="3">
-        <v>-83700</v>
+        <v>135100</v>
       </c>
       <c r="H102" s="3">
-        <v>292600</v>
+        <v>-80900</v>
       </c>
       <c r="I102" s="3">
-        <v>-332800</v>
+        <v>282800</v>
       </c>
       <c r="J102" s="3">
+        <v>-321700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1491400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>185900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-828100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>896600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-174900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>395600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1421900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-336100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>232500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-464700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2157200</v>
+        <v>2931500</v>
       </c>
       <c r="E8" s="3">
-        <v>2120600</v>
+        <v>2381300</v>
       </c>
       <c r="F8" s="3">
-        <v>2222900</v>
+        <v>2340900</v>
       </c>
       <c r="G8" s="3">
-        <v>9149700</v>
+        <v>2453800</v>
       </c>
       <c r="H8" s="3">
-        <v>2153700</v>
+        <v>10099900</v>
       </c>
       <c r="I8" s="3">
-        <v>2239200</v>
+        <v>2377300</v>
       </c>
       <c r="J8" s="3">
+        <v>2471700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2120100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5326400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2536800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2316300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2378200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2499600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2268300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2749700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2648800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3207100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2797100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2733800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2617700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10283900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1627400</v>
+        <v>2197200</v>
       </c>
       <c r="E9" s="3">
-        <v>1583100</v>
+        <v>1796400</v>
       </c>
       <c r="F9" s="3">
-        <v>1643600</v>
+        <v>1747500</v>
       </c>
       <c r="G9" s="3">
-        <v>6695200</v>
+        <v>1814300</v>
       </c>
       <c r="H9" s="3">
-        <v>1604000</v>
+        <v>7390500</v>
       </c>
       <c r="I9" s="3">
-        <v>1673600</v>
+        <v>1770600</v>
       </c>
       <c r="J9" s="3">
+        <v>1847400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1594900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3920300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1996200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1816700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1854800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1925100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1764100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2024400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2051500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2388700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2171000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1981000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2017900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7921900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>529800</v>
+        <v>734200</v>
       </c>
       <c r="E10" s="3">
-        <v>537500</v>
+        <v>584900</v>
       </c>
       <c r="F10" s="3">
-        <v>579300</v>
+        <v>593300</v>
       </c>
       <c r="G10" s="3">
-        <v>2454500</v>
+        <v>639500</v>
       </c>
       <c r="H10" s="3">
-        <v>549700</v>
+        <v>2709400</v>
       </c>
       <c r="I10" s="3">
-        <v>565600</v>
+        <v>606700</v>
       </c>
       <c r="J10" s="3">
+        <v>624300</v>
+      </c>
+      <c r="K10" s="3">
         <v>525200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1406100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>540600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>499500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>523400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>574400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>504200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>725300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>597300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>818400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>626100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>752700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>599900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2362000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25500</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>10200</v>
+        <v>28200</v>
       </c>
       <c r="F14" s="3">
-        <v>12300</v>
+        <v>11200</v>
       </c>
       <c r="G14" s="3">
-        <v>105000</v>
+        <v>13600</v>
       </c>
       <c r="H14" s="3">
-        <v>20700</v>
+        <v>115900</v>
       </c>
       <c r="I14" s="3">
-        <v>37800</v>
+        <v>22900</v>
       </c>
       <c r="J14" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K14" s="3">
         <v>30300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-4900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>24600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>80500</v>
+        <v>86300</v>
       </c>
       <c r="E15" s="3">
-        <v>85000</v>
+        <v>88900</v>
       </c>
       <c r="F15" s="3">
-        <v>87100</v>
+        <v>93800</v>
       </c>
       <c r="G15" s="3">
-        <v>322100</v>
+        <v>96200</v>
       </c>
       <c r="H15" s="3">
-        <v>80000</v>
+        <v>355500</v>
       </c>
       <c r="I15" s="3">
-        <v>78200</v>
+        <v>88300</v>
       </c>
       <c r="J15" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K15" s="3">
         <v>77500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>189900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>58600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>60800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>53000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>70300</v>
       </c>
       <c r="R15" s="3">
         <v>70300</v>
       </c>
       <c r="S15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="T15" s="3">
         <v>52600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>48700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>47100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>175400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2139600</v>
+        <v>2741700</v>
       </c>
       <c r="E17" s="3">
-        <v>2066900</v>
+        <v>2361800</v>
       </c>
       <c r="F17" s="3">
-        <v>2164600</v>
+        <v>2281600</v>
       </c>
       <c r="G17" s="3">
-        <v>8680400</v>
+        <v>2389400</v>
       </c>
       <c r="H17" s="3">
-        <v>2081500</v>
+        <v>9581800</v>
       </c>
       <c r="I17" s="3">
-        <v>2150500</v>
+        <v>2297700</v>
       </c>
       <c r="J17" s="3">
+        <v>2373800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2122400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5233500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2451500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2241000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2293500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2331500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2180000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2552600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2563100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3070900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2745300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2620700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2541300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10071600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17700</v>
+        <v>189800</v>
       </c>
       <c r="E18" s="3">
-        <v>53700</v>
+        <v>19500</v>
       </c>
       <c r="F18" s="3">
-        <v>58400</v>
+        <v>59300</v>
       </c>
       <c r="G18" s="3">
-        <v>469300</v>
+        <v>64400</v>
       </c>
       <c r="H18" s="3">
-        <v>72100</v>
+        <v>518100</v>
       </c>
       <c r="I18" s="3">
-        <v>88700</v>
+        <v>79600</v>
       </c>
       <c r="J18" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>168100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>197100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>85700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>136100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>212400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7100</v>
+        <v>-10200</v>
       </c>
       <c r="E20" s="3">
-        <v>9300</v>
+        <v>-7900</v>
       </c>
       <c r="F20" s="3">
-        <v>-8200</v>
+        <v>10200</v>
       </c>
       <c r="G20" s="3">
-        <v>69300</v>
+        <v>-9100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12900</v>
+        <v>76500</v>
       </c>
       <c r="I20" s="3">
-        <v>-25900</v>
+        <v>-14200</v>
       </c>
       <c r="J20" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-44800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-49100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106000</v>
+        <v>277300</v>
       </c>
       <c r="E21" s="3">
-        <v>159100</v>
+        <v>117100</v>
       </c>
       <c r="F21" s="3">
-        <v>148000</v>
+        <v>175600</v>
       </c>
       <c r="G21" s="3">
-        <v>996300</v>
+        <v>163400</v>
       </c>
       <c r="H21" s="3">
-        <v>177600</v>
+        <v>1099800</v>
       </c>
       <c r="I21" s="3">
-        <v>174400</v>
+        <v>196100</v>
       </c>
       <c r="J21" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K21" s="3">
         <v>103200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>379700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>143200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>233300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>229800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>181400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>157700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>95400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>152300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>124500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>433400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59300</v>
+        <v>72700</v>
       </c>
       <c r="E22" s="3">
-        <v>51400</v>
+        <v>65400</v>
       </c>
       <c r="F22" s="3">
-        <v>43900</v>
+        <v>56800</v>
       </c>
       <c r="G22" s="3">
-        <v>199200</v>
+        <v>48500</v>
       </c>
       <c r="H22" s="3">
-        <v>50900</v>
+        <v>219900</v>
       </c>
       <c r="I22" s="3">
-        <v>35200</v>
+        <v>56200</v>
       </c>
       <c r="J22" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K22" s="3">
         <v>45900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>159800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>78900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>29700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>35100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>43200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>174900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-48700</v>
+        <v>106800</v>
       </c>
       <c r="E23" s="3">
-        <v>11600</v>
+        <v>-53800</v>
       </c>
       <c r="F23" s="3">
-        <v>6200</v>
+        <v>12800</v>
       </c>
       <c r="G23" s="3">
-        <v>339400</v>
+        <v>6900</v>
       </c>
       <c r="H23" s="3">
-        <v>8400</v>
+        <v>374600</v>
       </c>
       <c r="I23" s="3">
-        <v>27700</v>
+        <v>9300</v>
       </c>
       <c r="J23" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-50500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-68000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>122200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>132200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-42300</v>
+        <v>-59100</v>
       </c>
       <c r="E24" s="3">
-        <v>6200</v>
+        <v>-46700</v>
       </c>
       <c r="F24" s="3">
-        <v>-16400</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>118200</v>
+        <v>-18100</v>
       </c>
       <c r="H24" s="3">
-        <v>12300</v>
+        <v>130500</v>
       </c>
       <c r="I24" s="3">
-        <v>3600</v>
+        <v>13600</v>
       </c>
       <c r="J24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6400</v>
+        <v>165900</v>
       </c>
       <c r="E26" s="3">
-        <v>5400</v>
+        <v>-7100</v>
       </c>
       <c r="F26" s="3">
-        <v>22700</v>
+        <v>5900</v>
       </c>
       <c r="G26" s="3">
-        <v>221200</v>
+        <v>25000</v>
       </c>
       <c r="H26" s="3">
-        <v>-3900</v>
+        <v>244200</v>
       </c>
       <c r="I26" s="3">
-        <v>24100</v>
+        <v>-4300</v>
       </c>
       <c r="J26" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-40200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>41300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15700</v>
+        <v>153100</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
+        <v>-17300</v>
       </c>
       <c r="F27" s="3">
-        <v>20200</v>
+        <v>600</v>
       </c>
       <c r="G27" s="3">
-        <v>194900</v>
+        <v>22300</v>
       </c>
       <c r="H27" s="3">
-        <v>-11200</v>
+        <v>215200</v>
       </c>
       <c r="I27" s="3">
-        <v>15200</v>
+        <v>-12400</v>
       </c>
       <c r="J27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-43900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-58900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>73100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>129700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2071,65 +2131,68 @@
       <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>194100</v>
-      </c>
       <c r="H29" s="3">
-        <v>80200</v>
+        <v>214200</v>
       </c>
       <c r="I29" s="3">
-        <v>44600</v>
+        <v>88500</v>
       </c>
       <c r="J29" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K29" s="3">
         <v>18900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>204800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>57000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>10100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-36800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>36700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>40400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>45600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>23300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-11500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>32700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-249300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7100</v>
+        <v>10200</v>
       </c>
       <c r="E32" s="3">
-        <v>-9300</v>
+        <v>7900</v>
       </c>
       <c r="F32" s="3">
-        <v>8200</v>
+        <v>-10200</v>
       </c>
       <c r="G32" s="3">
-        <v>-69300</v>
+        <v>9100</v>
       </c>
       <c r="H32" s="3">
-        <v>12900</v>
+        <v>-76500</v>
       </c>
       <c r="I32" s="3">
-        <v>25900</v>
+        <v>14200</v>
       </c>
       <c r="J32" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>44800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>49100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15900</v>
+        <v>152900</v>
       </c>
       <c r="E33" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>20200</v>
-      </c>
       <c r="G33" s="3">
-        <v>389000</v>
+        <v>22300</v>
       </c>
       <c r="H33" s="3">
-        <v>68900</v>
+        <v>429400</v>
       </c>
       <c r="I33" s="3">
-        <v>59800</v>
+        <v>76100</v>
       </c>
       <c r="J33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-119600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15900</v>
+        <v>152900</v>
       </c>
       <c r="E35" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>20200</v>
-      </c>
       <c r="G35" s="3">
-        <v>389000</v>
+        <v>22300</v>
       </c>
       <c r="H35" s="3">
-        <v>68900</v>
+        <v>429400</v>
       </c>
       <c r="I35" s="3">
-        <v>59800</v>
+        <v>76100</v>
       </c>
       <c r="J35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-119600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>808000</v>
+        <v>1630500</v>
       </c>
       <c r="E41" s="3">
-        <v>879200</v>
+        <v>891900</v>
       </c>
       <c r="F41" s="3">
-        <v>694600</v>
+        <v>970500</v>
       </c>
       <c r="G41" s="3">
-        <v>1555100</v>
+        <v>766800</v>
       </c>
       <c r="H41" s="3">
-        <v>1300200</v>
+        <v>1716600</v>
       </c>
       <c r="I41" s="3">
-        <v>1381000</v>
+        <v>1435200</v>
       </c>
       <c r="J41" s="3">
+        <v>1524500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1098300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1469100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2374000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>833100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>441400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>779400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>485700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>713200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>397200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>972200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>324600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>606600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>417500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1268200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>472400</v>
+        <v>568300</v>
       </c>
       <c r="E43" s="3">
-        <v>466800</v>
+        <v>521400</v>
       </c>
       <c r="F43" s="3">
-        <v>438100</v>
+        <v>515300</v>
       </c>
       <c r="G43" s="3">
-        <v>363100</v>
+        <v>483600</v>
       </c>
       <c r="H43" s="3">
-        <v>512900</v>
+        <v>400800</v>
       </c>
       <c r="I43" s="3">
-        <v>511600</v>
+        <v>566200</v>
       </c>
       <c r="J43" s="3">
+        <v>564800</v>
+      </c>
+      <c r="K43" s="3">
         <v>497700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>517200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>305900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>321900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>243500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>289200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>253400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>409600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>379700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>394600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>268400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>368600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>333200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1175600</v>
+        <v>1035900</v>
       </c>
       <c r="E44" s="3">
-        <v>1109000</v>
+        <v>1297600</v>
       </c>
       <c r="F44" s="3">
-        <v>1209500</v>
+        <v>1224100</v>
       </c>
       <c r="G44" s="3">
-        <v>1166800</v>
+        <v>1335100</v>
       </c>
       <c r="H44" s="3">
-        <v>1762000</v>
+        <v>1288000</v>
       </c>
       <c r="I44" s="3">
-        <v>1631300</v>
+        <v>1945000</v>
       </c>
       <c r="J44" s="3">
+        <v>1800700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1731800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1594100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1134100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1007900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1072600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1054200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1025100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1199400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1111100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1236300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1188100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1135000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1135700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1151300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89100</v>
+        <v>287100</v>
       </c>
       <c r="E45" s="3">
-        <v>95500</v>
+        <v>98300</v>
       </c>
       <c r="F45" s="3">
-        <v>94800</v>
+        <v>105400</v>
       </c>
       <c r="G45" s="3">
-        <v>64300</v>
+        <v>104600</v>
       </c>
       <c r="H45" s="3">
-        <v>141600</v>
+        <v>70900</v>
       </c>
       <c r="I45" s="3">
-        <v>252600</v>
+        <v>156300</v>
       </c>
       <c r="J45" s="3">
+        <v>278800</v>
+      </c>
+      <c r="K45" s="3">
         <v>357000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5072700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5210400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4098000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5128800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5230400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5876500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5097100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4904000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5016900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5099300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2545000</v>
+        <v>3521900</v>
       </c>
       <c r="E46" s="3">
-        <v>2550500</v>
+        <v>2809300</v>
       </c>
       <c r="F46" s="3">
-        <v>2437000</v>
+        <v>2815400</v>
       </c>
       <c r="G46" s="3">
-        <v>3149300</v>
+        <v>2690100</v>
       </c>
       <c r="H46" s="3">
-        <v>3716600</v>
+        <v>3476300</v>
       </c>
       <c r="I46" s="3">
-        <v>3776600</v>
+        <v>4102600</v>
       </c>
       <c r="J46" s="3">
+        <v>4168800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3684800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3688100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3920000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2125200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6908700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7287500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5898000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7294700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7148300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8464600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7004300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6914100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6938800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7852000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>849400</v>
+        <v>934100</v>
       </c>
       <c r="E47" s="3">
-        <v>873500</v>
+        <v>937600</v>
       </c>
       <c r="F47" s="3">
-        <v>924200</v>
+        <v>964200</v>
       </c>
       <c r="G47" s="3">
-        <v>924700</v>
+        <v>1020200</v>
       </c>
       <c r="H47" s="3">
-        <v>730700</v>
+        <v>1020800</v>
       </c>
       <c r="I47" s="3">
-        <v>752300</v>
+        <v>806600</v>
       </c>
       <c r="J47" s="3">
+        <v>830400</v>
+      </c>
+      <c r="K47" s="3">
         <v>750500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>666400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>627500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>621300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>555500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>669100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>750500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>631000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>679400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>585100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>558900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>403600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>391200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4019200</v>
+        <v>3862000</v>
       </c>
       <c r="E48" s="3">
-        <v>3873900</v>
+        <v>4436600</v>
       </c>
       <c r="F48" s="3">
-        <v>4291400</v>
+        <v>4276200</v>
       </c>
       <c r="G48" s="3">
-        <v>4200000</v>
+        <v>4737100</v>
       </c>
       <c r="H48" s="3">
-        <v>5366700</v>
+        <v>4636200</v>
       </c>
       <c r="I48" s="3">
-        <v>5034600</v>
+        <v>5924000</v>
       </c>
       <c r="J48" s="3">
+        <v>5557500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4579600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5049900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2614500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2377200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2470300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2515800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1714100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2141600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2348200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2360700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2309500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2231500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2283600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1073400</v>
+        <v>1133700</v>
       </c>
       <c r="E49" s="3">
-        <v>1022400</v>
+        <v>1184900</v>
       </c>
       <c r="F49" s="3">
-        <v>1120700</v>
+        <v>1128600</v>
       </c>
       <c r="G49" s="3">
-        <v>1100400</v>
+        <v>1237100</v>
       </c>
       <c r="H49" s="3">
-        <v>1246100</v>
+        <v>1214700</v>
       </c>
       <c r="I49" s="3">
-        <v>1469200</v>
+        <v>1375500</v>
       </c>
       <c r="J49" s="3">
+        <v>1621800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1373500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1151800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>545100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>509400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>536700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1322100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>358400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>449800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>448400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>986600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>489200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>483800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>470600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>473300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206000</v>
+        <v>291600</v>
       </c>
       <c r="E52" s="3">
-        <v>162100</v>
+        <v>227400</v>
       </c>
       <c r="F52" s="3">
-        <v>158700</v>
+        <v>178900</v>
       </c>
       <c r="G52" s="3">
-        <v>139800</v>
+        <v>175200</v>
       </c>
       <c r="H52" s="3">
-        <v>229600</v>
+        <v>154300</v>
       </c>
       <c r="I52" s="3">
-        <v>229400</v>
+        <v>253400</v>
       </c>
       <c r="J52" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K52" s="3">
         <v>251500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>244200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>217800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>207200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>255200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>265300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>219100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>261300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>236300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>245600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>261300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>248200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>224000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>217300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8693000</v>
+        <v>9743200</v>
       </c>
       <c r="E54" s="3">
-        <v>8482400</v>
+        <v>9595800</v>
       </c>
       <c r="F54" s="3">
-        <v>8932100</v>
+        <v>9363300</v>
       </c>
       <c r="G54" s="3">
-        <v>9514200</v>
+        <v>9859700</v>
       </c>
       <c r="H54" s="3">
-        <v>11289600</v>
+        <v>10502300</v>
       </c>
       <c r="I54" s="3">
-        <v>11262100</v>
+        <v>12462100</v>
       </c>
       <c r="J54" s="3">
+        <v>12431700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10640000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10800300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7924900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5819600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10792200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11058700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8858700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10857000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10605500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12231100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10700500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10514400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10268500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11217400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1354300</v>
+        <v>1986000</v>
       </c>
       <c r="E57" s="3">
-        <v>1376600</v>
+        <v>1494900</v>
       </c>
       <c r="F57" s="3">
-        <v>1385900</v>
+        <v>1519500</v>
       </c>
       <c r="G57" s="3">
-        <v>2039400</v>
+        <v>1529800</v>
       </c>
       <c r="H57" s="3">
-        <v>2137100</v>
+        <v>2251200</v>
       </c>
       <c r="I57" s="3">
-        <v>2179900</v>
+        <v>2359000</v>
       </c>
       <c r="J57" s="3">
+        <v>2406300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2149000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2749600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1281400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1208900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1212800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1649500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1191400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1487300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1286900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2083900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1408800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1326000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1794100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>588800</v>
+        <v>466000</v>
       </c>
       <c r="E58" s="3">
-        <v>636400</v>
+        <v>649900</v>
       </c>
       <c r="F58" s="3">
-        <v>700000</v>
+        <v>702500</v>
       </c>
       <c r="G58" s="3">
-        <v>581300</v>
+        <v>772700</v>
       </c>
       <c r="H58" s="3">
-        <v>1286800</v>
+        <v>641600</v>
       </c>
       <c r="I58" s="3">
-        <v>941000</v>
+        <v>1420400</v>
       </c>
       <c r="J58" s="3">
+        <v>1038700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1158800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>817300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1180300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>651100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>528300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>803500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>343200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>425000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>324100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>320700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>363500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>381000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>553500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>733600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>608200</v>
+        <v>809300</v>
       </c>
       <c r="E59" s="3">
-        <v>583600</v>
+        <v>671400</v>
       </c>
       <c r="F59" s="3">
-        <v>721800</v>
+        <v>644200</v>
       </c>
       <c r="G59" s="3">
-        <v>678900</v>
+        <v>796700</v>
       </c>
       <c r="H59" s="3">
-        <v>673400</v>
+        <v>749400</v>
       </c>
       <c r="I59" s="3">
-        <v>734100</v>
+        <v>743300</v>
       </c>
       <c r="J59" s="3">
+        <v>810300</v>
+      </c>
+      <c r="K59" s="3">
         <v>695000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>706100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>365000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4382600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4634800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3388600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4163000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4369600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5028400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4138200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3974700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4078400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4314900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2551200</v>
+        <v>3261300</v>
       </c>
       <c r="E60" s="3">
-        <v>2596600</v>
+        <v>2816200</v>
       </c>
       <c r="F60" s="3">
-        <v>2807600</v>
+        <v>2866200</v>
       </c>
       <c r="G60" s="3">
-        <v>3299600</v>
+        <v>3099200</v>
       </c>
       <c r="H60" s="3">
-        <v>4097200</v>
+        <v>3642300</v>
       </c>
       <c r="I60" s="3">
-        <v>3855000</v>
+        <v>4522700</v>
       </c>
       <c r="J60" s="3">
+        <v>4255300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4002800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4273000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2826600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2222800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6123600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6705500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4923300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6075300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5980700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7433000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5910600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5681600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5932100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6842500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2585500</v>
+        <v>2523400</v>
       </c>
       <c r="E61" s="3">
-        <v>2493200</v>
+        <v>2854000</v>
       </c>
       <c r="F61" s="3">
-        <v>2359700</v>
+        <v>2752100</v>
       </c>
       <c r="G61" s="3">
-        <v>2547300</v>
+        <v>2604700</v>
       </c>
       <c r="H61" s="3">
-        <v>3648600</v>
+        <v>2811800</v>
       </c>
       <c r="I61" s="3">
-        <v>4086100</v>
+        <v>4027500</v>
       </c>
       <c r="J61" s="3">
+        <v>4510500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3605000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3405100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2602100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1283800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1606100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1547100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>912200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>974000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>957900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>855500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>856300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>935500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>637300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>722400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>671400</v>
+        <v>730700</v>
       </c>
       <c r="E62" s="3">
-        <v>643200</v>
+        <v>741100</v>
       </c>
       <c r="F62" s="3">
-        <v>697100</v>
+        <v>710000</v>
       </c>
       <c r="G62" s="3">
-        <v>667000</v>
+        <v>769500</v>
       </c>
       <c r="H62" s="3">
-        <v>644300</v>
+        <v>736200</v>
       </c>
       <c r="I62" s="3">
-        <v>532500</v>
+        <v>711200</v>
       </c>
       <c r="J62" s="3">
+        <v>587800</v>
+      </c>
+      <c r="K62" s="3">
         <v>549100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>619900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>459000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>413500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>502400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>458500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>476800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>599200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>568200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>599200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>582200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>564300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>518500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>527400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6326700</v>
+        <v>7053600</v>
       </c>
       <c r="E66" s="3">
-        <v>6219100</v>
+        <v>6983800</v>
       </c>
       <c r="F66" s="3">
-        <v>6431400</v>
+        <v>6865000</v>
       </c>
       <c r="G66" s="3">
-        <v>7069400</v>
+        <v>7099300</v>
       </c>
       <c r="H66" s="3">
-        <v>8952600</v>
+        <v>7803600</v>
       </c>
       <c r="I66" s="3">
-        <v>9018800</v>
+        <v>9882400</v>
       </c>
       <c r="J66" s="3">
+        <v>9955500</v>
+      </c>
+      <c r="K66" s="3">
         <v>8631400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8779700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5887800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3920000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8846900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9232900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6864100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8346500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8191400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9619100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8086000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7907800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7789200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8771400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>945300</v>
+        <v>1183000</v>
       </c>
       <c r="E72" s="3">
-        <v>961300</v>
+        <v>1043400</v>
       </c>
       <c r="F72" s="3">
-        <v>996900</v>
+        <v>1061200</v>
       </c>
       <c r="G72" s="3">
-        <v>1023800</v>
+        <v>1100400</v>
       </c>
       <c r="H72" s="3">
-        <v>830800</v>
+        <v>1130100</v>
       </c>
       <c r="I72" s="3">
-        <v>763000</v>
+        <v>917100</v>
       </c>
       <c r="J72" s="3">
+        <v>842200</v>
+      </c>
+      <c r="K72" s="3">
         <v>700300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>749300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>788400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>715000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>689900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>637200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>764700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>955800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>856600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>899600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>893200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>884000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>811200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>779000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2366300</v>
+        <v>2689700</v>
       </c>
       <c r="E76" s="3">
-        <v>2263300</v>
+        <v>2612000</v>
       </c>
       <c r="F76" s="3">
-        <v>2500700</v>
+        <v>2498300</v>
       </c>
       <c r="G76" s="3">
-        <v>2444800</v>
+        <v>2760400</v>
       </c>
       <c r="H76" s="3">
-        <v>2337000</v>
+        <v>2698700</v>
       </c>
       <c r="I76" s="3">
-        <v>2243300</v>
+        <v>2579700</v>
       </c>
       <c r="J76" s="3">
+        <v>2476300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2008500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2020600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2037100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1899600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1945200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1825700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1994600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2510600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2414100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2612000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2614600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2606600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2479300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2446100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15900</v>
+        <v>152900</v>
       </c>
       <c r="E81" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>20200</v>
-      </c>
       <c r="G81" s="3">
-        <v>389000</v>
+        <v>22300</v>
       </c>
       <c r="H81" s="3">
-        <v>68900</v>
+        <v>429400</v>
       </c>
       <c r="I81" s="3">
-        <v>59800</v>
+        <v>76100</v>
       </c>
       <c r="J81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-119600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95500</v>
+        <v>97700</v>
       </c>
       <c r="E83" s="3">
-        <v>96000</v>
+        <v>105400</v>
       </c>
       <c r="F83" s="3">
-        <v>97800</v>
+        <v>106000</v>
       </c>
       <c r="G83" s="3">
-        <v>457700</v>
+        <v>108000</v>
       </c>
       <c r="H83" s="3">
-        <v>118400</v>
+        <v>505300</v>
       </c>
       <c r="I83" s="3">
-        <v>111600</v>
+        <v>130700</v>
       </c>
       <c r="J83" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K83" s="3">
         <v>107800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>287900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>68300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>56100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>270200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20700</v>
+        <v>889900</v>
       </c>
       <c r="E89" s="3">
-        <v>284600</v>
+        <v>22900</v>
       </c>
       <c r="F89" s="3">
-        <v>-624500</v>
+        <v>314100</v>
       </c>
       <c r="G89" s="3">
-        <v>846500</v>
+        <v>-689300</v>
       </c>
       <c r="H89" s="3">
-        <v>34600</v>
+        <v>934500</v>
       </c>
       <c r="I89" s="3">
-        <v>426800</v>
+        <v>38200</v>
       </c>
       <c r="J89" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-684600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-862300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1223600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>665300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1574200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-123800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>344600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-323500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44800</v>
+        <v>-59300</v>
       </c>
       <c r="E91" s="3">
-        <v>-38000</v>
+        <v>-49500</v>
       </c>
       <c r="F91" s="3">
-        <v>-48200</v>
+        <v>-42000</v>
       </c>
       <c r="G91" s="3">
-        <v>-408600</v>
+        <v>-53200</v>
       </c>
       <c r="H91" s="3">
-        <v>-105100</v>
+        <v>-451100</v>
       </c>
       <c r="I91" s="3">
-        <v>-88400</v>
+        <v>-116100</v>
       </c>
       <c r="J91" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-111600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-454700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-89400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-106100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-73600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-88600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-383000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23600</v>
+        <v>142700</v>
       </c>
       <c r="E94" s="3">
-        <v>-45700</v>
+        <v>-26000</v>
       </c>
       <c r="F94" s="3">
-        <v>-73700</v>
+        <v>-50400</v>
       </c>
       <c r="G94" s="3">
-        <v>-766000</v>
+        <v>-81400</v>
       </c>
       <c r="H94" s="3">
-        <v>9800</v>
+        <v>-845600</v>
       </c>
       <c r="I94" s="3">
-        <v>23600</v>
+        <v>10800</v>
       </c>
       <c r="J94" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-120500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-603200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>311500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-96900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-125400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-135100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-501100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,62 +6250,63 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-12700</v>
+        <v>-8500</v>
       </c>
       <c r="E96" s="3">
-        <v>-112500</v>
+        <v>-14000</v>
       </c>
       <c r="F96" s="3">
-        <v>-6400</v>
+        <v>-124100</v>
       </c>
       <c r="G96" s="3">
-        <v>-60500</v>
+        <v>-7100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2500</v>
+        <v>-66800</v>
       </c>
       <c r="I96" s="3">
-        <v>-47000</v>
+        <v>-2800</v>
       </c>
       <c r="J96" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-49500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-31600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-25900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6081,13 +6314,16 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,120 +6532,126 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-83000</v>
+        <v>-263300</v>
       </c>
       <c r="E100" s="3">
-        <v>5700</v>
+        <v>-91600</v>
       </c>
       <c r="F100" s="3">
-        <v>-173900</v>
+        <v>6300</v>
       </c>
       <c r="G100" s="3">
-        <v>-50200</v>
+        <v>-191900</v>
       </c>
       <c r="H100" s="3">
-        <v>-120500</v>
+        <v>-55400</v>
       </c>
       <c r="I100" s="3">
-        <v>-221000</v>
+        <v>-133000</v>
       </c>
       <c r="J100" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="K100" s="3">
         <v>455600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>349800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1576400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-237800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>149500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>105500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-81300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>170200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-26900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-77200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-55100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-365400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>365900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14600</v>
+        <v>-30700</v>
       </c>
       <c r="E101" s="3">
-        <v>-60000</v>
+        <v>16200</v>
       </c>
       <c r="F101" s="3">
-        <v>11600</v>
+        <v>-66200</v>
       </c>
       <c r="G101" s="3">
-        <v>104800</v>
+        <v>12800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4800</v>
+        <v>115700</v>
       </c>
       <c r="I101" s="3">
-        <v>53400</v>
+        <v>-5300</v>
       </c>
       <c r="J101" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K101" s="3">
         <v>27800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6421,77 +6669,83 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71200</v>
+        <v>738600</v>
       </c>
       <c r="E102" s="3">
-        <v>184600</v>
+        <v>-78600</v>
       </c>
       <c r="F102" s="3">
-        <v>-860500</v>
+        <v>203800</v>
       </c>
       <c r="G102" s="3">
-        <v>135100</v>
+        <v>-949800</v>
       </c>
       <c r="H102" s="3">
-        <v>-80900</v>
+        <v>149200</v>
       </c>
       <c r="I102" s="3">
-        <v>282800</v>
+        <v>-89300</v>
       </c>
       <c r="J102" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-321700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1491400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>185900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-828100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>896600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-174900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>395600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1421900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-336100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>232500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-464700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2931500</v>
+        <v>1961200</v>
       </c>
       <c r="E8" s="3">
-        <v>2381300</v>
+        <v>2897500</v>
       </c>
       <c r="F8" s="3">
-        <v>2340900</v>
+        <v>2353700</v>
       </c>
       <c r="G8" s="3">
-        <v>2453800</v>
+        <v>2313800</v>
       </c>
       <c r="H8" s="3">
-        <v>10099900</v>
+        <v>2425400</v>
       </c>
       <c r="I8" s="3">
-        <v>2377300</v>
+        <v>9983100</v>
       </c>
       <c r="J8" s="3">
+        <v>2349800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2471700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2120100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5326400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2536800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2316300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2378200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2499600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2268300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2749700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2648800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3207100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2797100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2733800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2617700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10283900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2197200</v>
+        <v>1453300</v>
       </c>
       <c r="E9" s="3">
-        <v>1796400</v>
+        <v>2171800</v>
       </c>
       <c r="F9" s="3">
-        <v>1747500</v>
+        <v>1775600</v>
       </c>
       <c r="G9" s="3">
-        <v>1814300</v>
+        <v>1727300</v>
       </c>
       <c r="H9" s="3">
-        <v>7390500</v>
+        <v>1793300</v>
       </c>
       <c r="I9" s="3">
-        <v>1770600</v>
+        <v>7305000</v>
       </c>
       <c r="J9" s="3">
+        <v>1750100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1847400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1594900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3920300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1996200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1816700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1854800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1925100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1764100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2024400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2051500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2388700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2171000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1981000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2017900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7921900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>734200</v>
+        <v>508000</v>
       </c>
       <c r="E10" s="3">
-        <v>584900</v>
+        <v>725800</v>
       </c>
       <c r="F10" s="3">
-        <v>593300</v>
+        <v>578100</v>
       </c>
       <c r="G10" s="3">
-        <v>639500</v>
+        <v>586500</v>
       </c>
       <c r="H10" s="3">
-        <v>2709400</v>
+        <v>632100</v>
       </c>
       <c r="I10" s="3">
-        <v>606700</v>
+        <v>2678000</v>
       </c>
       <c r="J10" s="3">
+        <v>599700</v>
+      </c>
+      <c r="K10" s="3">
         <v>624300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>525200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1406100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>540600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>499500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>523400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>574400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>504200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>725300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>597300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>818400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>626100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>752700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>599900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2362000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
-        <v>28200</v>
-      </c>
       <c r="F14" s="3">
-        <v>11200</v>
+        <v>27900</v>
       </c>
       <c r="G14" s="3">
-        <v>13600</v>
+        <v>11100</v>
       </c>
       <c r="H14" s="3">
-        <v>115900</v>
+        <v>13400</v>
       </c>
       <c r="I14" s="3">
-        <v>22900</v>
+        <v>114500</v>
       </c>
       <c r="J14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K14" s="3">
         <v>41800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>24600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>87800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>92700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>95100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>351400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K15" s="3">
         <v>86300</v>
       </c>
-      <c r="E15" s="3">
-        <v>88900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>93800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>96200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>355500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>88300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>86300</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>77500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>189900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>58600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>60800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>53000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>56100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>70300</v>
       </c>
       <c r="S15" s="3">
         <v>70300</v>
       </c>
       <c r="T15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="U15" s="3">
         <v>52600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>48700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>47100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>175400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2741700</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>2361800</v>
+        <v>2710000</v>
       </c>
       <c r="F17" s="3">
-        <v>2281600</v>
+        <v>2334400</v>
       </c>
       <c r="G17" s="3">
-        <v>2389400</v>
+        <v>2255200</v>
       </c>
       <c r="H17" s="3">
-        <v>9581800</v>
+        <v>2361700</v>
       </c>
       <c r="I17" s="3">
-        <v>2297700</v>
+        <v>9471000</v>
       </c>
       <c r="J17" s="3">
+        <v>2271100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2373800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2122400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5233500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2451500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2241000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2293500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2331500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2180000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2552600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2563100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3070900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2745300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2620700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2541300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10071600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>189800</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>19500</v>
+        <v>187600</v>
       </c>
       <c r="F18" s="3">
-        <v>59300</v>
+        <v>19300</v>
       </c>
       <c r="G18" s="3">
-        <v>64400</v>
+        <v>58600</v>
       </c>
       <c r="H18" s="3">
-        <v>518100</v>
+        <v>63700</v>
       </c>
       <c r="I18" s="3">
-        <v>79600</v>
+        <v>512100</v>
       </c>
       <c r="J18" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K18" s="3">
         <v>97900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>168100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>197100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>85700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>136100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>113100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>212400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-10200</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-7900</v>
+        <v>-10100</v>
       </c>
       <c r="F20" s="3">
-        <v>10200</v>
+        <v>-7800</v>
       </c>
       <c r="G20" s="3">
-        <v>-9100</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
-        <v>76500</v>
+        <v>-9000</v>
       </c>
       <c r="I20" s="3">
-        <v>-14200</v>
+        <v>75600</v>
       </c>
       <c r="J20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-44800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-49100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>277300</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>117100</v>
+        <v>274100</v>
       </c>
       <c r="F21" s="3">
-        <v>175600</v>
+        <v>115700</v>
       </c>
       <c r="G21" s="3">
-        <v>163400</v>
+        <v>173500</v>
       </c>
       <c r="H21" s="3">
-        <v>1099800</v>
+        <v>161500</v>
       </c>
       <c r="I21" s="3">
-        <v>196100</v>
+        <v>1087100</v>
       </c>
       <c r="J21" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K21" s="3">
         <v>192500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>103200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>379700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>143200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>233300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>229800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>181400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>157700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>95400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>152300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>124500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>433400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>72700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>65400</v>
+        <v>71900</v>
       </c>
       <c r="F22" s="3">
-        <v>56800</v>
+        <v>64700</v>
       </c>
       <c r="G22" s="3">
-        <v>48500</v>
+        <v>56100</v>
       </c>
       <c r="H22" s="3">
-        <v>219900</v>
+        <v>47900</v>
       </c>
       <c r="I22" s="3">
-        <v>56200</v>
+        <v>217400</v>
       </c>
       <c r="J22" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K22" s="3">
         <v>38800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>159800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>78900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>29700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>35100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>43200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>174900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>106800</v>
+        <v>-24700</v>
       </c>
       <c r="E23" s="3">
-        <v>-53800</v>
+        <v>105600</v>
       </c>
       <c r="F23" s="3">
-        <v>12800</v>
+        <v>-53200</v>
       </c>
       <c r="G23" s="3">
-        <v>6900</v>
+        <v>12700</v>
       </c>
       <c r="H23" s="3">
-        <v>374600</v>
+        <v>6800</v>
       </c>
       <c r="I23" s="3">
-        <v>9300</v>
+        <v>370300</v>
       </c>
       <c r="J23" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K23" s="3">
         <v>30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-68000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>122200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>132200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>64900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-59100</v>
+        <v>-8200</v>
       </c>
       <c r="E24" s="3">
-        <v>-46700</v>
+        <v>-58400</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>-46200</v>
       </c>
       <c r="G24" s="3">
-        <v>-18100</v>
+        <v>6800</v>
       </c>
       <c r="H24" s="3">
-        <v>130500</v>
+        <v>-17900</v>
       </c>
       <c r="I24" s="3">
-        <v>13600</v>
+        <v>128900</v>
       </c>
       <c r="J24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>165900</v>
+        <v>-16600</v>
       </c>
       <c r="E26" s="3">
-        <v>-7100</v>
+        <v>164000</v>
       </c>
       <c r="F26" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="G26" s="3">
-        <v>25000</v>
+        <v>5800</v>
       </c>
       <c r="H26" s="3">
-        <v>244200</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
+        <v>241300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>41300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153100</v>
+        <v>-21600</v>
       </c>
       <c r="E27" s="3">
-        <v>-17300</v>
+        <v>151300</v>
       </c>
       <c r="F27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>22300</v>
-      </c>
       <c r="H27" s="3">
-        <v>215200</v>
+        <v>22000</v>
       </c>
       <c r="I27" s="3">
-        <v>-12400</v>
+        <v>212700</v>
       </c>
       <c r="J27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>73100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>129700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,13 +2178,16 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-200</v>
+        <v>-294100</v>
       </c>
       <c r="E29" s="3">
         <v>-200</v>
@@ -2134,65 +2195,68 @@
       <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>214200</v>
-      </c>
       <c r="I29" s="3">
-        <v>88500</v>
+        <v>211700</v>
       </c>
       <c r="J29" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K29" s="3">
         <v>49300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>18900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>204800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>57000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>10100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>36700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>40400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>45600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>23300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-11500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>32700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-249300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>10200</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>7900</v>
+        <v>10100</v>
       </c>
       <c r="F32" s="3">
-        <v>-10200</v>
+        <v>7800</v>
       </c>
       <c r="G32" s="3">
-        <v>9100</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
-        <v>-76500</v>
+        <v>9000</v>
       </c>
       <c r="I32" s="3">
-        <v>14200</v>
+        <v>-75600</v>
       </c>
       <c r="J32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>28600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>44800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>49100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>152900</v>
+        <v>-315700</v>
       </c>
       <c r="E33" s="3">
-        <v>-17500</v>
+        <v>151100</v>
       </c>
       <c r="F33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>22300</v>
-      </c>
       <c r="H33" s="3">
-        <v>429400</v>
+        <v>22000</v>
       </c>
       <c r="I33" s="3">
-        <v>76100</v>
+        <v>424400</v>
       </c>
       <c r="J33" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K33" s="3">
         <v>66000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>109800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-119600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>152900</v>
+        <v>-315700</v>
       </c>
       <c r="E35" s="3">
-        <v>-17500</v>
+        <v>151100</v>
       </c>
       <c r="F35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>22300</v>
-      </c>
       <c r="H35" s="3">
-        <v>429400</v>
+        <v>22000</v>
       </c>
       <c r="I35" s="3">
-        <v>76100</v>
+        <v>424400</v>
       </c>
       <c r="J35" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K35" s="3">
         <v>66000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>109800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-119600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1630500</v>
+        <v>1611600</v>
       </c>
       <c r="E41" s="3">
-        <v>891900</v>
+        <v>881600</v>
       </c>
       <c r="F41" s="3">
-        <v>970500</v>
+        <v>959300</v>
       </c>
       <c r="G41" s="3">
-        <v>766800</v>
+        <v>757900</v>
       </c>
       <c r="H41" s="3">
-        <v>1716600</v>
+        <v>1696700</v>
       </c>
       <c r="I41" s="3">
-        <v>1435200</v>
+        <v>1418600</v>
       </c>
       <c r="J41" s="3">
+        <v>1506800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1524500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1098300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1469100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2374000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>833100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>441400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>779400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>485700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>713200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>397200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>972200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>324600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>606600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>417500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1268200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>568300</v>
+        <v>561700</v>
       </c>
       <c r="E43" s="3">
-        <v>521400</v>
+        <v>515400</v>
       </c>
       <c r="F43" s="3">
-        <v>515300</v>
+        <v>509300</v>
       </c>
       <c r="G43" s="3">
-        <v>483600</v>
+        <v>478000</v>
       </c>
       <c r="H43" s="3">
-        <v>400800</v>
+        <v>396200</v>
       </c>
       <c r="I43" s="3">
-        <v>566200</v>
+        <v>559600</v>
       </c>
       <c r="J43" s="3">
+        <v>558200</v>
+      </c>
+      <c r="K43" s="3">
         <v>564800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>497700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>517200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>305900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>226600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>321900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>243500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>289200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>253400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>409600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>379700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>394600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>268400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>368600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>333200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1035900</v>
+        <v>1024000</v>
       </c>
       <c r="E44" s="3">
-        <v>1297600</v>
+        <v>1282600</v>
       </c>
       <c r="F44" s="3">
-        <v>1224100</v>
+        <v>1210000</v>
       </c>
       <c r="G44" s="3">
-        <v>1335100</v>
+        <v>1319600</v>
       </c>
       <c r="H44" s="3">
-        <v>1288000</v>
+        <v>1273100</v>
       </c>
       <c r="I44" s="3">
-        <v>1945000</v>
+        <v>1922500</v>
       </c>
       <c r="J44" s="3">
+        <v>1779900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1800700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1731800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1594100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1134100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1007900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1072600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1054200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1025100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1199400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1111100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1236300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1188100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1135000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1135700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1151300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>287100</v>
+        <v>283800</v>
       </c>
       <c r="E45" s="3">
-        <v>98300</v>
+        <v>97200</v>
       </c>
       <c r="F45" s="3">
-        <v>105400</v>
+        <v>104200</v>
       </c>
       <c r="G45" s="3">
-        <v>104600</v>
+        <v>103400</v>
       </c>
       <c r="H45" s="3">
-        <v>70900</v>
+        <v>70100</v>
       </c>
       <c r="I45" s="3">
-        <v>156300</v>
+        <v>154500</v>
       </c>
       <c r="J45" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K45" s="3">
         <v>278800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>357000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5072700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5210400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4098000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5128800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5230400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5876500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5097100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4904000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5016900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5099300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3521900</v>
+        <v>3481100</v>
       </c>
       <c r="E46" s="3">
-        <v>2809300</v>
+        <v>2776800</v>
       </c>
       <c r="F46" s="3">
-        <v>2815400</v>
+        <v>2782800</v>
       </c>
       <c r="G46" s="3">
-        <v>2690100</v>
+        <v>2658900</v>
       </c>
       <c r="H46" s="3">
-        <v>3476300</v>
+        <v>3436100</v>
       </c>
       <c r="I46" s="3">
-        <v>4102600</v>
+        <v>4055100</v>
       </c>
       <c r="J46" s="3">
+        <v>4120600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4168800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3684800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3688100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3920000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2125200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6908700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7287500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5898000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7294700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7148300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8464600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7004300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6914100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6938800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7852000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>934100</v>
+        <v>923300</v>
       </c>
       <c r="E47" s="3">
-        <v>937600</v>
+        <v>926800</v>
       </c>
       <c r="F47" s="3">
-        <v>964200</v>
+        <v>953100</v>
       </c>
       <c r="G47" s="3">
-        <v>1020200</v>
+        <v>1008400</v>
       </c>
       <c r="H47" s="3">
-        <v>1020800</v>
+        <v>1009000</v>
       </c>
       <c r="I47" s="3">
-        <v>806600</v>
+        <v>797200</v>
       </c>
       <c r="J47" s="3">
+        <v>820800</v>
+      </c>
+      <c r="K47" s="3">
         <v>830400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>750500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>666400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>627500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>621300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>555500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>669100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>750500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>631000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>679400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>585100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>558900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>403600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>391200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3862000</v>
+        <v>3817300</v>
       </c>
       <c r="E48" s="3">
-        <v>4436600</v>
+        <v>4385300</v>
       </c>
       <c r="F48" s="3">
-        <v>4276200</v>
+        <v>4226700</v>
       </c>
       <c r="G48" s="3">
-        <v>4737100</v>
+        <v>4682300</v>
       </c>
       <c r="H48" s="3">
-        <v>4636200</v>
+        <v>4582600</v>
       </c>
       <c r="I48" s="3">
-        <v>5924000</v>
+        <v>5855500</v>
       </c>
       <c r="J48" s="3">
+        <v>5493200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5557500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4579600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5049900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2614500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2377200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2470300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2515800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1714100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2141600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2348200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2360700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2309500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2231500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2283600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1133700</v>
+        <v>1120600</v>
       </c>
       <c r="E49" s="3">
-        <v>1184900</v>
+        <v>1171200</v>
       </c>
       <c r="F49" s="3">
-        <v>1128600</v>
+        <v>1115500</v>
       </c>
       <c r="G49" s="3">
-        <v>1237100</v>
+        <v>1222800</v>
       </c>
       <c r="H49" s="3">
-        <v>1214700</v>
+        <v>1200600</v>
       </c>
       <c r="I49" s="3">
-        <v>1375500</v>
+        <v>1359600</v>
       </c>
       <c r="J49" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1621800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1373500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1151800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>545100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>509400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>536700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1322100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>358400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>449800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>448400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>986600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>489200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>483800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>470600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>473300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>291600</v>
+        <v>288300</v>
       </c>
       <c r="E52" s="3">
-        <v>227400</v>
+        <v>224800</v>
       </c>
       <c r="F52" s="3">
-        <v>178900</v>
+        <v>176900</v>
       </c>
       <c r="G52" s="3">
-        <v>175200</v>
+        <v>173200</v>
       </c>
       <c r="H52" s="3">
-        <v>154300</v>
+        <v>152500</v>
       </c>
       <c r="I52" s="3">
-        <v>253400</v>
+        <v>250500</v>
       </c>
       <c r="J52" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K52" s="3">
         <v>253200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>251500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>244200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>217800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>207200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>255200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>265300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>219100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>261300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>236300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>245600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>261300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>248200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>224000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>217300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9743200</v>
+        <v>9630500</v>
       </c>
       <c r="E54" s="3">
-        <v>9595800</v>
+        <v>9484800</v>
       </c>
       <c r="F54" s="3">
-        <v>9363300</v>
+        <v>9255000</v>
       </c>
       <c r="G54" s="3">
-        <v>9859700</v>
+        <v>9745600</v>
       </c>
       <c r="H54" s="3">
-        <v>10502300</v>
+        <v>10380800</v>
       </c>
       <c r="I54" s="3">
-        <v>12462100</v>
+        <v>12317900</v>
       </c>
       <c r="J54" s="3">
+        <v>12287900</v>
+      </c>
+      <c r="K54" s="3">
         <v>12431700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10640000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7924900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5819600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10792200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11058700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8858700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10857000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10605500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12231100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10700500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10514400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10268500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11217400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1986000</v>
+        <v>1963000</v>
       </c>
       <c r="E57" s="3">
-        <v>1494900</v>
+        <v>1477600</v>
       </c>
       <c r="F57" s="3">
-        <v>1519500</v>
+        <v>1501900</v>
       </c>
       <c r="G57" s="3">
-        <v>1529800</v>
+        <v>1512100</v>
       </c>
       <c r="H57" s="3">
-        <v>2251200</v>
+        <v>2225200</v>
       </c>
       <c r="I57" s="3">
-        <v>2359000</v>
+        <v>2331700</v>
       </c>
       <c r="J57" s="3">
+        <v>2378500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2406300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2149000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2749600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1281400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1208900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1212800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1649500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1191400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1487300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1286900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2083900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1408800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1326000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1794100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>466000</v>
+        <v>460700</v>
       </c>
       <c r="E58" s="3">
-        <v>649900</v>
+        <v>642400</v>
       </c>
       <c r="F58" s="3">
-        <v>702500</v>
+        <v>694400</v>
       </c>
       <c r="G58" s="3">
-        <v>772700</v>
+        <v>763700</v>
       </c>
       <c r="H58" s="3">
-        <v>641600</v>
+        <v>634200</v>
       </c>
       <c r="I58" s="3">
-        <v>1420400</v>
+        <v>1404000</v>
       </c>
       <c r="J58" s="3">
+        <v>1026700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1038700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1158800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>817300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1180300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>651100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>528300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>803500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>343200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>425000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>324100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>320700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>363500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>381000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>553500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>733600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>809300</v>
+        <v>800000</v>
       </c>
       <c r="E59" s="3">
-        <v>671400</v>
+        <v>663600</v>
       </c>
       <c r="F59" s="3">
-        <v>644200</v>
+        <v>636700</v>
       </c>
       <c r="G59" s="3">
-        <v>796700</v>
+        <v>787500</v>
       </c>
       <c r="H59" s="3">
-        <v>749400</v>
+        <v>740700</v>
       </c>
       <c r="I59" s="3">
-        <v>743300</v>
+        <v>734700</v>
       </c>
       <c r="J59" s="3">
+        <v>800900</v>
+      </c>
+      <c r="K59" s="3">
         <v>810300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>695000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>706100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>365000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>362800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4382600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4634800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3388600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4163000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4369600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5028400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4138200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3974700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4078400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4314900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3261300</v>
+        <v>3223600</v>
       </c>
       <c r="E60" s="3">
-        <v>2816200</v>
+        <v>2783600</v>
       </c>
       <c r="F60" s="3">
-        <v>2866200</v>
+        <v>2833100</v>
       </c>
       <c r="G60" s="3">
-        <v>3099200</v>
+        <v>3063300</v>
       </c>
       <c r="H60" s="3">
-        <v>3642300</v>
+        <v>3600100</v>
       </c>
       <c r="I60" s="3">
-        <v>4522700</v>
+        <v>4470400</v>
       </c>
       <c r="J60" s="3">
+        <v>4206100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4255300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4002800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4273000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2826600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2222800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6123600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6705500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4923300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6075300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5980700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7433000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5910600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5681600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5932100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6842500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2523400</v>
+        <v>2494200</v>
       </c>
       <c r="E61" s="3">
-        <v>2854000</v>
+        <v>2821000</v>
       </c>
       <c r="F61" s="3">
-        <v>2752100</v>
+        <v>2720300</v>
       </c>
       <c r="G61" s="3">
-        <v>2604700</v>
+        <v>2574600</v>
       </c>
       <c r="H61" s="3">
-        <v>2811800</v>
+        <v>2779300</v>
       </c>
       <c r="I61" s="3">
-        <v>4027500</v>
+        <v>3980900</v>
       </c>
       <c r="J61" s="3">
+        <v>4458300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4510500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3605000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3405100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2602100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1283800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1606100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1547100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>912200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>974000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>957900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>855500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>856300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>935500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>637300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>722400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>730700</v>
+        <v>722200</v>
       </c>
       <c r="E62" s="3">
-        <v>741100</v>
+        <v>732600</v>
       </c>
       <c r="F62" s="3">
-        <v>710000</v>
+        <v>701800</v>
       </c>
       <c r="G62" s="3">
-        <v>769500</v>
+        <v>760600</v>
       </c>
       <c r="H62" s="3">
-        <v>736200</v>
+        <v>727700</v>
       </c>
       <c r="I62" s="3">
-        <v>711200</v>
+        <v>703000</v>
       </c>
       <c r="J62" s="3">
+        <v>581000</v>
+      </c>
+      <c r="K62" s="3">
         <v>587800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>549100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>619900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>459000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>413500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>502400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>458500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>476800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>599200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>568200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>599200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>582200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>564300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>518500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>527400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7053600</v>
+        <v>6972000</v>
       </c>
       <c r="E66" s="3">
-        <v>6983800</v>
+        <v>6903000</v>
       </c>
       <c r="F66" s="3">
-        <v>6865000</v>
+        <v>6785600</v>
       </c>
       <c r="G66" s="3">
-        <v>7099300</v>
+        <v>7017100</v>
       </c>
       <c r="H66" s="3">
-        <v>7803600</v>
+        <v>7713300</v>
       </c>
       <c r="I66" s="3">
-        <v>9882400</v>
+        <v>9768000</v>
       </c>
       <c r="J66" s="3">
+        <v>9840300</v>
+      </c>
+      <c r="K66" s="3">
         <v>9955500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8631400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8779700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5887800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3920000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8846900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9232900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6864100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8346500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8191400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9619100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8086000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7907800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7789200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8771400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1183000</v>
+        <v>1169300</v>
       </c>
       <c r="E72" s="3">
-        <v>1043400</v>
+        <v>1031400</v>
       </c>
       <c r="F72" s="3">
-        <v>1061200</v>
+        <v>1048900</v>
       </c>
       <c r="G72" s="3">
-        <v>1100400</v>
+        <v>1087700</v>
       </c>
       <c r="H72" s="3">
-        <v>1130100</v>
+        <v>1117100</v>
       </c>
       <c r="I72" s="3">
-        <v>917100</v>
+        <v>906500</v>
       </c>
       <c r="J72" s="3">
+        <v>832500</v>
+      </c>
+      <c r="K72" s="3">
         <v>842200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>700300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>749300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>788400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>715000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>689900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>637200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>764700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>955800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>856600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>899600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>893200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>884000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>811200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>779000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2689700</v>
+        <v>2658600</v>
       </c>
       <c r="E76" s="3">
+        <v>2581800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2469400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2728500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2667500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2549900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2447600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2476300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2008500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>2020600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2037100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1899600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1945200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="S76" s="3">
+        <v>2510600</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2414100</v>
+      </c>
+      <c r="U76" s="3">
         <v>2612000</v>
       </c>
-      <c r="F76" s="3">
-        <v>2498300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2760400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2698700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2579700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2476300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2008500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2020600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2037100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1899600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1945200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1825700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1994600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2510600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2414100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2612000</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2614600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2606600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2479300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2446100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>152900</v>
+        <v>-315700</v>
       </c>
       <c r="E81" s="3">
-        <v>-17500</v>
+        <v>151100</v>
       </c>
       <c r="F81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>22300</v>
-      </c>
       <c r="H81" s="3">
-        <v>429400</v>
+        <v>22000</v>
       </c>
       <c r="I81" s="3">
-        <v>76100</v>
+        <v>424400</v>
       </c>
       <c r="J81" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K81" s="3">
         <v>66000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>109800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-119600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>97700</v>
+        <v>95100</v>
       </c>
       <c r="E83" s="3">
-        <v>105400</v>
+        <v>96600</v>
       </c>
       <c r="F83" s="3">
-        <v>106000</v>
+        <v>104200</v>
       </c>
       <c r="G83" s="3">
-        <v>108000</v>
+        <v>104800</v>
       </c>
       <c r="H83" s="3">
-        <v>505300</v>
+        <v>106700</v>
       </c>
       <c r="I83" s="3">
-        <v>130700</v>
+        <v>499400</v>
       </c>
       <c r="J83" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K83" s="3">
         <v>123200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>107800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>287900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>68300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>61400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>56100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>270200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>889900</v>
+        <v>-744300</v>
       </c>
       <c r="E89" s="3">
-        <v>22900</v>
+        <v>879600</v>
       </c>
       <c r="F89" s="3">
-        <v>314100</v>
+        <v>22600</v>
       </c>
       <c r="G89" s="3">
-        <v>-689300</v>
+        <v>310500</v>
       </c>
       <c r="H89" s="3">
-        <v>934500</v>
+        <v>-681300</v>
       </c>
       <c r="I89" s="3">
-        <v>38200</v>
+        <v>923600</v>
       </c>
       <c r="J89" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K89" s="3">
         <v>471200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-684600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>209600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>116900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-862300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1223600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-105100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>665300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1574200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-123800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>344600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-323500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59300</v>
+        <v>-54700</v>
       </c>
       <c r="E91" s="3">
-        <v>-49500</v>
+        <v>-58600</v>
       </c>
       <c r="F91" s="3">
-        <v>-42000</v>
+        <v>-48900</v>
       </c>
       <c r="G91" s="3">
-        <v>-53200</v>
+        <v>-41500</v>
       </c>
       <c r="H91" s="3">
-        <v>-451100</v>
+        <v>-52600</v>
       </c>
       <c r="I91" s="3">
-        <v>-116100</v>
+        <v>-445900</v>
       </c>
       <c r="J91" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-97500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-454700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-127700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-89400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-92600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-92900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-106100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-111500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-73600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-88600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-383000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>142700</v>
+        <v>115100</v>
       </c>
       <c r="E94" s="3">
-        <v>-26000</v>
+        <v>141000</v>
       </c>
       <c r="F94" s="3">
-        <v>-50400</v>
+        <v>-25700</v>
       </c>
       <c r="G94" s="3">
-        <v>-81400</v>
+        <v>-49900</v>
       </c>
       <c r="H94" s="3">
-        <v>-845600</v>
+        <v>-80400</v>
       </c>
       <c r="I94" s="3">
-        <v>10800</v>
+        <v>-835800</v>
       </c>
       <c r="J94" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K94" s="3">
         <v>26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-120500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-603200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>311500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-115100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-96900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-99700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-125400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-135100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-56900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-501100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,65 +6484,66 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8500</v>
+        <v>-6800</v>
       </c>
       <c r="E96" s="3">
-        <v>-14000</v>
+        <v>-8400</v>
       </c>
       <c r="F96" s="3">
-        <v>-124100</v>
+        <v>-13800</v>
       </c>
       <c r="G96" s="3">
-        <v>-7100</v>
+        <v>-122700</v>
       </c>
       <c r="H96" s="3">
-        <v>-66800</v>
+        <v>-7000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2800</v>
+        <v>-66000</v>
       </c>
       <c r="J96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-49500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-25900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6317,13 +6551,16 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,126 +6778,132 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-263300</v>
+        <v>-244100</v>
       </c>
       <c r="E100" s="3">
-        <v>-91600</v>
+        <v>-260200</v>
       </c>
       <c r="F100" s="3">
-        <v>6300</v>
+        <v>-90600</v>
       </c>
       <c r="G100" s="3">
-        <v>-191900</v>
+        <v>6200</v>
       </c>
       <c r="H100" s="3">
-        <v>-55400</v>
+        <v>-189700</v>
       </c>
       <c r="I100" s="3">
-        <v>-133000</v>
+        <v>-54700</v>
       </c>
       <c r="J100" s="3">
+        <v>-131500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-244000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>455600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>349800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1576400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-237800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>149500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-162200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>105500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-81300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>170200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-26900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-55100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-365400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>365900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30700</v>
+        <v>-35300</v>
       </c>
       <c r="E101" s="3">
-        <v>16200</v>
+        <v>-30400</v>
       </c>
       <c r="F101" s="3">
-        <v>-66200</v>
+        <v>16000</v>
       </c>
       <c r="G101" s="3">
-        <v>12800</v>
+        <v>-65400</v>
       </c>
       <c r="H101" s="3">
-        <v>115700</v>
+        <v>12700</v>
       </c>
       <c r="I101" s="3">
+        <v>114300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>58900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6672,80 +6921,86 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>738600</v>
+        <v>-908500</v>
       </c>
       <c r="E102" s="3">
-        <v>-78600</v>
+        <v>730000</v>
       </c>
       <c r="F102" s="3">
-        <v>203800</v>
+        <v>-77700</v>
       </c>
       <c r="G102" s="3">
-        <v>-949800</v>
+        <v>201400</v>
       </c>
       <c r="H102" s="3">
-        <v>149200</v>
+        <v>-938800</v>
       </c>
       <c r="I102" s="3">
-        <v>-89300</v>
+        <v>147400</v>
       </c>
       <c r="J102" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K102" s="3">
         <v>312100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-321700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1491400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>185900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-828100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>896600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-174900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>395600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1421900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-336100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>232500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-464700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1961200</v>
+        <v>1979700</v>
       </c>
       <c r="E8" s="3">
-        <v>2897500</v>
+        <v>1970500</v>
       </c>
       <c r="F8" s="3">
-        <v>2353700</v>
+        <v>2911200</v>
       </c>
       <c r="G8" s="3">
-        <v>2313800</v>
+        <v>2364800</v>
       </c>
       <c r="H8" s="3">
-        <v>2425400</v>
+        <v>1810600</v>
       </c>
       <c r="I8" s="3">
-        <v>9983100</v>
+        <v>1926300</v>
       </c>
       <c r="J8" s="3">
+        <v>2890500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2349800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2471700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2120100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5326400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2536800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2316300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2378200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2499600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2268300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2749700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2648800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3207100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2797100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2733800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2617700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10283900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1453300</v>
+        <v>1469300</v>
       </c>
       <c r="E9" s="3">
-        <v>2171800</v>
+        <v>1460100</v>
       </c>
       <c r="F9" s="3">
-        <v>1775600</v>
+        <v>2182100</v>
       </c>
       <c r="G9" s="3">
-        <v>1727300</v>
+        <v>1784000</v>
       </c>
       <c r="H9" s="3">
-        <v>1793300</v>
+        <v>1336800</v>
       </c>
       <c r="I9" s="3">
-        <v>7305000</v>
+        <v>1415100</v>
       </c>
       <c r="J9" s="3">
+        <v>1998100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1750100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1847400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1594900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3920300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1996200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1816700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1854800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1925100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1764100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2024400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2051500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2388700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2171000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1981000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2017900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7921900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>508000</v>
+        <v>510400</v>
       </c>
       <c r="E10" s="3">
-        <v>725800</v>
+        <v>510400</v>
       </c>
       <c r="F10" s="3">
-        <v>578100</v>
+        <v>729200</v>
       </c>
       <c r="G10" s="3">
-        <v>586500</v>
+        <v>580800</v>
       </c>
       <c r="H10" s="3">
-        <v>632100</v>
+        <v>473800</v>
       </c>
       <c r="I10" s="3">
-        <v>2678000</v>
+        <v>511200</v>
       </c>
       <c r="J10" s="3">
+        <v>892400</v>
+      </c>
+      <c r="K10" s="3">
         <v>599700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>624300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>525200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1406100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>540600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>499500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>523400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>574400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>504200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>725300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>597300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>818400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>626100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>752700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>599900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2362000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>7200</v>
       </c>
       <c r="E14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
-        <v>27900</v>
-      </c>
       <c r="G14" s="3">
-        <v>11100</v>
+        <v>28000</v>
       </c>
       <c r="H14" s="3">
-        <v>13400</v>
+        <v>11000</v>
       </c>
       <c r="I14" s="3">
-        <v>114500</v>
+        <v>13700</v>
       </c>
       <c r="J14" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K14" s="3">
         <v>22600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>24600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>79700</v>
+        <v>76100</v>
       </c>
       <c r="E15" s="3">
-        <v>85300</v>
+        <v>80000</v>
       </c>
       <c r="F15" s="3">
-        <v>87800</v>
+        <v>85700</v>
       </c>
       <c r="G15" s="3">
-        <v>92700</v>
+        <v>88300</v>
       </c>
       <c r="H15" s="3">
-        <v>95100</v>
+        <v>77700</v>
       </c>
       <c r="I15" s="3">
-        <v>351400</v>
+        <v>79800</v>
       </c>
       <c r="J15" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K15" s="3">
         <v>87300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>86300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>77500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>189900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>58600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>60800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>53000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>56100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>70300</v>
       </c>
       <c r="T15" s="3">
         <v>70300</v>
       </c>
       <c r="U15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="V15" s="3">
         <v>52600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>49700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>48700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>47100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>175400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1936300</v>
       </c>
       <c r="E17" s="3">
-        <v>2710000</v>
+        <v>1936100</v>
       </c>
       <c r="F17" s="3">
-        <v>2334400</v>
+        <v>2722800</v>
       </c>
       <c r="G17" s="3">
-        <v>2255200</v>
+        <v>2345500</v>
       </c>
       <c r="H17" s="3">
-        <v>2361700</v>
+        <v>1757000</v>
       </c>
       <c r="I17" s="3">
-        <v>9471000</v>
+        <v>1881900</v>
       </c>
       <c r="J17" s="3">
+        <v>2549800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2271100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2373800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2122400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5233500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2451500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2241000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2293500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2331500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2180000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2552600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2563100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3070900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2745300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2620700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2541300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10071600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>43400</v>
       </c>
       <c r="E18" s="3">
-        <v>187600</v>
+        <v>34400</v>
       </c>
       <c r="F18" s="3">
-        <v>19300</v>
+        <v>188500</v>
       </c>
       <c r="G18" s="3">
-        <v>58600</v>
+        <v>19400</v>
       </c>
       <c r="H18" s="3">
-        <v>63700</v>
+        <v>53600</v>
       </c>
       <c r="I18" s="3">
-        <v>512100</v>
+        <v>44400</v>
       </c>
       <c r="J18" s="3">
+        <v>340700</v>
+      </c>
+      <c r="K18" s="3">
         <v>78700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>168100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>197100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>136100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>113100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>212400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>-10100</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7800</v>
       </c>
-      <c r="G20" s="3">
-        <v>10100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-9000</v>
+        <v>15900</v>
       </c>
       <c r="I20" s="3">
-        <v>75600</v>
+        <v>-5300</v>
       </c>
       <c r="J20" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-44800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-49100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>134800</v>
       </c>
       <c r="E21" s="3">
-        <v>274100</v>
+        <v>134800</v>
       </c>
       <c r="F21" s="3">
-        <v>115700</v>
+        <v>275300</v>
       </c>
       <c r="G21" s="3">
-        <v>173500</v>
+        <v>116200</v>
       </c>
       <c r="H21" s="3">
-        <v>161500</v>
+        <v>174800</v>
       </c>
       <c r="I21" s="3">
-        <v>1087100</v>
+        <v>146400</v>
       </c>
       <c r="J21" s="3">
+        <v>574000</v>
+      </c>
+      <c r="K21" s="3">
         <v>193800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>103200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>379700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>143200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>233300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>144100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>229800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>181400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>157700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>152300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>124500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>433400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>72200</v>
       </c>
       <c r="E22" s="3">
-        <v>71900</v>
+        <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>64700</v>
+        <v>72200</v>
       </c>
       <c r="G22" s="3">
-        <v>56100</v>
+        <v>65000</v>
       </c>
       <c r="H22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>55500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>38800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>45900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>159800</v>
+      </c>
+      <c r="O22" s="3">
+        <v>58300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>44600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>47900</v>
       </c>
-      <c r="I22" s="3">
-        <v>217400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>55500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>38800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>45900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>159800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>58300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>44600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>47900</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>43300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>78900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>29700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>35100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>43200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>174900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24700</v>
+        <v>-29400</v>
       </c>
       <c r="E23" s="3">
-        <v>105600</v>
+        <v>-24900</v>
       </c>
       <c r="F23" s="3">
-        <v>-53200</v>
+        <v>106100</v>
       </c>
       <c r="G23" s="3">
-        <v>12700</v>
+        <v>-53400</v>
       </c>
       <c r="H23" s="3">
-        <v>6800</v>
+        <v>26400</v>
       </c>
       <c r="I23" s="3">
-        <v>370300</v>
+        <v>4100</v>
       </c>
       <c r="J23" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-68000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>122200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>132200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>64900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>31300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8200</v>
       </c>
-      <c r="E24" s="3">
-        <v>-58400</v>
-      </c>
       <c r="F24" s="3">
-        <v>-46200</v>
+        <v>-58700</v>
       </c>
       <c r="G24" s="3">
-        <v>6800</v>
+        <v>-46400</v>
       </c>
       <c r="H24" s="3">
-        <v>-17900</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>128900</v>
+        <v>-18800</v>
       </c>
       <c r="J24" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K24" s="3">
         <v>13400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16600</v>
       </c>
-      <c r="E26" s="3">
-        <v>164000</v>
-      </c>
       <c r="F26" s="3">
+        <v>164800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
-        <v>5800</v>
-      </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>16000</v>
       </c>
       <c r="I26" s="3">
-        <v>241300</v>
+        <v>22900</v>
       </c>
       <c r="J26" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>41300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-21600</v>
+        <v>-27800</v>
       </c>
       <c r="E27" s="3">
-        <v>151300</v>
+        <v>-21700</v>
       </c>
       <c r="F27" s="3">
-        <v>-17100</v>
+        <v>152100</v>
       </c>
       <c r="G27" s="3">
-        <v>600</v>
+        <v>-17200</v>
       </c>
       <c r="H27" s="3">
-        <v>22000</v>
+        <v>10800</v>
       </c>
       <c r="I27" s="3">
-        <v>212700</v>
+        <v>20200</v>
       </c>
       <c r="J27" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-58900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>73100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>129700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,16 +2239,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-294100</v>
+        <v>-6100</v>
       </c>
       <c r="E29" s="3">
-        <v>-200</v>
+        <v>295500</v>
       </c>
       <c r="F29" s="3">
         <v>-200</v>
@@ -2198,65 +2259,68 @@
       <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-10400</v>
       </c>
       <c r="I29" s="3">
-        <v>211700</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K29" s="3">
         <v>87500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>49300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>18900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>204800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>57000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>10100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-36800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>36700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>40400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>45600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>23300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-11500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>32700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-249300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>10100</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G32" s="3">
         <v>7800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H32" s="3">
-        <v>9000</v>
+        <v>-15900</v>
       </c>
       <c r="I32" s="3">
-        <v>-75600</v>
+        <v>5300</v>
       </c>
       <c r="J32" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>44800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>49100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-315700</v>
+        <v>-33900</v>
       </c>
       <c r="E33" s="3">
-        <v>151100</v>
+        <v>273800</v>
       </c>
       <c r="F33" s="3">
-        <v>-17300</v>
+        <v>151900</v>
       </c>
       <c r="G33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>22000</v>
-      </c>
       <c r="I33" s="3">
-        <v>424400</v>
+        <v>22100</v>
       </c>
       <c r="J33" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K33" s="3">
         <v>75200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>109800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>34100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-119600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-315700</v>
+        <v>-33900</v>
       </c>
       <c r="E35" s="3">
-        <v>151100</v>
+        <v>273800</v>
       </c>
       <c r="F35" s="3">
-        <v>-17300</v>
+        <v>151900</v>
       </c>
       <c r="G35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>22000</v>
-      </c>
       <c r="I35" s="3">
-        <v>424400</v>
+        <v>22100</v>
       </c>
       <c r="J35" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K35" s="3">
         <v>75200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>109800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>34100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-119600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1611600</v>
+        <v>766800</v>
       </c>
       <c r="E41" s="3">
-        <v>881600</v>
+        <v>706500</v>
       </c>
       <c r="F41" s="3">
-        <v>959300</v>
+        <v>1619200</v>
       </c>
       <c r="G41" s="3">
-        <v>757900</v>
+        <v>885700</v>
       </c>
       <c r="H41" s="3">
-        <v>1696700</v>
+        <v>963800</v>
       </c>
       <c r="I41" s="3">
-        <v>1418600</v>
+        <v>761500</v>
       </c>
       <c r="J41" s="3">
+        <v>1704700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1506800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1524500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1098300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1469100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2374000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>833100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>441400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>779400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>485700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>713200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>397200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>972200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>324600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>606600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>417500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1268200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>561700</v>
+        <v>1092600</v>
       </c>
       <c r="E43" s="3">
-        <v>515400</v>
+        <v>963800</v>
       </c>
       <c r="F43" s="3">
-        <v>509300</v>
+        <v>564400</v>
       </c>
       <c r="G43" s="3">
-        <v>478000</v>
+        <v>517800</v>
       </c>
       <c r="H43" s="3">
-        <v>396200</v>
+        <v>511800</v>
       </c>
       <c r="I43" s="3">
-        <v>559600</v>
+        <v>480200</v>
       </c>
       <c r="J43" s="3">
+        <v>398100</v>
+      </c>
+      <c r="K43" s="3">
         <v>558200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>564800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>497700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>517200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>305900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>226600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>321900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>243500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>289200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>253400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>409600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>379700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>394600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>268400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>368600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>333200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1024000</v>
+        <v>1046200</v>
       </c>
       <c r="E44" s="3">
-        <v>1282600</v>
+        <v>955400</v>
       </c>
       <c r="F44" s="3">
-        <v>1210000</v>
+        <v>1028800</v>
       </c>
       <c r="G44" s="3">
-        <v>1319600</v>
+        <v>1288700</v>
       </c>
       <c r="H44" s="3">
-        <v>1273100</v>
+        <v>1215700</v>
       </c>
       <c r="I44" s="3">
-        <v>1922500</v>
+        <v>1325900</v>
       </c>
       <c r="J44" s="3">
+        <v>1279100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1779900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1731800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1594100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1134100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1007900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1072600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1054200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1025100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1199400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1111100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1236300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1188100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1135000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1135700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1151300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>283800</v>
+        <v>106700</v>
       </c>
       <c r="E45" s="3">
-        <v>97200</v>
+        <v>120900</v>
       </c>
       <c r="F45" s="3">
-        <v>104200</v>
+        <v>285100</v>
       </c>
       <c r="G45" s="3">
-        <v>103400</v>
+        <v>97700</v>
       </c>
       <c r="H45" s="3">
-        <v>70100</v>
+        <v>104700</v>
       </c>
       <c r="I45" s="3">
-        <v>154500</v>
+        <v>103900</v>
       </c>
       <c r="J45" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K45" s="3">
         <v>275600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>278800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>357000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5072700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5210400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4098000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5128800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5230400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5876500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5097100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4904000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5016900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5099300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3481100</v>
+        <v>3012200</v>
       </c>
       <c r="E46" s="3">
-        <v>2776800</v>
+        <v>2746600</v>
       </c>
       <c r="F46" s="3">
-        <v>2782800</v>
+        <v>3497600</v>
       </c>
       <c r="G46" s="3">
-        <v>2658900</v>
+        <v>2789900</v>
       </c>
       <c r="H46" s="3">
-        <v>3436100</v>
+        <v>2796000</v>
       </c>
       <c r="I46" s="3">
-        <v>4055100</v>
+        <v>2671500</v>
       </c>
       <c r="J46" s="3">
+        <v>3452300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4120600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4168800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3684800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3688100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3920000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2125200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6908700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7287500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5898000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7294700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7148300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8464600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7004300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6914100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6938800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7852000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>923300</v>
+        <v>1003000</v>
       </c>
       <c r="E47" s="3">
-        <v>926800</v>
+        <v>1065600</v>
       </c>
       <c r="F47" s="3">
-        <v>953100</v>
+        <v>927600</v>
       </c>
       <c r="G47" s="3">
-        <v>1008400</v>
+        <v>931100</v>
       </c>
       <c r="H47" s="3">
-        <v>1009000</v>
+        <v>957600</v>
       </c>
       <c r="I47" s="3">
-        <v>797200</v>
+        <v>1013100</v>
       </c>
       <c r="J47" s="3">
+        <v>1013700</v>
+      </c>
+      <c r="K47" s="3">
         <v>820800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>830400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>750500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>666400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>627500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>621300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>555500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>669100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>750500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>631000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>679400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>585100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>558900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>403600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>391200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3817300</v>
+        <v>3648800</v>
       </c>
       <c r="E48" s="3">
-        <v>4385300</v>
+        <v>3617900</v>
       </c>
       <c r="F48" s="3">
-        <v>4226700</v>
+        <v>3835300</v>
       </c>
       <c r="G48" s="3">
-        <v>4682300</v>
+        <v>4406000</v>
       </c>
       <c r="H48" s="3">
-        <v>4582600</v>
+        <v>4246700</v>
       </c>
       <c r="I48" s="3">
-        <v>5855500</v>
+        <v>4704400</v>
       </c>
       <c r="J48" s="3">
+        <v>4604200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5493200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5557500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4579600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5049900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2614500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2377200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2470300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2515800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1714100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2141600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2348200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2360700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2309500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2231500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2283600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1120600</v>
+        <v>1068900</v>
       </c>
       <c r="E49" s="3">
-        <v>1171200</v>
+        <v>1065600</v>
       </c>
       <c r="F49" s="3">
-        <v>1115500</v>
+        <v>1125900</v>
       </c>
       <c r="G49" s="3">
-        <v>1222800</v>
+        <v>1176700</v>
       </c>
       <c r="H49" s="3">
-        <v>1200600</v>
+        <v>1120800</v>
       </c>
       <c r="I49" s="3">
-        <v>1359600</v>
+        <v>1228600</v>
       </c>
       <c r="J49" s="3">
+        <v>1206300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1603000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1621800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1373500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1151800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>545100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>509400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>536700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1322100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>358400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>449800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>448400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>986600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>489200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>483800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>470600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>473300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>288300</v>
+        <v>280200</v>
       </c>
       <c r="E52" s="3">
-        <v>224800</v>
+        <v>263400</v>
       </c>
       <c r="F52" s="3">
-        <v>176900</v>
+        <v>289600</v>
       </c>
       <c r="G52" s="3">
-        <v>173200</v>
+        <v>225800</v>
       </c>
       <c r="H52" s="3">
-        <v>152500</v>
+        <v>177700</v>
       </c>
       <c r="I52" s="3">
-        <v>250500</v>
+        <v>174000</v>
       </c>
       <c r="J52" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K52" s="3">
         <v>250300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>253200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>251500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>244200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>217800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>207200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>255200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>265300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>219100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>261300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>236300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>245600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>261300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>248200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>224000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>217300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9630500</v>
+        <v>9013200</v>
       </c>
       <c r="E54" s="3">
-        <v>9484800</v>
+        <v>8759100</v>
       </c>
       <c r="F54" s="3">
-        <v>9255000</v>
+        <v>9676000</v>
       </c>
       <c r="G54" s="3">
-        <v>9745600</v>
+        <v>9529600</v>
       </c>
       <c r="H54" s="3">
-        <v>10380800</v>
+        <v>9298700</v>
       </c>
       <c r="I54" s="3">
-        <v>12317900</v>
+        <v>9791700</v>
       </c>
       <c r="J54" s="3">
+        <v>10429800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12287900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12431700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10640000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10800300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7924900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5819600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10792200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11058700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8858700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10857000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10605500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12231100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10700500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10514400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10268500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11217400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1963000</v>
+        <v>1389500</v>
       </c>
       <c r="E57" s="3">
-        <v>1477600</v>
+        <v>1269500</v>
       </c>
       <c r="F57" s="3">
-        <v>1501900</v>
+        <v>1972300</v>
       </c>
       <c r="G57" s="3">
-        <v>1512100</v>
+        <v>1484600</v>
       </c>
       <c r="H57" s="3">
-        <v>2225200</v>
+        <v>1509000</v>
       </c>
       <c r="I57" s="3">
-        <v>2331700</v>
+        <v>1519200</v>
       </c>
       <c r="J57" s="3">
+        <v>2235700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2378500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2406300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2149000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2749600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1281400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1208900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1212800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1649500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1191400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1487300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1286900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2083900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1408800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1326000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1794100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>460700</v>
+        <v>722700</v>
       </c>
       <c r="E58" s="3">
-        <v>642400</v>
+        <v>523900</v>
       </c>
       <c r="F58" s="3">
-        <v>694400</v>
+        <v>462800</v>
       </c>
       <c r="G58" s="3">
-        <v>763700</v>
+        <v>645400</v>
       </c>
       <c r="H58" s="3">
-        <v>634200</v>
+        <v>697700</v>
       </c>
       <c r="I58" s="3">
-        <v>1404000</v>
+        <v>767300</v>
       </c>
       <c r="J58" s="3">
+        <v>637200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1026700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1038700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1158800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>817300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1180300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>651100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>528300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>803500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>343200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>425000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>324100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>320700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>363500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>381000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>553500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>733600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800000</v>
+        <v>736600</v>
       </c>
       <c r="E59" s="3">
-        <v>663600</v>
+        <v>686500</v>
       </c>
       <c r="F59" s="3">
-        <v>636700</v>
+        <v>803700</v>
       </c>
       <c r="G59" s="3">
-        <v>787500</v>
+        <v>666700</v>
       </c>
       <c r="H59" s="3">
-        <v>740700</v>
+        <v>639700</v>
       </c>
       <c r="I59" s="3">
-        <v>734700</v>
+        <v>791200</v>
       </c>
       <c r="J59" s="3">
+        <v>744200</v>
+      </c>
+      <c r="K59" s="3">
         <v>800900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>810300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>695000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>706100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>365000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>362800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4382600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4634800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3388600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4163000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4369600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5028400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4138200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3974700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4078400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4314900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3223600</v>
+        <v>2848800</v>
       </c>
       <c r="E60" s="3">
-        <v>2783600</v>
+        <v>2479900</v>
       </c>
       <c r="F60" s="3">
-        <v>2833100</v>
+        <v>3238800</v>
       </c>
       <c r="G60" s="3">
-        <v>3063300</v>
+        <v>2796700</v>
       </c>
       <c r="H60" s="3">
-        <v>3600100</v>
+        <v>2846500</v>
       </c>
       <c r="I60" s="3">
-        <v>4470400</v>
+        <v>3077800</v>
       </c>
       <c r="J60" s="3">
+        <v>3617100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4206100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4255300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4002800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4273000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2826600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2222800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6123600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6705500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4923300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6075300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5980700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7433000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5910600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5681600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5932100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6842500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2494200</v>
+        <v>2116900</v>
       </c>
       <c r="E61" s="3">
-        <v>2821000</v>
+        <v>2295000</v>
       </c>
       <c r="F61" s="3">
-        <v>2720300</v>
+        <v>2505900</v>
       </c>
       <c r="G61" s="3">
-        <v>2574600</v>
+        <v>2834300</v>
       </c>
       <c r="H61" s="3">
-        <v>2779300</v>
+        <v>2733100</v>
       </c>
       <c r="I61" s="3">
-        <v>3980900</v>
+        <v>2586800</v>
       </c>
       <c r="J61" s="3">
+        <v>2792400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4458300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4510500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3605000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3405100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2602100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1283800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1606100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1547100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>912200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>974000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>957900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>855500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>856300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>935500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>637300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>722400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>722200</v>
+        <v>763000</v>
       </c>
       <c r="E62" s="3">
-        <v>732600</v>
+        <v>696300</v>
       </c>
       <c r="F62" s="3">
-        <v>701800</v>
+        <v>725700</v>
       </c>
       <c r="G62" s="3">
-        <v>760600</v>
+        <v>736000</v>
       </c>
       <c r="H62" s="3">
-        <v>727700</v>
+        <v>705100</v>
       </c>
       <c r="I62" s="3">
-        <v>703000</v>
+        <v>764200</v>
       </c>
       <c r="J62" s="3">
+        <v>731100</v>
+      </c>
+      <c r="K62" s="3">
         <v>581000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>587800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>549100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>619900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>459000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>413500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>502400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>458500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>476800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>599200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>568200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>599200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>582200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>564300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>518500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>527400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6972000</v>
+        <v>6220700</v>
       </c>
       <c r="E66" s="3">
-        <v>6903000</v>
+        <v>5964000</v>
       </c>
       <c r="F66" s="3">
-        <v>6785600</v>
+        <v>7004900</v>
       </c>
       <c r="G66" s="3">
-        <v>7017100</v>
+        <v>6935600</v>
       </c>
       <c r="H66" s="3">
-        <v>7713300</v>
+        <v>6817600</v>
       </c>
       <c r="I66" s="3">
-        <v>9768000</v>
+        <v>7050300</v>
       </c>
       <c r="J66" s="3">
+        <v>7749700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9840300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9955500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8631400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8779700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5887800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3920000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8846900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9232900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6864100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8346500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8191400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9619100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8086000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7907800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7789200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8771400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1169300</v>
+        <v>1413700</v>
       </c>
       <c r="E72" s="3">
-        <v>1031400</v>
+        <v>1446400</v>
       </c>
       <c r="F72" s="3">
-        <v>1048900</v>
+        <v>1174800</v>
       </c>
       <c r="G72" s="3">
-        <v>1087700</v>
+        <v>1036200</v>
       </c>
       <c r="H72" s="3">
-        <v>1117100</v>
+        <v>1053800</v>
       </c>
       <c r="I72" s="3">
-        <v>906500</v>
+        <v>1092800</v>
       </c>
       <c r="J72" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="K72" s="3">
         <v>832500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>842200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>700300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>749300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>788400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>715000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>689900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>637200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>764700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>955800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>856600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>899600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>893200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>884000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>811200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>779000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2658600</v>
+        <v>2792400</v>
       </c>
       <c r="E76" s="3">
-        <v>2581800</v>
+        <v>2795200</v>
       </c>
       <c r="F76" s="3">
-        <v>2469400</v>
+        <v>2671100</v>
       </c>
       <c r="G76" s="3">
-        <v>2728500</v>
+        <v>2594000</v>
       </c>
       <c r="H76" s="3">
-        <v>2667500</v>
+        <v>2481100</v>
       </c>
       <c r="I76" s="3">
-        <v>2549900</v>
+        <v>2741400</v>
       </c>
       <c r="J76" s="3">
+        <v>2680100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2447600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2476300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2008500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2020600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2037100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1899600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1945200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1825700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1994600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2510600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2414100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2612000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2614600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2606600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2479300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2446100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-315700</v>
+        <v>-33900</v>
       </c>
       <c r="E81" s="3">
-        <v>151100</v>
+        <v>273800</v>
       </c>
       <c r="F81" s="3">
-        <v>-17300</v>
+        <v>151900</v>
       </c>
       <c r="G81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>22000</v>
-      </c>
       <c r="I81" s="3">
-        <v>424400</v>
+        <v>22100</v>
       </c>
       <c r="J81" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K81" s="3">
         <v>75200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>109800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>34100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-119600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95100</v>
+        <v>92000</v>
       </c>
       <c r="E83" s="3">
-        <v>96600</v>
+        <v>95500</v>
       </c>
       <c r="F83" s="3">
-        <v>104200</v>
+        <v>97100</v>
       </c>
       <c r="G83" s="3">
-        <v>104800</v>
+        <v>104700</v>
       </c>
       <c r="H83" s="3">
-        <v>106700</v>
+        <v>105300</v>
       </c>
       <c r="I83" s="3">
-        <v>499400</v>
+        <v>107200</v>
       </c>
       <c r="J83" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K83" s="3">
         <v>129100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>107800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>287900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>65000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>68300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>61400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>78000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>56100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>50100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>270200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-744300</v>
+        <v>154200</v>
       </c>
       <c r="E89" s="3">
-        <v>879600</v>
+        <v>-747800</v>
       </c>
       <c r="F89" s="3">
-        <v>22600</v>
+        <v>883800</v>
       </c>
       <c r="G89" s="3">
-        <v>310500</v>
+        <v>22700</v>
       </c>
       <c r="H89" s="3">
-        <v>-681300</v>
+        <v>311900</v>
       </c>
       <c r="I89" s="3">
-        <v>923600</v>
+        <v>-684600</v>
       </c>
       <c r="J89" s="3">
+        <v>1172600</v>
+      </c>
+      <c r="K89" s="3">
         <v>37800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>471200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-684600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>209600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>116900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-862300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1223600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-105100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>665300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1574200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-123800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>344600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-323500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54700</v>
+        <v>-49300</v>
       </c>
       <c r="E91" s="3">
-        <v>-58600</v>
+        <v>-55000</v>
       </c>
       <c r="F91" s="3">
-        <v>-48900</v>
+        <v>-58900</v>
       </c>
       <c r="G91" s="3">
-        <v>-41500</v>
+        <v>-49100</v>
       </c>
       <c r="H91" s="3">
-        <v>-52600</v>
+        <v>-41700</v>
       </c>
       <c r="I91" s="3">
-        <v>-445900</v>
+        <v>-52800</v>
       </c>
       <c r="J91" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-114700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-97500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-454700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-127700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-89400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-92600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-92900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-106100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-111500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-73600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-88600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-383000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>115100</v>
+        <v>29400</v>
       </c>
       <c r="E94" s="3">
-        <v>141000</v>
+        <v>115700</v>
       </c>
       <c r="F94" s="3">
-        <v>-25700</v>
+        <v>141700</v>
       </c>
       <c r="G94" s="3">
-        <v>-49900</v>
+        <v>-25800</v>
       </c>
       <c r="H94" s="3">
-        <v>-80400</v>
+        <v>-50100</v>
       </c>
       <c r="I94" s="3">
-        <v>-835800</v>
+        <v>-80800</v>
       </c>
       <c r="J94" s="3">
+        <v>-744200</v>
+      </c>
+      <c r="K94" s="3">
         <v>10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-120500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-603200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-127700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>311500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-88000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-96900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-125400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-135100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-56900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-87800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-501100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,68 +6718,69 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8400</v>
       </c>
-      <c r="F96" s="3">
-        <v>-13800</v>
-      </c>
       <c r="G96" s="3">
-        <v>-122700</v>
+        <v>-13900</v>
       </c>
       <c r="H96" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-66000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-49500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-31600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-25900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6554,13 +6788,16 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,132 +7024,138 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-244100</v>
+        <v>-120200</v>
       </c>
       <c r="E100" s="3">
-        <v>-260200</v>
+        <v>-245200</v>
       </c>
       <c r="F100" s="3">
-        <v>-90600</v>
+        <v>-261500</v>
       </c>
       <c r="G100" s="3">
-        <v>6200</v>
+        <v>-91000</v>
       </c>
       <c r="H100" s="3">
-        <v>-189700</v>
+        <v>6300</v>
       </c>
       <c r="I100" s="3">
-        <v>-54700</v>
+        <v>-190600</v>
       </c>
       <c r="J100" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-131500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-244000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>455600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>349800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1576400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-237800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>149500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-162200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>105500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-81300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>170200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-26900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-55100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-365400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>365900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-35300</v>
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>-30400</v>
+        <v>-35400</v>
       </c>
       <c r="F101" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-65400</v>
-      </c>
       <c r="H101" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="I101" s="3">
         <v>12700</v>
       </c>
-      <c r="I101" s="3">
-        <v>114300</v>
-      </c>
       <c r="J101" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>58900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6924,83 +7173,89 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-908500</v>
+        <v>60300</v>
       </c>
       <c r="E102" s="3">
-        <v>730000</v>
+        <v>-912700</v>
       </c>
       <c r="F102" s="3">
-        <v>-77700</v>
+        <v>733500</v>
       </c>
       <c r="G102" s="3">
-        <v>201400</v>
+        <v>-78100</v>
       </c>
       <c r="H102" s="3">
-        <v>-938800</v>
+        <v>202400</v>
       </c>
       <c r="I102" s="3">
-        <v>147400</v>
+        <v>-943300</v>
       </c>
       <c r="J102" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-88200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>312100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-321700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1491400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>185900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-828100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>896600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-174900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>395600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1421900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-336100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>232500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-464700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1979700</v>
+        <v>1892600</v>
       </c>
       <c r="E8" s="3">
-        <v>1970500</v>
+        <v>1883800</v>
       </c>
       <c r="F8" s="3">
-        <v>2911200</v>
+        <v>2783200</v>
       </c>
       <c r="G8" s="3">
-        <v>2364800</v>
+        <v>2260800</v>
       </c>
       <c r="H8" s="3">
-        <v>1810600</v>
+        <v>1731000</v>
       </c>
       <c r="I8" s="3">
-        <v>1926300</v>
+        <v>1841500</v>
       </c>
       <c r="J8" s="3">
-        <v>2890500</v>
+        <v>2763300</v>
       </c>
       <c r="K8" s="3">
         <v>2349800</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1469300</v>
+        <v>1404700</v>
       </c>
       <c r="E9" s="3">
-        <v>1460100</v>
+        <v>1395900</v>
       </c>
       <c r="F9" s="3">
-        <v>2182100</v>
+        <v>2086100</v>
       </c>
       <c r="G9" s="3">
-        <v>1784000</v>
+        <v>1705500</v>
       </c>
       <c r="H9" s="3">
-        <v>1336800</v>
+        <v>1278000</v>
       </c>
       <c r="I9" s="3">
-        <v>1415100</v>
+        <v>1352800</v>
       </c>
       <c r="J9" s="3">
-        <v>1998100</v>
+        <v>1910200</v>
       </c>
       <c r="K9" s="3">
         <v>1750100</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>510400</v>
+        <v>487900</v>
       </c>
       <c r="E10" s="3">
-        <v>510400</v>
+        <v>487900</v>
       </c>
       <c r="F10" s="3">
-        <v>729200</v>
+        <v>697100</v>
       </c>
       <c r="G10" s="3">
-        <v>580800</v>
+        <v>555300</v>
       </c>
       <c r="H10" s="3">
-        <v>473800</v>
+        <v>452900</v>
       </c>
       <c r="I10" s="3">
-        <v>511200</v>
+        <v>488700</v>
       </c>
       <c r="J10" s="3">
-        <v>892400</v>
+        <v>853100</v>
       </c>
       <c r="K10" s="3">
         <v>599700</v>
@@ -1192,25 +1192,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>28000</v>
+        <v>26800</v>
       </c>
       <c r="H14" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="I14" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="J14" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="K14" s="3">
         <v>22600</v>
@@ -1269,25 +1269,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>76100</v>
+        <v>72800</v>
       </c>
       <c r="E15" s="3">
-        <v>80000</v>
+        <v>76500</v>
       </c>
       <c r="F15" s="3">
-        <v>85700</v>
+        <v>81900</v>
       </c>
       <c r="G15" s="3">
-        <v>88300</v>
+        <v>84400</v>
       </c>
       <c r="H15" s="3">
-        <v>77700</v>
+        <v>74300</v>
       </c>
       <c r="I15" s="3">
-        <v>79800</v>
+        <v>76300</v>
       </c>
       <c r="J15" s="3">
-        <v>94700</v>
+        <v>90600</v>
       </c>
       <c r="K15" s="3">
         <v>87300</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1936300</v>
+        <v>1851100</v>
       </c>
       <c r="E17" s="3">
-        <v>1936100</v>
+        <v>1850900</v>
       </c>
       <c r="F17" s="3">
-        <v>2722800</v>
+        <v>2603000</v>
       </c>
       <c r="G17" s="3">
-        <v>2345500</v>
+        <v>2242300</v>
       </c>
       <c r="H17" s="3">
-        <v>1757000</v>
+        <v>1679700</v>
       </c>
       <c r="I17" s="3">
-        <v>1881900</v>
+        <v>1799100</v>
       </c>
       <c r="J17" s="3">
-        <v>2549800</v>
+        <v>2437600</v>
       </c>
       <c r="K17" s="3">
         <v>2271100</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43400</v>
+        <v>41500</v>
       </c>
       <c r="E18" s="3">
-        <v>34400</v>
+        <v>32900</v>
       </c>
       <c r="F18" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="G18" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="H18" s="3">
-        <v>53600</v>
+        <v>51300</v>
       </c>
       <c r="I18" s="3">
-        <v>44400</v>
+        <v>42500</v>
       </c>
       <c r="J18" s="3">
-        <v>340700</v>
+        <v>325700</v>
       </c>
       <c r="K18" s="3">
         <v>78700</v>
@@ -1558,22 +1558,22 @@
         <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="G20" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="H20" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J20" s="3">
-        <v>101800</v>
+        <v>97300</v>
       </c>
       <c r="K20" s="3">
         <v>-14000</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>134800</v>
+        <v>128900</v>
       </c>
       <c r="E21" s="3">
-        <v>134800</v>
+        <v>128900</v>
       </c>
       <c r="F21" s="3">
-        <v>275300</v>
+        <v>263200</v>
       </c>
       <c r="G21" s="3">
-        <v>116200</v>
+        <v>111100</v>
       </c>
       <c r="H21" s="3">
-        <v>174800</v>
+        <v>167100</v>
       </c>
       <c r="I21" s="3">
-        <v>146400</v>
+        <v>139900</v>
       </c>
       <c r="J21" s="3">
-        <v>574000</v>
+        <v>548700</v>
       </c>
       <c r="K21" s="3">
         <v>193800</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72200</v>
+        <v>69000</v>
       </c>
       <c r="E22" s="3">
-        <v>64200</v>
+        <v>61400</v>
       </c>
       <c r="F22" s="3">
-        <v>72200</v>
+        <v>69000</v>
       </c>
       <c r="G22" s="3">
-        <v>65000</v>
+        <v>62100</v>
       </c>
       <c r="H22" s="3">
-        <v>43100</v>
+        <v>41200</v>
       </c>
       <c r="I22" s="3">
-        <v>35000</v>
+        <v>33500</v>
       </c>
       <c r="J22" s="3">
-        <v>54600</v>
+        <v>52200</v>
       </c>
       <c r="K22" s="3">
         <v>55500</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29400</v>
+        <v>-28100</v>
       </c>
       <c r="E23" s="3">
-        <v>-24900</v>
+        <v>-23800</v>
       </c>
       <c r="F23" s="3">
-        <v>106100</v>
+        <v>101400</v>
       </c>
       <c r="G23" s="3">
-        <v>-53400</v>
+        <v>-51100</v>
       </c>
       <c r="H23" s="3">
-        <v>26400</v>
+        <v>25300</v>
       </c>
       <c r="I23" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J23" s="3">
-        <v>387900</v>
+        <v>370800</v>
       </c>
       <c r="K23" s="3">
         <v>9200</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11200</v>
+        <v>-10700</v>
       </c>
       <c r="E24" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="F24" s="3">
-        <v>-58700</v>
+        <v>-56100</v>
       </c>
       <c r="G24" s="3">
-        <v>-46400</v>
+        <v>-44300</v>
       </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="I24" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="J24" s="3">
-        <v>123500</v>
+        <v>118100</v>
       </c>
       <c r="K24" s="3">
         <v>13400</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18200</v>
+        <v>-17400</v>
       </c>
       <c r="E26" s="3">
-        <v>-16600</v>
+        <v>-15900</v>
       </c>
       <c r="F26" s="3">
-        <v>164800</v>
+        <v>157500</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="H26" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="I26" s="3">
-        <v>22900</v>
+        <v>21900</v>
       </c>
       <c r="J26" s="3">
-        <v>264400</v>
+        <v>252800</v>
       </c>
       <c r="K26" s="3">
         <v>-4300</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-27800</v>
+        <v>-26600</v>
       </c>
       <c r="E27" s="3">
-        <v>-21700</v>
+        <v>-20800</v>
       </c>
       <c r="F27" s="3">
-        <v>152100</v>
+        <v>145400</v>
       </c>
       <c r="G27" s="3">
-        <v>-17200</v>
+        <v>-16500</v>
       </c>
       <c r="H27" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="I27" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="J27" s="3">
-        <v>257500</v>
+        <v>246200</v>
       </c>
       <c r="K27" s="3">
         <v>-12300</v>
@@ -2248,10 +2248,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="E29" s="3">
-        <v>295500</v>
+        <v>282500</v>
       </c>
       <c r="F29" s="3">
         <v>-200</v>
@@ -2260,13 +2260,13 @@
         <v>-200</v>
       </c>
       <c r="H29" s="3">
-        <v>-10400</v>
+        <v>-9900</v>
       </c>
       <c r="I29" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J29" s="3">
-        <v>55200</v>
+        <v>52800</v>
       </c>
       <c r="K29" s="3">
         <v>87500</v>
@@ -2482,22 +2482,22 @@
         <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="G32" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J32" s="3">
-        <v>-101800</v>
+        <v>-97300</v>
       </c>
       <c r="K32" s="3">
         <v>14000</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="E33" s="3">
-        <v>273800</v>
+        <v>261700</v>
       </c>
       <c r="F33" s="3">
-        <v>151900</v>
+        <v>145200</v>
       </c>
       <c r="G33" s="3">
-        <v>-17400</v>
+        <v>-16700</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="J33" s="3">
-        <v>312700</v>
+        <v>299000</v>
       </c>
       <c r="K33" s="3">
         <v>75200</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="E35" s="3">
-        <v>273800</v>
+        <v>261700</v>
       </c>
       <c r="F35" s="3">
-        <v>151900</v>
+        <v>145200</v>
       </c>
       <c r="G35" s="3">
-        <v>-17400</v>
+        <v>-16700</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="J35" s="3">
-        <v>312700</v>
+        <v>299000</v>
       </c>
       <c r="K35" s="3">
         <v>75200</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>766800</v>
+        <v>733000</v>
       </c>
       <c r="E41" s="3">
-        <v>706500</v>
+        <v>675400</v>
       </c>
       <c r="F41" s="3">
-        <v>1619200</v>
+        <v>1548000</v>
       </c>
       <c r="G41" s="3">
-        <v>885700</v>
+        <v>846800</v>
       </c>
       <c r="H41" s="3">
-        <v>963800</v>
+        <v>921400</v>
       </c>
       <c r="I41" s="3">
-        <v>761500</v>
+        <v>728000</v>
       </c>
       <c r="J41" s="3">
-        <v>1704700</v>
+        <v>1629700</v>
       </c>
       <c r="K41" s="3">
         <v>1506800</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1092600</v>
+        <v>1044500</v>
       </c>
       <c r="E43" s="3">
-        <v>963800</v>
+        <v>921400</v>
       </c>
       <c r="F43" s="3">
-        <v>564400</v>
+        <v>539600</v>
       </c>
       <c r="G43" s="3">
-        <v>517800</v>
+        <v>495000</v>
       </c>
       <c r="H43" s="3">
-        <v>511800</v>
+        <v>489200</v>
       </c>
       <c r="I43" s="3">
-        <v>480200</v>
+        <v>459100</v>
       </c>
       <c r="J43" s="3">
-        <v>398100</v>
+        <v>380500</v>
       </c>
       <c r="K43" s="3">
         <v>558200</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1046200</v>
+        <v>1000200</v>
       </c>
       <c r="E44" s="3">
-        <v>955400</v>
+        <v>913400</v>
       </c>
       <c r="F44" s="3">
-        <v>1028800</v>
+        <v>983500</v>
       </c>
       <c r="G44" s="3">
-        <v>1288700</v>
+        <v>1232000</v>
       </c>
       <c r="H44" s="3">
-        <v>1215700</v>
+        <v>1162200</v>
       </c>
       <c r="I44" s="3">
-        <v>1325900</v>
+        <v>1267500</v>
       </c>
       <c r="J44" s="3">
-        <v>1279100</v>
+        <v>1222800</v>
       </c>
       <c r="K44" s="3">
         <v>1779900</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106700</v>
+        <v>102000</v>
       </c>
       <c r="E45" s="3">
-        <v>120900</v>
+        <v>115600</v>
       </c>
       <c r="F45" s="3">
-        <v>285100</v>
+        <v>272600</v>
       </c>
       <c r="G45" s="3">
-        <v>97700</v>
+        <v>93400</v>
       </c>
       <c r="H45" s="3">
-        <v>104700</v>
+        <v>100100</v>
       </c>
       <c r="I45" s="3">
-        <v>103900</v>
+        <v>99300</v>
       </c>
       <c r="J45" s="3">
-        <v>70500</v>
+        <v>67400</v>
       </c>
       <c r="K45" s="3">
         <v>275600</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3012200</v>
+        <v>2879700</v>
       </c>
       <c r="E46" s="3">
-        <v>2746600</v>
+        <v>2625800</v>
       </c>
       <c r="F46" s="3">
-        <v>3497600</v>
+        <v>3343700</v>
       </c>
       <c r="G46" s="3">
-        <v>2789900</v>
+        <v>2667200</v>
       </c>
       <c r="H46" s="3">
-        <v>2796000</v>
+        <v>2673000</v>
       </c>
       <c r="I46" s="3">
-        <v>2671500</v>
+        <v>2554000</v>
       </c>
       <c r="J46" s="3">
-        <v>3452300</v>
+        <v>3300500</v>
       </c>
       <c r="K46" s="3">
         <v>4120600</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1003000</v>
+        <v>958800</v>
       </c>
       <c r="E47" s="3">
-        <v>1065600</v>
+        <v>1018700</v>
       </c>
       <c r="F47" s="3">
-        <v>927600</v>
+        <v>886800</v>
       </c>
       <c r="G47" s="3">
-        <v>931100</v>
+        <v>890200</v>
       </c>
       <c r="H47" s="3">
-        <v>957600</v>
+        <v>915400</v>
       </c>
       <c r="I47" s="3">
-        <v>1013100</v>
+        <v>968600</v>
       </c>
       <c r="J47" s="3">
-        <v>1013700</v>
+        <v>969100</v>
       </c>
       <c r="K47" s="3">
         <v>820800</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3648800</v>
+        <v>3488300</v>
       </c>
       <c r="E48" s="3">
-        <v>3617900</v>
+        <v>3458700</v>
       </c>
       <c r="F48" s="3">
-        <v>3835300</v>
+        <v>3666600</v>
       </c>
       <c r="G48" s="3">
-        <v>4406000</v>
+        <v>4212100</v>
       </c>
       <c r="H48" s="3">
-        <v>4246700</v>
+        <v>4059900</v>
       </c>
       <c r="I48" s="3">
-        <v>4704400</v>
+        <v>4497500</v>
       </c>
       <c r="J48" s="3">
-        <v>4604200</v>
+        <v>4401700</v>
       </c>
       <c r="K48" s="3">
         <v>5493200</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1068900</v>
+        <v>1021900</v>
       </c>
       <c r="E49" s="3">
-        <v>1065600</v>
+        <v>1018700</v>
       </c>
       <c r="F49" s="3">
-        <v>1125900</v>
+        <v>1076300</v>
       </c>
       <c r="G49" s="3">
-        <v>1176700</v>
+        <v>1125000</v>
       </c>
       <c r="H49" s="3">
-        <v>1120800</v>
+        <v>1071500</v>
       </c>
       <c r="I49" s="3">
-        <v>1228600</v>
+        <v>1174600</v>
       </c>
       <c r="J49" s="3">
-        <v>1206300</v>
+        <v>1153200</v>
       </c>
       <c r="K49" s="3">
         <v>1603000</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280200</v>
+        <v>267900</v>
       </c>
       <c r="E52" s="3">
-        <v>263400</v>
+        <v>251800</v>
       </c>
       <c r="F52" s="3">
-        <v>289600</v>
+        <v>276900</v>
       </c>
       <c r="G52" s="3">
-        <v>225800</v>
+        <v>215900</v>
       </c>
       <c r="H52" s="3">
-        <v>177700</v>
+        <v>169900</v>
       </c>
       <c r="I52" s="3">
-        <v>174000</v>
+        <v>166300</v>
       </c>
       <c r="J52" s="3">
-        <v>153200</v>
+        <v>146500</v>
       </c>
       <c r="K52" s="3">
         <v>250300</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9013200</v>
+        <v>8616600</v>
       </c>
       <c r="E54" s="3">
-        <v>8759100</v>
+        <v>8373800</v>
       </c>
       <c r="F54" s="3">
-        <v>9676000</v>
+        <v>9250300</v>
       </c>
       <c r="G54" s="3">
-        <v>9529600</v>
+        <v>9110300</v>
       </c>
       <c r="H54" s="3">
-        <v>9298700</v>
+        <v>8889600</v>
       </c>
       <c r="I54" s="3">
-        <v>9791700</v>
+        <v>9360900</v>
       </c>
       <c r="J54" s="3">
-        <v>10429800</v>
+        <v>9971000</v>
       </c>
       <c r="K54" s="3">
         <v>12287900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1389500</v>
+        <v>1328300</v>
       </c>
       <c r="E57" s="3">
-        <v>1269500</v>
+        <v>1213700</v>
       </c>
       <c r="F57" s="3">
-        <v>1972300</v>
+        <v>1885500</v>
       </c>
       <c r="G57" s="3">
-        <v>1484600</v>
+        <v>1419300</v>
       </c>
       <c r="H57" s="3">
-        <v>1509000</v>
+        <v>1442700</v>
       </c>
       <c r="I57" s="3">
-        <v>1519200</v>
+        <v>1452400</v>
       </c>
       <c r="J57" s="3">
-        <v>2235700</v>
+        <v>2137300</v>
       </c>
       <c r="K57" s="3">
         <v>2378500</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>722700</v>
+        <v>690900</v>
       </c>
       <c r="E58" s="3">
-        <v>523900</v>
+        <v>500800</v>
       </c>
       <c r="F58" s="3">
-        <v>462800</v>
+        <v>442500</v>
       </c>
       <c r="G58" s="3">
-        <v>645400</v>
+        <v>617000</v>
       </c>
       <c r="H58" s="3">
-        <v>697700</v>
+        <v>667000</v>
       </c>
       <c r="I58" s="3">
-        <v>767300</v>
+        <v>733600</v>
       </c>
       <c r="J58" s="3">
-        <v>637200</v>
+        <v>609200</v>
       </c>
       <c r="K58" s="3">
         <v>1026700</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>736600</v>
+        <v>704200</v>
       </c>
       <c r="E59" s="3">
-        <v>686500</v>
+        <v>656300</v>
       </c>
       <c r="F59" s="3">
-        <v>803700</v>
+        <v>768400</v>
       </c>
       <c r="G59" s="3">
-        <v>666700</v>
+        <v>637400</v>
       </c>
       <c r="H59" s="3">
-        <v>639700</v>
+        <v>611600</v>
       </c>
       <c r="I59" s="3">
-        <v>791200</v>
+        <v>756400</v>
       </c>
       <c r="J59" s="3">
-        <v>744200</v>
+        <v>711500</v>
       </c>
       <c r="K59" s="3">
         <v>800900</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2848800</v>
+        <v>2723500</v>
       </c>
       <c r="E60" s="3">
-        <v>2479900</v>
+        <v>2370800</v>
       </c>
       <c r="F60" s="3">
-        <v>3238800</v>
+        <v>3096300</v>
       </c>
       <c r="G60" s="3">
-        <v>2796700</v>
+        <v>2673700</v>
       </c>
       <c r="H60" s="3">
-        <v>2846500</v>
+        <v>2721200</v>
       </c>
       <c r="I60" s="3">
-        <v>3077800</v>
+        <v>2942400</v>
       </c>
       <c r="J60" s="3">
-        <v>3617100</v>
+        <v>3458000</v>
       </c>
       <c r="K60" s="3">
         <v>4206100</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2116900</v>
+        <v>2023800</v>
       </c>
       <c r="E61" s="3">
-        <v>2295000</v>
+        <v>2194000</v>
       </c>
       <c r="F61" s="3">
-        <v>2505900</v>
+        <v>2395700</v>
       </c>
       <c r="G61" s="3">
-        <v>2834300</v>
+        <v>2709600</v>
       </c>
       <c r="H61" s="3">
-        <v>2733100</v>
+        <v>2612900</v>
       </c>
       <c r="I61" s="3">
-        <v>2586800</v>
+        <v>2473000</v>
       </c>
       <c r="J61" s="3">
-        <v>2792400</v>
+        <v>2669600</v>
       </c>
       <c r="K61" s="3">
         <v>4458300</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>763000</v>
+        <v>729500</v>
       </c>
       <c r="E62" s="3">
-        <v>696300</v>
+        <v>665700</v>
       </c>
       <c r="F62" s="3">
-        <v>725700</v>
+        <v>693700</v>
       </c>
       <c r="G62" s="3">
-        <v>736000</v>
+        <v>703600</v>
       </c>
       <c r="H62" s="3">
-        <v>705100</v>
+        <v>674100</v>
       </c>
       <c r="I62" s="3">
-        <v>764200</v>
+        <v>730600</v>
       </c>
       <c r="J62" s="3">
-        <v>731100</v>
+        <v>699000</v>
       </c>
       <c r="K62" s="3">
         <v>581000</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6220700</v>
+        <v>5947000</v>
       </c>
       <c r="E66" s="3">
-        <v>5964000</v>
+        <v>5701600</v>
       </c>
       <c r="F66" s="3">
-        <v>7004900</v>
+        <v>6696700</v>
       </c>
       <c r="G66" s="3">
-        <v>6935600</v>
+        <v>6630500</v>
       </c>
       <c r="H66" s="3">
-        <v>6817600</v>
+        <v>6517700</v>
       </c>
       <c r="I66" s="3">
-        <v>7050300</v>
+        <v>6740100</v>
       </c>
       <c r="J66" s="3">
-        <v>7749700</v>
+        <v>7408800</v>
       </c>
       <c r="K66" s="3">
         <v>9840300</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1413700</v>
+        <v>1351500</v>
       </c>
       <c r="E72" s="3">
-        <v>1446400</v>
+        <v>1382800</v>
       </c>
       <c r="F72" s="3">
-        <v>1174800</v>
+        <v>1123100</v>
       </c>
       <c r="G72" s="3">
-        <v>1036200</v>
+        <v>990600</v>
       </c>
       <c r="H72" s="3">
-        <v>1053800</v>
+        <v>1007500</v>
       </c>
       <c r="I72" s="3">
-        <v>1092800</v>
+        <v>1044700</v>
       </c>
       <c r="J72" s="3">
-        <v>1122300</v>
+        <v>1073000</v>
       </c>
       <c r="K72" s="3">
         <v>832500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2792400</v>
+        <v>2669600</v>
       </c>
       <c r="E76" s="3">
-        <v>2795200</v>
+        <v>2672200</v>
       </c>
       <c r="F76" s="3">
-        <v>2671100</v>
+        <v>2553600</v>
       </c>
       <c r="G76" s="3">
-        <v>2594000</v>
+        <v>2479900</v>
       </c>
       <c r="H76" s="3">
-        <v>2481100</v>
+        <v>2371900</v>
       </c>
       <c r="I76" s="3">
-        <v>2741400</v>
+        <v>2620800</v>
       </c>
       <c r="J76" s="3">
-        <v>2680100</v>
+        <v>2562200</v>
       </c>
       <c r="K76" s="3">
         <v>2447600</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="E81" s="3">
-        <v>273800</v>
+        <v>261700</v>
       </c>
       <c r="F81" s="3">
-        <v>151900</v>
+        <v>145200</v>
       </c>
       <c r="G81" s="3">
-        <v>-17400</v>
+        <v>-16700</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
       </c>
       <c r="I81" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="J81" s="3">
-        <v>312700</v>
+        <v>299000</v>
       </c>
       <c r="K81" s="3">
         <v>75200</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>92000</v>
+        <v>87900</v>
       </c>
       <c r="E83" s="3">
-        <v>95500</v>
+        <v>91300</v>
       </c>
       <c r="F83" s="3">
-        <v>97100</v>
+        <v>92800</v>
       </c>
       <c r="G83" s="3">
-        <v>104700</v>
+        <v>100100</v>
       </c>
       <c r="H83" s="3">
-        <v>105300</v>
+        <v>100700</v>
       </c>
       <c r="I83" s="3">
-        <v>107200</v>
+        <v>102500</v>
       </c>
       <c r="J83" s="3">
-        <v>131500</v>
+        <v>125700</v>
       </c>
       <c r="K83" s="3">
         <v>129100</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>154200</v>
+        <v>147400</v>
       </c>
       <c r="E89" s="3">
-        <v>-747800</v>
+        <v>-714900</v>
       </c>
       <c r="F89" s="3">
-        <v>883800</v>
+        <v>844900</v>
       </c>
       <c r="G89" s="3">
-        <v>22700</v>
+        <v>21700</v>
       </c>
       <c r="H89" s="3">
-        <v>311900</v>
+        <v>298200</v>
       </c>
       <c r="I89" s="3">
-        <v>-684600</v>
+        <v>-654400</v>
       </c>
       <c r="J89" s="3">
-        <v>1172600</v>
+        <v>1121000</v>
       </c>
       <c r="K89" s="3">
         <v>37800</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49300</v>
+        <v>-47100</v>
       </c>
       <c r="E91" s="3">
-        <v>-55000</v>
+        <v>-52600</v>
       </c>
       <c r="F91" s="3">
-        <v>-58900</v>
+        <v>-56300</v>
       </c>
       <c r="G91" s="3">
-        <v>-49100</v>
+        <v>-47000</v>
       </c>
       <c r="H91" s="3">
-        <v>-41700</v>
+        <v>-39900</v>
       </c>
       <c r="I91" s="3">
-        <v>-52800</v>
+        <v>-50500</v>
       </c>
       <c r="J91" s="3">
-        <v>-113500</v>
+        <v>-108500</v>
       </c>
       <c r="K91" s="3">
         <v>-114700</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29400</v>
+        <v>28100</v>
       </c>
       <c r="E94" s="3">
-        <v>115700</v>
+        <v>110600</v>
       </c>
       <c r="F94" s="3">
-        <v>141700</v>
+        <v>135500</v>
       </c>
       <c r="G94" s="3">
-        <v>-25800</v>
+        <v>-24700</v>
       </c>
       <c r="H94" s="3">
-        <v>-50100</v>
+        <v>-47900</v>
       </c>
       <c r="I94" s="3">
-        <v>-80800</v>
+        <v>-77300</v>
       </c>
       <c r="J94" s="3">
-        <v>-744200</v>
+        <v>-711500</v>
       </c>
       <c r="K94" s="3">
         <v>10700</v>
@@ -6725,25 +6725,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27000</v>
+        <v>-25800</v>
       </c>
       <c r="E96" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-123300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8800</v>
       </c>
       <c r="K96" s="3">
         <v>-2700</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-120200</v>
+        <v>-114900</v>
       </c>
       <c r="E100" s="3">
-        <v>-245200</v>
+        <v>-234400</v>
       </c>
       <c r="F100" s="3">
-        <v>-261500</v>
+        <v>-250000</v>
       </c>
       <c r="G100" s="3">
-        <v>-91000</v>
+        <v>-87000</v>
       </c>
       <c r="H100" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="I100" s="3">
-        <v>-190600</v>
+        <v>-182200</v>
       </c>
       <c r="J100" s="3">
-        <v>-180000</v>
+        <v>-172100</v>
       </c>
       <c r="K100" s="3">
         <v>-131500</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-35400</v>
+        <v>-33900</v>
       </c>
       <c r="F101" s="3">
-        <v>-30500</v>
+        <v>-29200</v>
       </c>
       <c r="G101" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="H101" s="3">
-        <v>-65800</v>
+        <v>-62900</v>
       </c>
       <c r="I101" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="J101" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="K101" s="3">
         <v>-5300</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>60300</v>
+        <v>57600</v>
       </c>
       <c r="E102" s="3">
-        <v>-912700</v>
+        <v>-872600</v>
       </c>
       <c r="F102" s="3">
-        <v>733500</v>
+        <v>701200</v>
       </c>
       <c r="G102" s="3">
-        <v>-78100</v>
+        <v>-74600</v>
       </c>
       <c r="H102" s="3">
-        <v>202400</v>
+        <v>193500</v>
       </c>
       <c r="I102" s="3">
-        <v>-943300</v>
+        <v>-901800</v>
       </c>
       <c r="J102" s="3">
-        <v>279500</v>
+        <v>267200</v>
       </c>
       <c r="K102" s="3">
         <v>-88200</v>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1892600</v>
+        <v>3353900</v>
       </c>
       <c r="E8" s="3">
-        <v>1883800</v>
+        <v>2023600</v>
       </c>
       <c r="F8" s="3">
-        <v>2783200</v>
+        <v>1958800</v>
       </c>
       <c r="G8" s="3">
-        <v>2260800</v>
+        <v>1949700</v>
       </c>
       <c r="H8" s="3">
-        <v>1731000</v>
+        <v>3155800</v>
       </c>
       <c r="I8" s="3">
+        <v>1857700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1791500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1841500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2763300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2349800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2471700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2120100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5326400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2536800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2316300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2378200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2499600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2268300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2749700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2648800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3207100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2797100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2733800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2617700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>10283900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1404700</v>
+        <v>2520900</v>
       </c>
       <c r="E9" s="3">
-        <v>1395900</v>
+        <v>1521200</v>
       </c>
       <c r="F9" s="3">
-        <v>2086100</v>
+        <v>1453800</v>
       </c>
       <c r="G9" s="3">
-        <v>1705500</v>
+        <v>1444700</v>
       </c>
       <c r="H9" s="3">
-        <v>1278000</v>
+        <v>2312300</v>
       </c>
       <c r="I9" s="3">
+        <v>1390800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1322700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1352800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1910200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1750100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1847400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1594900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3920300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1996200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1816700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1854800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1925100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1764100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2024400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2051500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2388700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2171000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1981000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2017900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>7921900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>487900</v>
+        <v>833000</v>
       </c>
       <c r="E10" s="3">
-        <v>487900</v>
+        <v>502500</v>
       </c>
       <c r="F10" s="3">
-        <v>697100</v>
+        <v>505000</v>
       </c>
       <c r="G10" s="3">
-        <v>555300</v>
+        <v>505000</v>
       </c>
       <c r="H10" s="3">
-        <v>452900</v>
+        <v>843500</v>
       </c>
       <c r="I10" s="3">
+        <v>466800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>468800</v>
+      </c>
+      <c r="K10" s="3">
         <v>488700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>853100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>599700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>624300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>525200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1406100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>540600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>499500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>523400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>574400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>504200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>725300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>597300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>818400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>626100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>752700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>599900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2362000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1219,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
+        <v>61000</v>
       </c>
       <c r="E14" s="3">
-        <v>7100</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>7200</v>
       </c>
       <c r="G14" s="3">
-        <v>26800</v>
+        <v>7400</v>
       </c>
       <c r="H14" s="3">
-        <v>10500</v>
+        <v>50900</v>
       </c>
       <c r="I14" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K14" s="3">
         <v>13100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>16800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>41800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>30300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>49300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>14600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>6600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>8400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>10700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>14500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-4900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>13300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>15400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>3500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>24600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72800</v>
+        <v>180300</v>
       </c>
       <c r="E15" s="3">
-        <v>76500</v>
+        <v>81100</v>
       </c>
       <c r="F15" s="3">
-        <v>81900</v>
+        <v>75300</v>
       </c>
       <c r="G15" s="3">
-        <v>84400</v>
+        <v>79200</v>
       </c>
       <c r="H15" s="3">
-        <v>74300</v>
+        <v>156800</v>
       </c>
       <c r="I15" s="3">
+        <v>71100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K15" s="3">
         <v>76300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>90600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>87300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>86300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>77500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>189900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>58600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>60800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>53000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>56100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>70300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>70300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>52600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>49700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>48700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>47100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>175400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1851100</v>
+        <v>3463300</v>
       </c>
       <c r="E17" s="3">
-        <v>1850900</v>
+        <v>1997900</v>
       </c>
       <c r="F17" s="3">
-        <v>2603000</v>
+        <v>1915800</v>
       </c>
       <c r="G17" s="3">
-        <v>2242300</v>
+        <v>1915600</v>
       </c>
       <c r="H17" s="3">
-        <v>1679700</v>
+        <v>3145500</v>
       </c>
       <c r="I17" s="3">
+        <v>1831200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1738400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1799100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2437600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2271100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2373800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2122400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5233500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2451500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2241000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2293500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2331500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2180000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2552600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2563100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3070900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2745300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2620700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2541300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>10071600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41500</v>
+        <v>-109400</v>
       </c>
       <c r="E18" s="3">
-        <v>32900</v>
+        <v>25800</v>
       </c>
       <c r="F18" s="3">
-        <v>180200</v>
+        <v>43000</v>
       </c>
       <c r="G18" s="3">
-        <v>18500</v>
+        <v>34100</v>
       </c>
       <c r="H18" s="3">
-        <v>51300</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K18" s="3">
         <v>42500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>325700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>78700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>97900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>92900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>85300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>75300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>84800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>168100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>88300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>197100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>85700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>136100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>51800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>113100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>76400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>212400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>97300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>27600</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="T20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-9700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>97300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-28600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>27600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>17700</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-49100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>128900</v>
+        <v>356900</v>
       </c>
       <c r="E21" s="3">
-        <v>128900</v>
+        <v>139800</v>
       </c>
       <c r="F21" s="3">
-        <v>263200</v>
+        <v>133400</v>
       </c>
       <c r="G21" s="3">
-        <v>111100</v>
+        <v>133400</v>
       </c>
       <c r="H21" s="3">
-        <v>167100</v>
+        <v>446300</v>
       </c>
       <c r="I21" s="3">
+        <v>128400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K21" s="3">
         <v>139900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>548700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>193800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>192500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>103200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>379700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>183500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>131700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>143200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>233300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>144100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>229800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>181400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>157700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>95400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>152300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>124500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>433400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69000</v>
+        <v>243200</v>
       </c>
       <c r="E22" s="3">
-        <v>61400</v>
+        <v>81900</v>
       </c>
       <c r="F22" s="3">
-        <v>69000</v>
+        <v>71400</v>
       </c>
       <c r="G22" s="3">
-        <v>62100</v>
+        <v>63500</v>
       </c>
       <c r="H22" s="3">
-        <v>41200</v>
+        <v>146800</v>
       </c>
       <c r="I22" s="3">
+        <v>51500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K22" s="3">
         <v>33500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>52200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>55500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>38800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>45900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>159800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>58300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>44600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>47900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>53300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>43300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>20100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>78900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>18200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>29700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>35100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>43200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>174900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28100</v>
+        <v>-254600</v>
       </c>
       <c r="E23" s="3">
-        <v>-23800</v>
+        <v>-34700</v>
       </c>
       <c r="F23" s="3">
-        <v>101400</v>
+        <v>-29000</v>
       </c>
       <c r="G23" s="3">
-        <v>-51100</v>
+        <v>-24600</v>
       </c>
       <c r="H23" s="3">
-        <v>25300</v>
+        <v>-110400</v>
       </c>
       <c r="I23" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>370800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-50500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-68000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>54600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>22300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>28300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>122200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>39400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>132200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>24500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>83300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>12300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>64900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>31300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10700</v>
+        <v>-87900</v>
       </c>
       <c r="E24" s="3">
-        <v>-7900</v>
+        <v>-5200</v>
       </c>
       <c r="F24" s="3">
-        <v>-56100</v>
+        <v>-11000</v>
       </c>
       <c r="G24" s="3">
-        <v>-44300</v>
+        <v>-8100</v>
       </c>
       <c r="H24" s="3">
-        <v>9900</v>
+        <v>-140400</v>
       </c>
       <c r="I24" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>118100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-10400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-17500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>22300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>28500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>37600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>30000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>9700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>23600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>12400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>6000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17400</v>
+        <v>-166700</v>
       </c>
       <c r="E26" s="3">
-        <v>-15900</v>
+        <v>-29400</v>
       </c>
       <c r="F26" s="3">
-        <v>157500</v>
+        <v>-18000</v>
       </c>
       <c r="G26" s="3">
-        <v>-6700</v>
+        <v>-16500</v>
       </c>
       <c r="H26" s="3">
-        <v>15300</v>
+        <v>30000</v>
       </c>
       <c r="I26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K26" s="3">
         <v>21900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>252800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-50400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>32300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>25400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>93700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>27900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>94600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>53300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>41300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>18900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-17600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26600</v>
+        <v>-199200</v>
       </c>
       <c r="E27" s="3">
-        <v>-20800</v>
+        <v>-39500</v>
       </c>
       <c r="F27" s="3">
-        <v>145400</v>
+        <v>-27500</v>
       </c>
       <c r="G27" s="3">
-        <v>-16500</v>
+        <v>-21500</v>
       </c>
       <c r="H27" s="3">
-        <v>10300</v>
+        <v>-600</v>
       </c>
       <c r="I27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K27" s="3">
         <v>19300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>246200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-43900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-58900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>32300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>111500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>22800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>73100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>27200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-12300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>45600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>129700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2357,97 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5800</v>
+        <v>165900</v>
       </c>
       <c r="E29" s="3">
-        <v>282500</v>
+        <v>-17800</v>
       </c>
       <c r="F29" s="3">
-        <v>-200</v>
+        <v>-6000</v>
       </c>
       <c r="G29" s="3">
-        <v>-200</v>
+        <v>292400</v>
       </c>
       <c r="H29" s="3">
-        <v>-9900</v>
+        <v>155900</v>
       </c>
       <c r="I29" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K29" s="3">
         <v>1900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>52800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>87500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>49300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>18900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>204800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-3600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>57000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>10100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-36800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>36700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>40400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>45600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>23300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>32700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-249300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>28600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="R32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="U32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V32" s="3">
+        <v>44800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="X32" s="3">
+        <v>34600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>9700</v>
       </c>
-      <c r="G32" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-97300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>28600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>8600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>44800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="V32" s="3">
-        <v>34600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>9700</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>13100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>49100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32400</v>
+        <v>-33300</v>
       </c>
       <c r="E33" s="3">
-        <v>261700</v>
+        <v>-57300</v>
       </c>
       <c r="F33" s="3">
-        <v>145200</v>
+        <v>-33500</v>
       </c>
       <c r="G33" s="3">
-        <v>-16700</v>
+        <v>270900</v>
       </c>
       <c r="H33" s="3">
+        <v>155300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>299000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>75200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>66000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>145900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>28700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>74000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>74700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>23500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>109800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>31100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>72800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>34100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>29800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-119600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32400</v>
+        <v>-33300</v>
       </c>
       <c r="E35" s="3">
-        <v>261700</v>
+        <v>-57300</v>
       </c>
       <c r="F35" s="3">
-        <v>145200</v>
+        <v>-33500</v>
       </c>
       <c r="G35" s="3">
-        <v>-16700</v>
+        <v>270900</v>
       </c>
       <c r="H35" s="3">
+        <v>155300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>299000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>75200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>66000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>145900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>28700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>74000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>74700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>23500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>109800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>31100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>72800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>34100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>29800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-119600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>733000</v>
+        <v>726300</v>
       </c>
       <c r="E41" s="3">
-        <v>675400</v>
+        <v>747400</v>
       </c>
       <c r="F41" s="3">
-        <v>1548000</v>
+        <v>758600</v>
       </c>
       <c r="G41" s="3">
-        <v>846800</v>
+        <v>699000</v>
       </c>
       <c r="H41" s="3">
-        <v>921400</v>
+        <v>1602100</v>
       </c>
       <c r="I41" s="3">
+        <v>876400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>953600</v>
+      </c>
+      <c r="K41" s="3">
         <v>728000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1629700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1506800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1524500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1098300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1469100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2374000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>833100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>441400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>779400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>485700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>713200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>397200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>972200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>324600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>606600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>417500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1268200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3254,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1044500</v>
+        <v>350500</v>
       </c>
       <c r="E43" s="3">
-        <v>921400</v>
+        <v>792700</v>
       </c>
       <c r="F43" s="3">
-        <v>539600</v>
+        <v>1081000</v>
       </c>
       <c r="G43" s="3">
-        <v>495000</v>
+        <v>953600</v>
       </c>
       <c r="H43" s="3">
-        <v>489200</v>
+        <v>558400</v>
       </c>
       <c r="I43" s="3">
+        <v>512300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>506300</v>
+      </c>
+      <c r="K43" s="3">
         <v>459100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>380500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>558200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>564800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>497700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>517200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>305900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>226600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>321900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>243500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>289200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>253400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>409600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>379700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>394600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>268400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>368600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>333200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1000200</v>
+        <v>396200</v>
       </c>
       <c r="E44" s="3">
-        <v>913400</v>
+        <v>1072500</v>
       </c>
       <c r="F44" s="3">
-        <v>983500</v>
+        <v>1035100</v>
       </c>
       <c r="G44" s="3">
-        <v>1232000</v>
+        <v>945300</v>
       </c>
       <c r="H44" s="3">
-        <v>1162200</v>
+        <v>1017900</v>
       </c>
       <c r="I44" s="3">
+        <v>1275100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1202800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1267500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1222800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1779900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1800700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1731800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1594100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1134100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1007900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1072600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1054200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1025100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1199400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1111100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1236300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1188100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1135000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1135700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1151300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102000</v>
+        <v>4056900</v>
       </c>
       <c r="E45" s="3">
-        <v>115600</v>
+        <v>68200</v>
       </c>
       <c r="F45" s="3">
-        <v>272600</v>
+        <v>105500</v>
       </c>
       <c r="G45" s="3">
-        <v>93400</v>
+        <v>119700</v>
       </c>
       <c r="H45" s="3">
-        <v>100100</v>
+        <v>282100</v>
       </c>
       <c r="I45" s="3">
+        <v>96600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K45" s="3">
         <v>99300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>67400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>275600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>278800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>357000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>107700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>106000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>57500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5072700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5210400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4098000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5128800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>5230400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>5876500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>5097100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>4904000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>5016900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>5099300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2879700</v>
+        <v>5529900</v>
       </c>
       <c r="E46" s="3">
-        <v>2625800</v>
+        <v>2680800</v>
       </c>
       <c r="F46" s="3">
-        <v>3343700</v>
+        <v>2980400</v>
       </c>
       <c r="G46" s="3">
-        <v>2667200</v>
+        <v>2717600</v>
       </c>
       <c r="H46" s="3">
-        <v>2673000</v>
+        <v>3460600</v>
       </c>
       <c r="I46" s="3">
+        <v>2760400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2766400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2554000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3300500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4120600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4168800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3684800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3688100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3920000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2125200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6908700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7287500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5898000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7294700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7148300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8464600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7004300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6914100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6938800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7852000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>958800</v>
+        <v>904100</v>
       </c>
       <c r="E47" s="3">
-        <v>1018700</v>
+        <v>875800</v>
       </c>
       <c r="F47" s="3">
-        <v>886800</v>
+        <v>992400</v>
       </c>
       <c r="G47" s="3">
-        <v>890200</v>
+        <v>1054300</v>
       </c>
       <c r="H47" s="3">
-        <v>915400</v>
+        <v>917800</v>
       </c>
       <c r="I47" s="3">
+        <v>921300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>947400</v>
+      </c>
+      <c r="K47" s="3">
         <v>968600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>969100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>820800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>830400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>750500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>666400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>627500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>600600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>621300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>555500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>669100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>750500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>631000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>679400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>585100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>558900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>403600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>391200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3488300</v>
+        <v>1325200</v>
       </c>
       <c r="E48" s="3">
-        <v>3458700</v>
+        <v>3530600</v>
       </c>
       <c r="F48" s="3">
-        <v>3666600</v>
+        <v>3610200</v>
       </c>
       <c r="G48" s="3">
-        <v>4212100</v>
+        <v>3579600</v>
       </c>
       <c r="H48" s="3">
-        <v>4059900</v>
+        <v>3794800</v>
       </c>
       <c r="I48" s="3">
+        <v>4359400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4201800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4497500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4401700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5493200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5557500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4579600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5049900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2614500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2377200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2470300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2515800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1714100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2100700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2141600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2348200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2360700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2309500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2231500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2283600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1021900</v>
+        <v>384500</v>
       </c>
       <c r="E49" s="3">
-        <v>1018700</v>
+        <v>1016600</v>
       </c>
       <c r="F49" s="3">
-        <v>1076300</v>
+        <v>1057600</v>
       </c>
       <c r="G49" s="3">
-        <v>1125000</v>
+        <v>1054300</v>
       </c>
       <c r="H49" s="3">
-        <v>1071500</v>
+        <v>1114000</v>
       </c>
       <c r="I49" s="3">
+        <v>1164300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1174600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1153200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1603000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1621800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1373500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1151800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>545100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>509400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>536700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1322100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>358400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>449800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>448400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>986600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>489200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>483800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>470600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>473300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>267900</v>
+        <v>344900</v>
       </c>
       <c r="E52" s="3">
-        <v>251800</v>
+        <v>298000</v>
       </c>
       <c r="F52" s="3">
-        <v>276900</v>
+        <v>277300</v>
       </c>
       <c r="G52" s="3">
-        <v>215900</v>
+        <v>260600</v>
       </c>
       <c r="H52" s="3">
-        <v>169900</v>
+        <v>286600</v>
       </c>
       <c r="I52" s="3">
+        <v>223400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K52" s="3">
         <v>166300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>146500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>250300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>253200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>251500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>244200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>217800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>207200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>255200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>265300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>219100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>261300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>236300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>245600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>261300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>248200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>224000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>217300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8616600</v>
+        <v>8488500</v>
       </c>
       <c r="E54" s="3">
-        <v>8373800</v>
+        <v>8401800</v>
       </c>
       <c r="F54" s="3">
-        <v>9250300</v>
+        <v>8917800</v>
       </c>
       <c r="G54" s="3">
-        <v>9110300</v>
+        <v>8666500</v>
       </c>
       <c r="H54" s="3">
-        <v>8889600</v>
+        <v>9573600</v>
       </c>
       <c r="I54" s="3">
+        <v>9428800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9200300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9360900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9971000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12287900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12431700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10640000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10800300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7924900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5819600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10792200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11058700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8858700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10857000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10605500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12231100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10700500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10514400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10268500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>11217400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1328300</v>
+        <v>604700</v>
       </c>
       <c r="E57" s="3">
-        <v>1213700</v>
+        <v>1292900</v>
       </c>
       <c r="F57" s="3">
-        <v>1885500</v>
+        <v>1374800</v>
       </c>
       <c r="G57" s="3">
-        <v>1419300</v>
+        <v>1256100</v>
       </c>
       <c r="H57" s="3">
-        <v>1442700</v>
+        <v>1951400</v>
       </c>
       <c r="I57" s="3">
+        <v>1468900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1493100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1452400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2137300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2378500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2406300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2149000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2749600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1281400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1208900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1212800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1649500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1191400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1487300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1286900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2083900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1408800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1326000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1300200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1794100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>690900</v>
+        <v>288700</v>
       </c>
       <c r="E58" s="3">
-        <v>500800</v>
+        <v>591300</v>
       </c>
       <c r="F58" s="3">
-        <v>442500</v>
+        <v>715100</v>
       </c>
       <c r="G58" s="3">
-        <v>617000</v>
+        <v>518300</v>
       </c>
       <c r="H58" s="3">
-        <v>667000</v>
+        <v>457900</v>
       </c>
       <c r="I58" s="3">
+        <v>638600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>690300</v>
+      </c>
+      <c r="K58" s="3">
         <v>733600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>609200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1026700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1038700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1158800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>817300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1180300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>651100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>528300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>803500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>343200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>425000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>324100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>320700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>363500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>381000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>553500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>733600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>704200</v>
+        <v>2542900</v>
       </c>
       <c r="E59" s="3">
-        <v>656300</v>
+        <v>626000</v>
       </c>
       <c r="F59" s="3">
-        <v>768400</v>
+        <v>728800</v>
       </c>
       <c r="G59" s="3">
-        <v>637400</v>
+        <v>679300</v>
       </c>
       <c r="H59" s="3">
-        <v>611600</v>
+        <v>795200</v>
       </c>
       <c r="I59" s="3">
+        <v>659700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>633000</v>
+      </c>
+      <c r="K59" s="3">
         <v>756400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>711500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>810300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>695000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>706100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>365000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>362800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4382600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4634800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3388600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4163000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4369600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5028400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4138200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3974700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4078400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4314900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2723500</v>
+        <v>3436400</v>
       </c>
       <c r="E60" s="3">
-        <v>2370800</v>
+        <v>2510200</v>
       </c>
       <c r="F60" s="3">
-        <v>3096300</v>
+        <v>2818700</v>
       </c>
       <c r="G60" s="3">
-        <v>2673700</v>
+        <v>2453700</v>
       </c>
       <c r="H60" s="3">
-        <v>2721200</v>
+        <v>3204600</v>
       </c>
       <c r="I60" s="3">
+        <v>2767200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2816300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2942400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3458000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4206100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4255300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4002800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4273000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2826600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2222800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6123600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6705500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4923300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6075300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5980700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7433000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5910600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5681600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5932100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6842500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2023800</v>
+        <v>1628200</v>
       </c>
       <c r="E61" s="3">
-        <v>2194000</v>
+        <v>2066200</v>
       </c>
       <c r="F61" s="3">
-        <v>2395700</v>
+        <v>2094500</v>
       </c>
       <c r="G61" s="3">
-        <v>2709600</v>
+        <v>2270700</v>
       </c>
       <c r="H61" s="3">
-        <v>2612900</v>
+        <v>2479400</v>
       </c>
       <c r="I61" s="3">
+        <v>2804300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2704200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2473000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2669600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4458300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4510500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3605000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3405100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2602100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1283800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1606100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1547100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>912200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>974000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>957900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>855500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>856300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>935500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>637300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>722400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>729500</v>
+        <v>764800</v>
       </c>
       <c r="E62" s="3">
-        <v>665700</v>
+        <v>744700</v>
       </c>
       <c r="F62" s="3">
-        <v>693700</v>
+        <v>755000</v>
       </c>
       <c r="G62" s="3">
-        <v>703600</v>
+        <v>688900</v>
       </c>
       <c r="H62" s="3">
-        <v>674100</v>
+        <v>718000</v>
       </c>
       <c r="I62" s="3">
+        <v>728200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>697600</v>
+      </c>
+      <c r="K62" s="3">
         <v>730600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>699000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>581000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>587800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>549100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>619900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>459000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>413500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>502400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>458500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>476800</v>
-      </c>
-      <c r="T62" s="3">
-        <v>599200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>568200</v>
       </c>
       <c r="V62" s="3">
         <v>599200</v>
       </c>
       <c r="W62" s="3">
+        <v>568200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>599200</v>
+      </c>
+      <c r="Y62" s="3">
         <v>582200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>564300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>518500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>527400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5947000</v>
+        <v>6253100</v>
       </c>
       <c r="E66" s="3">
-        <v>5701600</v>
+        <v>5780200</v>
       </c>
       <c r="F66" s="3">
-        <v>6696700</v>
+        <v>6154900</v>
       </c>
       <c r="G66" s="3">
-        <v>6630500</v>
+        <v>5900900</v>
       </c>
       <c r="H66" s="3">
-        <v>6517700</v>
+        <v>6930800</v>
       </c>
       <c r="I66" s="3">
+        <v>6862200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6745500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6740100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7408800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9840300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9955500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8631400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8779700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5887800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3920000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8846900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9232900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6864100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8346500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8191400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9619100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8086000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7907800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7789200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>8771400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1351500</v>
+        <v>1160200</v>
       </c>
       <c r="E72" s="3">
-        <v>1382800</v>
+        <v>1371700</v>
       </c>
       <c r="F72" s="3">
-        <v>1123100</v>
+        <v>1398800</v>
       </c>
       <c r="G72" s="3">
-        <v>990600</v>
+        <v>1431100</v>
       </c>
       <c r="H72" s="3">
-        <v>1007500</v>
+        <v>1162400</v>
       </c>
       <c r="I72" s="3">
+        <v>1025300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1044700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1073000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>832500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>842200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>700300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>749300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>788400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>715000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>689900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>637200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>764700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>955800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>856600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>899600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>893200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>884000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>811200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>779000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2669600</v>
+        <v>2235500</v>
       </c>
       <c r="E76" s="3">
-        <v>2672200</v>
+        <v>2621600</v>
       </c>
       <c r="F76" s="3">
-        <v>2553600</v>
+        <v>2762900</v>
       </c>
       <c r="G76" s="3">
-        <v>2479900</v>
+        <v>2765600</v>
       </c>
       <c r="H76" s="3">
-        <v>2371900</v>
+        <v>2642900</v>
       </c>
       <c r="I76" s="3">
+        <v>2566600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2454800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2620800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2562200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2447600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2476300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2008500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2020600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2037100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1899600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1945200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1825700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1994600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2510600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2414100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2612000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2614600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2606600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2479300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2446100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32400</v>
+        <v>-33300</v>
       </c>
       <c r="E81" s="3">
-        <v>261700</v>
+        <v>-57300</v>
       </c>
       <c r="F81" s="3">
-        <v>145200</v>
+        <v>-33500</v>
       </c>
       <c r="G81" s="3">
-        <v>-16700</v>
+        <v>270900</v>
       </c>
       <c r="H81" s="3">
+        <v>155300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>299000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>75200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>66000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>145900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>28700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>74000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>74700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>23500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>109800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>31100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>72800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>34100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>29800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-119600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87900</v>
+        <v>368300</v>
       </c>
       <c r="E83" s="3">
-        <v>91300</v>
+        <v>92600</v>
       </c>
       <c r="F83" s="3">
-        <v>92800</v>
+        <v>91000</v>
       </c>
       <c r="G83" s="3">
-        <v>100100</v>
+        <v>94500</v>
       </c>
       <c r="H83" s="3">
-        <v>100700</v>
+        <v>409900</v>
       </c>
       <c r="I83" s="3">
+        <v>103600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K83" s="3">
         <v>102500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>125700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>129100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>123200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>107800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>287900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>71800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>65000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>68300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>57800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>61400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>77500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>78000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>56100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>53300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>52300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>50100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>270200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>147400</v>
+        <v>-41800</v>
       </c>
       <c r="E89" s="3">
-        <v>-714900</v>
+        <v>-36200</v>
       </c>
       <c r="F89" s="3">
-        <v>844900</v>
+        <v>152600</v>
       </c>
       <c r="G89" s="3">
-        <v>21700</v>
+        <v>-739900</v>
       </c>
       <c r="H89" s="3">
-        <v>298200</v>
+        <v>528200</v>
       </c>
       <c r="I89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>308600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-654400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1121000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>37800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>471200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-684600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>209600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>43100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>116900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-862300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1223600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-105100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>665300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1574200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-123800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>344600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-323500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-47100</v>
+        <v>-270700</v>
       </c>
       <c r="E91" s="3">
-        <v>-52600</v>
+        <v>-81300</v>
       </c>
       <c r="F91" s="3">
-        <v>-56300</v>
+        <v>-48800</v>
       </c>
       <c r="G91" s="3">
-        <v>-47000</v>
+        <v>-54400</v>
       </c>
       <c r="H91" s="3">
-        <v>-39900</v>
+        <v>-200400</v>
       </c>
       <c r="I91" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-108500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-114700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-97500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-111600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-454700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-127700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-92600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-77800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-92900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-82900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-83100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-106100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-111500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-73600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-88600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-383000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>28100</v>
+        <v>548700</v>
       </c>
       <c r="E94" s="3">
-        <v>110600</v>
+        <v>267200</v>
       </c>
       <c r="F94" s="3">
-        <v>135500</v>
+        <v>29000</v>
       </c>
       <c r="G94" s="3">
-        <v>-24700</v>
+        <v>114400</v>
       </c>
       <c r="H94" s="3">
-        <v>-47900</v>
+        <v>-14900</v>
       </c>
       <c r="I94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-77300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-711500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-120500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-603200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-127700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>311500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-115100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-88000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-104000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-96900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-99700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-125400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-135100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-56900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-87800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-501100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25800</v>
+        <v>-51300</v>
       </c>
       <c r="E96" s="3">
-        <v>-6500</v>
+        <v>-2700</v>
       </c>
       <c r="F96" s="3">
-        <v>-8000</v>
+        <v>-26700</v>
       </c>
       <c r="G96" s="3">
-        <v>-13300</v>
+        <v>-6800</v>
       </c>
       <c r="H96" s="3">
-        <v>-117900</v>
+        <v>-151000</v>
       </c>
       <c r="I96" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-8400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-51800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-49500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-6900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-31600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-25900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,142 +7512,154 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114900</v>
+        <v>-910600</v>
       </c>
       <c r="E100" s="3">
-        <v>-234400</v>
+        <v>-216900</v>
       </c>
       <c r="F100" s="3">
-        <v>-250000</v>
+        <v>-118900</v>
       </c>
       <c r="G100" s="3">
-        <v>-87000</v>
+        <v>-242600</v>
       </c>
       <c r="H100" s="3">
-        <v>6000</v>
+        <v>-531100</v>
       </c>
       <c r="I100" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-182200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-172100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-131500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-244000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>455600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>349800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1576400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-237800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>149500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-162200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>105500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-81300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>170200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-26900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-77200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-55100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-365400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>365900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-110000</v>
       </c>
       <c r="E101" s="3">
-        <v>-33900</v>
+        <v>-25400</v>
       </c>
       <c r="F101" s="3">
-        <v>-29200</v>
+        <v>-3100</v>
       </c>
       <c r="G101" s="3">
-        <v>15300</v>
+        <v>-35000</v>
       </c>
       <c r="H101" s="3">
-        <v>-62900</v>
+        <v>-66800</v>
       </c>
       <c r="I101" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="K101" s="3">
         <v>12200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>29700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>58900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>27800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>20500</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7176,86 +7673,98 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57600</v>
+        <v>-513700</v>
       </c>
       <c r="E102" s="3">
-        <v>-872600</v>
+        <v>-11200</v>
       </c>
       <c r="F102" s="3">
-        <v>701200</v>
+        <v>59600</v>
       </c>
       <c r="G102" s="3">
-        <v>-74600</v>
+        <v>-903100</v>
       </c>
       <c r="H102" s="3">
-        <v>193500</v>
+        <v>-84600</v>
       </c>
       <c r="I102" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-901800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>267200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-88200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>312100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-321700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1491400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>185900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-828100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>896600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-174900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>395600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1421900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-336100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>232500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-464700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3353900</v>
+        <v>60400</v>
       </c>
       <c r="E8" s="3">
-        <v>2023600</v>
+        <v>3488400</v>
       </c>
       <c r="F8" s="3">
-        <v>1958800</v>
+        <v>2104800</v>
       </c>
       <c r="G8" s="3">
-        <v>1949700</v>
+        <v>2037400</v>
       </c>
       <c r="H8" s="3">
-        <v>3155800</v>
+        <v>2027900</v>
       </c>
       <c r="I8" s="3">
-        <v>1857700</v>
+        <v>3282400</v>
       </c>
       <c r="J8" s="3">
+        <v>1932200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1791500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1841500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2763300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2349800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2471700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2120100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5326400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2536800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2316300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2378200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2499600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2268300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2749700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2648800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3207100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2797100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2733800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2617700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10283900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2520900</v>
+        <v>684800</v>
       </c>
       <c r="E9" s="3">
-        <v>1521200</v>
+        <v>2622000</v>
       </c>
       <c r="F9" s="3">
-        <v>1453800</v>
+        <v>1582200</v>
       </c>
       <c r="G9" s="3">
-        <v>1444700</v>
+        <v>1512100</v>
       </c>
       <c r="H9" s="3">
-        <v>2312300</v>
+        <v>1502600</v>
       </c>
       <c r="I9" s="3">
-        <v>1390800</v>
+        <v>2405100</v>
       </c>
       <c r="J9" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1322700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1352800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1910200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1750100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1847400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1594900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3920300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1996200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1816700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1854800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1925100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1764100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2024400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2051500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2388700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2171000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1981000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2017900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7921900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>833000</v>
+        <v>-624300</v>
       </c>
       <c r="E10" s="3">
-        <v>502500</v>
+        <v>866400</v>
       </c>
       <c r="F10" s="3">
-        <v>505000</v>
+        <v>522600</v>
       </c>
       <c r="G10" s="3">
-        <v>505000</v>
+        <v>525300</v>
       </c>
       <c r="H10" s="3">
-        <v>843500</v>
+        <v>525300</v>
       </c>
       <c r="I10" s="3">
-        <v>466800</v>
+        <v>877300</v>
       </c>
       <c r="J10" s="3">
+        <v>485600</v>
+      </c>
+      <c r="K10" s="3">
         <v>468800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>488700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>853100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>599700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>624300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>525200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1406100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>540600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>499500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>523400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>574400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>504200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>725300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>597300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>818400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>626100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>752700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>599900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2362000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>61000</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>12600</v>
+        <v>63400</v>
       </c>
       <c r="F14" s="3">
-        <v>7200</v>
+        <v>13100</v>
       </c>
       <c r="G14" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H14" s="3">
-        <v>50900</v>
+        <v>7700</v>
       </c>
       <c r="I14" s="3">
-        <v>22500</v>
+        <v>53000</v>
       </c>
       <c r="J14" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K14" s="3">
         <v>10800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>41800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>49300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>24600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>180300</v>
+        <v>50400</v>
       </c>
       <c r="E15" s="3">
-        <v>81100</v>
+        <v>187500</v>
       </c>
       <c r="F15" s="3">
-        <v>75300</v>
+        <v>84400</v>
       </c>
       <c r="G15" s="3">
-        <v>79200</v>
+        <v>78300</v>
       </c>
       <c r="H15" s="3">
-        <v>156800</v>
+        <v>82400</v>
       </c>
       <c r="I15" s="3">
-        <v>71100</v>
+        <v>163100</v>
       </c>
       <c r="J15" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K15" s="3">
         <v>76900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>76300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>90600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>87300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>86300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>77500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>189900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>64000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>58600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>60800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>53000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>56100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>70300</v>
       </c>
       <c r="W15" s="3">
         <v>70300</v>
       </c>
       <c r="X15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>52600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>49700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>48700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>47100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>175400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>3463300</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>1997900</v>
+        <v>3602200</v>
       </c>
       <c r="F17" s="3">
-        <v>1915800</v>
+        <v>2078000</v>
       </c>
       <c r="G17" s="3">
-        <v>1915600</v>
+        <v>1992700</v>
       </c>
       <c r="H17" s="3">
-        <v>3145500</v>
+        <v>1992500</v>
       </c>
       <c r="I17" s="3">
-        <v>1831200</v>
+        <v>3271700</v>
       </c>
       <c r="J17" s="3">
+        <v>1904600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1738400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1799100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2437600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2271100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2373800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2122400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5233500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2451500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2241000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2293500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2331500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2180000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2552600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2563100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3070900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2745300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2620700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2541300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10071600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-109400</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>25800</v>
+        <v>-113800</v>
       </c>
       <c r="F18" s="3">
-        <v>43000</v>
+        <v>26800</v>
       </c>
       <c r="G18" s="3">
-        <v>34100</v>
+        <v>44700</v>
       </c>
       <c r="H18" s="3">
-        <v>10300</v>
+        <v>35400</v>
       </c>
       <c r="I18" s="3">
-        <v>26500</v>
+        <v>10700</v>
       </c>
       <c r="J18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K18" s="3">
         <v>53100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>325700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>197100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>85700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>136100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>51800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>113100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>76400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>212400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>98000</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>21500</v>
+        <v>101900</v>
       </c>
       <c r="F20" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>4800</v>
-      </c>
       <c r="H20" s="3">
-        <v>26100</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1700</v>
+        <v>27200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>15700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>97300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-44800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-49100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>356900</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>139800</v>
+        <v>371200</v>
       </c>
       <c r="F21" s="3">
-        <v>133400</v>
+        <v>145400</v>
       </c>
       <c r="G21" s="3">
-        <v>133400</v>
+        <v>138800</v>
       </c>
       <c r="H21" s="3">
-        <v>446300</v>
+        <v>138800</v>
       </c>
       <c r="I21" s="3">
-        <v>128400</v>
+        <v>464200</v>
       </c>
       <c r="J21" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K21" s="3">
         <v>172900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>139900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>548700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>193800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>192500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>103200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>379700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>183500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>143200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>233300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>144100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>229800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>181400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>157700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>95400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>152300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>124500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>433400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>243200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>81900</v>
+        <v>253000</v>
       </c>
       <c r="F22" s="3">
-        <v>71400</v>
+        <v>85200</v>
       </c>
       <c r="G22" s="3">
-        <v>63500</v>
+        <v>74300</v>
       </c>
       <c r="H22" s="3">
-        <v>146800</v>
+        <v>66100</v>
       </c>
       <c r="I22" s="3">
-        <v>51500</v>
+        <v>152700</v>
       </c>
       <c r="J22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K22" s="3">
         <v>42600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>38800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>159800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>43300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>78900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>29700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>35100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>43200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>174900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-254600</v>
+        <v>-88000</v>
       </c>
       <c r="E23" s="3">
-        <v>-34700</v>
+        <v>-264800</v>
       </c>
       <c r="F23" s="3">
-        <v>-29000</v>
+        <v>-36100</v>
       </c>
       <c r="G23" s="3">
-        <v>-24600</v>
+        <v>-30200</v>
       </c>
       <c r="H23" s="3">
-        <v>-110400</v>
+        <v>-25600</v>
       </c>
       <c r="I23" s="3">
-        <v>-26700</v>
+        <v>-114800</v>
       </c>
       <c r="J23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>370800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>122200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>132200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>83300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>64900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>31300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-87900</v>
+        <v>-24600</v>
       </c>
       <c r="E24" s="3">
-        <v>-5200</v>
+        <v>-91400</v>
       </c>
       <c r="F24" s="3">
-        <v>-11000</v>
+        <v>-5400</v>
       </c>
       <c r="G24" s="3">
-        <v>-8100</v>
+        <v>-11500</v>
       </c>
       <c r="H24" s="3">
-        <v>-140400</v>
+        <v>-8500</v>
       </c>
       <c r="I24" s="3">
-        <v>-24200</v>
+        <v>-146000</v>
       </c>
       <c r="J24" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K24" s="3">
         <v>10300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166700</v>
+        <v>-63400</v>
       </c>
       <c r="E26" s="3">
-        <v>-29400</v>
+        <v>-173400</v>
       </c>
       <c r="F26" s="3">
-        <v>-18000</v>
+        <v>-30600</v>
       </c>
       <c r="G26" s="3">
-        <v>-16500</v>
+        <v>-18700</v>
       </c>
       <c r="H26" s="3">
-        <v>30000</v>
+        <v>-17100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2500</v>
+        <v>31200</v>
       </c>
       <c r="J26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>252800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>53300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>41300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>18900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-17600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-199200</v>
+        <v>-74100</v>
       </c>
       <c r="E27" s="3">
-        <v>-39500</v>
+        <v>-207200</v>
       </c>
       <c r="F27" s="3">
-        <v>-27500</v>
+        <v>-41100</v>
       </c>
       <c r="G27" s="3">
-        <v>-21500</v>
+        <v>-28600</v>
       </c>
       <c r="H27" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-12600</v>
-      </c>
       <c r="J27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K27" s="3">
         <v>10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>246200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>73100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>45600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>129700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,91 +2421,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>165900</v>
+        <v>24200</v>
       </c>
       <c r="E29" s="3">
-        <v>-17800</v>
+        <v>172600</v>
       </c>
       <c r="F29" s="3">
-        <v>-6000</v>
+        <v>-18500</v>
       </c>
       <c r="G29" s="3">
-        <v>292400</v>
+        <v>-6200</v>
       </c>
       <c r="H29" s="3">
-        <v>155900</v>
+        <v>304100</v>
       </c>
       <c r="I29" s="3">
-        <v>-4600</v>
+        <v>162100</v>
       </c>
       <c r="J29" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-10300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>52800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>87500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>49300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>18900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>204800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>57000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>10100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-36800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>36700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>40400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>45600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>23300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>32700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-249300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-98000</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-21500</v>
+        <v>-101900</v>
       </c>
       <c r="F32" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-26100</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>1700</v>
+        <v>-27200</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-97300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>44800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>34600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>13100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>49100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33300</v>
+        <v>-49900</v>
       </c>
       <c r="E33" s="3">
-        <v>-57300</v>
+        <v>-34600</v>
       </c>
       <c r="F33" s="3">
-        <v>-33500</v>
+        <v>-59600</v>
       </c>
       <c r="G33" s="3">
-        <v>270900</v>
+        <v>-34800</v>
       </c>
       <c r="H33" s="3">
-        <v>155300</v>
+        <v>281800</v>
       </c>
       <c r="I33" s="3">
-        <v>-17200</v>
+        <v>161500</v>
       </c>
       <c r="J33" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>299000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>66000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>145900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>109800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>72800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>34100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>29800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-119600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33300</v>
+        <v>-49900</v>
       </c>
       <c r="E35" s="3">
-        <v>-57300</v>
+        <v>-34600</v>
       </c>
       <c r="F35" s="3">
-        <v>-33500</v>
+        <v>-59600</v>
       </c>
       <c r="G35" s="3">
-        <v>270900</v>
+        <v>-34800</v>
       </c>
       <c r="H35" s="3">
-        <v>155300</v>
+        <v>281800</v>
       </c>
       <c r="I35" s="3">
-        <v>-17200</v>
+        <v>161500</v>
       </c>
       <c r="J35" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>299000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>66000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>145900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>109800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>72800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>34100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>29800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-119600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>726300</v>
+        <v>708100</v>
       </c>
       <c r="E41" s="3">
-        <v>747400</v>
+        <v>755500</v>
       </c>
       <c r="F41" s="3">
-        <v>758600</v>
+        <v>777400</v>
       </c>
       <c r="G41" s="3">
-        <v>699000</v>
+        <v>789100</v>
       </c>
       <c r="H41" s="3">
-        <v>1602100</v>
+        <v>727100</v>
       </c>
       <c r="I41" s="3">
-        <v>876400</v>
+        <v>1666400</v>
       </c>
       <c r="J41" s="3">
+        <v>911500</v>
+      </c>
+      <c r="K41" s="3">
         <v>953600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>728000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1629700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1506800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1524500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1098300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1469100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2374000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>833100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>441400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>779400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>485700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>713200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>397200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>972200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>324600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>606600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>417500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1268200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3350,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>350500</v>
+        <v>332900</v>
       </c>
       <c r="E43" s="3">
-        <v>792700</v>
+        <v>364500</v>
       </c>
       <c r="F43" s="3">
-        <v>1081000</v>
+        <v>824500</v>
       </c>
       <c r="G43" s="3">
-        <v>953600</v>
+        <v>1124400</v>
       </c>
       <c r="H43" s="3">
-        <v>558400</v>
+        <v>991900</v>
       </c>
       <c r="I43" s="3">
-        <v>512300</v>
+        <v>580800</v>
       </c>
       <c r="J43" s="3">
+        <v>532900</v>
+      </c>
+      <c r="K43" s="3">
         <v>506300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>459100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>380500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>558200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>564800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>497700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>517200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>305900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>226600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>321900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>243500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>289200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>253400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>409600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>379700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>394600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>268400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>368600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>333200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>396200</v>
+        <v>418700</v>
       </c>
       <c r="E44" s="3">
-        <v>1072500</v>
+        <v>412100</v>
       </c>
       <c r="F44" s="3">
-        <v>1035100</v>
+        <v>1115600</v>
       </c>
       <c r="G44" s="3">
-        <v>945300</v>
+        <v>1076700</v>
       </c>
       <c r="H44" s="3">
-        <v>1017900</v>
+        <v>983200</v>
       </c>
       <c r="I44" s="3">
-        <v>1275100</v>
+        <v>1058800</v>
       </c>
       <c r="J44" s="3">
+        <v>1326200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1202800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1267500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1222800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1779900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1800700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1731800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1594100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1134100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1007900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1072600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1054200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1025100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1199400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1111100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1236300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1188100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1135000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1135700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1151300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4056900</v>
+        <v>4176400</v>
       </c>
       <c r="E45" s="3">
-        <v>68200</v>
+        <v>4219700</v>
       </c>
       <c r="F45" s="3">
-        <v>105500</v>
+        <v>70900</v>
       </c>
       <c r="G45" s="3">
-        <v>119700</v>
+        <v>109800</v>
       </c>
       <c r="H45" s="3">
-        <v>282100</v>
+        <v>124500</v>
       </c>
       <c r="I45" s="3">
-        <v>96600</v>
+        <v>293400</v>
       </c>
       <c r="J45" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K45" s="3">
         <v>103600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>275600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>278800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>357000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>107700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5072700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5210400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4098000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5128800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5230400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5876500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5097100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4904000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5016900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5099300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5529900</v>
+        <v>5636200</v>
       </c>
       <c r="E46" s="3">
-        <v>2680800</v>
+        <v>5751800</v>
       </c>
       <c r="F46" s="3">
-        <v>2980400</v>
+        <v>2788400</v>
       </c>
       <c r="G46" s="3">
-        <v>2717600</v>
+        <v>3099900</v>
       </c>
       <c r="H46" s="3">
-        <v>3460600</v>
+        <v>2826600</v>
       </c>
       <c r="I46" s="3">
-        <v>2760400</v>
+        <v>3599400</v>
       </c>
       <c r="J46" s="3">
+        <v>2871200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2766400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2554000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4120600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4168800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3684800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3688100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3920000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2125200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6908700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7287500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5898000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7294700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7148300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8464600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7004300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6914100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6938800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7852000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>904100</v>
+        <v>929700</v>
       </c>
       <c r="E47" s="3">
-        <v>875800</v>
+        <v>940300</v>
       </c>
       <c r="F47" s="3">
-        <v>992400</v>
+        <v>910900</v>
       </c>
       <c r="G47" s="3">
-        <v>1054300</v>
+        <v>1032200</v>
       </c>
       <c r="H47" s="3">
-        <v>917800</v>
+        <v>1096600</v>
       </c>
       <c r="I47" s="3">
-        <v>921300</v>
+        <v>954600</v>
       </c>
       <c r="J47" s="3">
+        <v>958300</v>
+      </c>
+      <c r="K47" s="3">
         <v>947400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>968600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>969100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>820800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>830400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>750500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>666400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>627500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>600600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>621300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>555500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>669100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>750500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>631000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>679400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>585100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>558900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>403600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>391200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1325200</v>
+        <v>1390700</v>
       </c>
       <c r="E48" s="3">
-        <v>3530600</v>
+        <v>1378400</v>
       </c>
       <c r="F48" s="3">
-        <v>3610200</v>
+        <v>3672300</v>
       </c>
       <c r="G48" s="3">
-        <v>3579600</v>
+        <v>3755100</v>
       </c>
       <c r="H48" s="3">
-        <v>3794800</v>
+        <v>3723300</v>
       </c>
       <c r="I48" s="3">
-        <v>4359400</v>
+        <v>3947000</v>
       </c>
       <c r="J48" s="3">
+        <v>4534300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4201800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4497500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4401700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5493200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5557500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4579600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5049900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2614500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2377200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2470300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2515800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1714100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2141600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2348200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2360700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2309500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2231500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2283600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>384500</v>
+        <v>403400</v>
       </c>
       <c r="E49" s="3">
-        <v>1016600</v>
+        <v>400000</v>
       </c>
       <c r="F49" s="3">
-        <v>1057600</v>
+        <v>1057400</v>
       </c>
       <c r="G49" s="3">
-        <v>1054300</v>
+        <v>1100000</v>
       </c>
       <c r="H49" s="3">
-        <v>1114000</v>
+        <v>1096600</v>
       </c>
       <c r="I49" s="3">
-        <v>1164300</v>
+        <v>1158700</v>
       </c>
       <c r="J49" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1108900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1174600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1153200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1603000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1621800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1373500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1151800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>545100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>509400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>536700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1322100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>358400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>449800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>448400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>986600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>489200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>483800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>470600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>473300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344900</v>
+        <v>391700</v>
       </c>
       <c r="E52" s="3">
-        <v>298000</v>
+        <v>358700</v>
       </c>
       <c r="F52" s="3">
-        <v>277300</v>
+        <v>310000</v>
       </c>
       <c r="G52" s="3">
-        <v>260600</v>
+        <v>288400</v>
       </c>
       <c r="H52" s="3">
-        <v>286600</v>
+        <v>271100</v>
       </c>
       <c r="I52" s="3">
-        <v>223400</v>
+        <v>298100</v>
       </c>
       <c r="J52" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K52" s="3">
         <v>175800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>166300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>146500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>250300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>253200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>251500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>244200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>217800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>207200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>255200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>265300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>219100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>261300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>236300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>245600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>261300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>248200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>224000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>217300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8488500</v>
+        <v>8751600</v>
       </c>
       <c r="E54" s="3">
-        <v>8401800</v>
+        <v>8829200</v>
       </c>
       <c r="F54" s="3">
-        <v>8917800</v>
+        <v>8738900</v>
       </c>
       <c r="G54" s="3">
-        <v>8666500</v>
+        <v>9275700</v>
       </c>
       <c r="H54" s="3">
-        <v>9573600</v>
+        <v>9014300</v>
       </c>
       <c r="I54" s="3">
-        <v>9428800</v>
+        <v>9957800</v>
       </c>
       <c r="J54" s="3">
+        <v>9807200</v>
+      </c>
+      <c r="K54" s="3">
         <v>9200300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9360900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9971000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12287900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12431700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10640000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10800300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7924900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5819600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10792200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11058700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8858700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10857000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10605500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12231100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10700500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10514400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10268500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11217400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>604700</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>1292900</v>
+        <v>629000</v>
       </c>
       <c r="F57" s="3">
-        <v>1374800</v>
+        <v>1344700</v>
       </c>
       <c r="G57" s="3">
-        <v>1256100</v>
+        <v>1429900</v>
       </c>
       <c r="H57" s="3">
-        <v>1951400</v>
+        <v>1306500</v>
       </c>
       <c r="I57" s="3">
-        <v>1468900</v>
+        <v>2029700</v>
       </c>
       <c r="J57" s="3">
+        <v>1527800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1493100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1452400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2137300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2378500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2406300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2149000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2749600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1281400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1208900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1212800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1649500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1191400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1487300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1286900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2083900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1408800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1326000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1300200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1794100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>288700</v>
+        <v>326500</v>
       </c>
       <c r="E58" s="3">
-        <v>591300</v>
+        <v>300300</v>
       </c>
       <c r="F58" s="3">
-        <v>715100</v>
+        <v>615100</v>
       </c>
       <c r="G58" s="3">
-        <v>518300</v>
+        <v>743800</v>
       </c>
       <c r="H58" s="3">
-        <v>457900</v>
+        <v>539100</v>
       </c>
       <c r="I58" s="3">
-        <v>638600</v>
+        <v>476300</v>
       </c>
       <c r="J58" s="3">
+        <v>664200</v>
+      </c>
+      <c r="K58" s="3">
         <v>690300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>733600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>609200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1026700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1038700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1158800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>817300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1180300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>651100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>528300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>803500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>343200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>425000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>324100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>320700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>363500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>381000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>553500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>733600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2542900</v>
+        <v>2546300</v>
       </c>
       <c r="E59" s="3">
-        <v>626000</v>
+        <v>2645000</v>
       </c>
       <c r="F59" s="3">
-        <v>728800</v>
+        <v>651100</v>
       </c>
       <c r="G59" s="3">
-        <v>679300</v>
+        <v>758100</v>
       </c>
       <c r="H59" s="3">
-        <v>795200</v>
+        <v>706500</v>
       </c>
       <c r="I59" s="3">
-        <v>659700</v>
+        <v>827100</v>
       </c>
       <c r="J59" s="3">
+        <v>686200</v>
+      </c>
+      <c r="K59" s="3">
         <v>633000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>756400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>711500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>810300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>695000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>706100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>365000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>362800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4382600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4634800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3388600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4163000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4369600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5028400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4138200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3974700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4078400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4314900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3436400</v>
+        <v>3366400</v>
       </c>
       <c r="E60" s="3">
-        <v>2510200</v>
+        <v>3574200</v>
       </c>
       <c r="F60" s="3">
-        <v>2818700</v>
+        <v>2610900</v>
       </c>
       <c r="G60" s="3">
-        <v>2453700</v>
+        <v>2931800</v>
       </c>
       <c r="H60" s="3">
-        <v>3204600</v>
+        <v>2552100</v>
       </c>
       <c r="I60" s="3">
-        <v>2767200</v>
+        <v>3333200</v>
       </c>
       <c r="J60" s="3">
+        <v>2878200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2816300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2942400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3458000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4206100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4255300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4002800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4273000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2826600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2222800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6123600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6705500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4923300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6075300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5980700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7433000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5910600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5681600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5932100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6842500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1628200</v>
+        <v>1810800</v>
       </c>
       <c r="E61" s="3">
-        <v>2066200</v>
+        <v>1693600</v>
       </c>
       <c r="F61" s="3">
-        <v>2094500</v>
+        <v>2149100</v>
       </c>
       <c r="G61" s="3">
-        <v>2270700</v>
+        <v>2178500</v>
       </c>
       <c r="H61" s="3">
-        <v>2479400</v>
+        <v>2361800</v>
       </c>
       <c r="I61" s="3">
-        <v>2804300</v>
+        <v>2578900</v>
       </c>
       <c r="J61" s="3">
+        <v>2916900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2704200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2473000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2669600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4458300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4510500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3605000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3405100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2602100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1283800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1606100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1547100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>912200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>974000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>957900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>855500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>856300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>935500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>637300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>722400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>764800</v>
+        <v>821900</v>
       </c>
       <c r="E62" s="3">
-        <v>744700</v>
+        <v>795500</v>
       </c>
       <c r="F62" s="3">
-        <v>755000</v>
+        <v>774600</v>
       </c>
       <c r="G62" s="3">
-        <v>688900</v>
+        <v>785300</v>
       </c>
       <c r="H62" s="3">
-        <v>718000</v>
+        <v>716600</v>
       </c>
       <c r="I62" s="3">
-        <v>728200</v>
+        <v>746800</v>
       </c>
       <c r="J62" s="3">
+        <v>757500</v>
+      </c>
+      <c r="K62" s="3">
         <v>697600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>730600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>699000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>581000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>587800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>549100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>619900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>459000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>413500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>502400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>458500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>476800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>599200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>568200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>599200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>582200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>564300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>518500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>527400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6253100</v>
+        <v>5999100</v>
       </c>
       <c r="E66" s="3">
-        <v>5780200</v>
+        <v>6504000</v>
       </c>
       <c r="F66" s="3">
-        <v>6154900</v>
+        <v>6012200</v>
       </c>
       <c r="G66" s="3">
-        <v>5900900</v>
+        <v>6401900</v>
       </c>
       <c r="H66" s="3">
-        <v>6930800</v>
+        <v>6137700</v>
       </c>
       <c r="I66" s="3">
-        <v>6862200</v>
+        <v>7208900</v>
       </c>
       <c r="J66" s="3">
+        <v>7137600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6745500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6740100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7408800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9840300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9955500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8631400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8779700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5887800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3920000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8846900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9232900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6864100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8346500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8191400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9619100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8086000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7907800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7789200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8771400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1160200</v>
+        <v>633000</v>
       </c>
       <c r="E72" s="3">
-        <v>1371700</v>
+        <v>1206800</v>
       </c>
       <c r="F72" s="3">
-        <v>1398800</v>
+        <v>1426700</v>
       </c>
       <c r="G72" s="3">
-        <v>1431100</v>
+        <v>1454900</v>
       </c>
       <c r="H72" s="3">
-        <v>1162400</v>
+        <v>1488500</v>
       </c>
       <c r="I72" s="3">
-        <v>1025300</v>
+        <v>1209000</v>
       </c>
       <c r="J72" s="3">
+        <v>1066400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1042700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1044700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>832500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>842200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>700300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>749300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>788400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>715000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>689900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>637200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>764700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>955800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>856600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>899600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>893200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>884000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>811200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>779000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2235500</v>
+        <v>2752500</v>
       </c>
       <c r="E76" s="3">
-        <v>2621600</v>
+        <v>2325200</v>
       </c>
       <c r="F76" s="3">
-        <v>2762900</v>
+        <v>2726800</v>
       </c>
       <c r="G76" s="3">
-        <v>2765600</v>
+        <v>2873800</v>
       </c>
       <c r="H76" s="3">
-        <v>2642900</v>
+        <v>2876600</v>
       </c>
       <c r="I76" s="3">
-        <v>2566600</v>
+        <v>2748900</v>
       </c>
       <c r="J76" s="3">
+        <v>2669600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2454800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2620800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2562200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2447600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2476300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2008500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2020600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2037100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1899600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1945200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1825700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1994600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2510600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2414100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2612000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2614600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2606600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2479300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2446100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33300</v>
+        <v>-49900</v>
       </c>
       <c r="E81" s="3">
-        <v>-57300</v>
+        <v>-34600</v>
       </c>
       <c r="F81" s="3">
-        <v>-33500</v>
+        <v>-59600</v>
       </c>
       <c r="G81" s="3">
-        <v>270900</v>
+        <v>-34800</v>
       </c>
       <c r="H81" s="3">
-        <v>155300</v>
+        <v>281800</v>
       </c>
       <c r="I81" s="3">
-        <v>-17200</v>
+        <v>161500</v>
       </c>
       <c r="J81" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>299000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>66000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>145900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>109800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>72800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>34100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>29800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-119600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>368300</v>
+        <v>56400</v>
       </c>
       <c r="E83" s="3">
-        <v>92600</v>
+        <v>383100</v>
       </c>
       <c r="F83" s="3">
-        <v>91000</v>
+        <v>96300</v>
       </c>
       <c r="G83" s="3">
-        <v>94500</v>
+        <v>94700</v>
       </c>
       <c r="H83" s="3">
-        <v>409900</v>
+        <v>98300</v>
       </c>
       <c r="I83" s="3">
-        <v>103600</v>
+        <v>426400</v>
       </c>
       <c r="J83" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K83" s="3">
         <v>104200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>102500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>125700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>129100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>123200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>107800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>287900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>65000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>68300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>61400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>77500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>78000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>56100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>53300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>50100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>270200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41800</v>
+        <v>-287800</v>
       </c>
       <c r="E89" s="3">
-        <v>-36200</v>
+        <v>-43500</v>
       </c>
       <c r="F89" s="3">
-        <v>152600</v>
+        <v>-37700</v>
       </c>
       <c r="G89" s="3">
-        <v>-739900</v>
+        <v>158700</v>
       </c>
       <c r="H89" s="3">
-        <v>528200</v>
+        <v>-769500</v>
       </c>
       <c r="I89" s="3">
-        <v>22500</v>
+        <v>549400</v>
       </c>
       <c r="J89" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K89" s="3">
         <v>308600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-654400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1121000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>471200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-684600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>209600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>116900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-862300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1223600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-105100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>665300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1574200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-123800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>344600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-323500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270700</v>
+        <v>-445000</v>
       </c>
       <c r="E91" s="3">
-        <v>-81300</v>
+        <v>-510000</v>
       </c>
       <c r="F91" s="3">
-        <v>-48800</v>
+        <v>-487000</v>
       </c>
       <c r="G91" s="3">
-        <v>-54400</v>
+        <v>-303000</v>
       </c>
       <c r="H91" s="3">
-        <v>-200400</v>
+        <v>-326000</v>
       </c>
       <c r="I91" s="3">
-        <v>-48600</v>
+        <v>-357000</v>
       </c>
       <c r="J91" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-41200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-108500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-97500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-454700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-89400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-92600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-92900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-82900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-106100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-111500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-73600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-88600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-383000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>548700</v>
+        <v>-86600</v>
       </c>
       <c r="E94" s="3">
-        <v>267200</v>
+        <v>570800</v>
       </c>
       <c r="F94" s="3">
-        <v>29000</v>
+        <v>277900</v>
       </c>
       <c r="G94" s="3">
-        <v>114400</v>
+        <v>30200</v>
       </c>
       <c r="H94" s="3">
-        <v>-14900</v>
+        <v>119000</v>
       </c>
       <c r="I94" s="3">
-        <v>-25600</v>
+        <v>-15500</v>
       </c>
       <c r="J94" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-49600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-711500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-120500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-603200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>311500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-115100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-88000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-104000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-96900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-125400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-135100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-56900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-87800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-501100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,77 +7419,78 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51300</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-151000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-122000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-51800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-49500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-6900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-31600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7264,13 +7498,16 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,150 +7761,156 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-910600</v>
+        <v>165600</v>
       </c>
       <c r="E100" s="3">
-        <v>-216900</v>
+        <v>-947200</v>
       </c>
       <c r="F100" s="3">
-        <v>-118900</v>
+        <v>-225600</v>
       </c>
       <c r="G100" s="3">
-        <v>-242600</v>
+        <v>-123700</v>
       </c>
       <c r="H100" s="3">
-        <v>-531100</v>
+        <v>-252400</v>
       </c>
       <c r="I100" s="3">
-        <v>-90000</v>
+        <v>-552400</v>
       </c>
       <c r="J100" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="K100" s="3">
         <v>6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-182200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-172100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-131500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-244000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>455600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>349800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1576400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-237800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>149500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-162200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>105500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-81300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>170200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-77200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-55100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-365400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>365900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-110000</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-25400</v>
+        <v>-114400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>-26400</v>
       </c>
       <c r="G101" s="3">
-        <v>-35000</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>-66800</v>
+        <v>-36500</v>
       </c>
       <c r="I101" s="3">
-        <v>15900</v>
+        <v>-69500</v>
       </c>
       <c r="J101" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-65100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>29700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>58900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20500</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7679,92 +7928,98 @@
         <v>0</v>
       </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-513700</v>
+        <v>-206600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11200</v>
+        <v>-534300</v>
       </c>
       <c r="F102" s="3">
-        <v>59600</v>
+        <v>-11700</v>
       </c>
       <c r="G102" s="3">
-        <v>-903100</v>
+        <v>62000</v>
       </c>
       <c r="H102" s="3">
-        <v>-84600</v>
+        <v>-939300</v>
       </c>
       <c r="I102" s="3">
-        <v>-77300</v>
+        <v>-88000</v>
       </c>
       <c r="J102" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K102" s="3">
         <v>200200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-901800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>267200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-88200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>312100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-321700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1491400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>185900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-828100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>896600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-174900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>395600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1421900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-336100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>232500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-464700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>60400</v>
+        <v>959700</v>
       </c>
       <c r="E8" s="3">
-        <v>3488400</v>
+        <v>907500</v>
       </c>
       <c r="F8" s="3">
-        <v>2104800</v>
+        <v>3496100</v>
       </c>
       <c r="G8" s="3">
-        <v>2037400</v>
+        <v>2109400</v>
       </c>
       <c r="H8" s="3">
-        <v>2027900</v>
+        <v>845300</v>
       </c>
       <c r="I8" s="3">
-        <v>3282400</v>
+        <v>789200</v>
       </c>
       <c r="J8" s="3">
+        <v>3289600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1932200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1791500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1841500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2763300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2349800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2471700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2120100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5326400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2536800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2316300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2378200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2499600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2268300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2749700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2648800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3207100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2797100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2733800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2617700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10283900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>684800</v>
+        <v>721200</v>
       </c>
       <c r="E9" s="3">
-        <v>2622000</v>
+        <v>686300</v>
       </c>
       <c r="F9" s="3">
-        <v>1582200</v>
+        <v>2627800</v>
       </c>
       <c r="G9" s="3">
-        <v>1512100</v>
+        <v>1585700</v>
       </c>
       <c r="H9" s="3">
-        <v>1502600</v>
+        <v>620300</v>
       </c>
       <c r="I9" s="3">
-        <v>2405100</v>
+        <v>576900</v>
       </c>
       <c r="J9" s="3">
+        <v>2410400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1446700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1322700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1352800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1910200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1750100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1847400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1594900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3920300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1996200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1816700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1854800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1925100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1764100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2024400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2051500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2388700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2171000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1981000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2017900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7921900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-624300</v>
+        <v>238600</v>
       </c>
       <c r="E10" s="3">
-        <v>866400</v>
+        <v>221200</v>
       </c>
       <c r="F10" s="3">
-        <v>522600</v>
+        <v>868300</v>
       </c>
       <c r="G10" s="3">
-        <v>525300</v>
+        <v>523800</v>
       </c>
       <c r="H10" s="3">
-        <v>525300</v>
+        <v>225100</v>
       </c>
       <c r="I10" s="3">
-        <v>877300</v>
+        <v>212300</v>
       </c>
       <c r="J10" s="3">
+        <v>879200</v>
+      </c>
+      <c r="K10" s="3">
         <v>485600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>468800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>488700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>853100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>599700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>624300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>525200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1406100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>540600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>499500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>523400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>574400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>504200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>725300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>597300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>818400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>626100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>752700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>599900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2362000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>13700</v>
       </c>
       <c r="E14" s="3">
-        <v>63400</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
+        <v>63600</v>
+      </c>
+      <c r="G14" s="3">
         <v>13100</v>
       </c>
-      <c r="G14" s="3">
-        <v>7500</v>
-      </c>
       <c r="H14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I14" s="3">
         <v>7700</v>
       </c>
-      <c r="I14" s="3">
-        <v>53000</v>
-      </c>
       <c r="J14" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K14" s="3">
         <v>23400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>41800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>49300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>15400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>24600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50400</v>
+        <v>51300</v>
       </c>
       <c r="E15" s="3">
-        <v>187500</v>
+        <v>50500</v>
       </c>
       <c r="F15" s="3">
-        <v>84400</v>
+        <v>187900</v>
       </c>
       <c r="G15" s="3">
-        <v>78300</v>
+        <v>84600</v>
       </c>
       <c r="H15" s="3">
-        <v>82400</v>
+        <v>44000</v>
       </c>
       <c r="I15" s="3">
-        <v>163100</v>
+        <v>45200</v>
       </c>
       <c r="J15" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K15" s="3">
         <v>73900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>76900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>76300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>90600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>87300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>86300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>77500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>189900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>64000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>58600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>60800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>53000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>56100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>70300</v>
       </c>
       <c r="X15" s="3">
         <v>70300</v>
       </c>
       <c r="Y15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>52600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>49700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>48700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>47100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>175400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>970000</v>
       </c>
       <c r="E17" s="3">
-        <v>3602200</v>
+        <v>928700</v>
       </c>
       <c r="F17" s="3">
-        <v>2078000</v>
+        <v>3610100</v>
       </c>
       <c r="G17" s="3">
-        <v>1992700</v>
+        <v>2082600</v>
       </c>
       <c r="H17" s="3">
-        <v>1992500</v>
+        <v>856000</v>
       </c>
       <c r="I17" s="3">
-        <v>3271700</v>
+        <v>797100</v>
       </c>
       <c r="J17" s="3">
+        <v>3278900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1904600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1738400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1799100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2437600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2271100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2373800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2122400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5233500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2451500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2241000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2293500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2331500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2180000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2552600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2563100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3070900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2745300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2620700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2541300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10071600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-10300</v>
       </c>
       <c r="E18" s="3">
-        <v>-113800</v>
+        <v>-21200</v>
       </c>
       <c r="F18" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="G18" s="3">
         <v>26800</v>
       </c>
-      <c r="G18" s="3">
-        <v>44700</v>
-      </c>
       <c r="H18" s="3">
-        <v>35400</v>
+        <v>-10700</v>
       </c>
       <c r="I18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>325700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>85300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>197100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>85700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>136100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>51800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>113100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>76400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>212400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>101900</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>102100</v>
+      </c>
+      <c r="G20" s="3">
         <v>22400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-600</v>
-      </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>12300</v>
       </c>
       <c r="I20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J20" s="3">
         <v>27200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>97300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-28600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-44800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>17700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-13100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-49100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>46800</v>
       </c>
       <c r="E21" s="3">
-        <v>371200</v>
+        <v>35700</v>
       </c>
       <c r="F21" s="3">
-        <v>145400</v>
+        <v>372000</v>
       </c>
       <c r="G21" s="3">
-        <v>138800</v>
+        <v>145700</v>
       </c>
       <c r="H21" s="3">
-        <v>138800</v>
+        <v>96500</v>
       </c>
       <c r="I21" s="3">
-        <v>464200</v>
+        <v>99500</v>
       </c>
       <c r="J21" s="3">
+        <v>465200</v>
+      </c>
+      <c r="K21" s="3">
         <v>133500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>172900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>548700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>193800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>192500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>379700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>183500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>143200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>233300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>144100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>229800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>181400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>157700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>95400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>152300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>124500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>433400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>67800</v>
       </c>
       <c r="E22" s="3">
-        <v>253000</v>
+        <v>67400</v>
       </c>
       <c r="F22" s="3">
-        <v>85200</v>
+        <v>253500</v>
       </c>
       <c r="G22" s="3">
-        <v>74300</v>
+        <v>85400</v>
       </c>
       <c r="H22" s="3">
-        <v>66100</v>
+        <v>63600</v>
       </c>
       <c r="I22" s="3">
-        <v>152700</v>
+        <v>56700</v>
       </c>
       <c r="J22" s="3">
+        <v>153000</v>
+      </c>
+      <c r="K22" s="3">
         <v>53600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>159800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>43300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>20100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>78900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>18200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>29700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>35100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>43200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>174900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-88000</v>
+        <v>-78500</v>
       </c>
       <c r="E23" s="3">
-        <v>-264800</v>
+        <v>-88200</v>
       </c>
       <c r="F23" s="3">
+        <v>-265400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-30200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-25600</v>
+        <v>-62000</v>
       </c>
       <c r="I23" s="3">
-        <v>-114800</v>
+        <v>-55700</v>
       </c>
       <c r="J23" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-27800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>370800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-68000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>122200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>132200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>83300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>64900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>31300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-11700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-91400</v>
-      </c>
       <c r="F24" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-5400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-11500</v>
-      </c>
       <c r="H24" s="3">
-        <v>-8500</v>
+        <v>-19200</v>
       </c>
       <c r="I24" s="3">
-        <v>-146000</v>
+        <v>-25800</v>
       </c>
       <c r="J24" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-25200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-17500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>30000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63400</v>
+        <v>-64800</v>
       </c>
       <c r="E26" s="3">
-        <v>-173400</v>
+        <v>-63600</v>
       </c>
       <c r="F26" s="3">
-        <v>-30600</v>
+        <v>-173800</v>
       </c>
       <c r="G26" s="3">
-        <v>-18700</v>
+        <v>-30700</v>
       </c>
       <c r="H26" s="3">
-        <v>-17100</v>
+        <v>-42800</v>
       </c>
       <c r="I26" s="3">
-        <v>31200</v>
+        <v>-29900</v>
       </c>
       <c r="J26" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>252800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>27900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>53300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>41300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>18900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-17600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74100</v>
+        <v>-79500</v>
       </c>
       <c r="E27" s="3">
-        <v>-207200</v>
+        <v>-74300</v>
       </c>
       <c r="F27" s="3">
-        <v>-41100</v>
+        <v>-207700</v>
       </c>
       <c r="G27" s="3">
-        <v>-28600</v>
+        <v>-41200</v>
       </c>
       <c r="H27" s="3">
-        <v>-22400</v>
+        <v>-52700</v>
       </c>
       <c r="I27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>246200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-58900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>73100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>27200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>45600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>129700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,94 +2482,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E29" s="3">
         <v>24200</v>
       </c>
-      <c r="E29" s="3">
-        <v>172600</v>
-      </c>
       <c r="F29" s="3">
-        <v>-18500</v>
+        <v>173000</v>
       </c>
       <c r="G29" s="3">
-        <v>-6200</v>
+        <v>-18600</v>
       </c>
       <c r="H29" s="3">
-        <v>304100</v>
+        <v>17800</v>
       </c>
       <c r="I29" s="3">
-        <v>162100</v>
+        <v>317500</v>
       </c>
       <c r="J29" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-4800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-10300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>52800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>87500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>49300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>18900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>204800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>57000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>10100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-36800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>36700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>40400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>45600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>23300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>32700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-249300</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>-101900</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-22400</v>
       </c>
-      <c r="G32" s="3">
-        <v>600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-12300</v>
       </c>
       <c r="I32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-27200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-97300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>28600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>44800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>34600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>13100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>49100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49900</v>
+        <v>-85800</v>
       </c>
       <c r="E33" s="3">
-        <v>-34600</v>
+        <v>-50100</v>
       </c>
       <c r="F33" s="3">
-        <v>-59600</v>
+        <v>-34700</v>
       </c>
       <c r="G33" s="3">
-        <v>-34800</v>
+        <v>-59700</v>
       </c>
       <c r="H33" s="3">
-        <v>281800</v>
+        <v>-34900</v>
       </c>
       <c r="I33" s="3">
-        <v>161500</v>
+        <v>282400</v>
       </c>
       <c r="J33" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>299000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>145900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>109800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>72800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>34100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>29800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-119600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49900</v>
+        <v>-85800</v>
       </c>
       <c r="E35" s="3">
-        <v>-34600</v>
+        <v>-50100</v>
       </c>
       <c r="F35" s="3">
-        <v>-59600</v>
+        <v>-34700</v>
       </c>
       <c r="G35" s="3">
-        <v>-34800</v>
+        <v>-59700</v>
       </c>
       <c r="H35" s="3">
-        <v>281800</v>
+        <v>-34900</v>
       </c>
       <c r="I35" s="3">
-        <v>161500</v>
+        <v>282400</v>
       </c>
       <c r="J35" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>299000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>145900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>109800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>72800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>34100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>29800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-119600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>708100</v>
+        <v>649300</v>
       </c>
       <c r="E41" s="3">
-        <v>755500</v>
+        <v>709700</v>
       </c>
       <c r="F41" s="3">
-        <v>777400</v>
+        <v>757100</v>
       </c>
       <c r="G41" s="3">
-        <v>789100</v>
+        <v>779100</v>
       </c>
       <c r="H41" s="3">
-        <v>727100</v>
+        <v>790800</v>
       </c>
       <c r="I41" s="3">
-        <v>1666400</v>
+        <v>728600</v>
       </c>
       <c r="J41" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="K41" s="3">
         <v>911500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>953600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>728000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1629700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1506800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1524500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1098300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1469100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2374000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>833100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>441400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>779400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>485700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>713200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>397200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>972200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>324600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>606600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>417500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1268200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>332900</v>
+        <v>345100</v>
       </c>
       <c r="E43" s="3">
-        <v>364500</v>
+        <v>333600</v>
       </c>
       <c r="F43" s="3">
-        <v>824500</v>
+        <v>365300</v>
       </c>
       <c r="G43" s="3">
-        <v>1124400</v>
+        <v>826300</v>
       </c>
       <c r="H43" s="3">
-        <v>991900</v>
+        <v>1126900</v>
       </c>
       <c r="I43" s="3">
-        <v>580800</v>
+        <v>994100</v>
       </c>
       <c r="J43" s="3">
+        <v>582100</v>
+      </c>
+      <c r="K43" s="3">
         <v>532900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>506300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>459100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>380500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>558200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>564800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>497700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>517200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>305900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>226600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>321900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>243500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>289200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>253400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>409600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>379700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>394600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>268400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>368600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>333200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>418700</v>
+        <v>396600</v>
       </c>
       <c r="E44" s="3">
-        <v>412100</v>
+        <v>419600</v>
       </c>
       <c r="F44" s="3">
-        <v>1115600</v>
+        <v>413000</v>
       </c>
       <c r="G44" s="3">
-        <v>1076700</v>
+        <v>1118000</v>
       </c>
       <c r="H44" s="3">
-        <v>983200</v>
+        <v>1079000</v>
       </c>
       <c r="I44" s="3">
-        <v>1058800</v>
+        <v>985400</v>
       </c>
       <c r="J44" s="3">
+        <v>1061100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1326200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1202800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1267500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1222800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1779900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1800700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1731800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1594100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1134100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1007900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1072600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1054200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1025100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1199400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1111100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1236300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1188100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1135000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1135700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1151300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4176400</v>
+        <v>4452400</v>
       </c>
       <c r="E45" s="3">
-        <v>4219700</v>
+        <v>4185600</v>
       </c>
       <c r="F45" s="3">
-        <v>70900</v>
+        <v>4229000</v>
       </c>
       <c r="G45" s="3">
-        <v>109800</v>
+        <v>71000</v>
       </c>
       <c r="H45" s="3">
-        <v>124500</v>
+        <v>110000</v>
       </c>
       <c r="I45" s="3">
-        <v>293400</v>
+        <v>124700</v>
       </c>
       <c r="J45" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K45" s="3">
         <v>100500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>275600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>278800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>357000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>107700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5072700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5210400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4098000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5128800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5230400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5876500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5097100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4904000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5016900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5099300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5636200</v>
+        <v>5843500</v>
       </c>
       <c r="E46" s="3">
-        <v>5751800</v>
+        <v>5648500</v>
       </c>
       <c r="F46" s="3">
-        <v>2788400</v>
+        <v>5764300</v>
       </c>
       <c r="G46" s="3">
-        <v>3099900</v>
+        <v>2794500</v>
       </c>
       <c r="H46" s="3">
-        <v>2826600</v>
+        <v>3106700</v>
       </c>
       <c r="I46" s="3">
-        <v>3599400</v>
+        <v>2832800</v>
       </c>
       <c r="J46" s="3">
+        <v>3607300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2871200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2766400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2554000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4120600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4168800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3684800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3688100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3920000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2125200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6908700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7287500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5898000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7294700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7148300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8464600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7004300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6914100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6938800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7852000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>929700</v>
+        <v>936300</v>
       </c>
       <c r="E47" s="3">
-        <v>940300</v>
+        <v>931700</v>
       </c>
       <c r="F47" s="3">
-        <v>910900</v>
+        <v>942400</v>
       </c>
       <c r="G47" s="3">
-        <v>1032200</v>
+        <v>912900</v>
       </c>
       <c r="H47" s="3">
-        <v>1096600</v>
+        <v>1034400</v>
       </c>
       <c r="I47" s="3">
-        <v>954600</v>
+        <v>1099000</v>
       </c>
       <c r="J47" s="3">
+        <v>956700</v>
+      </c>
+      <c r="K47" s="3">
         <v>958300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>947400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>968600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>969100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>820800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>830400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>750500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>666400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>627500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>600600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>621300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>555500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>669100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>750500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>631000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>679400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>585100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>558900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>403600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>391200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1390700</v>
+        <v>1360600</v>
       </c>
       <c r="E48" s="3">
-        <v>1378400</v>
+        <v>1393700</v>
       </c>
       <c r="F48" s="3">
-        <v>3672300</v>
+        <v>1381400</v>
       </c>
       <c r="G48" s="3">
-        <v>3755100</v>
+        <v>3680400</v>
       </c>
       <c r="H48" s="3">
-        <v>3723300</v>
+        <v>3763300</v>
       </c>
       <c r="I48" s="3">
-        <v>3947000</v>
+        <v>3731400</v>
       </c>
       <c r="J48" s="3">
+        <v>3955700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4534300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4201800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4497500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4401700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5493200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5557500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4579600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5049900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2614500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2377200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2470300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2515800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1714100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2141600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2348200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2360700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2309500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2231500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2283600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>403400</v>
+        <v>402500</v>
       </c>
       <c r="E49" s="3">
-        <v>400000</v>
+        <v>404300</v>
       </c>
       <c r="F49" s="3">
-        <v>1057400</v>
+        <v>400900</v>
       </c>
       <c r="G49" s="3">
-        <v>1100000</v>
+        <v>1059700</v>
       </c>
       <c r="H49" s="3">
-        <v>1096600</v>
+        <v>1102500</v>
       </c>
       <c r="I49" s="3">
-        <v>1158700</v>
+        <v>1099000</v>
       </c>
       <c r="J49" s="3">
+        <v>1161200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1211000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1108900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1174600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1153200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1603000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1621800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1373500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1151800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>545100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>509400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>536700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1322100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>358400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>449800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>448400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>986600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>489200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>483800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>470600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>473300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>391700</v>
+        <v>418400</v>
       </c>
       <c r="E52" s="3">
-        <v>358700</v>
+        <v>392600</v>
       </c>
       <c r="F52" s="3">
-        <v>310000</v>
+        <v>359500</v>
       </c>
       <c r="G52" s="3">
-        <v>288400</v>
+        <v>310600</v>
       </c>
       <c r="H52" s="3">
-        <v>271100</v>
+        <v>289000</v>
       </c>
       <c r="I52" s="3">
-        <v>298100</v>
+        <v>271700</v>
       </c>
       <c r="J52" s="3">
+        <v>298700</v>
+      </c>
+      <c r="K52" s="3">
         <v>232400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>175800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>166300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>146500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>250300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>253200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>251500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>244200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>217800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>207200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>255200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>265300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>219100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>261300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>236300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>245600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>261300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>248200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>224000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>217300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8751600</v>
+        <v>8961300</v>
       </c>
       <c r="E54" s="3">
-        <v>8829200</v>
+        <v>8770800</v>
       </c>
       <c r="F54" s="3">
-        <v>8738900</v>
+        <v>8848500</v>
       </c>
       <c r="G54" s="3">
-        <v>9275700</v>
+        <v>8758000</v>
       </c>
       <c r="H54" s="3">
-        <v>9014300</v>
+        <v>9295900</v>
       </c>
       <c r="I54" s="3">
-        <v>9957800</v>
+        <v>9034000</v>
       </c>
       <c r="J54" s="3">
+        <v>9979600</v>
+      </c>
+      <c r="K54" s="3">
         <v>9807200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9200300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9360900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9971000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12287900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12431700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10640000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10800300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7924900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5819600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10792200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11058700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8858700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10857000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10605500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12231100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10700500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10514400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10268500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11217400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>505600</v>
       </c>
       <c r="E57" s="3">
-        <v>629000</v>
+        <v>494700</v>
       </c>
       <c r="F57" s="3">
-        <v>1344700</v>
+        <v>630300</v>
       </c>
       <c r="G57" s="3">
-        <v>1429900</v>
+        <v>1347700</v>
       </c>
       <c r="H57" s="3">
-        <v>1306500</v>
+        <v>1433100</v>
       </c>
       <c r="I57" s="3">
-        <v>2029700</v>
+        <v>1309300</v>
       </c>
       <c r="J57" s="3">
+        <v>2034100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1527800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1493100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1452400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2137300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2378500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2406300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2749600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1281400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1208900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1212800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1649500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1191400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1487300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1286900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2083900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1408800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1326000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1300200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1794100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>326500</v>
+        <v>422200</v>
       </c>
       <c r="E58" s="3">
-        <v>300300</v>
+        <v>327200</v>
       </c>
       <c r="F58" s="3">
-        <v>615100</v>
+        <v>300900</v>
       </c>
       <c r="G58" s="3">
-        <v>743800</v>
+        <v>616400</v>
       </c>
       <c r="H58" s="3">
-        <v>539100</v>
+        <v>745400</v>
       </c>
       <c r="I58" s="3">
-        <v>476300</v>
+        <v>540300</v>
       </c>
       <c r="J58" s="3">
+        <v>477400</v>
+      </c>
+      <c r="K58" s="3">
         <v>664200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>690300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>733600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>609200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1026700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1038700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1158800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>817300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1180300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>651100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>528300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>803500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>343200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>425000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>324100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>320700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>363500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>381000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>553500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>733600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2546300</v>
+        <v>2733500</v>
       </c>
       <c r="E59" s="3">
-        <v>2645000</v>
+        <v>2551900</v>
       </c>
       <c r="F59" s="3">
-        <v>651100</v>
+        <v>2650800</v>
       </c>
       <c r="G59" s="3">
-        <v>758100</v>
+        <v>652500</v>
       </c>
       <c r="H59" s="3">
-        <v>706500</v>
+        <v>759700</v>
       </c>
       <c r="I59" s="3">
-        <v>827100</v>
+        <v>708100</v>
       </c>
       <c r="J59" s="3">
+        <v>829000</v>
+      </c>
+      <c r="K59" s="3">
         <v>686200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>633000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>756400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>711500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>810300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>695000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>706100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>365000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>362800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4382600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4634800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3388600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4163000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4369600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5028400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4138200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3974700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4078400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4314900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3366400</v>
+        <v>3661400</v>
       </c>
       <c r="E60" s="3">
-        <v>3574200</v>
+        <v>3373800</v>
       </c>
       <c r="F60" s="3">
-        <v>2610900</v>
+        <v>3582100</v>
       </c>
       <c r="G60" s="3">
-        <v>2931800</v>
+        <v>2616700</v>
       </c>
       <c r="H60" s="3">
-        <v>2552100</v>
+        <v>2938200</v>
       </c>
       <c r="I60" s="3">
-        <v>3333200</v>
+        <v>2557700</v>
       </c>
       <c r="J60" s="3">
+        <v>3340500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2878200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2816300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2942400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3458000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4206100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4255300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4002800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4273000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2826600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2222800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6123600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6705500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4923300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6075300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5980700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7433000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5910600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5681600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5932100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6842500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1810800</v>
+        <v>1664800</v>
       </c>
       <c r="E61" s="3">
-        <v>1693600</v>
+        <v>1814700</v>
       </c>
       <c r="F61" s="3">
-        <v>2149100</v>
+        <v>1697300</v>
       </c>
       <c r="G61" s="3">
-        <v>2178500</v>
+        <v>2153800</v>
       </c>
       <c r="H61" s="3">
-        <v>2361800</v>
+        <v>2183300</v>
       </c>
       <c r="I61" s="3">
-        <v>2578900</v>
+        <v>2367000</v>
       </c>
       <c r="J61" s="3">
+        <v>2584600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2916900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2704200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2473000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2669600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4458300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4510500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3605000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3405100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2602100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1283800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1606100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1547100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>912200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>974000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>957900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>855500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>856300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>935500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>637300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>722400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>821900</v>
+        <v>866100</v>
       </c>
       <c r="E62" s="3">
-        <v>795500</v>
+        <v>823700</v>
       </c>
       <c r="F62" s="3">
-        <v>774600</v>
+        <v>797300</v>
       </c>
       <c r="G62" s="3">
-        <v>785300</v>
+        <v>776300</v>
       </c>
       <c r="H62" s="3">
-        <v>716600</v>
+        <v>787000</v>
       </c>
       <c r="I62" s="3">
-        <v>746800</v>
+        <v>718100</v>
       </c>
       <c r="J62" s="3">
+        <v>748400</v>
+      </c>
+      <c r="K62" s="3">
         <v>757500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>697600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>730600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>699000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>581000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>587800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>549100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>619900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>459000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>413500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>502400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>458500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>476800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>599200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>568200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>599200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>582200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>564300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>518500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>527400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5999100</v>
+        <v>6356300</v>
       </c>
       <c r="E66" s="3">
-        <v>6504000</v>
+        <v>6090300</v>
       </c>
       <c r="F66" s="3">
-        <v>6012200</v>
+        <v>6518200</v>
       </c>
       <c r="G66" s="3">
-        <v>6401900</v>
+        <v>6025300</v>
       </c>
       <c r="H66" s="3">
-        <v>6137700</v>
+        <v>6415900</v>
       </c>
       <c r="I66" s="3">
-        <v>7208900</v>
+        <v>6151100</v>
       </c>
       <c r="J66" s="3">
+        <v>7224700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7137600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6745500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6740100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7408800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9840300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9955500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8631400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8779700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5887800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3920000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8846900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9232900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6864100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8346500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8191400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9619100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8086000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7907800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7789200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8771400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>633000</v>
+        <v>549600</v>
       </c>
       <c r="E72" s="3">
-        <v>1206800</v>
+        <v>634400</v>
       </c>
       <c r="F72" s="3">
-        <v>1426700</v>
+        <v>1209400</v>
       </c>
       <c r="G72" s="3">
-        <v>1454900</v>
+        <v>1429800</v>
       </c>
       <c r="H72" s="3">
-        <v>1488500</v>
+        <v>1458100</v>
       </c>
       <c r="I72" s="3">
-        <v>1209000</v>
+        <v>1491800</v>
       </c>
       <c r="J72" s="3">
+        <v>1211600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1066400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1042700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1044700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>832500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>842200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>700300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>749300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>788400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>715000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>689900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>637200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>764700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>955800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>856600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>899600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>893200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>884000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>811200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>779000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2752500</v>
+        <v>2604900</v>
       </c>
       <c r="E76" s="3">
-        <v>2325200</v>
+        <v>2680400</v>
       </c>
       <c r="F76" s="3">
-        <v>2726800</v>
+        <v>2330200</v>
       </c>
       <c r="G76" s="3">
-        <v>2873800</v>
+        <v>2732700</v>
       </c>
       <c r="H76" s="3">
-        <v>2876600</v>
+        <v>2880100</v>
       </c>
       <c r="I76" s="3">
-        <v>2748900</v>
+        <v>2882900</v>
       </c>
       <c r="J76" s="3">
+        <v>2754900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2669600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2454800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2620800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2562200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2447600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2476300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2008500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2020600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2037100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1899600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1945200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1825700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1994600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2510600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2414100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2612000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2614600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2606600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2479300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2446100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49900</v>
+        <v>-85800</v>
       </c>
       <c r="E81" s="3">
-        <v>-34600</v>
+        <v>-50100</v>
       </c>
       <c r="F81" s="3">
-        <v>-59600</v>
+        <v>-34700</v>
       </c>
       <c r="G81" s="3">
-        <v>-34800</v>
+        <v>-59700</v>
       </c>
       <c r="H81" s="3">
-        <v>281800</v>
+        <v>-34900</v>
       </c>
       <c r="I81" s="3">
-        <v>161500</v>
+        <v>282400</v>
       </c>
       <c r="J81" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>299000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>145900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>109800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>72800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>34100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>29800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-119600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56400</v>
+        <v>57500</v>
       </c>
       <c r="E83" s="3">
-        <v>383100</v>
+        <v>56500</v>
       </c>
       <c r="F83" s="3">
-        <v>96300</v>
+        <v>383900</v>
       </c>
       <c r="G83" s="3">
-        <v>94700</v>
+        <v>96500</v>
       </c>
       <c r="H83" s="3">
-        <v>98300</v>
+        <v>94900</v>
       </c>
       <c r="I83" s="3">
-        <v>426400</v>
+        <v>98500</v>
       </c>
       <c r="J83" s="3">
+        <v>427300</v>
+      </c>
+      <c r="K83" s="3">
         <v>107700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>102500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>129100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>123200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>107800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>287900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>65000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>68300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>61400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>77500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>78000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>56100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>53300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>50100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>270200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-287800</v>
+        <v>190700</v>
       </c>
       <c r="E89" s="3">
-        <v>-43500</v>
+        <v>-288400</v>
       </c>
       <c r="F89" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-37700</v>
       </c>
-      <c r="G89" s="3">
-        <v>158700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-769500</v>
+        <v>159000</v>
       </c>
       <c r="I89" s="3">
-        <v>549400</v>
+        <v>-771200</v>
       </c>
       <c r="J89" s="3">
+        <v>550600</v>
+      </c>
+      <c r="K89" s="3">
         <v>23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>308600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-654400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1121000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>471200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-684600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>209600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>116900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-862300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1223600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-105100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>665300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1574200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-123800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>344600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-323500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-445000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-510000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-487000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-303000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-326000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-357000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-316000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-108500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-97500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-454700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-127700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-89400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-92600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-92900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-82900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-106100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-111500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-73600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-88600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-383000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86600</v>
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
-        <v>570800</v>
+        <v>-86800</v>
       </c>
       <c r="F94" s="3">
-        <v>277900</v>
+        <v>572000</v>
       </c>
       <c r="G94" s="3">
-        <v>30200</v>
+        <v>278500</v>
       </c>
       <c r="H94" s="3">
-        <v>119000</v>
+        <v>30300</v>
       </c>
       <c r="I94" s="3">
+        <v>119300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-15500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-711500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-120500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-603200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>311500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-115100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-88000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-104000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-96900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-125400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-135100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-56900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-87800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-501100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,80 +7653,81 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-11300</v>
       </c>
       <c r="E96" s="3">
-        <v>-53400</v>
+        <v>-5700</v>
       </c>
       <c r="F96" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2800</v>
       </c>
-      <c r="G96" s="3">
-        <v>-27800</v>
-      </c>
       <c r="H96" s="3">
-        <v>-7000</v>
+        <v>-27900</v>
       </c>
       <c r="I96" s="3">
-        <v>-157100</v>
+        <v>-7100</v>
       </c>
       <c r="J96" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-122000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-51800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-49500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-6900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-31600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-25900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7501,13 +7735,16 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,156 +8007,162 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>165600</v>
+        <v>-151400</v>
       </c>
       <c r="E100" s="3">
-        <v>-947200</v>
+        <v>165900</v>
       </c>
       <c r="F100" s="3">
-        <v>-225600</v>
+        <v>-949300</v>
       </c>
       <c r="G100" s="3">
-        <v>-123700</v>
+        <v>-226100</v>
       </c>
       <c r="H100" s="3">
-        <v>-252400</v>
+        <v>-123900</v>
       </c>
       <c r="I100" s="3">
-        <v>-552400</v>
+        <v>-252900</v>
       </c>
       <c r="J100" s="3">
+        <v>-553600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-93700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-182200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-172100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-131500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-244000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>455600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>349800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1576400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-237800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>149500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-162200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>105500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-81300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>170200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-77200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-55100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-365400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>365900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-114400</v>
-      </c>
       <c r="F101" s="3">
+        <v>-114600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-26400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-36500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-69500</v>
-      </c>
       <c r="J101" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="K101" s="3">
         <v>16500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-65100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>29700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>58900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20500</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7931,95 +8180,101 @@
         <v>0</v>
       </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-206600</v>
+        <v>47600</v>
       </c>
       <c r="E102" s="3">
-        <v>-534300</v>
+        <v>-207100</v>
       </c>
       <c r="F102" s="3">
+        <v>-535500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
-        <v>62000</v>
-      </c>
       <c r="H102" s="3">
-        <v>-939300</v>
+        <v>62200</v>
       </c>
       <c r="I102" s="3">
-        <v>-88000</v>
+        <v>-941400</v>
       </c>
       <c r="J102" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-80400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-901800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>267200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-88200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>312100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-321700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1491400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>185900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-828100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>896600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-174900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>395600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1421900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-336100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>232500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-464700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>81400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>959700</v>
+        <v>975100</v>
       </c>
       <c r="E8" s="3">
-        <v>907500</v>
+        <v>977800</v>
       </c>
       <c r="F8" s="3">
-        <v>3496100</v>
+        <v>924500</v>
       </c>
       <c r="G8" s="3">
-        <v>2109400</v>
+        <v>3561700</v>
       </c>
       <c r="H8" s="3">
-        <v>845300</v>
+        <v>888700</v>
       </c>
       <c r="I8" s="3">
-        <v>789200</v>
+        <v>861200</v>
       </c>
       <c r="J8" s="3">
+        <v>804000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3289600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1932200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1791500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1841500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2763300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2349800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2471700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2120100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5326400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2536800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2316300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2378200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2499600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2268300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2749700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2648800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3207100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2797100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2733800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2617700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10283900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2503400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>721200</v>
+        <v>730200</v>
       </c>
       <c r="E9" s="3">
-        <v>686300</v>
+        <v>734700</v>
       </c>
       <c r="F9" s="3">
-        <v>2627800</v>
+        <v>699100</v>
       </c>
       <c r="G9" s="3">
-        <v>1585700</v>
+        <v>2677100</v>
       </c>
       <c r="H9" s="3">
-        <v>620300</v>
+        <v>677600</v>
       </c>
       <c r="I9" s="3">
-        <v>576900</v>
+        <v>631900</v>
       </c>
       <c r="J9" s="3">
+        <v>587700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2410400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1446700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1322700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1352800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1910200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1750100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1847400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1594900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3920300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1996200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1816700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1854800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1925100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1764100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2024400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2051500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2388700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2171000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1981000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2017900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7921900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>238600</v>
+        <v>244900</v>
       </c>
       <c r="E10" s="3">
-        <v>221200</v>
+        <v>243100</v>
       </c>
       <c r="F10" s="3">
-        <v>868300</v>
+        <v>225400</v>
       </c>
       <c r="G10" s="3">
-        <v>523800</v>
+        <v>884600</v>
       </c>
       <c r="H10" s="3">
-        <v>225100</v>
+        <v>211200</v>
       </c>
       <c r="I10" s="3">
-        <v>212300</v>
+        <v>229300</v>
       </c>
       <c r="J10" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K10" s="3">
         <v>879200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>485600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>468800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>488700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>853100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>599700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>624300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>525200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1406100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>540600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>499500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>523400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>574400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>504200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>725300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>597300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>818400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>626100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>752700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>599900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2362000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>557200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13700</v>
+        <v>19900</v>
       </c>
       <c r="E14" s="3">
-        <v>4800</v>
+        <v>14000</v>
       </c>
       <c r="F14" s="3">
-        <v>63600</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
+        <v>64800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>53100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>23400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="N14" s="3">
         <v>13100</v>
       </c>
-      <c r="H14" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J14" s="3">
-        <v>53100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>23400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>10800</v>
-      </c>
-      <c r="M14" s="3">
-        <v>13100</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>41800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>49300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>13300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>15400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>24600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51300</v>
+        <v>52600</v>
       </c>
       <c r="E15" s="3">
-        <v>50500</v>
+        <v>52200</v>
       </c>
       <c r="F15" s="3">
-        <v>187900</v>
+        <v>51400</v>
       </c>
       <c r="G15" s="3">
-        <v>84600</v>
+        <v>191400</v>
       </c>
       <c r="H15" s="3">
-        <v>44000</v>
+        <v>50200</v>
       </c>
       <c r="I15" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="J15" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K15" s="3">
         <v>163500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>73900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>76900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>76300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>90600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>87300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>86300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>77500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>189900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>64000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>58600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>60800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>53000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>56100</v>
-      </c>
-      <c r="X15" s="3">
-        <v>70300</v>
       </c>
       <c r="Y15" s="3">
         <v>70300</v>
       </c>
       <c r="Z15" s="3">
+        <v>70300</v>
+      </c>
+      <c r="AA15" s="3">
         <v>52600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>49700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>48700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>47100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>175400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>970000</v>
+        <v>810000</v>
       </c>
       <c r="E17" s="3">
-        <v>928700</v>
+        <v>988300</v>
       </c>
       <c r="F17" s="3">
-        <v>3610100</v>
+        <v>946100</v>
       </c>
       <c r="G17" s="3">
-        <v>2082600</v>
+        <v>3677900</v>
       </c>
       <c r="H17" s="3">
-        <v>856000</v>
+        <v>913800</v>
       </c>
       <c r="I17" s="3">
-        <v>797100</v>
+        <v>872100</v>
       </c>
       <c r="J17" s="3">
+        <v>812000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3278900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1904600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1738400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1799100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2437600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2271100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2373800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2122400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5233500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2451500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2241000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2293500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2331500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2180000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2552600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2563100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3070900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2745300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2620700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2541300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>10071600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2437900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10300</v>
+        <v>165100</v>
       </c>
       <c r="E18" s="3">
-        <v>-21200</v>
+        <v>-10500</v>
       </c>
       <c r="F18" s="3">
-        <v>-114000</v>
+        <v>-21600</v>
       </c>
       <c r="G18" s="3">
-        <v>26800</v>
+        <v>-116200</v>
       </c>
       <c r="H18" s="3">
-        <v>-10700</v>
+        <v>-25100</v>
       </c>
       <c r="I18" s="3">
-        <v>-7900</v>
+        <v>-10900</v>
       </c>
       <c r="J18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>325700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>85300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>75300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>168100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>88300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>197100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>85700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>136100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>51800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>113100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>76400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>212400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>102100</v>
-      </c>
       <c r="G20" s="3">
-        <v>22400</v>
+        <v>104000</v>
       </c>
       <c r="H20" s="3">
-        <v>12300</v>
+        <v>33100</v>
       </c>
       <c r="I20" s="3">
-        <v>8900</v>
+        <v>12500</v>
       </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>27200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>97300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-44800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>17700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-34600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-13100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-49100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46800</v>
+        <v>258100</v>
       </c>
       <c r="E21" s="3">
-        <v>35700</v>
+        <v>47700</v>
       </c>
       <c r="F21" s="3">
-        <v>372000</v>
+        <v>36400</v>
       </c>
       <c r="G21" s="3">
-        <v>145700</v>
+        <v>379000</v>
       </c>
       <c r="H21" s="3">
-        <v>96500</v>
+        <v>106300</v>
       </c>
       <c r="I21" s="3">
-        <v>99500</v>
+        <v>98300</v>
       </c>
       <c r="J21" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K21" s="3">
         <v>465200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>172900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>139900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>548700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>193800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>379700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>183500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>131700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>143200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>233300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>144100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>229800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>181400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>157700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>95400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>152300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>124500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>433400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67800</v>
+        <v>69300</v>
       </c>
       <c r="E22" s="3">
-        <v>67400</v>
+        <v>69100</v>
       </c>
       <c r="F22" s="3">
-        <v>253500</v>
+        <v>68700</v>
       </c>
       <c r="G22" s="3">
-        <v>85400</v>
+        <v>258300</v>
       </c>
       <c r="H22" s="3">
-        <v>63600</v>
+        <v>71600</v>
       </c>
       <c r="I22" s="3">
-        <v>56700</v>
+        <v>64800</v>
       </c>
       <c r="J22" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K22" s="3">
         <v>153000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>159800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>43300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>20100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>78900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>29700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>35100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>43200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>174900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78500</v>
+        <v>130200</v>
       </c>
       <c r="E23" s="3">
-        <v>-88200</v>
+        <v>-80000</v>
       </c>
       <c r="F23" s="3">
-        <v>-265400</v>
+        <v>-89900</v>
       </c>
       <c r="G23" s="3">
-        <v>-36100</v>
+        <v>-270400</v>
       </c>
       <c r="H23" s="3">
-        <v>-62000</v>
+        <v>-63500</v>
       </c>
       <c r="I23" s="3">
-        <v>-55700</v>
+        <v>-63100</v>
       </c>
       <c r="J23" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-115000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>370800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-50500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-68000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>122200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>39400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>132200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>24500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>83300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>64900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>31300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-11700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-13700</v>
+        <v>-36000</v>
       </c>
       <c r="E24" s="3">
-        <v>-24600</v>
+        <v>-14000</v>
       </c>
       <c r="F24" s="3">
-        <v>-91600</v>
+        <v>-25100</v>
       </c>
       <c r="G24" s="3">
-        <v>-5400</v>
+        <v>-93400</v>
       </c>
       <c r="H24" s="3">
-        <v>-19200</v>
+        <v>-16700</v>
       </c>
       <c r="I24" s="3">
-        <v>-25800</v>
+        <v>-19500</v>
       </c>
       <c r="J24" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-146300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-17500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>30000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-64800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-63600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-173800</v>
-      </c>
       <c r="G26" s="3">
-        <v>-30700</v>
+        <v>-177000</v>
       </c>
       <c r="H26" s="3">
-        <v>-42800</v>
+        <v>-46900</v>
       </c>
       <c r="I26" s="3">
-        <v>-29900</v>
+        <v>-43600</v>
       </c>
       <c r="J26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K26" s="3">
         <v>31300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>252800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>93700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>27900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>94600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>53300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>41300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>18900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-17600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79500</v>
+        <v>164300</v>
       </c>
       <c r="E27" s="3">
-        <v>-74300</v>
+        <v>-81000</v>
       </c>
       <c r="F27" s="3">
-        <v>-207700</v>
+        <v>-75700</v>
       </c>
       <c r="G27" s="3">
-        <v>-41200</v>
+        <v>-211600</v>
       </c>
       <c r="H27" s="3">
-        <v>-52700</v>
+        <v>-57600</v>
       </c>
       <c r="I27" s="3">
-        <v>-35100</v>
+        <v>-53700</v>
       </c>
       <c r="J27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>246200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-43900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-58900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>111500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>73100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>27200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>45600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>129700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,97 +2543,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-6300</v>
+        <v>-430600</v>
       </c>
       <c r="E29" s="3">
-        <v>24200</v>
+        <v>-6400</v>
       </c>
       <c r="F29" s="3">
-        <v>173000</v>
+        <v>24700</v>
       </c>
       <c r="G29" s="3">
-        <v>-18600</v>
+        <v>176200</v>
       </c>
       <c r="H29" s="3">
-        <v>17800</v>
+        <v>-3300</v>
       </c>
       <c r="I29" s="3">
-        <v>317500</v>
+        <v>18100</v>
       </c>
       <c r="J29" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K29" s="3">
         <v>162500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-10300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>52800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>87500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>49300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>18900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>204800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>57000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>10100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-36800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>36700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>40400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>45600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>23300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>32700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-249300</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-79400</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-102100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-22400</v>
+        <v>-104000</v>
       </c>
       <c r="H32" s="3">
-        <v>-12300</v>
+        <v>-33100</v>
       </c>
       <c r="I32" s="3">
-        <v>-8900</v>
+        <v>-12500</v>
       </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-97300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>28600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>44800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-17700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>34600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>9700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>13100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>49100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-85800</v>
+        <v>-266300</v>
       </c>
       <c r="E33" s="3">
-        <v>-50100</v>
+        <v>-87400</v>
       </c>
       <c r="F33" s="3">
-        <v>-34700</v>
+        <v>-51000</v>
       </c>
       <c r="G33" s="3">
-        <v>-59700</v>
+        <v>-35400</v>
       </c>
       <c r="H33" s="3">
-        <v>-34900</v>
+        <v>-60900</v>
       </c>
       <c r="I33" s="3">
-        <v>282400</v>
+        <v>-35600</v>
       </c>
       <c r="J33" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K33" s="3">
         <v>161900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>299000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>109800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>72800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>34100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>29800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-119600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-85800</v>
+        <v>-266300</v>
       </c>
       <c r="E35" s="3">
-        <v>-50100</v>
+        <v>-87400</v>
       </c>
       <c r="F35" s="3">
-        <v>-34700</v>
+        <v>-51000</v>
       </c>
       <c r="G35" s="3">
-        <v>-59700</v>
+        <v>-35400</v>
       </c>
       <c r="H35" s="3">
-        <v>-34900</v>
+        <v>-60900</v>
       </c>
       <c r="I35" s="3">
-        <v>282400</v>
+        <v>-35600</v>
       </c>
       <c r="J35" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K35" s="3">
         <v>161900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>299000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>109800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>72800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>34100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>29800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-119600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,120 +3354,124 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>649300</v>
+        <v>622900</v>
       </c>
       <c r="E41" s="3">
-        <v>709700</v>
+        <v>661500</v>
       </c>
       <c r="F41" s="3">
-        <v>757100</v>
+        <v>723000</v>
       </c>
       <c r="G41" s="3">
-        <v>779100</v>
+        <v>771300</v>
       </c>
       <c r="H41" s="3">
-        <v>790800</v>
+        <v>793700</v>
       </c>
       <c r="I41" s="3">
-        <v>728600</v>
+        <v>805700</v>
       </c>
       <c r="J41" s="3">
+        <v>742300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1670000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>911500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>953600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>728000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1629700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1506800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1524500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1098300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1469100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2374000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>833100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>441400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>779400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>485700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>713200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>397200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>972200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>324600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>606600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>417500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1268200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>839800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>146200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3446,631 +3536,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>345100</v>
+        <v>417200</v>
       </c>
       <c r="E43" s="3">
-        <v>333600</v>
+        <v>351600</v>
       </c>
       <c r="F43" s="3">
-        <v>365300</v>
+        <v>339900</v>
       </c>
       <c r="G43" s="3">
-        <v>826300</v>
+        <v>372200</v>
       </c>
       <c r="H43" s="3">
-        <v>1126900</v>
+        <v>841800</v>
       </c>
       <c r="I43" s="3">
-        <v>994100</v>
+        <v>1148000</v>
       </c>
       <c r="J43" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="K43" s="3">
         <v>582100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>532900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>506300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>459100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>380500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>558200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>564800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>497700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>517200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>305900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>226600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>321900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>243500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>289200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>253400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>409600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>379700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>394600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>268400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>368600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>333200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1417000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>396600</v>
+        <v>409600</v>
       </c>
       <c r="E44" s="3">
-        <v>419600</v>
+        <v>404100</v>
       </c>
       <c r="F44" s="3">
-        <v>413000</v>
+        <v>427500</v>
       </c>
       <c r="G44" s="3">
-        <v>1118000</v>
+        <v>420700</v>
       </c>
       <c r="H44" s="3">
-        <v>1079000</v>
+        <v>1139000</v>
       </c>
       <c r="I44" s="3">
-        <v>985400</v>
+        <v>1099300</v>
       </c>
       <c r="J44" s="3">
+        <v>1003900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1061100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1326200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1202800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1267500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1222800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1779900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1800700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1731800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1594100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1134100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1007900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1072600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1054200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1025100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1199400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1111100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1236300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1188100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1135000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1135700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1151300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1950900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4452400</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
-        <v>4185600</v>
+        <v>4536000</v>
       </c>
       <c r="F45" s="3">
-        <v>4229000</v>
+        <v>4264100</v>
       </c>
       <c r="G45" s="3">
-        <v>71000</v>
+        <v>4308400</v>
       </c>
       <c r="H45" s="3">
-        <v>110000</v>
+        <v>72400</v>
       </c>
       <c r="I45" s="3">
-        <v>124700</v>
+        <v>112100</v>
       </c>
       <c r="J45" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K45" s="3">
         <v>294100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>67400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>275600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>278800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>357000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>107700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>106000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5072700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5210400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4098000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5128800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5230400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5876500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5097100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4904000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5016900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>5099300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5843500</v>
+        <v>1631900</v>
       </c>
       <c r="E46" s="3">
-        <v>5648500</v>
+        <v>5953200</v>
       </c>
       <c r="F46" s="3">
-        <v>5764300</v>
+        <v>5754600</v>
       </c>
       <c r="G46" s="3">
-        <v>2794500</v>
+        <v>5872600</v>
       </c>
       <c r="H46" s="3">
-        <v>3106700</v>
+        <v>2846900</v>
       </c>
       <c r="I46" s="3">
-        <v>2832800</v>
+        <v>3165100</v>
       </c>
       <c r="J46" s="3">
+        <v>2886000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3607300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2871200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2766400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2554000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4120600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4168800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3684800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3688100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3920000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2125200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6908700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7287500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5898000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7294700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7148300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8464600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7004300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6914100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6938800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7852000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4941300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>936300</v>
+        <v>878200</v>
       </c>
       <c r="E47" s="3">
-        <v>931700</v>
+        <v>953900</v>
       </c>
       <c r="F47" s="3">
-        <v>942400</v>
+        <v>949200</v>
       </c>
       <c r="G47" s="3">
-        <v>912900</v>
+        <v>960100</v>
       </c>
       <c r="H47" s="3">
-        <v>1034400</v>
+        <v>930100</v>
       </c>
       <c r="I47" s="3">
-        <v>1099000</v>
+        <v>1053900</v>
       </c>
       <c r="J47" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="K47" s="3">
         <v>956700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>958300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>947400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>968600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>969100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>820800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>830400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>750500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>666400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>627500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>600600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>621300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>555500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>669100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>750500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>631000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>679400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>585100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>558900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>403600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>391200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>950400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1360600</v>
+        <v>1326300</v>
       </c>
       <c r="E48" s="3">
-        <v>1393700</v>
+        <v>1386200</v>
       </c>
       <c r="F48" s="3">
-        <v>1381400</v>
+        <v>1419900</v>
       </c>
       <c r="G48" s="3">
-        <v>3680400</v>
+        <v>1407300</v>
       </c>
       <c r="H48" s="3">
-        <v>3763300</v>
+        <v>3749500</v>
       </c>
       <c r="I48" s="3">
-        <v>3731400</v>
+        <v>3834000</v>
       </c>
       <c r="J48" s="3">
+        <v>3801500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3955700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4534300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4201800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4497500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4401700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5493200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5557500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4579600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5049900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2614500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2377200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2470300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2515800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1714100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2141600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2348200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2360700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2309500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2231500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2283600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2636600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>402500</v>
+        <v>397300</v>
       </c>
       <c r="E49" s="3">
-        <v>404300</v>
+        <v>410000</v>
       </c>
       <c r="F49" s="3">
-        <v>400900</v>
+        <v>411900</v>
       </c>
       <c r="G49" s="3">
-        <v>1059700</v>
+        <v>408400</v>
       </c>
       <c r="H49" s="3">
-        <v>1102500</v>
+        <v>1079600</v>
       </c>
       <c r="I49" s="3">
-        <v>1099000</v>
+        <v>1123200</v>
       </c>
       <c r="J49" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1161200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1211000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1108900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1174600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1153200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1603000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1621800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1373500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1151800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>545100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>509400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>536700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1322100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>358400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>449800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>448400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>986600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>489200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>483800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>470600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>473300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1498200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>418400</v>
+        <v>431000</v>
       </c>
       <c r="E52" s="3">
-        <v>392600</v>
+        <v>426300</v>
       </c>
       <c r="F52" s="3">
-        <v>359500</v>
+        <v>400000</v>
       </c>
       <c r="G52" s="3">
-        <v>310600</v>
+        <v>366200</v>
       </c>
       <c r="H52" s="3">
-        <v>289000</v>
+        <v>316500</v>
       </c>
       <c r="I52" s="3">
-        <v>271700</v>
+        <v>294500</v>
       </c>
       <c r="J52" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K52" s="3">
         <v>298700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>232400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>175800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>166300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>146500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>250300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>253200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>251500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>244200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>217800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>207200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>255200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>265300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>219100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>261300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>236300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>245600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>261300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>248200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>224000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>217300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>382000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8961300</v>
+        <v>4664700</v>
       </c>
       <c r="E54" s="3">
-        <v>8770800</v>
+        <v>9129600</v>
       </c>
       <c r="F54" s="3">
-        <v>8848500</v>
+        <v>8935400</v>
       </c>
       <c r="G54" s="3">
-        <v>8758000</v>
+        <v>9014600</v>
       </c>
       <c r="H54" s="3">
-        <v>9295900</v>
+        <v>8922500</v>
       </c>
       <c r="I54" s="3">
-        <v>9034000</v>
+        <v>9470500</v>
       </c>
       <c r="J54" s="3">
+        <v>9203600</v>
+      </c>
+      <c r="K54" s="3">
         <v>9979600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9807200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9200300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9360900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9971000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12287900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12431700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10640000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10800300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7924900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5819600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10792200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11058700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8858700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10857000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10605500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12231100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10700500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10514400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10268500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11217400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10408400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>505600</v>
+        <v>507100</v>
       </c>
       <c r="E57" s="3">
-        <v>494700</v>
+        <v>515100</v>
       </c>
       <c r="F57" s="3">
-        <v>630300</v>
+        <v>504000</v>
       </c>
       <c r="G57" s="3">
-        <v>1347700</v>
+        <v>642200</v>
       </c>
       <c r="H57" s="3">
-        <v>1433100</v>
+        <v>1373000</v>
       </c>
       <c r="I57" s="3">
-        <v>1309300</v>
+        <v>1460000</v>
       </c>
       <c r="J57" s="3">
+        <v>1333900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2034100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1527800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1493100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1452400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2137300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2378500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2406300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2149000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2749600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1281400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1208900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1212800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1649500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1191400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1487300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1286900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2083900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1408800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1326000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1300200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1794100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2113600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>422200</v>
+        <v>393600</v>
       </c>
       <c r="E58" s="3">
-        <v>327200</v>
+        <v>430200</v>
       </c>
       <c r="F58" s="3">
-        <v>300900</v>
+        <v>333300</v>
       </c>
       <c r="G58" s="3">
-        <v>616400</v>
+        <v>306600</v>
       </c>
       <c r="H58" s="3">
-        <v>745400</v>
+        <v>628000</v>
       </c>
       <c r="I58" s="3">
-        <v>540300</v>
+        <v>759400</v>
       </c>
       <c r="J58" s="3">
+        <v>550500</v>
+      </c>
+      <c r="K58" s="3">
         <v>477400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>664200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>690300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>733600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>609200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1026700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1038700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1158800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>817300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1180300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>651100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>528300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>803500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>343200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>425000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>324100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>320700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>363500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>381000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>553500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>733600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1734800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2733500</v>
+        <v>339700</v>
       </c>
       <c r="E59" s="3">
-        <v>2551900</v>
+        <v>2784800</v>
       </c>
       <c r="F59" s="3">
-        <v>2650800</v>
+        <v>2599800</v>
       </c>
       <c r="G59" s="3">
-        <v>652500</v>
+        <v>2700500</v>
       </c>
       <c r="H59" s="3">
-        <v>759700</v>
+        <v>664800</v>
       </c>
       <c r="I59" s="3">
-        <v>708100</v>
+        <v>774000</v>
       </c>
       <c r="J59" s="3">
+        <v>721400</v>
+      </c>
+      <c r="K59" s="3">
         <v>829000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>686200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>633000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>756400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>711500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>810300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>695000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>706100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>365000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>362800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4382600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4634800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3388600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4163000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4369600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5028400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4138200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3974700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4078400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4314900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3661400</v>
+        <v>1240400</v>
       </c>
       <c r="E60" s="3">
-        <v>3373800</v>
+        <v>3730100</v>
       </c>
       <c r="F60" s="3">
-        <v>3582100</v>
+        <v>3437100</v>
       </c>
       <c r="G60" s="3">
-        <v>2616700</v>
+        <v>3649300</v>
       </c>
       <c r="H60" s="3">
-        <v>2938200</v>
+        <v>2665800</v>
       </c>
       <c r="I60" s="3">
-        <v>2557700</v>
+        <v>2993400</v>
       </c>
       <c r="J60" s="3">
+        <v>2605700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3340500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2878200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2816300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2942400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3458000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4206100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4255300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4002800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4273000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2826600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2222800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6123600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6705500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4923300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6075300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5980700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7433000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5910600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5681600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5932100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6842500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5539100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1664800</v>
+        <v>1688200</v>
       </c>
       <c r="E61" s="3">
-        <v>1814700</v>
+        <v>1696000</v>
       </c>
       <c r="F61" s="3">
-        <v>1697300</v>
+        <v>1848800</v>
       </c>
       <c r="G61" s="3">
-        <v>2153800</v>
+        <v>1729100</v>
       </c>
       <c r="H61" s="3">
-        <v>2183300</v>
+        <v>2194300</v>
       </c>
       <c r="I61" s="3">
-        <v>2367000</v>
+        <v>2224300</v>
       </c>
       <c r="J61" s="3">
+        <v>2411400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2584600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2916900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2704200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2473000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2669600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4458300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4510500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3605000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3405100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2602100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1283800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1606100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1547100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>912200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>974000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>957900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>855500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>856300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>935500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>637300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>722400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>589400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>866100</v>
+        <v>704100</v>
       </c>
       <c r="E62" s="3">
-        <v>823700</v>
+        <v>882400</v>
       </c>
       <c r="F62" s="3">
-        <v>797300</v>
+        <v>839200</v>
       </c>
       <c r="G62" s="3">
-        <v>776300</v>
+        <v>812200</v>
       </c>
       <c r="H62" s="3">
-        <v>787000</v>
+        <v>790900</v>
       </c>
       <c r="I62" s="3">
-        <v>718100</v>
+        <v>801800</v>
       </c>
       <c r="J62" s="3">
+        <v>731600</v>
+      </c>
+      <c r="K62" s="3">
         <v>748400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>757500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>697600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>730600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>699000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>581000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>587800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>549100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>619900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>459000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>413500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>502400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>458500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>476800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>599200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>568200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>599200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>582200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>564300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>518500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>527400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1145100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6356300</v>
+        <v>3633100</v>
       </c>
       <c r="E66" s="3">
-        <v>6090300</v>
+        <v>6475700</v>
       </c>
       <c r="F66" s="3">
-        <v>6518200</v>
+        <v>6204700</v>
       </c>
       <c r="G66" s="3">
-        <v>6025300</v>
+        <v>6640600</v>
       </c>
       <c r="H66" s="3">
-        <v>6415900</v>
+        <v>6138500</v>
       </c>
       <c r="I66" s="3">
-        <v>6151100</v>
+        <v>6536400</v>
       </c>
       <c r="J66" s="3">
+        <v>6266600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7224700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7137600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6745500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6740100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7408800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9840300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9955500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8631400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8779700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5887800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3920000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8846900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9232900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6864100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8346500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8191400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9619100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8086000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7907800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7789200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8771400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7922900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>549600</v>
+        <v>295100</v>
       </c>
       <c r="E72" s="3">
-        <v>634400</v>
+        <v>559900</v>
       </c>
       <c r="F72" s="3">
-        <v>1209400</v>
+        <v>646300</v>
       </c>
       <c r="G72" s="3">
-        <v>1429800</v>
+        <v>1232100</v>
       </c>
       <c r="H72" s="3">
-        <v>1458100</v>
+        <v>1456700</v>
       </c>
       <c r="I72" s="3">
-        <v>1491800</v>
+        <v>1485500</v>
       </c>
       <c r="J72" s="3">
+        <v>1519800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1211600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1066400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1042700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1044700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1073000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>832500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>842200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>700300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>749300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>788400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>715000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>689900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>637200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>764700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>955800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>856600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>899600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>893200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>884000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>811200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>779000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>785900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2604900</v>
+        <v>1031600</v>
       </c>
       <c r="E76" s="3">
-        <v>2680400</v>
+        <v>2653900</v>
       </c>
       <c r="F76" s="3">
-        <v>2330200</v>
+        <v>2730800</v>
       </c>
       <c r="G76" s="3">
-        <v>2732700</v>
+        <v>2374000</v>
       </c>
       <c r="H76" s="3">
-        <v>2880100</v>
+        <v>2784000</v>
       </c>
       <c r="I76" s="3">
-        <v>2882900</v>
+        <v>2934100</v>
       </c>
       <c r="J76" s="3">
+        <v>2937000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2754900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2669600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2454800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2620800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2562200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2447600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2476300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2008500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2020600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2037100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1899600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1945200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1825700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1994600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2510600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2414100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2612000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2614600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2606600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2479300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2446100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2485500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-85800</v>
+        <v>-266300</v>
       </c>
       <c r="E81" s="3">
-        <v>-50100</v>
+        <v>-87400</v>
       </c>
       <c r="F81" s="3">
-        <v>-34700</v>
+        <v>-51000</v>
       </c>
       <c r="G81" s="3">
-        <v>-59700</v>
+        <v>-35400</v>
       </c>
       <c r="H81" s="3">
-        <v>-34900</v>
+        <v>-60900</v>
       </c>
       <c r="I81" s="3">
-        <v>282400</v>
+        <v>-35600</v>
       </c>
       <c r="J81" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K81" s="3">
         <v>161900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>299000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>109800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>72800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>34100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>29800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-119600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57500</v>
+        <v>58600</v>
       </c>
       <c r="E83" s="3">
-        <v>56500</v>
+        <v>58600</v>
       </c>
       <c r="F83" s="3">
-        <v>383900</v>
+        <v>57600</v>
       </c>
       <c r="G83" s="3">
-        <v>96500</v>
+        <v>391100</v>
       </c>
       <c r="H83" s="3">
-        <v>94900</v>
+        <v>98300</v>
       </c>
       <c r="I83" s="3">
-        <v>98500</v>
+        <v>96600</v>
       </c>
       <c r="J83" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K83" s="3">
         <v>427300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>107700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>102500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>125700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>129100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>123200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>107800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>287900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>65000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>68300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>61400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>77500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>78000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>56100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>50100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>270200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>66500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>190700</v>
+        <v>-23600</v>
       </c>
       <c r="E89" s="3">
-        <v>-288400</v>
+        <v>194300</v>
       </c>
       <c r="F89" s="3">
-        <v>-43600</v>
+        <v>-293800</v>
       </c>
       <c r="G89" s="3">
-        <v>-37700</v>
+        <v>-44400</v>
       </c>
       <c r="H89" s="3">
-        <v>159000</v>
+        <v>-38500</v>
       </c>
       <c r="I89" s="3">
-        <v>-771200</v>
+        <v>162000</v>
       </c>
       <c r="J89" s="3">
+        <v>-785700</v>
+      </c>
+      <c r="K89" s="3">
         <v>550600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>308600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-654400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1121000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>471200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-684600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>209600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>43100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>116900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-862300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1223600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-105100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>665300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1137900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1574200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-123800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>344600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1266700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-323500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>199500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-193000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-445000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-510000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-487000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-303000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-326000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-357000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-316000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-108500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-97500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-454700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-127700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-89400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-92600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-92900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-82900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-106100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-111500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-73600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-88600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-383000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-101700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>-217800</v>
       </c>
       <c r="E94" s="3">
-        <v>-86800</v>
+        <v>-2300</v>
       </c>
       <c r="F94" s="3">
-        <v>572000</v>
+        <v>-88400</v>
       </c>
       <c r="G94" s="3">
-        <v>278500</v>
+        <v>582800</v>
       </c>
       <c r="H94" s="3">
-        <v>30300</v>
+        <v>283800</v>
       </c>
       <c r="I94" s="3">
-        <v>119300</v>
+        <v>30800</v>
       </c>
       <c r="J94" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-49600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-711500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-120500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-603200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-127700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>311500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-115100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-88000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-104000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-96900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-99700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-125400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-135100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-56900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-87800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-501100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-119100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,83 +7887,84 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11300</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
-        <v>-5700</v>
+        <v>-11500</v>
       </c>
       <c r="F96" s="3">
-        <v>-53500</v>
+        <v>-5800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2800</v>
+        <v>-54500</v>
       </c>
       <c r="H96" s="3">
-        <v>-27900</v>
+        <v>-2900</v>
       </c>
       <c r="I96" s="3">
-        <v>-7100</v>
+        <v>-28400</v>
       </c>
       <c r="J96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-157400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-122000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-6900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-31600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-25900</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7738,13 +7972,16 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,162 +8253,168 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-151400</v>
+        <v>-134700</v>
       </c>
       <c r="E100" s="3">
-        <v>165900</v>
+        <v>-154200</v>
       </c>
       <c r="F100" s="3">
-        <v>-949300</v>
+        <v>169000</v>
       </c>
       <c r="G100" s="3">
-        <v>-226100</v>
+        <v>-967100</v>
       </c>
       <c r="H100" s="3">
-        <v>-123900</v>
+        <v>-230300</v>
       </c>
       <c r="I100" s="3">
-        <v>-252900</v>
+        <v>-126300</v>
       </c>
       <c r="J100" s="3">
+        <v>-257700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-553600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-182200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-172100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-131500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>455600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>349800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1576400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-237800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>149500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-162200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>105500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-81300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>170200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-77200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-55100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-365400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>365900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10500</v>
+        <v>5300</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>10700</v>
       </c>
       <c r="F101" s="3">
-        <v>-114600</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-26400</v>
+        <v>-116800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3200</v>
+        <v>-26900</v>
       </c>
       <c r="I101" s="3">
-        <v>-36500</v>
+        <v>-3300</v>
       </c>
       <c r="J101" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-69600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>58900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20500</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -8183,98 +8432,104 @@
         <v>0</v>
       </c>
       <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47600</v>
+        <v>-370800</v>
       </c>
       <c r="E102" s="3">
-        <v>-207100</v>
+        <v>48500</v>
       </c>
       <c r="F102" s="3">
-        <v>-535500</v>
+        <v>-211000</v>
       </c>
       <c r="G102" s="3">
-        <v>-11700</v>
+        <v>-545500</v>
       </c>
       <c r="H102" s="3">
-        <v>62200</v>
+        <v>-11900</v>
       </c>
       <c r="I102" s="3">
-        <v>-941400</v>
+        <v>63300</v>
       </c>
       <c r="J102" s="3">
+        <v>-959100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-88200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-901800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>267200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>312100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-321700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1491400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>185900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-828100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>896600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-174900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>395600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1178300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1421900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-336100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>232500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1719900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-464700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>81400</v>
       </c>
     </row>
